--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>415.5</v>
+        <v>422</v>
       </c>
       <c r="D2" t="n">
         <v>448</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,28 +473,1243 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>659.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>638</v>
+      </c>
+      <c r="E2" t="n">
+        <v>773</v>
+      </c>
+      <c r="F2" t="n">
+        <v>918</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>982.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1079</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1316</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1618</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33.9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28</v>
+      </c>
+      <c r="E4" t="n">
+        <v>35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>48</v>
+      </c>
+      <c r="G4" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3013.599999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3511</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3980</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4359</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4923</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>33</v>
+      </c>
+      <c r="E6" t="n">
+        <v>40</v>
+      </c>
+      <c r="F6" t="n">
+        <v>51</v>
+      </c>
+      <c r="G6" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>692.45</v>
+      </c>
+      <c r="D7" t="n">
+        <v>749</v>
+      </c>
+      <c r="E7" t="n">
+        <v>905</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1074</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>770.1999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1038</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1257</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1507</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>258.75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>210</v>
+      </c>
+      <c r="E9" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>337</v>
+      </c>
+      <c r="G9" t="n">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>542.0999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>583</v>
+      </c>
+      <c r="E10" t="n">
+        <v>702</v>
+      </c>
+      <c r="F10" t="n">
+        <v>827</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>658.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>540</v>
+      </c>
+      <c r="E11" t="n">
+        <v>654</v>
+      </c>
+      <c r="F11" t="n">
+        <v>786</v>
+      </c>
+      <c r="G11" t="n">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>103.75</v>
+      </c>
+      <c r="D12" t="n">
+        <v>108</v>
+      </c>
+      <c r="E12" t="n">
+        <v>130</v>
+      </c>
+      <c r="F12" t="n">
+        <v>172</v>
+      </c>
+      <c r="G12" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2739.65</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2292</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2773</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3314</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>61.55</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46</v>
+      </c>
+      <c r="E14" t="n">
+        <v>51</v>
+      </c>
+      <c r="F14" t="n">
+        <v>77</v>
+      </c>
+      <c r="G14" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>313.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>237</v>
+      </c>
+      <c r="E15" t="n">
+        <v>287</v>
+      </c>
+      <c r="F15" t="n">
+        <v>339</v>
+      </c>
+      <c r="G15" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>432.8</v>
+      </c>
+      <c r="D16" t="n">
+        <v>447</v>
+      </c>
+      <c r="E16" t="n">
+        <v>531</v>
+      </c>
+      <c r="F16" t="n">
+        <v>617</v>
+      </c>
+      <c r="G16" t="n">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>471.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>479</v>
+      </c>
+      <c r="E17" t="n">
+        <v>585</v>
+      </c>
+      <c r="F17" t="n">
+        <v>711</v>
+      </c>
+      <c r="G17" t="n">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>155.8</v>
+      </c>
+      <c r="D18" t="n">
+        <v>149</v>
+      </c>
+      <c r="E18" t="n">
+        <v>182</v>
+      </c>
+      <c r="F18" t="n">
+        <v>229</v>
+      </c>
+      <c r="G18" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>306.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>330</v>
+      </c>
+      <c r="E19" t="n">
+        <v>396</v>
+      </c>
+      <c r="F19" t="n">
+        <v>463</v>
+      </c>
+      <c r="G19" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>672.4000000000001</v>
+      </c>
+      <c r="D20" t="n">
+        <v>659</v>
+      </c>
+      <c r="E20" t="n">
+        <v>804</v>
+      </c>
+      <c r="F20" t="n">
+        <v>977</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>75</v>
+      </c>
+      <c r="D21" t="n">
+        <v>66</v>
+      </c>
+      <c r="E21" t="n">
+        <v>77</v>
+      </c>
+      <c r="F21" t="n">
+        <v>108</v>
+      </c>
+      <c r="G21" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>63.15000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>57</v>
+      </c>
+      <c r="E22" t="n">
+        <v>70</v>
+      </c>
+      <c r="F22" t="n">
+        <v>94</v>
+      </c>
+      <c r="G22" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>B0BZQ1TNW8</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Prophet</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>422</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>415.5</v>
+      </c>
+      <c r="D23" t="n">
         <v>448</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E23" t="n">
         <v>543</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F23" t="n">
         <v>648</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G23" t="n">
         <v>815</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>11</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>54.95</v>
+      </c>
+      <c r="D25" t="n">
+        <v>48</v>
+      </c>
+      <c r="E25" t="n">
+        <v>58</v>
+      </c>
+      <c r="F25" t="n">
+        <v>79</v>
+      </c>
+      <c r="G25" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D26" t="n">
+        <v>135</v>
+      </c>
+      <c r="E26" t="n">
+        <v>163</v>
+      </c>
+      <c r="F26" t="n">
+        <v>194</v>
+      </c>
+      <c r="G26" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>168.7</v>
+      </c>
+      <c r="D27" t="n">
+        <v>177</v>
+      </c>
+      <c r="E27" t="n">
+        <v>212</v>
+      </c>
+      <c r="F27" t="n">
+        <v>246</v>
+      </c>
+      <c r="G27" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>242.4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>219</v>
+      </c>
+      <c r="E28" t="n">
+        <v>266</v>
+      </c>
+      <c r="F28" t="n">
+        <v>324</v>
+      </c>
+      <c r="G28" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>161.15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>130</v>
+      </c>
+      <c r="E29" t="n">
+        <v>161</v>
+      </c>
+      <c r="F29" t="n">
+        <v>203</v>
+      </c>
+      <c r="G29" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>134.55</v>
+      </c>
+      <c r="D30" t="n">
+        <v>150</v>
+      </c>
+      <c r="E30" t="n">
+        <v>184</v>
+      </c>
+      <c r="F30" t="n">
+        <v>229</v>
+      </c>
+      <c r="G30" t="n">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>307.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>319</v>
+      </c>
+      <c r="E31" t="n">
+        <v>384</v>
+      </c>
+      <c r="F31" t="n">
+        <v>451</v>
+      </c>
+      <c r="G31" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>218</v>
+      </c>
+      <c r="E32" t="n">
+        <v>263</v>
+      </c>
+      <c r="F32" t="n">
+        <v>313</v>
+      </c>
+      <c r="G32" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>122.85</v>
+      </c>
+      <c r="D33" t="n">
+        <v>117</v>
+      </c>
+      <c r="E33" t="n">
+        <v>142</v>
+      </c>
+      <c r="F33" t="n">
+        <v>176</v>
+      </c>
+      <c r="G33" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1465.55</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1694</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2013</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2324</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>395.0999999999999</v>
+      </c>
+      <c r="D35" t="n">
+        <v>351</v>
+      </c>
+      <c r="E35" t="n">
+        <v>428</v>
+      </c>
+      <c r="F35" t="n">
+        <v>518</v>
+      </c>
+      <c r="G35" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>61</v>
+      </c>
+      <c r="D36" t="n">
+        <v>54</v>
+      </c>
+      <c r="E36" t="n">
+        <v>66</v>
+      </c>
+      <c r="F36" t="n">
+        <v>80</v>
+      </c>
+      <c r="G36" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2204.2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2413</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2927</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3532</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>111.1</v>
+      </c>
+      <c r="D38" t="n">
+        <v>147</v>
+      </c>
+      <c r="E38" t="n">
+        <v>180</v>
+      </c>
+      <c r="F38" t="n">
+        <v>234</v>
+      </c>
+      <c r="G38" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>298.45</v>
+      </c>
+      <c r="D39" t="n">
+        <v>333</v>
+      </c>
+      <c r="E39" t="n">
+        <v>405</v>
+      </c>
+      <c r="F39" t="n">
+        <v>490</v>
+      </c>
+      <c r="G39" t="n">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>184.9</v>
+      </c>
+      <c r="D40" t="n">
+        <v>192</v>
+      </c>
+      <c r="E40" t="n">
+        <v>236</v>
+      </c>
+      <c r="F40" t="n">
+        <v>302</v>
+      </c>
+      <c r="G40" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>296.35</v>
+      </c>
+      <c r="D41" t="n">
+        <v>348</v>
+      </c>
+      <c r="E41" t="n">
+        <v>424</v>
+      </c>
+      <c r="F41" t="n">
+        <v>542</v>
+      </c>
+      <c r="G41" t="n">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>474.9</v>
+      </c>
+      <c r="D42" t="n">
+        <v>561</v>
+      </c>
+      <c r="E42" t="n">
+        <v>682</v>
+      </c>
+      <c r="F42" t="n">
+        <v>849</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>200.95</v>
+      </c>
+      <c r="D43" t="n">
+        <v>202</v>
+      </c>
+      <c r="E43" t="n">
+        <v>243</v>
+      </c>
+      <c r="F43" t="n">
+        <v>292</v>
+      </c>
+      <c r="G43" t="n">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="D44" t="n">
+        <v>109</v>
+      </c>
+      <c r="E44" t="n">
+        <v>132</v>
+      </c>
+      <c r="F44" t="n">
+        <v>155</v>
+      </c>
+      <c r="G44" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>107.45</v>
+      </c>
+      <c r="D45" t="n">
+        <v>123</v>
+      </c>
+      <c r="E45" t="n">
+        <v>152</v>
+      </c>
+      <c r="F45" t="n">
+        <v>195</v>
+      </c>
+      <c r="G45" t="n">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>293.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>312</v>
+      </c>
+      <c r="E46" t="n">
+        <v>382</v>
+      </c>
+      <c r="F46" t="n">
+        <v>483</v>
+      </c>
+      <c r="G46" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Unified</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>253.748</v>
+      </c>
+      <c r="D47" t="n">
+        <v>270.5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>225</v>
+      </c>
+      <c r="F47" t="n">
+        <v>286</v>
+      </c>
+      <c r="G47" t="n">
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,55 +473,3241 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>657.3</v>
+        <v>20.95</v>
       </c>
       <c r="D2" t="n">
-        <v>648</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>737</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
-        <v>811</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>919</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>784.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1508</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25.226</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>229.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>361</v>
+      </c>
+      <c r="F7" t="n">
+        <v>450</v>
+      </c>
+      <c r="G7" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>597.5999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>571</v>
+      </c>
+      <c r="E8" t="n">
+        <v>674</v>
+      </c>
+      <c r="F8" t="n">
+        <v>774</v>
+      </c>
+      <c r="G8" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B07FWY246F</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B450 AORUS M</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>4.364</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>411.3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>541</v>
+      </c>
+      <c r="E12" t="n">
+        <v>658</v>
+      </c>
+      <c r="F12" t="n">
+        <v>794</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2641.1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2460</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2697</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2871</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>191.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>160</v>
+      </c>
+      <c r="E15" t="n">
+        <v>192</v>
+      </c>
+      <c r="F15" t="n">
+        <v>224</v>
+      </c>
+      <c r="G15" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>13</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>29</v>
+      </c>
+      <c r="F18" t="n">
+        <v>39</v>
+      </c>
+      <c r="G18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>257.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>221</v>
+      </c>
+      <c r="E19" t="n">
+        <v>265</v>
+      </c>
+      <c r="F19" t="n">
+        <v>309</v>
+      </c>
+      <c r="G19" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>656.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>648</v>
+      </c>
+      <c r="E20" t="n">
+        <v>737</v>
+      </c>
+      <c r="F20" t="n">
+        <v>811</v>
+      </c>
+      <c r="G20" t="n">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="D21" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" t="n">
+        <v>34</v>
+      </c>
+      <c r="F21" t="n">
+        <v>53</v>
+      </c>
+      <c r="G21" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>712.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>706</v>
+      </c>
+      <c r="E22" t="n">
+        <v>863</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>828.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1208</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1647</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>B08F7HPJ4F</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C26" t="n">
         <v>252</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D26" t="n">
         <v>223</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E26" t="n">
         <v>269</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F26" t="n">
         <v>316</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G26" t="n">
         <v>391</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>160.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>95</v>
+      </c>
+      <c r="E27" t="n">
+        <v>106</v>
+      </c>
+      <c r="F27" t="n">
+        <v>159</v>
+      </c>
+      <c r="G27" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>104</v>
+      </c>
+      <c r="E28" t="n">
+        <v>127</v>
+      </c>
+      <c r="F28" t="n">
+        <v>161</v>
+      </c>
+      <c r="G28" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>11</v>
+      </c>
+      <c r="D29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24</v>
+      </c>
+      <c r="G29" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>518.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>644</v>
+      </c>
+      <c r="E30" t="n">
+        <v>753</v>
+      </c>
+      <c r="F30" t="n">
+        <v>850</v>
+      </c>
+      <c r="G30" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>741.1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>754</v>
+      </c>
+      <c r="E31" t="n">
+        <v>892</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>79.30000000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>56</v>
+      </c>
+      <c r="E32" t="n">
+        <v>69</v>
+      </c>
+      <c r="F32" t="n">
+        <v>91</v>
+      </c>
+      <c r="G32" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3.249999999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>16</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>23</v>
+      </c>
+      <c r="G35" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>50.89999999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>41</v>
+      </c>
+      <c r="E36" t="n">
+        <v>52</v>
+      </c>
+      <c r="F36" t="n">
+        <v>64</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2612.3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2695</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3209</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3722</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23</v>
+      </c>
+      <c r="E39" t="n">
+        <v>19</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>99.84999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>73</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89</v>
+      </c>
+      <c r="F41" t="n">
+        <v>109</v>
+      </c>
+      <c r="G41" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>98.99999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94</v>
+      </c>
+      <c r="E42" t="n">
+        <v>112</v>
+      </c>
+      <c r="F42" t="n">
+        <v>130</v>
+      </c>
+      <c r="G42" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32</v>
+      </c>
+      <c r="E43" t="n">
+        <v>36</v>
+      </c>
+      <c r="F43" t="n">
+        <v>55</v>
+      </c>
+      <c r="G43" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>394.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>354</v>
+      </c>
+      <c r="E44" t="n">
+        <v>417</v>
+      </c>
+      <c r="F44" t="n">
+        <v>478</v>
+      </c>
+      <c r="G44" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>9.999999999999998</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>16</v>
+      </c>
+      <c r="G45" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B08JHDL4WP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE V2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>227.2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>232</v>
+      </c>
+      <c r="E47" t="n">
+        <v>284</v>
+      </c>
+      <c r="F47" t="n">
+        <v>347</v>
+      </c>
+      <c r="G47" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>673.4999999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>673</v>
+      </c>
+      <c r="E48" t="n">
+        <v>801</v>
+      </c>
+      <c r="F48" t="n">
+        <v>930</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>232.55</v>
+      </c>
+      <c r="D49" t="n">
+        <v>185</v>
+      </c>
+      <c r="E49" t="n">
+        <v>222</v>
+      </c>
+      <c r="F49" t="n">
+        <v>260</v>
+      </c>
+      <c r="G49" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>265</v>
+      </c>
+      <c r="E51" t="n">
+        <v>316</v>
+      </c>
+      <c r="F51" t="n">
+        <v>369</v>
+      </c>
+      <c r="G51" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>189.45</v>
+      </c>
+      <c r="D52" t="n">
+        <v>154</v>
+      </c>
+      <c r="E52" t="n">
+        <v>188</v>
+      </c>
+      <c r="F52" t="n">
+        <v>229</v>
+      </c>
+      <c r="G52" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>16</v>
+      </c>
+      <c r="G53" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>25</v>
+      </c>
+      <c r="F54" t="n">
+        <v>33</v>
+      </c>
+      <c r="G54" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>620</v>
+      </c>
+      <c r="E56" t="n">
+        <v>742</v>
+      </c>
+      <c r="F56" t="n">
+        <v>864</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>88</v>
+      </c>
+      <c r="D57" t="n">
+        <v>83</v>
+      </c>
+      <c r="E57" t="n">
+        <v>100</v>
+      </c>
+      <c r="F57" t="n">
+        <v>126</v>
+      </c>
+      <c r="G57" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>69</v>
+      </c>
+      <c r="E58" t="n">
+        <v>84</v>
+      </c>
+      <c r="F58" t="n">
+        <v>104</v>
+      </c>
+      <c r="G58" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>184</v>
+      </c>
+      <c r="E59" t="n">
+        <v>223</v>
+      </c>
+      <c r="F59" t="n">
+        <v>265</v>
+      </c>
+      <c r="G59" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>276</v>
+      </c>
+      <c r="E60" t="n">
+        <v>338</v>
+      </c>
+      <c r="F60" t="n">
+        <v>434</v>
+      </c>
+      <c r="G60" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12</v>
+      </c>
+      <c r="G61" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>113</v>
+      </c>
+      <c r="E62" t="n">
+        <v>136</v>
+      </c>
+      <c r="F62" t="n">
+        <v>163</v>
+      </c>
+      <c r="G62" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>116.75</v>
+      </c>
+      <c r="D63" t="n">
+        <v>48</v>
+      </c>
+      <c r="E63" t="n">
+        <v>47</v>
+      </c>
+      <c r="F63" t="n">
+        <v>80</v>
+      </c>
+      <c r="G63" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>105.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>88</v>
+      </c>
+      <c r="E64" t="n">
+        <v>105</v>
+      </c>
+      <c r="F64" t="n">
+        <v>124</v>
+      </c>
+      <c r="G64" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>132</v>
+      </c>
+      <c r="E65" t="n">
+        <v>157</v>
+      </c>
+      <c r="F65" t="n">
+        <v>182</v>
+      </c>
+      <c r="G65" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>16</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12</v>
+      </c>
+      <c r="F66" t="n">
+        <v>22</v>
+      </c>
+      <c r="G66" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>328.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>281</v>
+      </c>
+      <c r="E67" t="n">
+        <v>334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>388</v>
+      </c>
+      <c r="G67" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="D68" t="n">
+        <v>139</v>
+      </c>
+      <c r="E68" t="n">
+        <v>169</v>
+      </c>
+      <c r="F68" t="n">
+        <v>200</v>
+      </c>
+      <c r="G68" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>148</v>
+      </c>
+      <c r="D69" t="n">
+        <v>125</v>
+      </c>
+      <c r="E69" t="n">
+        <v>152</v>
+      </c>
+      <c r="F69" t="n">
+        <v>179</v>
+      </c>
+      <c r="G69" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>253.4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>216</v>
+      </c>
+      <c r="E70" t="n">
+        <v>264</v>
+      </c>
+      <c r="F70" t="n">
+        <v>318</v>
+      </c>
+      <c r="G70" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>302.5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>242</v>
+      </c>
+      <c r="E71" t="n">
+        <v>285</v>
+      </c>
+      <c r="F71" t="n">
+        <v>328</v>
+      </c>
+      <c r="G71" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>190.65</v>
+      </c>
+      <c r="D72" t="n">
+        <v>168</v>
+      </c>
+      <c r="E72" t="n">
+        <v>200</v>
+      </c>
+      <c r="F72" t="n">
+        <v>277</v>
+      </c>
+      <c r="G72" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>169.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>177</v>
+      </c>
+      <c r="E73" t="n">
+        <v>209</v>
+      </c>
+      <c r="F73" t="n">
+        <v>241</v>
+      </c>
+      <c r="G73" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>117</v>
+      </c>
+      <c r="E74" t="n">
+        <v>140</v>
+      </c>
+      <c r="F74" t="n">
+        <v>165</v>
+      </c>
+      <c r="G74" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1028.6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1220</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1363</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>8.899999999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12</v>
+      </c>
+      <c r="F77" t="n">
+        <v>16</v>
+      </c>
+      <c r="G77" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>410.7</v>
+      </c>
+      <c r="D78" t="n">
+        <v>358</v>
+      </c>
+      <c r="E78" t="n">
+        <v>426</v>
+      </c>
+      <c r="F78" t="n">
+        <v>493</v>
+      </c>
+      <c r="G78" t="n">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>70</v>
+      </c>
+      <c r="E79" t="n">
+        <v>84</v>
+      </c>
+      <c r="F79" t="n">
+        <v>99</v>
+      </c>
+      <c r="G79" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>89.10000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>81</v>
+      </c>
+      <c r="E80" t="n">
+        <v>97</v>
+      </c>
+      <c r="F80" t="n">
+        <v>115</v>
+      </c>
+      <c r="G80" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>221</v>
+      </c>
+      <c r="D81" t="n">
+        <v>257</v>
+      </c>
+      <c r="E81" t="n">
+        <v>312</v>
+      </c>
+      <c r="F81" t="n">
+        <v>376</v>
+      </c>
+      <c r="G81" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2735.400000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3404</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4070</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4751</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="D83" t="n">
+        <v>87</v>
+      </c>
+      <c r="E83" t="n">
+        <v>107</v>
+      </c>
+      <c r="F83" t="n">
+        <v>142</v>
+      </c>
+      <c r="G83" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>24</v>
+      </c>
+      <c r="E84" t="n">
+        <v>28</v>
+      </c>
+      <c r="F84" t="n">
+        <v>36</v>
+      </c>
+      <c r="G84" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>9.647</v>
+      </c>
+      <c r="D85" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E85" t="n">
+        <v>29</v>
+      </c>
+      <c r="F85" t="n">
+        <v>36</v>
+      </c>
+      <c r="G85" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>183.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>163</v>
+      </c>
+      <c r="E86" t="n">
+        <v>196</v>
+      </c>
+      <c r="F86" t="n">
+        <v>229</v>
+      </c>
+      <c r="G86" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>272</v>
+      </c>
+      <c r="E87" t="n">
+        <v>319</v>
+      </c>
+      <c r="F87" t="n">
+        <v>363</v>
+      </c>
+      <c r="G87" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>165</v>
+      </c>
+      <c r="D89" t="n">
+        <v>145</v>
+      </c>
+      <c r="E89" t="n">
+        <v>178</v>
+      </c>
+      <c r="F89" t="n">
+        <v>233</v>
+      </c>
+      <c r="G89" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>427.9999999999999</v>
+      </c>
+      <c r="D90" t="n">
+        <v>564</v>
+      </c>
+      <c r="E90" t="n">
+        <v>676</v>
+      </c>
+      <c r="F90" t="n">
+        <v>795</v>
+      </c>
+      <c r="G90" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D91" t="n">
+        <v>16</v>
+      </c>
+      <c r="E91" t="n">
+        <v>20</v>
+      </c>
+      <c r="F91" t="n">
+        <v>25</v>
+      </c>
+      <c r="G91" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>20</v>
+      </c>
+      <c r="D92" t="n">
+        <v>16</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20</v>
+      </c>
+      <c r="F92" t="n">
+        <v>25</v>
+      </c>
+      <c r="G92" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>579.4999999999999</v>
+      </c>
+      <c r="D93" t="n">
+        <v>558</v>
+      </c>
+      <c r="E93" t="n">
+        <v>661</v>
+      </c>
+      <c r="F93" t="n">
+        <v>760</v>
+      </c>
+      <c r="G93" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>143</v>
+      </c>
+      <c r="E94" t="n">
+        <v>170</v>
+      </c>
+      <c r="F94" t="n">
+        <v>195</v>
+      </c>
+      <c r="G94" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>64.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>79</v>
+      </c>
+      <c r="E95" t="n">
+        <v>94</v>
+      </c>
+      <c r="F95" t="n">
+        <v>107</v>
+      </c>
+      <c r="G95" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>727.9379999999999</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2088.5</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1884</v>
+      </c>
+      <c r="F96" t="n">
+        <v>2199</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>381.315</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1441.75</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1337</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1510</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>490.8960000000001</v>
+      </c>
+      <c r="D98" t="n">
+        <v>865</v>
+      </c>
+      <c r="E98" t="n">
+        <v>784</v>
+      </c>
+      <c r="F98" t="n">
+        <v>910</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>345.567</v>
+      </c>
+      <c r="D99" t="n">
+        <v>453.75</v>
+      </c>
+      <c r="E99" t="n">
+        <v>409</v>
+      </c>
+      <c r="F99" t="n">
+        <v>478</v>
+      </c>
+      <c r="G99" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>237.405</v>
+      </c>
+      <c r="D100" t="n">
+        <v>409.25</v>
+      </c>
+      <c r="E100" t="n">
+        <v>369</v>
+      </c>
+      <c r="F100" t="n">
+        <v>431</v>
+      </c>
+      <c r="G100" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>232.799</v>
+      </c>
+      <c r="D101" t="n">
+        <v>674.75</v>
+      </c>
+      <c r="E101" t="n">
+        <v>627</v>
+      </c>
+      <c r="F101" t="n">
+        <v>706</v>
+      </c>
+      <c r="G101" t="n">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>199.954</v>
+      </c>
+      <c r="D102" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>389</v>
+      </c>
+      <c r="F102" t="n">
+        <v>444</v>
+      </c>
+      <c r="G102" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>181.952</v>
+      </c>
+      <c r="D103" t="n">
+        <v>353</v>
+      </c>
+      <c r="E103" t="n">
+        <v>328</v>
+      </c>
+      <c r="F103" t="n">
+        <v>369</v>
+      </c>
+      <c r="G103" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>577.922</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>984</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1097</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="D105" t="n">
+        <v>157</v>
+      </c>
+      <c r="E105" t="n">
+        <v>189</v>
+      </c>
+      <c r="F105" t="n">
+        <v>224</v>
+      </c>
+      <c r="G105" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="D106" t="n">
+        <v>16</v>
+      </c>
+      <c r="E106" t="n">
+        <v>20</v>
+      </c>
+      <c r="F106" t="n">
+        <v>25</v>
+      </c>
+      <c r="G106" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>337.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>295</v>
+      </c>
+      <c r="E107" t="n">
+        <v>357</v>
+      </c>
+      <c r="F107" t="n">
+        <v>424</v>
+      </c>
+      <c r="G107" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>159.25</v>
+      </c>
+      <c r="D108" t="n">
+        <v>163</v>
+      </c>
+      <c r="E108" t="n">
+        <v>194</v>
+      </c>
+      <c r="F108" t="n">
+        <v>266</v>
+      </c>
+      <c r="G108" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>424.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>638</v>
+      </c>
+      <c r="E109" t="n">
+        <v>767</v>
+      </c>
+      <c r="F109" t="n">
+        <v>906</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>213</v>
+      </c>
+      <c r="D110" t="n">
+        <v>209</v>
+      </c>
+      <c r="E110" t="n">
+        <v>244</v>
+      </c>
+      <c r="F110" t="n">
+        <v>277</v>
+      </c>
+      <c r="G110" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>22.667</v>
+      </c>
+      <c r="D111" t="n">
+        <v>73.75</v>
+      </c>
+      <c r="E111" t="n">
+        <v>64</v>
+      </c>
+      <c r="F111" t="n">
+        <v>78</v>
+      </c>
+      <c r="G111" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>105.007</v>
+      </c>
+      <c r="D112" t="n">
+        <v>260.75</v>
+      </c>
+      <c r="E112" t="n">
+        <v>234</v>
+      </c>
+      <c r="F112" t="n">
+        <v>274</v>
+      </c>
+      <c r="G112" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>37.82899999999999</v>
+      </c>
+      <c r="D113" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="E113" t="n">
+        <v>114</v>
+      </c>
+      <c r="F113" t="n">
+        <v>139</v>
+      </c>
+      <c r="G113" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>13.313</v>
+      </c>
+      <c r="D114" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="E114" t="n">
+        <v>39</v>
+      </c>
+      <c r="F114" t="n">
+        <v>52</v>
+      </c>
+      <c r="G114" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>21.582</v>
+      </c>
+      <c r="D115" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>51</v>
+      </c>
+      <c r="F115" t="n">
+        <v>62</v>
+      </c>
+      <c r="G115" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>22.365</v>
+      </c>
+      <c r="D116" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="E116" t="n">
+        <v>56</v>
+      </c>
+      <c r="F116" t="n">
+        <v>70</v>
+      </c>
+      <c r="G116" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>21.102</v>
+      </c>
+      <c r="D117" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>92</v>
+      </c>
+      <c r="F117" t="n">
+        <v>115</v>
+      </c>
+      <c r="G117" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>7.083</v>
+      </c>
+      <c r="D118" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="E118" t="n">
+        <v>35</v>
+      </c>
+      <c r="F118" t="n">
+        <v>46</v>
+      </c>
+      <c r="G118" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>31.649</v>
+      </c>
+      <c r="D119" t="n">
+        <v>114.25</v>
+      </c>
+      <c r="E119" t="n">
+        <v>100</v>
+      </c>
+      <c r="F119" t="n">
+        <v>121</v>
+      </c>
+      <c r="G119" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>37.63500000000001</v>
+      </c>
+      <c r="D120" t="n">
+        <v>105.75</v>
+      </c>
+      <c r="E120" t="n">
+        <v>92</v>
+      </c>
+      <c r="F120" t="n">
+        <v>112</v>
+      </c>
+      <c r="G120" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>39.039</v>
+      </c>
+      <c r="D121" t="n">
+        <v>117.75</v>
+      </c>
+      <c r="E121" t="n">
+        <v>102</v>
+      </c>
+      <c r="F121" t="n">
+        <v>125</v>
+      </c>
+      <c r="G121" t="n">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>784.5</v>
+        <v>784</v>
       </c>
       <c r="D3" t="n">
         <v>1055</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>597.5999999999999</v>
+        <v>597.0999999999999</v>
       </c>
       <c r="D8" t="n">
         <v>571</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>411.3</v>
+        <v>408.8</v>
       </c>
       <c r="D12" t="n">
         <v>541</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2641.1</v>
+        <v>2631.6</v>
       </c>
       <c r="D14" t="n">
         <v>2460</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>191.7</v>
+        <v>198.6</v>
       </c>
       <c r="D15" t="n">
         <v>160</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30.1</v>
+        <v>29.85</v>
       </c>
       <c r="D18" t="n">
         <v>25</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>656.8</v>
+        <v>652.3</v>
       </c>
       <c r="D20" t="n">
         <v>648</v>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>828.9</v>
+        <v>829.9</v>
       </c>
       <c r="D24" t="n">
         <v>1208</v>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>160.9</v>
+        <v>160.4</v>
       </c>
       <c r="D27" t="n">
         <v>95</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>11</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="D29" t="n">
         <v>16</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>518.5</v>
+        <v>517.5</v>
       </c>
       <c r="D30" t="n">
         <v>644</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>741.1</v>
+        <v>743.1</v>
       </c>
       <c r="D31" t="n">
         <v>754</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2612.3</v>
+        <v>2631.3</v>
       </c>
       <c r="D37" t="n">
         <v>2695</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>99.84999999999999</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="D41" t="n">
         <v>73</v>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9.999999999999998</v>
+        <v>9.499999999999998</v>
       </c>
       <c r="D45" t="n">
         <v>8</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>673.4999999999999</v>
+        <v>675.4999999999999</v>
       </c>
       <c r="D48" t="n">
         <v>673</v>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>268.5</v>
+        <v>261</v>
       </c>
       <c r="D51" t="n">
         <v>265</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>180.8</v>
+        <v>181.3</v>
       </c>
       <c r="D59" t="n">
         <v>184</v>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>280.9</v>
+        <v>276.9</v>
       </c>
       <c r="D60" t="n">
         <v>276</v>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>116.75</v>
+        <v>117.25</v>
       </c>
       <c r="D63" t="n">
         <v>48</v>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>328.8</v>
+        <v>325.8</v>
       </c>
       <c r="D67" t="n">
         <v>281</v>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>162.8</v>
+        <v>161.8</v>
       </c>
       <c r="D68" t="n">
         <v>139</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>302.5</v>
+        <v>297.5</v>
       </c>
       <c r="D71" t="n">
         <v>242</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>169.8</v>
+        <v>168.8</v>
       </c>
       <c r="D73" t="n">
         <v>177</v>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>73.2</v>
+        <v>72.2</v>
       </c>
       <c r="D79" t="n">
         <v>70</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>89.10000000000001</v>
+        <v>88.10000000000001</v>
       </c>
       <c r="D80" t="n">
         <v>81</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>221</v>
+        <v>217.5</v>
       </c>
       <c r="D81" t="n">
         <v>257</v>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2735.400000000001</v>
+        <v>2735.900000000001</v>
       </c>
       <c r="D82" t="n">
         <v>3404</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>101.3</v>
+        <v>98.29999999999998</v>
       </c>
       <c r="D83" t="n">
         <v>87</v>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>183.7</v>
+        <v>183.2</v>
       </c>
       <c r="D86" t="n">
         <v>163</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>427.9999999999999</v>
+        <v>427.4999999999999</v>
       </c>
       <c r="D90" t="n">
         <v>564</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>139.1</v>
+        <v>138.6</v>
       </c>
       <c r="D105" t="n">
         <v>157</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D3" t="n">
         <v>1055</v>
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>229.5</v>
+        <v>229</v>
       </c>
       <c r="D7" t="n">
         <v>294</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>408.8</v>
+        <v>417.3</v>
       </c>
       <c r="D12" t="n">
         <v>541</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2631.6</v>
+        <v>2641.6</v>
       </c>
       <c r="D14" t="n">
         <v>2460</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>198.6</v>
+        <v>192.7</v>
       </c>
       <c r="D15" t="n">
         <v>160</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>652.3</v>
+        <v>657.8</v>
       </c>
       <c r="D20" t="n">
         <v>648</v>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>829.9</v>
+        <v>824.9</v>
       </c>
       <c r="D24" t="n">
         <v>1208</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>743.1</v>
+        <v>742.1</v>
       </c>
       <c r="D31" t="n">
         <v>754</v>
@@ -1373,7 +1373,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12.9</v>
+        <v>11.4</v>
       </c>
       <c r="D35" t="n">
         <v>16</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2631.3</v>
+        <v>2649.3</v>
       </c>
       <c r="D37" t="n">
         <v>2695</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="D38" t="n">
         <v>8</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>394.3</v>
+        <v>393.8</v>
       </c>
       <c r="D44" t="n">
         <v>354</v>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9.499999999999998</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="D45" t="n">
         <v>8</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>675.4999999999999</v>
+        <v>676.4999999999999</v>
       </c>
       <c r="D48" t="n">
         <v>673</v>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>261</v>
+        <v>264.5</v>
       </c>
       <c r="D51" t="n">
         <v>265</v>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>16.75</v>
+        <v>16.65</v>
       </c>
       <c r="D53" t="n">
         <v>9</v>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" t="n">
         <v>83</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>181.3</v>
+        <v>180.8</v>
       </c>
       <c r="D59" t="n">
         <v>184</v>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>276.9</v>
+        <v>272.9</v>
       </c>
       <c r="D60" t="n">
         <v>276</v>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>24.1</v>
+        <v>24.6</v>
       </c>
       <c r="D66" t="n">
         <v>16</v>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>325.8</v>
+        <v>325.3</v>
       </c>
       <c r="D67" t="n">
         <v>281</v>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>161.8</v>
+        <v>163.3</v>
       </c>
       <c r="D68" t="n">
         <v>139</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>253.4</v>
+        <v>249.9</v>
       </c>
       <c r="D70" t="n">
         <v>216</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>297.5</v>
+        <v>297</v>
       </c>
       <c r="D71" t="n">
         <v>242</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>168.8</v>
+        <v>169.3</v>
       </c>
       <c r="D73" t="n">
         <v>177</v>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>72.2</v>
+        <v>71.2</v>
       </c>
       <c r="D79" t="n">
         <v>70</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>88.10000000000001</v>
+        <v>89.10000000000001</v>
       </c>
       <c r="D80" t="n">
         <v>81</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>217.5</v>
+        <v>222</v>
       </c>
       <c r="D81" t="n">
         <v>257</v>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2735.900000000001</v>
+        <v>2737.400000000001</v>
       </c>
       <c r="D82" t="n">
         <v>3404</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>98.29999999999998</v>
+        <v>96.79999999999998</v>
       </c>
       <c r="D83" t="n">
         <v>87</v>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="D84" t="n">
         <v>24</v>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>183.2</v>
+        <v>182.7</v>
       </c>
       <c r="D86" t="n">
         <v>163</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>235.5</v>
+        <v>236</v>
       </c>
       <c r="D87" t="n">
         <v>272</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>427.4999999999999</v>
+        <v>427.9999999999999</v>
       </c>
       <c r="D90" t="n">
         <v>564</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>138.6</v>
+        <v>139.1</v>
       </c>
       <c r="D105" t="n">
         <v>157</v>
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>424.3</v>
+        <v>424.8</v>
       </c>
       <c r="D109" t="n">
         <v>638</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,28 +473,3241 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20.95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E2" t="n">
+        <v>23</v>
+      </c>
+      <c r="F2" t="n">
+        <v>37</v>
+      </c>
+      <c r="G2" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>784</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1055</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1272</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1508</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>31</v>
+      </c>
+      <c r="F5" t="n">
+        <v>41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>235</v>
+      </c>
+      <c r="D7" t="n">
+        <v>294</v>
+      </c>
+      <c r="E7" t="n">
+        <v>361</v>
+      </c>
+      <c r="F7" t="n">
+        <v>450</v>
+      </c>
+      <c r="G7" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>597.0999999999999</v>
+      </c>
+      <c r="D8" t="n">
+        <v>571</v>
+      </c>
+      <c r="E8" t="n">
+        <v>674</v>
+      </c>
+      <c r="F8" t="n">
+        <v>774</v>
+      </c>
+      <c r="G8" t="n">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>43</v>
+      </c>
+      <c r="G9" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B07FWY246F</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>B450 AORUS M</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6.961999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2.525</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>410.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>541</v>
+      </c>
+      <c r="E12" t="n">
+        <v>658</v>
+      </c>
+      <c r="F12" t="n">
+        <v>794</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+      <c r="D13" t="n">
+        <v>13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2640.6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2460</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2697</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2871</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>192.7</v>
+      </c>
+      <c r="D15" t="n">
+        <v>160</v>
+      </c>
+      <c r="E15" t="n">
+        <v>192</v>
+      </c>
+      <c r="F15" t="n">
+        <v>224</v>
+      </c>
+      <c r="G15" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>16</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G16" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>29.85</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25</v>
+      </c>
+      <c r="E18" t="n">
+        <v>29</v>
+      </c>
+      <c r="F18" t="n">
+        <v>39</v>
+      </c>
+      <c r="G18" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>257.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>221</v>
+      </c>
+      <c r="E19" t="n">
+        <v>265</v>
+      </c>
+      <c r="F19" t="n">
+        <v>309</v>
+      </c>
+      <c r="G19" t="n">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>651.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>648</v>
+      </c>
+      <c r="E20" t="n">
+        <v>737</v>
+      </c>
+      <c r="F20" t="n">
+        <v>811</v>
+      </c>
+      <c r="G20" t="n">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>25.55</v>
+      </c>
+      <c r="D21" t="n">
+        <v>30</v>
+      </c>
+      <c r="E21" t="n">
+        <v>34</v>
+      </c>
+      <c r="F21" t="n">
+        <v>53</v>
+      </c>
+      <c r="G21" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>712.2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>706</v>
+      </c>
+      <c r="E22" t="n">
+        <v>863</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12</v>
+      </c>
+      <c r="G23" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>827.9</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1208</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1432</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1647</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D25" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>12</v>
+      </c>
+      <c r="G25" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>252</v>
+      </c>
+      <c r="D26" t="n">
+        <v>223</v>
+      </c>
+      <c r="E26" t="n">
+        <v>269</v>
+      </c>
+      <c r="F26" t="n">
+        <v>316</v>
+      </c>
+      <c r="G26" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>158.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>95</v>
+      </c>
+      <c r="E27" t="n">
+        <v>106</v>
+      </c>
+      <c r="F27" t="n">
+        <v>159</v>
+      </c>
+      <c r="G27" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>108.7</v>
+      </c>
+      <c r="D28" t="n">
+        <v>104</v>
+      </c>
+      <c r="E28" t="n">
+        <v>127</v>
+      </c>
+      <c r="F28" t="n">
+        <v>161</v>
+      </c>
+      <c r="G28" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9.600000000000001</v>
+      </c>
+      <c r="D29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E29" t="n">
+        <v>11</v>
+      </c>
+      <c r="F29" t="n">
+        <v>24</v>
+      </c>
+      <c r="G29" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>517.5</v>
+      </c>
+      <c r="D30" t="n">
+        <v>644</v>
+      </c>
+      <c r="E30" t="n">
+        <v>753</v>
+      </c>
+      <c r="F30" t="n">
+        <v>850</v>
+      </c>
+      <c r="G30" t="n">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>742.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>754</v>
+      </c>
+      <c r="E31" t="n">
+        <v>892</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1026</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>79.30000000000001</v>
+      </c>
+      <c r="D32" t="n">
+        <v>56</v>
+      </c>
+      <c r="E32" t="n">
+        <v>69</v>
+      </c>
+      <c r="F32" t="n">
+        <v>91</v>
+      </c>
+      <c r="G32" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3.249999999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8</v>
+      </c>
+      <c r="G33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>4</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>16</v>
+      </c>
+      <c r="E35" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" t="n">
+        <v>23</v>
+      </c>
+      <c r="G35" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>50.89999999999999</v>
+      </c>
+      <c r="D36" t="n">
+        <v>41</v>
+      </c>
+      <c r="E36" t="n">
+        <v>52</v>
+      </c>
+      <c r="F36" t="n">
+        <v>64</v>
+      </c>
+      <c r="G36" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2631.8</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2695</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3209</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3722</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12</v>
+      </c>
+      <c r="G38" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>23</v>
+      </c>
+      <c r="E39" t="n">
+        <v>19</v>
+      </c>
+      <c r="F39" t="n">
+        <v>37</v>
+      </c>
+      <c r="G39" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>98.84999999999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>73</v>
+      </c>
+      <c r="E41" t="n">
+        <v>89</v>
+      </c>
+      <c r="F41" t="n">
+        <v>109</v>
+      </c>
+      <c r="G41" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>98.99999999999999</v>
+      </c>
+      <c r="D42" t="n">
+        <v>94</v>
+      </c>
+      <c r="E42" t="n">
+        <v>112</v>
+      </c>
+      <c r="F42" t="n">
+        <v>130</v>
+      </c>
+      <c r="G42" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="D43" t="n">
+        <v>32</v>
+      </c>
+      <c r="E43" t="n">
+        <v>36</v>
+      </c>
+      <c r="F43" t="n">
+        <v>55</v>
+      </c>
+      <c r="G43" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>399.3</v>
+      </c>
+      <c r="D44" t="n">
+        <v>354</v>
+      </c>
+      <c r="E44" t="n">
+        <v>417</v>
+      </c>
+      <c r="F44" t="n">
+        <v>478</v>
+      </c>
+      <c r="G44" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>9.999999999999998</v>
+      </c>
+      <c r="D45" t="n">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>16</v>
+      </c>
+      <c r="G45" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B08JHDL4WP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE V2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4</v>
+      </c>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
+      <c r="F46" t="n">
+        <v>4</v>
+      </c>
+      <c r="G46" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>227.2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>232</v>
+      </c>
+      <c r="E47" t="n">
+        <v>284</v>
+      </c>
+      <c r="F47" t="n">
+        <v>347</v>
+      </c>
+      <c r="G47" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>673.9999999999999</v>
+      </c>
+      <c r="D48" t="n">
+        <v>673</v>
+      </c>
+      <c r="E48" t="n">
+        <v>801</v>
+      </c>
+      <c r="F48" t="n">
+        <v>930</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>232.55</v>
+      </c>
+      <c r="D49" t="n">
+        <v>185</v>
+      </c>
+      <c r="E49" t="n">
+        <v>222</v>
+      </c>
+      <c r="F49" t="n">
+        <v>260</v>
+      </c>
+      <c r="G49" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D50" t="n">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>264.5</v>
+      </c>
+      <c r="D51" t="n">
+        <v>265</v>
+      </c>
+      <c r="E51" t="n">
+        <v>316</v>
+      </c>
+      <c r="F51" t="n">
+        <v>369</v>
+      </c>
+      <c r="G51" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>189.45</v>
+      </c>
+      <c r="D52" t="n">
+        <v>154</v>
+      </c>
+      <c r="E52" t="n">
+        <v>188</v>
+      </c>
+      <c r="F52" t="n">
+        <v>229</v>
+      </c>
+      <c r="G52" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>16</v>
+      </c>
+      <c r="G53" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>26.35</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20</v>
+      </c>
+      <c r="E54" t="n">
+        <v>25</v>
+      </c>
+      <c r="F54" t="n">
+        <v>33</v>
+      </c>
+      <c r="G54" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>6</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>619.5</v>
+      </c>
+      <c r="D56" t="n">
+        <v>620</v>
+      </c>
+      <c r="E56" t="n">
+        <v>742</v>
+      </c>
+      <c r="F56" t="n">
+        <v>864</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>88</v>
+      </c>
+      <c r="D57" t="n">
+        <v>83</v>
+      </c>
+      <c r="E57" t="n">
+        <v>100</v>
+      </c>
+      <c r="F57" t="n">
+        <v>126</v>
+      </c>
+      <c r="G57" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>69</v>
+      </c>
+      <c r="E58" t="n">
+        <v>84</v>
+      </c>
+      <c r="F58" t="n">
+        <v>104</v>
+      </c>
+      <c r="G58" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>180.8</v>
+      </c>
+      <c r="D59" t="n">
+        <v>184</v>
+      </c>
+      <c r="E59" t="n">
+        <v>223</v>
+      </c>
+      <c r="F59" t="n">
+        <v>265</v>
+      </c>
+      <c r="G59" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>276</v>
+      </c>
+      <c r="E60" t="n">
+        <v>338</v>
+      </c>
+      <c r="F60" t="n">
+        <v>434</v>
+      </c>
+      <c r="G60" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>8</v>
+      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="n">
+        <v>8</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12</v>
+      </c>
+      <c r="G61" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>113</v>
+      </c>
+      <c r="E62" t="n">
+        <v>136</v>
+      </c>
+      <c r="F62" t="n">
+        <v>163</v>
+      </c>
+      <c r="G62" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>117.25</v>
+      </c>
+      <c r="D63" t="n">
+        <v>48</v>
+      </c>
+      <c r="E63" t="n">
+        <v>47</v>
+      </c>
+      <c r="F63" t="n">
+        <v>80</v>
+      </c>
+      <c r="G63" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>104.1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>88</v>
+      </c>
+      <c r="E64" t="n">
+        <v>105</v>
+      </c>
+      <c r="F64" t="n">
+        <v>124</v>
+      </c>
+      <c r="G64" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>146.4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>132</v>
+      </c>
+      <c r="E65" t="n">
+        <v>157</v>
+      </c>
+      <c r="F65" t="n">
+        <v>182</v>
+      </c>
+      <c r="G65" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>16</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12</v>
+      </c>
+      <c r="F66" t="n">
+        <v>22</v>
+      </c>
+      <c r="G66" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>322.3</v>
+      </c>
+      <c r="D67" t="n">
+        <v>281</v>
+      </c>
+      <c r="E67" t="n">
+        <v>334</v>
+      </c>
+      <c r="F67" t="n">
+        <v>388</v>
+      </c>
+      <c r="G67" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>163.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>139</v>
+      </c>
+      <c r="E68" t="n">
+        <v>169</v>
+      </c>
+      <c r="F68" t="n">
+        <v>200</v>
+      </c>
+      <c r="G68" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>148</v>
+      </c>
+      <c r="D69" t="n">
+        <v>125</v>
+      </c>
+      <c r="E69" t="n">
+        <v>152</v>
+      </c>
+      <c r="F69" t="n">
+        <v>179</v>
+      </c>
+      <c r="G69" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>249.9</v>
+      </c>
+      <c r="D70" t="n">
+        <v>216</v>
+      </c>
+      <c r="E70" t="n">
+        <v>264</v>
+      </c>
+      <c r="F70" t="n">
+        <v>318</v>
+      </c>
+      <c r="G70" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>298</v>
+      </c>
+      <c r="D71" t="n">
+        <v>242</v>
+      </c>
+      <c r="E71" t="n">
+        <v>285</v>
+      </c>
+      <c r="F71" t="n">
+        <v>328</v>
+      </c>
+      <c r="G71" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>190.65</v>
+      </c>
+      <c r="D72" t="n">
+        <v>168</v>
+      </c>
+      <c r="E72" t="n">
+        <v>200</v>
+      </c>
+      <c r="F72" t="n">
+        <v>277</v>
+      </c>
+      <c r="G72" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>168.8</v>
+      </c>
+      <c r="D73" t="n">
+        <v>177</v>
+      </c>
+      <c r="E73" t="n">
+        <v>209</v>
+      </c>
+      <c r="F73" t="n">
+        <v>241</v>
+      </c>
+      <c r="G73" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>117</v>
+      </c>
+      <c r="E74" t="n">
+        <v>140</v>
+      </c>
+      <c r="F74" t="n">
+        <v>165</v>
+      </c>
+      <c r="G74" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>1028.6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1056</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1220</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1363</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>8.899999999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>8</v>
+      </c>
+      <c r="E77" t="n">
+        <v>12</v>
+      </c>
+      <c r="F77" t="n">
+        <v>16</v>
+      </c>
+      <c r="G77" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>410.7</v>
+      </c>
+      <c r="D78" t="n">
+        <v>358</v>
+      </c>
+      <c r="E78" t="n">
+        <v>426</v>
+      </c>
+      <c r="F78" t="n">
+        <v>493</v>
+      </c>
+      <c r="G78" t="n">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>73.2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>70</v>
+      </c>
+      <c r="E79" t="n">
+        <v>84</v>
+      </c>
+      <c r="F79" t="n">
+        <v>99</v>
+      </c>
+      <c r="G79" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>89.10000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>81</v>
+      </c>
+      <c r="E80" t="n">
+        <v>97</v>
+      </c>
+      <c r="F80" t="n">
+        <v>115</v>
+      </c>
+      <c r="G80" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>218.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>257</v>
+      </c>
+      <c r="E81" t="n">
+        <v>312</v>
+      </c>
+      <c r="F81" t="n">
+        <v>376</v>
+      </c>
+      <c r="G81" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2734.400000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3404</v>
+      </c>
+      <c r="E82" t="n">
+        <v>4070</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4751</v>
+      </c>
+      <c r="G82" t="n">
+        <v>5811</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>98.29999999999998</v>
+      </c>
+      <c r="D83" t="n">
+        <v>87</v>
+      </c>
+      <c r="E83" t="n">
+        <v>107</v>
+      </c>
+      <c r="F83" t="n">
+        <v>142</v>
+      </c>
+      <c r="G83" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>24</v>
+      </c>
+      <c r="E84" t="n">
+        <v>28</v>
+      </c>
+      <c r="F84" t="n">
+        <v>36</v>
+      </c>
+      <c r="G84" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>33.725</v>
+      </c>
+      <c r="D85" t="n">
+        <v>34.75</v>
+      </c>
+      <c r="E85" t="n">
+        <v>29</v>
+      </c>
+      <c r="F85" t="n">
+        <v>36</v>
+      </c>
+      <c r="G85" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>182.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>163</v>
+      </c>
+      <c r="E86" t="n">
+        <v>196</v>
+      </c>
+      <c r="F86" t="n">
+        <v>229</v>
+      </c>
+      <c r="G86" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>236</v>
+      </c>
+      <c r="D87" t="n">
+        <v>272</v>
+      </c>
+      <c r="E87" t="n">
+        <v>319</v>
+      </c>
+      <c r="F87" t="n">
+        <v>363</v>
+      </c>
+      <c r="G87" t="n">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>8</v>
+      </c>
+      <c r="F88" t="n">
+        <v>10</v>
+      </c>
+      <c r="G88" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>165</v>
+      </c>
+      <c r="D89" t="n">
+        <v>145</v>
+      </c>
+      <c r="E89" t="n">
+        <v>178</v>
+      </c>
+      <c r="F89" t="n">
+        <v>233</v>
+      </c>
+      <c r="G89" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>427.4999999999999</v>
+      </c>
+      <c r="D90" t="n">
+        <v>564</v>
+      </c>
+      <c r="E90" t="n">
+        <v>676</v>
+      </c>
+      <c r="F90" t="n">
+        <v>795</v>
+      </c>
+      <c r="G90" t="n">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D91" t="n">
+        <v>16</v>
+      </c>
+      <c r="E91" t="n">
+        <v>20</v>
+      </c>
+      <c r="F91" t="n">
+        <v>25</v>
+      </c>
+      <c r="G91" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>20</v>
+      </c>
+      <c r="D92" t="n">
+        <v>16</v>
+      </c>
+      <c r="E92" t="n">
+        <v>20</v>
+      </c>
+      <c r="F92" t="n">
+        <v>25</v>
+      </c>
+      <c r="G92" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>579.4999999999999</v>
+      </c>
+      <c r="D93" t="n">
+        <v>558</v>
+      </c>
+      <c r="E93" t="n">
+        <v>661</v>
+      </c>
+      <c r="F93" t="n">
+        <v>760</v>
+      </c>
+      <c r="G93" t="n">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>171.1</v>
+      </c>
+      <c r="D94" t="n">
+        <v>143</v>
+      </c>
+      <c r="E94" t="n">
+        <v>170</v>
+      </c>
+      <c r="F94" t="n">
+        <v>195</v>
+      </c>
+      <c r="G94" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>65.3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>79</v>
+      </c>
+      <c r="E95" t="n">
+        <v>94</v>
+      </c>
+      <c r="F95" t="n">
+        <v>107</v>
+      </c>
+      <c r="G95" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>B0DGVC3DDW</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>666.1785</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C96" t="n">
+        <v>2058.65</v>
+      </c>
+      <c r="D96" t="n">
         <v>2088.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E96" t="n">
         <v>1884</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F96" t="n">
         <v>2199</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G96" t="n">
         <v>2692</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1427.625</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1441.75</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1337</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1510</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>853.3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>865</v>
+      </c>
+      <c r="E98" t="n">
+        <v>784</v>
+      </c>
+      <c r="F98" t="n">
+        <v>910</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>417.99125</v>
+      </c>
+      <c r="D99" t="n">
+        <v>453.75</v>
+      </c>
+      <c r="E99" t="n">
+        <v>409</v>
+      </c>
+      <c r="F99" t="n">
+        <v>478</v>
+      </c>
+      <c r="G99" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>364.91175</v>
+      </c>
+      <c r="D100" t="n">
+        <v>409.25</v>
+      </c>
+      <c r="E100" t="n">
+        <v>369</v>
+      </c>
+      <c r="F100" t="n">
+        <v>431</v>
+      </c>
+      <c r="G100" t="n">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>668.325</v>
+      </c>
+      <c r="D101" t="n">
+        <v>674.75</v>
+      </c>
+      <c r="E101" t="n">
+        <v>627</v>
+      </c>
+      <c r="F101" t="n">
+        <v>706</v>
+      </c>
+      <c r="G101" t="n">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>393.1034999999999</v>
+      </c>
+      <c r="D102" t="n">
+        <v>422.5</v>
+      </c>
+      <c r="E102" t="n">
+        <v>389</v>
+      </c>
+      <c r="F102" t="n">
+        <v>444</v>
+      </c>
+      <c r="G102" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>357.678</v>
+      </c>
+      <c r="D103" t="n">
+        <v>353</v>
+      </c>
+      <c r="E103" t="n">
+        <v>328</v>
+      </c>
+      <c r="F103" t="n">
+        <v>369</v>
+      </c>
+      <c r="G103" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>943.0169999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1050.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>984</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1097</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>138.6</v>
+      </c>
+      <c r="D105" t="n">
+        <v>157</v>
+      </c>
+      <c r="E105" t="n">
+        <v>189</v>
+      </c>
+      <c r="F105" t="n">
+        <v>224</v>
+      </c>
+      <c r="G105" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>16.85</v>
+      </c>
+      <c r="D106" t="n">
+        <v>16</v>
+      </c>
+      <c r="E106" t="n">
+        <v>20</v>
+      </c>
+      <c r="F106" t="n">
+        <v>25</v>
+      </c>
+      <c r="G106" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>337.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>295</v>
+      </c>
+      <c r="E107" t="n">
+        <v>357</v>
+      </c>
+      <c r="F107" t="n">
+        <v>424</v>
+      </c>
+      <c r="G107" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>159.25</v>
+      </c>
+      <c r="D108" t="n">
+        <v>163</v>
+      </c>
+      <c r="E108" t="n">
+        <v>194</v>
+      </c>
+      <c r="F108" t="n">
+        <v>266</v>
+      </c>
+      <c r="G108" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>423.8</v>
+      </c>
+      <c r="D109" t="n">
+        <v>638</v>
+      </c>
+      <c r="E109" t="n">
+        <v>767</v>
+      </c>
+      <c r="F109" t="n">
+        <v>906</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>213</v>
+      </c>
+      <c r="D110" t="n">
+        <v>209</v>
+      </c>
+      <c r="E110" t="n">
+        <v>244</v>
+      </c>
+      <c r="F110" t="n">
+        <v>277</v>
+      </c>
+      <c r="G110" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>72.22500000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>73.75</v>
+      </c>
+      <c r="E111" t="n">
+        <v>64</v>
+      </c>
+      <c r="F111" t="n">
+        <v>78</v>
+      </c>
+      <c r="G111" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>256.725</v>
+      </c>
+      <c r="D112" t="n">
+        <v>260.75</v>
+      </c>
+      <c r="E112" t="n">
+        <v>234</v>
+      </c>
+      <c r="F112" t="n">
+        <v>274</v>
+      </c>
+      <c r="G112" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>128.575</v>
+      </c>
+      <c r="D113" t="n">
+        <v>131.25</v>
+      </c>
+      <c r="E113" t="n">
+        <v>114</v>
+      </c>
+      <c r="F113" t="n">
+        <v>139</v>
+      </c>
+      <c r="G113" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>46.77500000000001</v>
+      </c>
+      <c r="D114" t="n">
+        <v>48.25</v>
+      </c>
+      <c r="E114" t="n">
+        <v>39</v>
+      </c>
+      <c r="F114" t="n">
+        <v>52</v>
+      </c>
+      <c r="G114" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>57.34999999999999</v>
+      </c>
+      <c r="D115" t="n">
+        <v>58.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>51</v>
+      </c>
+      <c r="F115" t="n">
+        <v>62</v>
+      </c>
+      <c r="G115" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>63.875</v>
+      </c>
+      <c r="D116" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="E116" t="n">
+        <v>56</v>
+      </c>
+      <c r="F116" t="n">
+        <v>70</v>
+      </c>
+      <c r="G116" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>105.85</v>
+      </c>
+      <c r="D117" t="n">
+        <v>108.5</v>
+      </c>
+      <c r="E117" t="n">
+        <v>92</v>
+      </c>
+      <c r="F117" t="n">
+        <v>115</v>
+      </c>
+      <c r="G117" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>41.525</v>
+      </c>
+      <c r="D118" t="n">
+        <v>42.75</v>
+      </c>
+      <c r="E118" t="n">
+        <v>35</v>
+      </c>
+      <c r="F118" t="n">
+        <v>46</v>
+      </c>
+      <c r="G118" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>112.075</v>
+      </c>
+      <c r="D119" t="n">
+        <v>114.25</v>
+      </c>
+      <c r="E119" t="n">
+        <v>100</v>
+      </c>
+      <c r="F119" t="n">
+        <v>121</v>
+      </c>
+      <c r="G119" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>103.625</v>
+      </c>
+      <c r="D120" t="n">
+        <v>105.75</v>
+      </c>
+      <c r="E120" t="n">
+        <v>92</v>
+      </c>
+      <c r="F120" t="n">
+        <v>112</v>
+      </c>
+      <c r="G120" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>115.325</v>
+      </c>
+      <c r="D121" t="n">
+        <v>117.75</v>
+      </c>
+      <c r="E121" t="n">
+        <v>102</v>
+      </c>
+      <c r="F121" t="n">
+        <v>125</v>
+      </c>
+      <c r="G121" t="n">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,160 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASIN</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Product Title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>My 4 Weeks Forecast</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AMZ Forecast Mean</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AMZ Forecast P70</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>AMZ Forecast P80</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AMZ Forecast P90</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>22</v>
+      </c>
+      <c r="F2" t="n">
+        <v>31</v>
+      </c>
+      <c r="G2" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="D3" t="n">
+        <v>48</v>
+      </c>
+      <c r="E3" t="n">
+        <v>60</v>
+      </c>
+      <c r="F3" t="n">
+        <v>79</v>
+      </c>
+      <c r="G3" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>93.53999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>171</v>
+      </c>
+      <c r="E4" t="n">
+        <v>206</v>
+      </c>
+      <c r="F4" t="n">
+        <v>277</v>
+      </c>
+      <c r="G4" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1140.2888776</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1694</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2304</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2769</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.9</v>
+        <v>16.06</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" t="n">
         <v>45</v>
@@ -500,82 +500,3241 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48.08</v>
+        <v>651.6</v>
       </c>
       <c r="D3" t="n">
-        <v>48</v>
+        <v>575</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>693</v>
       </c>
       <c r="F3" t="n">
-        <v>79</v>
+        <v>822</v>
       </c>
       <c r="G3" t="n">
-        <v>109</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B083NMK4BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>93.53999999999999</v>
+        <v>4.829599</v>
       </c>
       <c r="D4" t="n">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>206</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>277</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>396</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>23</v>
+      </c>
+      <c r="G5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>310.8</v>
+      </c>
+      <c r="D8" t="n">
+        <v>310</v>
+      </c>
+      <c r="E8" t="n">
+        <v>375</v>
+      </c>
+      <c r="F8" t="n">
+        <v>447</v>
+      </c>
+      <c r="G8" t="n">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>420</v>
+      </c>
+      <c r="D9" t="n">
+        <v>374</v>
+      </c>
+      <c r="E9" t="n">
+        <v>442</v>
+      </c>
+      <c r="F9" t="n">
+        <v>509</v>
+      </c>
+      <c r="G9" t="n">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>26</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>31</v>
+      </c>
+      <c r="G10" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>604.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>651</v>
+      </c>
+      <c r="E11" t="n">
+        <v>785</v>
+      </c>
+      <c r="F11" t="n">
+        <v>935</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>18</v>
+      </c>
+      <c r="G12" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>18</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2321.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2394</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2609</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2763</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>164</v>
+      </c>
+      <c r="D15" t="n">
+        <v>143</v>
+      </c>
+      <c r="E15" t="n">
+        <v>174</v>
+      </c>
+      <c r="F15" t="n">
+        <v>201</v>
+      </c>
+      <c r="G15" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>22</v>
+      </c>
+      <c r="F16" t="n">
+        <v>31</v>
+      </c>
+      <c r="G16" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="D18" t="n">
+        <v>19</v>
+      </c>
+      <c r="E18" t="n">
+        <v>24</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>237.1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>191</v>
+      </c>
+      <c r="E19" t="n">
+        <v>229</v>
+      </c>
+      <c r="F19" t="n">
+        <v>265</v>
+      </c>
+      <c r="G19" t="n">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>474.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>407</v>
+      </c>
+      <c r="E21" t="n">
+        <v>470</v>
+      </c>
+      <c r="F21" t="n">
+        <v>524</v>
+      </c>
+      <c r="G21" t="n">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="D22" t="n">
+        <v>28</v>
+      </c>
+      <c r="E22" t="n">
+        <v>31</v>
+      </c>
+      <c r="F22" t="n">
+        <v>47</v>
+      </c>
+      <c r="G22" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>489.1</v>
+      </c>
+      <c r="D23" t="n">
+        <v>626</v>
+      </c>
+      <c r="E23" t="n">
+        <v>756</v>
+      </c>
+      <c r="F23" t="n">
+        <v>901</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>4</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8</v>
+      </c>
+      <c r="G24" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>712.4</v>
+      </c>
+      <c r="D25" t="n">
+        <v>934</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1094</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1241</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>8</v>
+      </c>
+      <c r="F26" t="n">
+        <v>12</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>541.9</v>
+      </c>
+      <c r="D27" t="n">
+        <v>521</v>
+      </c>
+      <c r="E27" t="n">
+        <v>629</v>
+      </c>
+      <c r="F27" t="n">
+        <v>742</v>
+      </c>
+      <c r="G27" t="n">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>120.54</v>
+      </c>
+      <c r="D28" t="n">
+        <v>163</v>
+      </c>
+      <c r="E28" t="n">
+        <v>197</v>
+      </c>
+      <c r="F28" t="n">
+        <v>235</v>
+      </c>
+      <c r="G28" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="D29" t="n">
+        <v>70</v>
+      </c>
+      <c r="E29" t="n">
+        <v>86</v>
+      </c>
+      <c r="F29" t="n">
+        <v>112</v>
+      </c>
+      <c r="G29" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>8</v>
+      </c>
+      <c r="F30" t="n">
+        <v>16</v>
+      </c>
+      <c r="G30" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>633</v>
+      </c>
+      <c r="D31" t="n">
+        <v>581</v>
+      </c>
+      <c r="E31" t="n">
+        <v>678</v>
+      </c>
+      <c r="F31" t="n">
+        <v>766</v>
+      </c>
+      <c r="G31" t="n">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>507.9</v>
+      </c>
+      <c r="D32" t="n">
+        <v>474</v>
+      </c>
+      <c r="E32" t="n">
+        <v>559</v>
+      </c>
+      <c r="F32" t="n">
+        <v>639</v>
+      </c>
+      <c r="G32" t="n">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="D33" t="n">
+        <v>48</v>
+      </c>
+      <c r="E33" t="n">
+        <v>60</v>
+      </c>
+      <c r="F33" t="n">
+        <v>79</v>
+      </c>
+      <c r="G33" t="n">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>7.800000000000001</v>
+      </c>
+      <c r="D36" t="n">
+        <v>16</v>
+      </c>
+      <c r="E36" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" t="n">
+        <v>25</v>
+      </c>
+      <c r="G36" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>54</v>
+      </c>
+      <c r="E37" t="n">
+        <v>66</v>
+      </c>
+      <c r="F37" t="n">
+        <v>79</v>
+      </c>
+      <c r="G37" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2195.9</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2293</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2587</v>
+      </c>
+      <c r="G38" t="n">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4</v>
+      </c>
+      <c r="E39" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>21</v>
+      </c>
+      <c r="E40" t="n">
+        <v>13</v>
+      </c>
+      <c r="F40" t="n">
+        <v>30</v>
+      </c>
+      <c r="G40" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>67.2</v>
+      </c>
+      <c r="D42" t="n">
+        <v>59</v>
+      </c>
+      <c r="E42" t="n">
+        <v>74</v>
+      </c>
+      <c r="F42" t="n">
+        <v>91</v>
+      </c>
+      <c r="G42" t="n">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>51</v>
+      </c>
+      <c r="E43" t="n">
+        <v>62</v>
+      </c>
+      <c r="F43" t="n">
+        <v>77</v>
+      </c>
+      <c r="G43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>35.08</v>
+      </c>
+      <c r="D44" t="n">
+        <v>32</v>
+      </c>
+      <c r="E44" t="n">
+        <v>37</v>
+      </c>
+      <c r="F44" t="n">
+        <v>56</v>
+      </c>
+      <c r="G44" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>408.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>341</v>
+      </c>
+      <c r="E45" t="n">
+        <v>398</v>
+      </c>
+      <c r="F45" t="n">
+        <v>449</v>
+      </c>
+      <c r="G45" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>5.640000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12</v>
+      </c>
+      <c r="G46" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>16</v>
+      </c>
+      <c r="G47" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>186</v>
+      </c>
+      <c r="E48" t="n">
+        <v>228</v>
+      </c>
+      <c r="F48" t="n">
+        <v>289</v>
+      </c>
+      <c r="G48" t="n">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>813.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>672</v>
+      </c>
+      <c r="E49" t="n">
+        <v>796</v>
+      </c>
+      <c r="F49" t="n">
+        <v>916</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>273.04</v>
+      </c>
+      <c r="D50" t="n">
+        <v>206</v>
+      </c>
+      <c r="E50" t="n">
+        <v>244</v>
+      </c>
+      <c r="F50" t="n">
+        <v>284</v>
+      </c>
+      <c r="G50" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>5</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12</v>
+      </c>
+      <c r="G51" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>233.5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>189</v>
+      </c>
+      <c r="E52" t="n">
+        <v>225</v>
+      </c>
+      <c r="F52" t="n">
+        <v>261</v>
+      </c>
+      <c r="G52" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>150.3</v>
+      </c>
+      <c r="D53" t="n">
+        <v>105</v>
+      </c>
+      <c r="E53" t="n">
+        <v>128</v>
+      </c>
+      <c r="F53" t="n">
+        <v>154</v>
+      </c>
+      <c r="G53" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12</v>
+      </c>
+      <c r="G54" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="D55" t="n">
+        <v>19</v>
+      </c>
+      <c r="E55" t="n">
+        <v>24</v>
+      </c>
+      <c r="F55" t="n">
+        <v>32</v>
+      </c>
+      <c r="G55" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="D56" t="n">
+        <v>8</v>
+      </c>
+      <c r="E56" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" t="n">
+        <v>12</v>
+      </c>
+      <c r="G56" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>499.9</v>
+      </c>
+      <c r="D57" t="n">
+        <v>387</v>
+      </c>
+      <c r="E57" t="n">
+        <v>468</v>
+      </c>
+      <c r="F57" t="n">
+        <v>553</v>
+      </c>
+      <c r="G57" t="n">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="D58" t="n">
+        <v>66</v>
+      </c>
+      <c r="E58" t="n">
+        <v>80</v>
+      </c>
+      <c r="F58" t="n">
+        <v>102</v>
+      </c>
+      <c r="G58" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>44</v>
+      </c>
+      <c r="E59" t="n">
+        <v>56</v>
+      </c>
+      <c r="F59" t="n">
+        <v>70</v>
+      </c>
+      <c r="G59" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="D60" t="n">
+        <v>146</v>
+      </c>
+      <c r="E60" t="n">
+        <v>177</v>
+      </c>
+      <c r="F60" t="n">
+        <v>214</v>
+      </c>
+      <c r="G60" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>280.9</v>
+      </c>
+      <c r="D61" t="n">
+        <v>315</v>
+      </c>
+      <c r="E61" t="n">
+        <v>382</v>
+      </c>
+      <c r="F61" t="n">
+        <v>455</v>
+      </c>
+      <c r="G61" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>8</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12</v>
+      </c>
+      <c r="G62" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>101.6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>103</v>
+      </c>
+      <c r="E63" t="n">
+        <v>123</v>
+      </c>
+      <c r="F63" t="n">
+        <v>150</v>
+      </c>
+      <c r="G63" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>92.58</v>
+      </c>
+      <c r="D64" t="n">
+        <v>44</v>
+      </c>
+      <c r="E64" t="n">
+        <v>47</v>
+      </c>
+      <c r="F64" t="n">
+        <v>74</v>
+      </c>
+      <c r="G64" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>116.4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>114</v>
+      </c>
+      <c r="E65" t="n">
+        <v>136</v>
+      </c>
+      <c r="F65" t="n">
+        <v>158</v>
+      </c>
+      <c r="G65" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>191.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>147</v>
+      </c>
+      <c r="E66" t="n">
+        <v>172</v>
+      </c>
+      <c r="F66" t="n">
+        <v>197</v>
+      </c>
+      <c r="G66" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="D67" t="n">
+        <v>17</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12</v>
+      </c>
+      <c r="F67" t="n">
+        <v>24</v>
+      </c>
+      <c r="G67" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>256.4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>216</v>
+      </c>
+      <c r="E68" t="n">
+        <v>256</v>
+      </c>
+      <c r="F68" t="n">
+        <v>296</v>
+      </c>
+      <c r="G68" t="n">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>147.2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>111</v>
+      </c>
+      <c r="E69" t="n">
+        <v>133</v>
+      </c>
+      <c r="F69" t="n">
+        <v>156</v>
+      </c>
+      <c r="G69" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>129</v>
+      </c>
+      <c r="E70" t="n">
+        <v>153</v>
+      </c>
+      <c r="F70" t="n">
+        <v>178</v>
+      </c>
+      <c r="G70" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>264.6</v>
+      </c>
+      <c r="D71" t="n">
+        <v>250</v>
+      </c>
+      <c r="E71" t="n">
+        <v>302</v>
+      </c>
+      <c r="F71" t="n">
+        <v>356</v>
+      </c>
+      <c r="G71" t="n">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>208.7</v>
+      </c>
+      <c r="D72" t="n">
+        <v>182</v>
+      </c>
+      <c r="E72" t="n">
+        <v>218</v>
+      </c>
+      <c r="F72" t="n">
+        <v>253</v>
+      </c>
+      <c r="G72" t="n">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>93.53999999999999</v>
+      </c>
+      <c r="D73" t="n">
+        <v>171</v>
+      </c>
+      <c r="E73" t="n">
+        <v>206</v>
+      </c>
+      <c r="F73" t="n">
+        <v>277</v>
+      </c>
+      <c r="G73" t="n">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>131.6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>121</v>
+      </c>
+      <c r="E74" t="n">
+        <v>147</v>
+      </c>
+      <c r="F74" t="n">
+        <v>176</v>
+      </c>
+      <c r="G74" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>98</v>
+      </c>
+      <c r="D75" t="n">
+        <v>80</v>
+      </c>
+      <c r="E75" t="n">
+        <v>96</v>
+      </c>
+      <c r="F75" t="n">
+        <v>111</v>
+      </c>
+      <c r="G75" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1038.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>834</v>
+      </c>
+      <c r="E76" t="n">
+        <v>972</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1093</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>8.399999999999999</v>
+      </c>
+      <c r="D77" t="n">
+        <v>12</v>
+      </c>
+      <c r="E77" t="n">
+        <v>16</v>
+      </c>
+      <c r="F77" t="n">
+        <v>20</v>
+      </c>
+      <c r="G77" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>406.1</v>
+      </c>
+      <c r="D78" t="n">
+        <v>357</v>
+      </c>
+      <c r="E78" t="n">
+        <v>421</v>
+      </c>
+      <c r="F78" t="n">
+        <v>480</v>
+      </c>
+      <c r="G78" t="n">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>91</v>
+      </c>
+      <c r="D79" t="n">
+        <v>101</v>
+      </c>
+      <c r="E79" t="n">
+        <v>123</v>
+      </c>
+      <c r="F79" t="n">
+        <v>144</v>
+      </c>
+      <c r="G79" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>77.2</v>
+      </c>
+      <c r="D80" t="n">
+        <v>58</v>
+      </c>
+      <c r="E80" t="n">
+        <v>73</v>
+      </c>
+      <c r="F80" t="n">
+        <v>86</v>
+      </c>
+      <c r="G80" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>175.9</v>
+      </c>
+      <c r="D81" t="n">
+        <v>179</v>
+      </c>
+      <c r="E81" t="n">
+        <v>214</v>
+      </c>
+      <c r="F81" t="n">
+        <v>250</v>
+      </c>
+      <c r="G81" t="n">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>2483.5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3129</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3656</v>
+      </c>
+      <c r="F82" t="n">
+        <v>4132</v>
+      </c>
+      <c r="G82" t="n">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>49.10000000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>69</v>
+      </c>
+      <c r="E83" t="n">
+        <v>80</v>
+      </c>
+      <c r="F83" t="n">
+        <v>114</v>
+      </c>
+      <c r="G83" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D84" t="n">
+        <v>18</v>
+      </c>
+      <c r="E84" t="n">
+        <v>24</v>
+      </c>
+      <c r="F84" t="n">
+        <v>28</v>
+      </c>
+      <c r="G84" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>11.629128</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15</v>
+      </c>
+      <c r="F85" t="n">
+        <v>19</v>
+      </c>
+      <c r="G85" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>184.7</v>
+      </c>
+      <c r="D86" t="n">
+        <v>162</v>
+      </c>
+      <c r="E86" t="n">
+        <v>193</v>
+      </c>
+      <c r="F86" t="n">
+        <v>224</v>
+      </c>
+      <c r="G86" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>251.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>320</v>
+      </c>
+      <c r="E87" t="n">
+        <v>368</v>
+      </c>
+      <c r="F87" t="n">
+        <v>413</v>
+      </c>
+      <c r="G87" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>4</v>
+      </c>
+      <c r="E88" t="n">
+        <v>4</v>
+      </c>
+      <c r="F88" t="n">
+        <v>8</v>
+      </c>
+      <c r="G88" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>42.68</v>
+      </c>
+      <c r="D89" t="n">
+        <v>58</v>
+      </c>
+      <c r="E89" t="n">
+        <v>61</v>
+      </c>
+      <c r="F89" t="n">
+        <v>97</v>
+      </c>
+      <c r="G89" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>430.9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>613</v>
+      </c>
+      <c r="E90" t="n">
+        <v>722</v>
+      </c>
+      <c r="F90" t="n">
+        <v>827</v>
+      </c>
+      <c r="G90" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="D91" t="n">
+        <v>12</v>
+      </c>
+      <c r="E91" t="n">
+        <v>16</v>
+      </c>
+      <c r="F91" t="n">
+        <v>21</v>
+      </c>
+      <c r="G91" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="D92" t="n">
+        <v>12</v>
+      </c>
+      <c r="E92" t="n">
+        <v>16</v>
+      </c>
+      <c r="F92" t="n">
+        <v>20</v>
+      </c>
+      <c r="G92" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>521.4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>390</v>
+      </c>
+      <c r="E93" t="n">
+        <v>453</v>
+      </c>
+      <c r="F93" t="n">
+        <v>507</v>
+      </c>
+      <c r="G93" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>186.4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>164</v>
+      </c>
+      <c r="E94" t="n">
+        <v>194</v>
+      </c>
+      <c r="F94" t="n">
+        <v>222</v>
+      </c>
+      <c r="G94" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D95" t="n">
+        <v>84</v>
+      </c>
+      <c r="E95" t="n">
+        <v>100</v>
+      </c>
+      <c r="F95" t="n">
+        <v>114</v>
+      </c>
+      <c r="G95" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
           <t>B0DGVC3DDW</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C96" t="n">
         <v>1140.2888776</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D96" t="n">
         <v>1694</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E96" t="n">
         <v>2004</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F96" t="n">
         <v>2304</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G96" t="n">
         <v>2769</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>678.8065939999999</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1409</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1572</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>863.4518069999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>952</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1124</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1289</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>444.6</v>
+      </c>
+      <c r="D99" t="n">
+        <v>342</v>
+      </c>
+      <c r="E99" t="n">
+        <v>404</v>
+      </c>
+      <c r="F99" t="n">
+        <v>463</v>
+      </c>
+      <c r="G99" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>375.6023164</v>
+      </c>
+      <c r="D100" t="n">
+        <v>499</v>
+      </c>
+      <c r="E100" t="n">
+        <v>589</v>
+      </c>
+      <c r="F100" t="n">
+        <v>674</v>
+      </c>
+      <c r="G100" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>535.6</v>
+      </c>
+      <c r="D101" t="n">
+        <v>900</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1047</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>217.806245</v>
+      </c>
+      <c r="D102" t="n">
+        <v>213</v>
+      </c>
+      <c r="E102" t="n">
+        <v>253</v>
+      </c>
+      <c r="F102" t="n">
+        <v>290</v>
+      </c>
+      <c r="G102" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>269.790184</v>
+      </c>
+      <c r="D103" t="n">
+        <v>246</v>
+      </c>
+      <c r="E103" t="n">
+        <v>288</v>
+      </c>
+      <c r="F103" t="n">
+        <v>324</v>
+      </c>
+      <c r="G103" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>666.890817</v>
+      </c>
+      <c r="D104" t="n">
+        <v>723</v>
+      </c>
+      <c r="E104" t="n">
+        <v>823</v>
+      </c>
+      <c r="F104" t="n">
+        <v>903</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>111</v>
+      </c>
+      <c r="E105" t="n">
+        <v>133</v>
+      </c>
+      <c r="F105" t="n">
+        <v>155</v>
+      </c>
+      <c r="G105" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="D106" t="n">
+        <v>17</v>
+      </c>
+      <c r="E106" t="n">
+        <v>22</v>
+      </c>
+      <c r="F106" t="n">
+        <v>29</v>
+      </c>
+      <c r="G106" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>246.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>194</v>
+      </c>
+      <c r="E107" t="n">
+        <v>236</v>
+      </c>
+      <c r="F107" t="n">
+        <v>279</v>
+      </c>
+      <c r="G107" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>58.90000000000001</v>
+      </c>
+      <c r="D108" t="n">
+        <v>49</v>
+      </c>
+      <c r="E108" t="n">
+        <v>50</v>
+      </c>
+      <c r="F108" t="n">
+        <v>81</v>
+      </c>
+      <c r="G108" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>376.3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>467</v>
+      </c>
+      <c r="E109" t="n">
+        <v>552</v>
+      </c>
+      <c r="F109" t="n">
+        <v>636</v>
+      </c>
+      <c r="G109" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>180</v>
+      </c>
+      <c r="E110" t="n">
+        <v>212</v>
+      </c>
+      <c r="F110" t="n">
+        <v>242</v>
+      </c>
+      <c r="G110" t="n">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>23.7144626</v>
+      </c>
+      <c r="D111" t="n">
+        <v>37</v>
+      </c>
+      <c r="E111" t="n">
+        <v>45</v>
+      </c>
+      <c r="F111" t="n">
+        <v>56</v>
+      </c>
+      <c r="G111" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>137.371798</v>
+      </c>
+      <c r="D112" t="n">
+        <v>142</v>
+      </c>
+      <c r="E112" t="n">
+        <v>170</v>
+      </c>
+      <c r="F112" t="n">
+        <v>197</v>
+      </c>
+      <c r="G112" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>63.218442</v>
+      </c>
+      <c r="D113" t="n">
+        <v>57</v>
+      </c>
+      <c r="E113" t="n">
+        <v>70</v>
+      </c>
+      <c r="F113" t="n">
+        <v>85</v>
+      </c>
+      <c r="G113" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>11.88799</v>
+      </c>
+      <c r="D114" t="n">
+        <v>20</v>
+      </c>
+      <c r="E114" t="n">
+        <v>26</v>
+      </c>
+      <c r="F114" t="n">
+        <v>33</v>
+      </c>
+      <c r="G114" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>24.7181886</v>
+      </c>
+      <c r="D115" t="n">
+        <v>36</v>
+      </c>
+      <c r="E115" t="n">
+        <v>44</v>
+      </c>
+      <c r="F115" t="n">
+        <v>54</v>
+      </c>
+      <c r="G115" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>37.92</v>
+      </c>
+      <c r="D116" t="n">
+        <v>72</v>
+      </c>
+      <c r="E116" t="n">
+        <v>89</v>
+      </c>
+      <c r="F116" t="n">
+        <v>109</v>
+      </c>
+      <c r="G116" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>34.2815898</v>
+      </c>
+      <c r="D117" t="n">
+        <v>56</v>
+      </c>
+      <c r="E117" t="n">
+        <v>69</v>
+      </c>
+      <c r="F117" t="n">
+        <v>84</v>
+      </c>
+      <c r="G117" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>15.0116692</v>
+      </c>
+      <c r="D118" t="n">
+        <v>16</v>
+      </c>
+      <c r="E118" t="n">
+        <v>20</v>
+      </c>
+      <c r="F118" t="n">
+        <v>26</v>
+      </c>
+      <c r="G118" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>57.94000000000001</v>
+      </c>
+      <c r="D119" t="n">
+        <v>89</v>
+      </c>
+      <c r="E119" t="n">
+        <v>107</v>
+      </c>
+      <c r="F119" t="n">
+        <v>129</v>
+      </c>
+      <c r="G119" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>37.768134</v>
+      </c>
+      <c r="D120" t="n">
+        <v>36</v>
+      </c>
+      <c r="E120" t="n">
+        <v>45</v>
+      </c>
+      <c r="F120" t="n">
+        <v>54</v>
+      </c>
+      <c r="G120" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>47.4622226</v>
+      </c>
+      <c r="D121" t="n">
+        <v>69</v>
+      </c>
+      <c r="E121" t="n">
+        <v>84</v>
+      </c>
+      <c r="F121" t="n">
+        <v>102</v>
+      </c>
+      <c r="G121" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>39.2351426</v>
+      </c>
+      <c r="D122" t="n">
+        <v>71</v>
+      </c>
+      <c r="E122" t="n">
+        <v>88</v>
+      </c>
+      <c r="F122" t="n">
+        <v>109</v>
+      </c>
+      <c r="G122" t="n">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16.06</v>
+        <v>5.320000000000001</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>651.6</v>
+        <v>735</v>
       </c>
       <c r="D3" t="n">
         <v>575</v>
@@ -527,835 +527,835 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B083NMK4BB</t>
+          <t>B09JZFT4SN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B660M DS3H AX DDR4</t>
+          <t>Z690 AORUS ULTRA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.829599</v>
+        <v>7.52</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B09JZFT4SN</t>
+          <t>B09JZGTYXJ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z690 AORUS ULTRA</t>
+          <t>Z690 UD AX DDR4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.8</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B09JZGTYXJ</t>
+          <t>B07T6N8N56</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Z690 UD AX DDR4</t>
+          <t>B365M DS3H</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24.9</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B07T6N8N56</t>
+          <t>B08R5736B3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B365M DS3H</t>
+          <t>B550M DS3H AC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>429</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
+          <t>B0BH6XND27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B550M DS3H AC</t>
+          <t>B650M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>310.8</v>
+        <v>409</v>
       </c>
       <c r="D8" t="n">
-        <v>310</v>
+        <v>374</v>
       </c>
       <c r="E8" t="n">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="F8" t="n">
-        <v>447</v>
+        <v>509</v>
       </c>
       <c r="G8" t="n">
-        <v>563</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B0BH6XND27</t>
+          <t>B083NK82QJ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
+          <t>H610I DDR4</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>420</v>
+        <v>32</v>
       </c>
       <c r="D9" t="n">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
-        <v>442</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>509</v>
+        <v>31</v>
       </c>
       <c r="G9" t="n">
-        <v>614</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>H610I DDR4</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>507</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>651</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>785</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>935</v>
       </c>
       <c r="G10" t="n">
-        <v>42</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B08LGKGBKT</t>
+          <t>B089FY7QT1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B550 GAMING X V2</t>
+          <t>B550M DS3H</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>604.8</v>
+        <v>5.040000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>785</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>935</v>
+        <v>18</v>
       </c>
       <c r="G11" t="n">
-        <v>1171</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B089FY7QT1</t>
+          <t>B07GBM3M88</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B550M DS3H</t>
+          <t>GC-WB1733D-I</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.72</v>
+        <v>11.84</v>
       </c>
       <c r="D12" t="n">
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GC-WB1733D-I</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11.92</v>
+        <v>2400</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>2394</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>2609</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>2763</v>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B07VNBC5PS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>GC-WBAX200</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2321.5</v>
+        <v>167</v>
       </c>
       <c r="D14" t="n">
-        <v>2394</v>
+        <v>143</v>
       </c>
       <c r="E14" t="n">
-        <v>2609</v>
+        <v>174</v>
       </c>
       <c r="F14" t="n">
-        <v>2763</v>
+        <v>201</v>
       </c>
       <c r="G14" t="n">
-        <v>2987</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B07VNBC5PS</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GC-WBAX200</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>164</v>
+        <v>1.6</v>
       </c>
       <c r="D15" t="n">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>246</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.9</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B083NN4MLZ</t>
+          <t>B0BH9BBLHB</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Z690 AERO G</t>
+          <t>Z790 AERO G</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.76</v>
+        <v>29.4</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B0BH9BBLHB</t>
+          <t>B0BHTMXMRQ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Z790 AERO G</t>
+          <t>Z790 UD AC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>32.7</v>
+        <v>210</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="G18" t="n">
-        <v>41</v>
+        <v>324</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B0BHTMXMRQ</t>
+          <t>B07FWVJSHC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Z790 UD AC</t>
+          <t>B450M DS3H</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>237.1</v>
+        <v>1.84</v>
       </c>
       <c r="D19" t="n">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="G19" t="n">
-        <v>324</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B08F7BHDLY</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B450M DS3H</t>
+          <t>A520I AC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.32</v>
+        <v>497</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>407</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>470</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>524</v>
       </c>
       <c r="G20" t="n">
-        <v>24</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B07FW85VFT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>B450 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>474.5</v>
+        <v>10.96</v>
       </c>
       <c r="D21" t="n">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n">
-        <v>470</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
-        <v>524</v>
+        <v>47</v>
       </c>
       <c r="G21" t="n">
-        <v>606</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B07FW85VFT</t>
+          <t>B08B7ZX8Q2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B450 AORUS PRO WIFI</t>
+          <t>B450M DS3H WIFI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>13.88</v>
+        <v>527.4000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>626</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="F22" t="n">
-        <v>47</v>
+        <v>901</v>
       </c>
       <c r="G22" t="n">
-        <v>79</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
+          <t>B09J5TC4F8</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B450M DS3H WIFI</t>
+          <t>Z690 GAMING X DDR4</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489.1</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>626</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>756</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>901</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>1128</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B09J5TC4F8</t>
+          <t>B0BH9DXY38</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Z690 GAMING X DDR4</t>
+          <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.36</v>
+        <v>610</v>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>934</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>1094</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>1241</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GA-A320M-S2H</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>712.4</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>934</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>1094</v>
+        <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>1241</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>1466</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B079NYQQJJ</t>
+          <t>B08F7HPJ4F</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>GA-A320M-S2H</t>
+          <t>A520M S2H</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2.72</v>
+        <v>557</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>521</v>
       </c>
       <c r="E26" t="n">
-        <v>8</v>
+        <v>629</v>
       </c>
       <c r="F26" t="n">
-        <v>12</v>
+        <v>742</v>
       </c>
       <c r="G26" t="n">
-        <v>24</v>
+        <v>919</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
+          <t>B089FWWN62</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>A520M S2H</t>
+          <t>B550I AORUS PRO AX</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>541.9</v>
+        <v>54.88000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>521</v>
+        <v>163</v>
       </c>
       <c r="E27" t="n">
-        <v>629</v>
+        <v>197</v>
       </c>
       <c r="F27" t="n">
-        <v>742</v>
+        <v>235</v>
       </c>
       <c r="G27" t="n">
-        <v>919</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B089FWWN62</t>
+          <t>B0BH9F7DKS</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
+          <t>Z790 AORUS MASTER</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>120.54</v>
+        <v>98</v>
       </c>
       <c r="D28" t="n">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="E28" t="n">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F28" t="n">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="G28" t="n">
-        <v>295</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B0BH9F7DKS</t>
+          <t>B07WL5MFXL</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER</t>
+          <t>X570 AORUS ELITE WIFI</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>77.59999999999999</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="G29" t="n">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B07WL5MFXL</t>
+          <t>B0BSB6MB15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>X570 AORUS ELITE WIFI</t>
+          <t>B760M DS3H DDR4</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.4</v>
+        <v>606</v>
       </c>
       <c r="D30" t="n">
-        <v>8</v>
+        <v>581</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>678</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>766</v>
       </c>
       <c r="G30" t="n">
-        <v>28</v>
+        <v>899</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B0BSB6MB15</t>
+          <t>B0BF7FT26Z</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>B760M DS3H DDR4</t>
+          <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>633</v>
+        <v>557</v>
       </c>
       <c r="D31" t="n">
-        <v>581</v>
+        <v>474</v>
       </c>
       <c r="E31" t="n">
-        <v>678</v>
+        <v>559</v>
       </c>
       <c r="F31" t="n">
-        <v>766</v>
+        <v>639</v>
       </c>
       <c r="G31" t="n">
-        <v>899</v>
+        <v>761</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
+          <t>B0BF7CL99N</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X670 AORUS ELITE AX</t>
+          <t>X670E AORUS MASTER</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>507.9</v>
+        <v>16.16</v>
       </c>
       <c r="D32" t="n">
-        <v>474</v>
+        <v>48</v>
       </c>
       <c r="E32" t="n">
-        <v>559</v>
+        <v>60</v>
       </c>
       <c r="F32" t="n">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="G32" t="n">
-        <v>761</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B07HS59X7P</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>Z390 UD</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>48.08</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="D33" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>109</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
+          <t>B083GT6ZBX</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Z390 UD</t>
+          <t>Z590 AORUS TACHYON</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G34" t="n">
         <v>4</v>
@@ -1364,313 +1364,313 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B083GT6ZBX</t>
+          <t>B08BR1XDX5</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Z590 AORUS TACHYON</t>
+          <t>B550M AORUS ELITE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B08BR1XDX5</t>
+          <t>B0BH79FMW3</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE</t>
+          <t>B650 AERO G</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>7.800000000000001</v>
+        <v>73</v>
       </c>
       <c r="D36" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F36" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="G36" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B0BH79FMW3</t>
+          <t>B0BH7GTY9C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B650 AERO G</t>
+          <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>72.40000000000001</v>
+        <v>2638.4</v>
       </c>
       <c r="D37" t="n">
-        <v>54</v>
+        <v>1965</v>
       </c>
       <c r="E37" t="n">
-        <v>66</v>
+        <v>2293</v>
       </c>
       <c r="F37" t="n">
-        <v>79</v>
+        <v>2587</v>
       </c>
       <c r="G37" t="n">
-        <v>99</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
+          <t>B0BJ5SDGXK</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B650 AORUS ELITE AX</t>
+          <t>B660M A ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2195.9</v>
+        <v>0.8400000000000002</v>
       </c>
       <c r="D38" t="n">
-        <v>1965</v>
+        <v>4</v>
       </c>
       <c r="E38" t="n">
-        <v>2293</v>
+        <v>4</v>
       </c>
       <c r="F38" t="n">
-        <v>2587</v>
+        <v>8</v>
       </c>
       <c r="G38" t="n">
-        <v>3031</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B0BJ5SDGXK</t>
+          <t>B0BSB4TYHV</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B660M A ELITE AX DDR4</t>
+          <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.62</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F39" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G39" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B0BSB4TYHV</t>
+          <t>B087GH5SK2</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B760M AORUS ELITE AX</t>
+          <t>Z490 AORUS MASTER</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G40" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
+          <t>B0BSVYXM5C</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Z490 AORUS MASTER</t>
+          <t>Z790 GAMING X AX</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F41" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
+          <t>B0BSNYN4XQ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Z790 GAMING X AX</t>
+          <t>B760 DS3H AC DDR4</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>67.2</v>
+        <v>81.60000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E42" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F42" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G42" t="n">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B0BSNYN4XQ</t>
+          <t>B0BVWQ3BMJ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B760 DS3H AC DDR4</t>
+          <t>B760I AORUS PRO DDR4</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>81.90000000000001</v>
+        <v>14.56</v>
       </c>
       <c r="D43" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E43" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F43" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B0BVWQ3BMJ</t>
+          <t>B0BSP61QZC</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO DDR4</t>
+          <t>B760M DS3H AX</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35.08</v>
+        <v>439</v>
       </c>
       <c r="D44" t="n">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="E44" t="n">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="F44" t="n">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G44" t="n">
-        <v>89</v>
+        <v>526</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B0BSP61QZC</t>
+          <t>B083R7SWF5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B760M DS3H AX</t>
+          <t>B760M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>408.9</v>
+        <v>0.6800000000000002</v>
       </c>
       <c r="D45" t="n">
-        <v>341</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n">
-        <v>398</v>
+        <v>8</v>
       </c>
       <c r="F45" t="n">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="G45" t="n">
-        <v>526</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B083R7SWF5</t>
+          <t>B09J6BWK2Z</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B760M DS3H AX DDR4</t>
+          <t>Z690 AORUS ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5.640000000000001</v>
+        <v>3.68</v>
       </c>
       <c r="D46" t="n">
         <v>8</v>
@@ -1679,2062 +1679,1441 @@
         <v>8</v>
       </c>
       <c r="F46" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G46" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B0BTQ3SVFR</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Z690 AORUS ELITE AX DDR4</t>
+          <t>B550 UD AC</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5.74</v>
+        <v>86.32000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="F47" t="n">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="G47" t="n">
-        <v>29</v>
+        <v>391</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B0BTQ3SVFR</t>
+          <t>B0BTTZFQTP</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B550 UD AC</t>
+          <t>B550M K</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>139.1</v>
+        <v>902.8</v>
       </c>
       <c r="D48" t="n">
-        <v>186</v>
+        <v>672</v>
       </c>
       <c r="E48" t="n">
-        <v>228</v>
+        <v>796</v>
       </c>
       <c r="F48" t="n">
-        <v>289</v>
+        <v>916</v>
       </c>
       <c r="G48" t="n">
-        <v>391</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B0BTTZFQTP</t>
+          <t>B0BVBXT6P1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B550M K</t>
+          <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>813.3</v>
+        <v>215.28</v>
       </c>
       <c r="D49" t="n">
-        <v>672</v>
+        <v>206</v>
       </c>
       <c r="E49" t="n">
-        <v>796</v>
+        <v>244</v>
       </c>
       <c r="F49" t="n">
-        <v>916</v>
+        <v>284</v>
       </c>
       <c r="G49" t="n">
-        <v>1103</v>
+        <v>344</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B0BVBXT6P1</t>
+          <t>B083R7PHMX</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>H610M S2H V2 DDR4</t>
+          <t>Z790 D DDR4</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>273.04</v>
+        <v>2.56</v>
       </c>
       <c r="D50" t="n">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="E50" t="n">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="F50" t="n">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="G50" t="n">
-        <v>344</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B083R826VW</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>B650I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.880000000000001</v>
+        <v>238</v>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="F51" t="n">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="G51" t="n">
-        <v>21</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B083R826VW</t>
+          <t>B0BSB6MZ2L</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B650I AORUS ULTRA</t>
+          <t>B760 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>233.5</v>
+        <v>159.6</v>
       </c>
       <c r="D52" t="n">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="E52" t="n">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="F52" t="n">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="G52" t="n">
-        <v>317</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B0BSB6MZ2L</t>
+          <t>B083R7T5P4</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>B760 AORUS ELITE AX</t>
+          <t>Z790 UD AX</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>150.3</v>
+        <v>1.28</v>
       </c>
       <c r="D53" t="n">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G53" t="n">
-        <v>197</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B083R7T5P4</t>
+          <t>B0BZQ43XXL</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Z790 UD AX</t>
+          <t>Z790I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>30.24</v>
+        <v>12.48</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E54" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G54" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B0BZQ43XXL</t>
+          <t>B09J64TBJG</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Z790I AORUS ULTRA</t>
+          <t>Z690 AORUS MASTER</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>21.14</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E55" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F55" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G55" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B09J64TBJG</t>
+          <t>B0BYBHW4SH</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Z690 AORUS MASTER</t>
+          <t>B650 GAMING X AX</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.72</v>
+        <v>619.2</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="E56" t="n">
-        <v>4</v>
+        <v>468</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>553</v>
       </c>
       <c r="G56" t="n">
-        <v>20</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B0BYBHW4SH</t>
+          <t>B0BZ54DR5L</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX</t>
+          <t>B760 GAMING X AX</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>499.9</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="E57" t="n">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="F57" t="n">
-        <v>553</v>
+        <v>102</v>
       </c>
       <c r="G57" t="n">
-        <v>688</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B0BZ54DR5L</t>
+          <t>B0C4CKCRYW</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B760 GAMING X AX</t>
+          <t>B760I AORUS PRO</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>86.09999999999999</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E58" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F58" t="n">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G58" t="n">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B0C4CKCRYW</t>
+          <t>B0BZQ1PWGJ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO</t>
+          <t>B760M C</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>63.6</v>
+        <v>217</v>
       </c>
       <c r="D59" t="n">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E59" t="n">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="F59" t="n">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="G59" t="n">
-        <v>93</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B0BZQ1PWGJ</t>
+          <t>B0BZQ1TNW8</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B760M C</t>
+          <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>184.3</v>
+        <v>239.2</v>
       </c>
       <c r="D60" t="n">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="E60" t="n">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="F60" t="n">
-        <v>214</v>
+        <v>455</v>
       </c>
       <c r="G60" t="n">
-        <v>270</v>
+        <v>569</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B0BZQ1TNW8</t>
+          <t>B0C1M2BDNR</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE AX</t>
+          <t>Q670M D3H</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>280.9</v>
+        <v>5.2</v>
       </c>
       <c r="D61" t="n">
-        <v>315</v>
+        <v>8</v>
       </c>
       <c r="E61" t="n">
-        <v>382</v>
+        <v>8</v>
       </c>
       <c r="F61" t="n">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="G61" t="n">
-        <v>569</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
+          <t>B0C4CKFV65</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Q670M D3H</t>
+          <t>A620M S2H</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6.6</v>
+        <v>114</v>
       </c>
       <c r="D62" t="n">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E62" t="n">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="F62" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G62" t="n">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B0C4CKFV65</t>
+          <t>B0BZ17BQ4Z</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A620M S2H</t>
+          <t>B650M K</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>101.6</v>
+        <v>18.36</v>
       </c>
       <c r="D63" t="n">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E63" t="n">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F63" t="n">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="G63" t="n">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B0BZ17BQ4Z</t>
+          <t>B0C4CB8G8D</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B650M K</t>
+          <t>H610I</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>92.58</v>
+        <v>141</v>
       </c>
       <c r="D64" t="n">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="E64" t="n">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="F64" t="n">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="G64" t="n">
-        <v>125</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0C4CB8G8D</t>
+          <t>B0BZQ416QM</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H610I</t>
+          <t>H610M S2H</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>116.4</v>
+        <v>226.4</v>
       </c>
       <c r="D65" t="n">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="E65" t="n">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="F65" t="n">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="G65" t="n">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
+          <t>B0C1ZZ57ZW</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>H610M S2H</t>
+          <t>A620M GAMING X</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>191.5</v>
+        <v>5.440000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="E66" t="n">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="F66" t="n">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="G66" t="n">
-        <v>235</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B0CH92B3S2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>B650M D3HP</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>19.22</v>
+        <v>300</v>
       </c>
       <c r="D67" t="n">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="F67" t="n">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="G67" t="n">
-        <v>49</v>
+        <v>358</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B0CH92B3S2</t>
+          <t>B083RW9KDM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B650M D3HP</t>
+          <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>256.4</v>
+        <v>118</v>
       </c>
       <c r="D68" t="n">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="E68" t="n">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="F68" t="n">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="G68" t="n">
-        <v>358</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B083RW9KDM</t>
+          <t>B083RW9TJF</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Z790 A ELITE X WIFI7</t>
+          <t>Z790 AORUS PRO X</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>147.2</v>
+        <v>206.4</v>
       </c>
       <c r="D69" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E69" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F69" t="n">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G69" t="n">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B083RVN2VG</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>A620I AX</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>180.5</v>
+        <v>332</v>
       </c>
       <c r="D70" t="n">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="E70" t="n">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="F70" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="G70" t="n">
-        <v>216</v>
+        <v>443</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B0CNR8Y29S</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>X670 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>264.6</v>
+        <v>248</v>
       </c>
       <c r="D71" t="n">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E71" t="n">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="F71" t="n">
-        <v>356</v>
+        <v>253</v>
       </c>
       <c r="G71" t="n">
-        <v>443</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B0CNR8Y29S</t>
+          <t>B0CN76TH9S</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>X670 GAMING X AX V2</t>
+          <t>X670E AORUS PRO X</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>208.7</v>
+        <v>16.48</v>
       </c>
       <c r="D72" t="n">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E72" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F72" t="n">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="G72" t="n">
-        <v>305</v>
+        <v>396</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B0CKS6BMH7</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>93.53999999999999</v>
+        <v>135</v>
       </c>
       <c r="D73" t="n">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="E73" t="n">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="F73" t="n">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="G73" t="n">
-        <v>396</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B0CKS6BMH7</t>
+          <t>B083RVX2FQ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Z790 A ELITE AX ICE</t>
+          <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>131.6</v>
+        <v>106.4</v>
       </c>
       <c r="D74" t="n">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E74" t="n">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="F74" t="n">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="G74" t="n">
-        <v>222</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B0CMJSH15D</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>98</v>
+        <v>1334.4</v>
       </c>
       <c r="D75" t="n">
-        <v>80</v>
+        <v>834</v>
       </c>
       <c r="E75" t="n">
-        <v>96</v>
+        <v>972</v>
       </c>
       <c r="F75" t="n">
-        <v>111</v>
+        <v>1093</v>
       </c>
       <c r="G75" t="n">
-        <v>137</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
+          <t>B0CCWLMK56</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>B650 A ELITE AX ICE</t>
+          <t xml:space="preserve">B650M C V2                    </t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>1038.8</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
-        <v>834</v>
+        <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>972</v>
+        <v>16</v>
       </c>
       <c r="F76" t="n">
-        <v>1093</v>
+        <v>20</v>
       </c>
       <c r="G76" t="n">
-        <v>1278</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B0CCWLMK56</t>
+          <t>B0CMK1W2YX</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650M C V2                    </t>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.399999999999999</v>
+        <v>474</v>
       </c>
       <c r="D77" t="n">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="E77" t="n">
-        <v>16</v>
+        <v>421</v>
       </c>
       <c r="F77" t="n">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="G77" t="n">
-        <v>28</v>
+        <v>570</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
+          <t>B0CNR6L1DH</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+          <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>406.1</v>
+        <v>95.80000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>357</v>
+        <v>101</v>
       </c>
       <c r="E78" t="n">
-        <v>421</v>
+        <v>123</v>
       </c>
       <c r="F78" t="n">
-        <v>480</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
-        <v>570</v>
+        <v>177</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B0CNR6L1DH</t>
+          <t>B0D2V2FPS7</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">B760M D3H                     </t>
+          <t>A620M GAMING X AX</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>91</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="E79" t="n">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="F79" t="n">
-        <v>144</v>
+        <v>86</v>
       </c>
       <c r="G79" t="n">
-        <v>177</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B0D8WH9NG3</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t>B550 AORUS ELITE AX V3</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>77.2</v>
+        <v>198</v>
       </c>
       <c r="D80" t="n">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="E80" t="n">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="F80" t="n">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="G80" t="n">
-        <v>107</v>
+        <v>306</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B083TZ68H1</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B550 AORUS ELITE AX V3</t>
+          <t>B650 EAGLE AX</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>175.9</v>
+        <v>2526</v>
       </c>
       <c r="D81" t="n">
-        <v>179</v>
+        <v>3129</v>
       </c>
       <c r="E81" t="n">
-        <v>214</v>
+        <v>3656</v>
       </c>
       <c r="F81" t="n">
-        <v>250</v>
+        <v>4132</v>
       </c>
       <c r="G81" t="n">
-        <v>306</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
+          <t>B0CTTY491F</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B650 EAGLE AX</t>
+          <t>B650 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2483.5</v>
+        <v>54.2</v>
       </c>
       <c r="D82" t="n">
-        <v>3129</v>
+        <v>69</v>
       </c>
       <c r="E82" t="n">
-        <v>3656</v>
+        <v>80</v>
       </c>
       <c r="F82" t="n">
-        <v>4132</v>
+        <v>114</v>
       </c>
       <c r="G82" t="n">
-        <v>4858</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B0CTTY491F</t>
+          <t>B0CTNYTX8Y</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX V2</t>
+          <t>B650 UD AC</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>49.10000000000001</v>
+        <v>12.6</v>
       </c>
       <c r="D83" t="n">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="E83" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="F83" t="n">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="G83" t="n">
-        <v>176</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B0CTNYTX8Y</t>
+          <t>B0CTNXBRJV</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B650 UD AC</t>
+          <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>15.3</v>
+        <v>201</v>
       </c>
       <c r="D84" t="n">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="E84" t="n">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F84" t="n">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="G84" t="n">
-        <v>37</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
+          <t>B083SJLWL9</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B650 UD AX</t>
+          <t>B650M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>11.629128</v>
+        <v>258</v>
       </c>
       <c r="D85" t="n">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="E85" t="n">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="F85" t="n">
-        <v>19</v>
+        <v>413</v>
       </c>
       <c r="G85" t="n">
-        <v>26</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B0CTNXBRJV</t>
+          <t>B0D8WKK29M</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B650E AORUS Elite X AX ICE</t>
+          <t>B650M C V3</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>184.7</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="E86" t="n">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="G86" t="n">
-        <v>271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B083SJLWL9</t>
+          <t>B0CTTXH95Q</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX ICE</t>
+          <t>B650M D3HP AX</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>251.4</v>
+        <v>50.56</v>
       </c>
       <c r="D87" t="n">
-        <v>320</v>
+        <v>58</v>
       </c>
       <c r="E87" t="n">
-        <v>368</v>
+        <v>61</v>
       </c>
       <c r="F87" t="n">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="G87" t="n">
-        <v>478</v>
+        <v>168</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B0D8WKK29M</t>
+          <t>B0D2V4VH2C</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B650M C V3</t>
+          <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3.2</v>
+        <v>405.4</v>
       </c>
       <c r="D88" t="n">
-        <v>4</v>
+        <v>613</v>
       </c>
       <c r="E88" t="n">
-        <v>4</v>
+        <v>722</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>827</v>
       </c>
       <c r="G88" t="n">
-        <v>12</v>
+        <v>985</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B0CTTXH95Q</t>
+          <t>B0CTTW2MVG</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B650M D3HP AX</t>
+          <t>B760 DS3H AC</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>42.68</v>
+        <v>10.2</v>
       </c>
       <c r="D89" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F89" t="n">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G89" t="n">
-        <v>168</v>
+        <v>29</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
+          <t>B0CTTWZCVK</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B650M GAMING PLUS WIFI</t>
+          <t>B760 DS3H AX</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>430.9</v>
+        <v>10.24</v>
       </c>
       <c r="D90" t="n">
-        <v>613</v>
+        <v>12</v>
       </c>
       <c r="E90" t="n">
-        <v>722</v>
+        <v>16</v>
       </c>
       <c r="F90" t="n">
-        <v>827</v>
+        <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>985</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B0CTTW2MVG</t>
+          <t>B0D54QJ9CJ</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B760 DS3H AC</t>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>11.1</v>
+        <v>624.0000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="E91" t="n">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="F91" t="n">
-        <v>21</v>
+        <v>507</v>
       </c>
       <c r="G91" t="n">
-        <v>29</v>
+        <v>592</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0CTTWZCVK</t>
+          <t>B0D33M6CB7</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B760 DS3H AX</t>
+          <t>GC-WIFI7</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>11.32</v>
+        <v>206</v>
       </c>
       <c r="D92" t="n">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="E92" t="n">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="G92" t="n">
-        <v>27</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0D54QJ9CJ</t>
+          <t>B0CPW1F841</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B760M GAMING PLUS WIFI DDR4</t>
+          <t>TRX50 AERO D</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>521.4</v>
+        <v>53</v>
       </c>
       <c r="D93" t="n">
-        <v>390</v>
+        <v>84</v>
       </c>
       <c r="E93" t="n">
-        <v>453</v>
+        <v>100</v>
       </c>
       <c r="F93" t="n">
-        <v>507</v>
+        <v>114</v>
       </c>
       <c r="G93" t="n">
-        <v>592</v>
+        <v>137</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B0D33M6CB7</t>
+          <t>B0CTTVFWHM</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>GC-WIFI7</t>
+          <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>186.4</v>
+        <v>170.8</v>
       </c>
       <c r="D94" t="n">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="E94" t="n">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="F94" t="n">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="G94" t="n">
-        <v>265</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B0CPW1F841</t>
+          <t>B0CTTWH6TD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>TRX50 AERO D</t>
+          <t>Z790 D AC</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>63.7</v>
+        <v>15</v>
       </c>
       <c r="D95" t="n">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="E95" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F95" t="n">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="G95" t="n">
-        <v>137</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
+          <t>B0CTNPZLNH</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7</t>
+          <t>Z790 Eagle AX</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1140.2888776</v>
+        <v>310.4</v>
       </c>
       <c r="D96" t="n">
-        <v>1694</v>
+        <v>194</v>
       </c>
       <c r="E96" t="n">
-        <v>2004</v>
+        <v>236</v>
       </c>
       <c r="F96" t="n">
-        <v>2304</v>
+        <v>279</v>
       </c>
       <c r="G96" t="n">
-        <v>2769</v>
+        <v>349</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
+          <t>B0D8WH39QJ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
+          <t>Z790 GAMING PLUS AX</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>678.8065939999999</v>
+        <v>47.2</v>
       </c>
       <c r="D97" t="n">
-        <v>1220</v>
+        <v>49</v>
       </c>
       <c r="E97" t="n">
-        <v>1409</v>
+        <v>50</v>
       </c>
       <c r="F97" t="n">
-        <v>1572</v>
+        <v>81</v>
       </c>
       <c r="G97" t="n">
-        <v>1818</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
+          <t>B0D2RL4PT6</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>X870 EAGLE WIFI7</t>
+          <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>863.4518069999999</v>
+        <v>442</v>
       </c>
       <c r="D98" t="n">
-        <v>952</v>
+        <v>467</v>
       </c>
       <c r="E98" t="n">
-        <v>1124</v>
+        <v>552</v>
       </c>
       <c r="F98" t="n">
-        <v>1289</v>
+        <v>636</v>
       </c>
       <c r="G98" t="n">
-        <v>1543</v>
+        <v>767</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B0DHWLN5XT</t>
+          <t>B0D2PK3CC1</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>X870 GAMING WIFI6</t>
+          <t>Z790M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>444.6</v>
+        <v>201</v>
       </c>
       <c r="D99" t="n">
-        <v>342</v>
+        <v>180</v>
       </c>
       <c r="E99" t="n">
-        <v>404</v>
+        <v>212</v>
       </c>
       <c r="F99" t="n">
-        <v>463</v>
+        <v>242</v>
       </c>
       <c r="G99" t="n">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>B0DGVGT3PJ</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>X870 GAMING X WIFI7</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>375.6023164</v>
-      </c>
-      <c r="D100" t="n">
-        <v>499</v>
-      </c>
-      <c r="E100" t="n">
-        <v>589</v>
-      </c>
-      <c r="F100" t="n">
-        <v>674</v>
-      </c>
-      <c r="G100" t="n">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>B0DGVBM73J</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>X870E AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>535.6</v>
-      </c>
-      <c r="D101" t="n">
-        <v>900</v>
-      </c>
-      <c r="E101" t="n">
-        <v>1047</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1179</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>B0DGVSW4FD</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>X870E AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>217.806245</v>
-      </c>
-      <c r="D102" t="n">
-        <v>213</v>
-      </c>
-      <c r="E102" t="n">
-        <v>253</v>
-      </c>
-      <c r="F102" t="n">
-        <v>290</v>
-      </c>
-      <c r="G102" t="n">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>B0DGVGV7YN</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>X870E AORUS PRO</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>269.790184</v>
-      </c>
-      <c r="D103" t="n">
-        <v>246</v>
-      </c>
-      <c r="E103" t="n">
-        <v>288</v>
-      </c>
-      <c r="F103" t="n">
-        <v>324</v>
-      </c>
-      <c r="G103" t="n">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>B0DGVBSLLP</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>X870E AORUS PRO ICE</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>666.890817</v>
-      </c>
-      <c r="D104" t="n">
-        <v>723</v>
-      </c>
-      <c r="E104" t="n">
-        <v>823</v>
-      </c>
-      <c r="F104" t="n">
-        <v>903</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>B0CTTVFWHM</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Z790 AORUS PRO X WIFI7</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>137.9</v>
-      </c>
-      <c r="D105" t="n">
-        <v>111</v>
-      </c>
-      <c r="E105" t="n">
-        <v>133</v>
-      </c>
-      <c r="F105" t="n">
-        <v>155</v>
-      </c>
-      <c r="G105" t="n">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>B0CTTWH6TD</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Z790 D AC</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D106" t="n">
-        <v>17</v>
-      </c>
-      <c r="E106" t="n">
-        <v>22</v>
-      </c>
-      <c r="F106" t="n">
-        <v>29</v>
-      </c>
-      <c r="G106" t="n">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>B0CTNPZLNH</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Z790 Eagle AX</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>246.2</v>
-      </c>
-      <c r="D107" t="n">
-        <v>194</v>
-      </c>
-      <c r="E107" t="n">
-        <v>236</v>
-      </c>
-      <c r="F107" t="n">
-        <v>279</v>
-      </c>
-      <c r="G107" t="n">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>B0D8WH39QJ</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Z790 GAMING PLUS AX</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>58.90000000000001</v>
-      </c>
-      <c r="D108" t="n">
-        <v>49</v>
-      </c>
-      <c r="E108" t="n">
-        <v>50</v>
-      </c>
-      <c r="F108" t="n">
-        <v>81</v>
-      </c>
-      <c r="G108" t="n">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>B0D2RL4PT6</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Z790 S WIFI DDR4</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>376.3</v>
-      </c>
-      <c r="D109" t="n">
-        <v>467</v>
-      </c>
-      <c r="E109" t="n">
-        <v>552</v>
-      </c>
-      <c r="F109" t="n">
-        <v>636</v>
-      </c>
-      <c r="G109" t="n">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>B0D2PK3CC1</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Z790M AORUS ELITE AX ICE</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>180</v>
-      </c>
-      <c r="E110" t="n">
-        <v>212</v>
-      </c>
-      <c r="F110" t="n">
-        <v>242</v>
-      </c>
-      <c r="G110" t="n">
         <v>289</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>B0DJP9KLLD</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Z890 AERO G</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>23.7144626</v>
-      </c>
-      <c r="D111" t="n">
-        <v>37</v>
-      </c>
-      <c r="E111" t="n">
-        <v>45</v>
-      </c>
-      <c r="F111" t="n">
-        <v>56</v>
-      </c>
-      <c r="G111" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>B0DJP95MGB</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Z890 AORUS ELITE WIFI7</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>137.371798</v>
-      </c>
-      <c r="D112" t="n">
-        <v>142</v>
-      </c>
-      <c r="E112" t="n">
-        <v>170</v>
-      </c>
-      <c r="F112" t="n">
-        <v>197</v>
-      </c>
-      <c r="G112" t="n">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>B0DJP7NRXX</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Z890 AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>63.218442</v>
-      </c>
-      <c r="D113" t="n">
-        <v>57</v>
-      </c>
-      <c r="E113" t="n">
-        <v>70</v>
-      </c>
-      <c r="F113" t="n">
-        <v>85</v>
-      </c>
-      <c r="G113" t="n">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>B0DJP76L1F</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Z890 AORUS ELITE X ICE</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>11.88799</v>
-      </c>
-      <c r="D114" t="n">
-        <v>20</v>
-      </c>
-      <c r="E114" t="n">
-        <v>26</v>
-      </c>
-      <c r="F114" t="n">
-        <v>33</v>
-      </c>
-      <c r="G114" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>B0DJP9LCYC</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Z890 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>24.7181886</v>
-      </c>
-      <c r="D115" t="n">
-        <v>36</v>
-      </c>
-      <c r="E115" t="n">
-        <v>44</v>
-      </c>
-      <c r="F115" t="n">
-        <v>54</v>
-      </c>
-      <c r="G115" t="n">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>B0DJP8NFWP</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Z890 AORUS PRO ICE</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>37.92</v>
-      </c>
-      <c r="D116" t="n">
-        <v>72</v>
-      </c>
-      <c r="E116" t="n">
-        <v>89</v>
-      </c>
-      <c r="F116" t="n">
-        <v>109</v>
-      </c>
-      <c r="G116" t="n">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>B0DJP8MMMJ</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Z890 EAGLE WIFI7</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>34.2815898</v>
-      </c>
-      <c r="D117" t="n">
-        <v>56</v>
-      </c>
-      <c r="E117" t="n">
-        <v>69</v>
-      </c>
-      <c r="F117" t="n">
-        <v>84</v>
-      </c>
-      <c r="G117" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>B0DJP9DBVS</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Z890 GAMING X WIFI7</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>15.0116692</v>
-      </c>
-      <c r="D118" t="n">
-        <v>16</v>
-      </c>
-      <c r="E118" t="n">
-        <v>20</v>
-      </c>
-      <c r="F118" t="n">
-        <v>26</v>
-      </c>
-      <c r="G118" t="n">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>B0DJP8W3BY</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Z890 UD WIFI6E</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>57.94000000000001</v>
-      </c>
-      <c r="D119" t="n">
-        <v>89</v>
-      </c>
-      <c r="E119" t="n">
-        <v>107</v>
-      </c>
-      <c r="F119" t="n">
-        <v>129</v>
-      </c>
-      <c r="G119" t="n">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>B0DJP82ML2</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Z890I AORUS ULTRA</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>37.768134</v>
-      </c>
-      <c r="D120" t="n">
-        <v>36</v>
-      </c>
-      <c r="E120" t="n">
-        <v>45</v>
-      </c>
-      <c r="F120" t="n">
-        <v>54</v>
-      </c>
-      <c r="G120" t="n">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>B0DJP8Q6JK</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>47.4622226</v>
-      </c>
-      <c r="D121" t="n">
-        <v>69</v>
-      </c>
-      <c r="E121" t="n">
-        <v>84</v>
-      </c>
-      <c r="F121" t="n">
-        <v>102</v>
-      </c>
-      <c r="G121" t="n">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>B0DJP9FZYK</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Z890M GAMING X</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>39.2351426</v>
-      </c>
-      <c r="D122" t="n">
-        <v>71</v>
-      </c>
-      <c r="E122" t="n">
-        <v>88</v>
-      </c>
-      <c r="F122" t="n">
-        <v>109</v>
-      </c>
-      <c r="G122" t="n">
-        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.320000000000001</v>
+        <v>4.56</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>735</v>
+        <v>712.5</v>
       </c>
       <c r="D3" t="n">
         <v>575</v>
@@ -527,2594 +527,3626 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B09JZFT4SN</t>
+          <t>B083NMK4BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z690 AORUS ULTRA</t>
+          <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.52</v>
+        <v>2.8</v>
       </c>
       <c r="D4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B09JZGTYXJ</t>
+          <t>B09JZFT4SN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z690 UD AX DDR4</t>
+          <t>Z690 AORUS ULTRA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8</v>
+        <v>6.000000000000002</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B07T6N8N56</t>
+          <t>B09JZGTYXJ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B365M DS3H</t>
+          <t>Z690 UD AX DDR4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B08R5736B3</t>
+          <t>B07T6N8N56</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B550M DS3H AC</t>
+          <t>B365M DS3H</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>429</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>310</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>447</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B0BH6XND27</t>
+          <t>B08R5736B3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX</t>
+          <t>B550M DS3H AC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>409</v>
+        <v>243</v>
       </c>
       <c r="D8" t="n">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="E8" t="n">
-        <v>442</v>
+        <v>375</v>
       </c>
       <c r="F8" t="n">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="G8" t="n">
-        <v>614</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B083NK82QJ</t>
+          <t>B0BH6XND27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>H610I DDR4</t>
+          <t>B650M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>486.2</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>374</v>
       </c>
       <c r="E9" t="n">
-        <v>25</v>
+        <v>442</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>509</v>
       </c>
       <c r="G9" t="n">
-        <v>42</v>
+        <v>614</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B08LGKGBKT</t>
+          <t>B083NK82QJ</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B550 GAMING X V2</t>
+          <t>H610I DDR4</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>507</v>
+        <v>26</v>
       </c>
       <c r="D10" t="n">
-        <v>651</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>785</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
-        <v>935</v>
+        <v>31</v>
       </c>
       <c r="G10" t="n">
-        <v>1171</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B089FY7QT1</t>
+          <t>B08KWMXGQW</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B550M DS3H</t>
+          <t>B450M DS3H V2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.040000000000001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GC-WB1733D-I</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11.84</v>
+        <v>769.8000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>651</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>785</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>935</v>
       </c>
       <c r="G12" t="n">
-        <v>24</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B089FY7QT1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>B550M DS3H</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2400</v>
+        <v>4.32</v>
       </c>
       <c r="D13" t="n">
-        <v>2394</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>2609</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>2763</v>
+        <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>2987</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B07VNBC5PS</t>
+          <t>B07GBM3M88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GC-WBAX200</t>
+          <t>GC-WB1733D-I</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>167</v>
+        <v>15.6</v>
       </c>
       <c r="D14" t="n">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>174</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="G14" t="n">
-        <v>246</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.6</v>
+        <v>2385</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>2394</v>
       </c>
       <c r="E15" t="n">
-        <v>22</v>
+        <v>2609</v>
       </c>
       <c r="F15" t="n">
-        <v>31</v>
+        <v>2763</v>
       </c>
       <c r="G15" t="n">
-        <v>45</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B083NN4MLZ</t>
+          <t>B07VNBC5PS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Z690 AERO G</t>
+          <t>GC-WBAX200</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3200000000000001</v>
+        <v>116</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>143</v>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="G16" t="n">
-        <v>8</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B0BH9BBLHB</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Z790 AERO G</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>29.4</v>
+        <v>3.82</v>
       </c>
       <c r="D17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B0BHTMXMRQ</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Z790 UD AC</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>210</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>191</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>229</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>324</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B0BH9BBLHB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B450M DS3H</t>
+          <t>Z790 AERO G</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.84</v>
+        <v>17.74</v>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G19" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B0BHTMXMRQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z790 UD AC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>497</v>
+        <v>226</v>
       </c>
       <c r="D20" t="n">
-        <v>407</v>
+        <v>191</v>
       </c>
       <c r="E20" t="n">
-        <v>470</v>
+        <v>229</v>
       </c>
       <c r="F20" t="n">
-        <v>524</v>
+        <v>265</v>
       </c>
       <c r="G20" t="n">
-        <v>606</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B07FW85VFT</t>
+          <t>B07FWVJSHC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B450 AORUS PRO WIFI</t>
+          <t>B450M DS3H</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>10.96</v>
+        <v>2.32</v>
       </c>
       <c r="D21" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
+          <t>B08F7BHDLY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B450M DS3H WIFI</t>
+          <t>A520I AC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>527.4000000000001</v>
+        <v>465</v>
       </c>
       <c r="D22" t="n">
-        <v>626</v>
+        <v>407</v>
       </c>
       <c r="E22" t="n">
-        <v>756</v>
+        <v>470</v>
       </c>
       <c r="F22" t="n">
-        <v>901</v>
+        <v>524</v>
       </c>
       <c r="G22" t="n">
-        <v>1128</v>
+        <v>606</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B09J5TC4F8</t>
+          <t>B07FW85VFT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Z690 GAMING X DDR4</t>
+          <t>B450 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3200000000000001</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B08B7ZX8Q2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>B450M DS3H WIFI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>610</v>
+        <v>396.4</v>
       </c>
       <c r="D24" t="n">
-        <v>934</v>
+        <v>626</v>
       </c>
       <c r="E24" t="n">
-        <v>1094</v>
+        <v>756</v>
       </c>
       <c r="F24" t="n">
-        <v>1241</v>
+        <v>901</v>
       </c>
       <c r="G24" t="n">
-        <v>1466</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B079NYQQJJ</t>
+          <t>B08WPV5HS7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GA-A320M-S2H</t>
+          <t>Z590 AORUS ELITE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.6400000000000001</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
-      </c>
-      <c r="E25" t="n">
-        <v>8</v>
-      </c>
-      <c r="F25" t="n">
-        <v>12</v>
-      </c>
-      <c r="G25" t="n">
-        <v>24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
+          <t>B09J5TC4F8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>A520M S2H</t>
+          <t>Z690 GAMING X DDR4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>557</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>521</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>629</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>742</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>919</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B089FWWN62</t>
+          <t>B0BH9DXY38</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
+          <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>54.88000000000001</v>
+        <v>1214.2</v>
       </c>
       <c r="D27" t="n">
-        <v>163</v>
+        <v>934</v>
       </c>
       <c r="E27" t="n">
-        <v>197</v>
+        <v>1094</v>
       </c>
       <c r="F27" t="n">
-        <v>235</v>
+        <v>1241</v>
       </c>
       <c r="G27" t="n">
-        <v>295</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B0BH9F7DKS</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER</t>
+          <t>GA-A320M-S2H</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>98</v>
+        <v>1.12</v>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>112</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>153</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B07WL5MFXL</t>
+          <t>B08F7HPJ4F</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>X570 AORUS ELITE WIFI</t>
+          <t>A520M S2H</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3.800000000000001</v>
+        <v>677.3000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>521</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>629</v>
       </c>
       <c r="F29" t="n">
-        <v>16</v>
+        <v>742</v>
       </c>
       <c r="G29" t="n">
-        <v>28</v>
+        <v>919</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B0BSB6MB15</t>
+          <t>B089FWWN62</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B760M DS3H DDR4</t>
+          <t>B550I AORUS PRO AX</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>606</v>
+        <v>209.3</v>
       </c>
       <c r="D30" t="n">
-        <v>581</v>
+        <v>163</v>
       </c>
       <c r="E30" t="n">
-        <v>678</v>
+        <v>197</v>
       </c>
       <c r="F30" t="n">
-        <v>766</v>
+        <v>235</v>
       </c>
       <c r="G30" t="n">
-        <v>899</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
+          <t>B0BH9F7DKS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>X670 AORUS ELITE AX</t>
+          <t>Z790 AORUS MASTER</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>557</v>
+        <v>91.00000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>474</v>
+        <v>70</v>
       </c>
       <c r="E31" t="n">
-        <v>559</v>
+        <v>86</v>
       </c>
       <c r="F31" t="n">
-        <v>639</v>
+        <v>112</v>
       </c>
       <c r="G31" t="n">
-        <v>761</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B07WL5MFXL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>X570 AORUS ELITE WIFI</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>16.16</v>
+        <v>4.4</v>
       </c>
       <c r="D32" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
+          <t>B0BSB6MB15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Z390 UD</t>
+          <t>B760M DS3H DDR4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.08000000000000002</v>
+        <v>755.3</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>581</v>
       </c>
       <c r="E33" t="n">
-        <v>1</v>
+        <v>678</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>766</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>899</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B083GT6ZBX</t>
+          <t>B0BF7FT26Z</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Z590 AORUS TACHYON</t>
+          <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>616.2</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>639</v>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>761</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B08BR1XDX5</t>
+          <t>B0BF7CL99N</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE</t>
+          <t>X670E AORUS MASTER</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>12.88</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F35" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="G35" t="n">
-        <v>51</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B0BH79FMW3</t>
+          <t>B07HS59X7P</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>B650 AERO G</t>
+          <t>Z390 UD</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>73</v>
+        <v>0.14</v>
       </c>
       <c r="D36" t="n">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="G36" t="n">
-        <v>99</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
+          <t>B083GT6ZBX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B650 AORUS ELITE AX</t>
+          <t>Z590 AORUS TACHYON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2638.4</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1965</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2293</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2587</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>3031</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B0BJ5SDGXK</t>
+          <t>B08BR1XDX5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B660M A ELITE AX DDR4</t>
+          <t>B550M AORUS ELITE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.8400000000000002</v>
+        <v>2.36</v>
       </c>
       <c r="D38" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G38" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B0BSB4TYHV</t>
+          <t>B0BH79FMW3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B760M AORUS ELITE AX</t>
+          <t>B650 AERO G</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>6</v>
+        <v>49.2</v>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E39" t="n">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F39" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G39" t="n">
-        <v>62</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
+          <t>B0BH7GTY9C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Z490 AORUS MASTER</t>
+          <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>2554.5</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1965</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>2293</v>
       </c>
       <c r="F40" t="n">
-        <v>2</v>
+        <v>2587</v>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
+          <t>B0BJ5SDGXK</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Z790 GAMING X AX</t>
+          <t>B660M A ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>80</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>59</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
-        <v>124</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B0BSNYN4XQ</t>
+          <t>B0BSB4TYHV</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B760 DS3H AC DDR4</t>
+          <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>81.60000000000001</v>
+        <v>3.34</v>
       </c>
       <c r="D42" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E42" t="n">
+        <v>13</v>
+      </c>
+      <c r="F42" t="n">
+        <v>30</v>
+      </c>
+      <c r="G42" t="n">
         <v>62</v>
-      </c>
-      <c r="F42" t="n">
-        <v>77</v>
-      </c>
-      <c r="G42" t="n">
-        <v>100</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B0BVWQ3BMJ</t>
+          <t>B087GH5SK2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO DDR4</t>
+          <t>Z490 AORUS MASTER</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14.56</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>89</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B0BSP61QZC</t>
+          <t>B0BSVYXM5C</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B760M DS3H AX</t>
+          <t>Z790 GAMING X AX</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>439</v>
+        <v>41.3</v>
       </c>
       <c r="D44" t="n">
-        <v>341</v>
+        <v>59</v>
       </c>
       <c r="E44" t="n">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="F44" t="n">
-        <v>449</v>
+        <v>91</v>
       </c>
       <c r="G44" t="n">
-        <v>526</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B083R7SWF5</t>
+          <t>B0BSNYN4XQ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B760M DS3H AX DDR4</t>
+          <t>B760 DS3H AC DDR4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.6800000000000002</v>
+        <v>66.3</v>
       </c>
       <c r="D45" t="n">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E45" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="F45" t="n">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="G45" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B0BVWQ3BMJ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Z690 AORUS ELITE AX DDR4</t>
+          <t>B760I AORUS PRO DDR4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3.68</v>
+        <v>12.72</v>
       </c>
       <c r="D46" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F46" t="n">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="G46" t="n">
-        <v>29</v>
+        <v>89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B0BTQ3SVFR</t>
+          <t>B0BSP61QZC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B550 UD AC</t>
+          <t>B760M DS3H AX</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>86.32000000000001</v>
+        <v>443.3</v>
       </c>
       <c r="D47" t="n">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="E47" t="n">
-        <v>228</v>
+        <v>398</v>
       </c>
       <c r="F47" t="n">
-        <v>289</v>
+        <v>449</v>
       </c>
       <c r="G47" t="n">
-        <v>391</v>
+        <v>526</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B0BTTZFQTP</t>
+          <t>B083R7SWF5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B550M K</t>
+          <t>B760M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>902.8</v>
+        <v>1.48</v>
       </c>
       <c r="D48" t="n">
-        <v>672</v>
+        <v>8</v>
       </c>
       <c r="E48" t="n">
-        <v>796</v>
+        <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>916</v>
+        <v>12</v>
       </c>
       <c r="G48" t="n">
-        <v>1103</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B0BVBXT6P1</t>
+          <t>B09J6BWK2Z</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>H610M S2H V2 DDR4</t>
+          <t>Z690 AORUS ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>215.28</v>
+        <v>3.44</v>
       </c>
       <c r="D49" t="n">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>244</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>284</v>
+        <v>16</v>
       </c>
       <c r="G49" t="n">
-        <v>344</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B0BTQ3SVFR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>B550 UD AC</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.56</v>
+        <v>57.76000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>228</v>
       </c>
       <c r="F50" t="n">
-        <v>12</v>
+        <v>289</v>
       </c>
       <c r="G50" t="n">
-        <v>21</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B083R826VW</t>
+          <t>B0BTTZFQTP</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B650I AORUS ULTRA</t>
+          <t>B550M K</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>238</v>
+        <v>873.6</v>
       </c>
       <c r="D51" t="n">
-        <v>189</v>
+        <v>672</v>
       </c>
       <c r="E51" t="n">
-        <v>225</v>
+        <v>796</v>
       </c>
       <c r="F51" t="n">
-        <v>261</v>
+        <v>916</v>
       </c>
       <c r="G51" t="n">
-        <v>317</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B0BSB6MZ2L</t>
+          <t>B07STNZF9L</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>B760 AORUS ELITE AX</t>
+          <t>X570 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>159.6</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>105</v>
-      </c>
-      <c r="E52" t="n">
-        <v>128</v>
-      </c>
-      <c r="F52" t="n">
-        <v>154</v>
-      </c>
-      <c r="G52" t="n">
-        <v>197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B083R7T5P4</t>
+          <t>B0BVBXT6P1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Z790 UD AX</t>
+          <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.28</v>
+        <v>210</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="E53" t="n">
-        <v>7</v>
+        <v>244</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="G53" t="n">
-        <v>24</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B0BZQ43XXL</t>
+          <t>B083R7PHMX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Z790I AORUS ULTRA</t>
+          <t>Z790 D DDR4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>12.48</v>
+        <v>2.08</v>
       </c>
       <c r="D54" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F54" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G54" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B09J64TBJG</t>
+          <t>B083R826VW</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Z690 AORUS MASTER</t>
+          <t>B650I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.6400000000000001</v>
+        <v>180</v>
       </c>
       <c r="D55" t="n">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E55" t="n">
-        <v>4</v>
+        <v>225</v>
       </c>
       <c r="F55" t="n">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="G55" t="n">
-        <v>20</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B0BYBHW4SH</t>
+          <t>B0BSB6MZ2L</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX</t>
+          <t>B760 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>619.2</v>
+        <v>136.5</v>
       </c>
       <c r="D56" t="n">
-        <v>387</v>
+        <v>105</v>
       </c>
       <c r="E56" t="n">
-        <v>468</v>
+        <v>128</v>
       </c>
       <c r="F56" t="n">
-        <v>553</v>
+        <v>154</v>
       </c>
       <c r="G56" t="n">
-        <v>688</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B0BZ54DR5L</t>
+          <t>B083R7T5P4</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>B760 GAMING X AX</t>
+          <t>Z790 UD AX</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>92.60000000000001</v>
+        <v>1.64</v>
       </c>
       <c r="D57" t="n">
-        <v>66</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>80</v>
+        <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="G57" t="n">
-        <v>132</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B0C4CKCRYW</t>
+          <t>B0BZQ43XXL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO</t>
+          <t>Z790I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>70.40000000000001</v>
+        <v>11.34</v>
       </c>
       <c r="D58" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="E58" t="n">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="F58" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G58" t="n">
-        <v>93</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B0BZQ1PWGJ</t>
+          <t>B09J64TBJG</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B760M C</t>
+          <t>Z690 AORUS MASTER</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>217</v>
+        <v>1.12</v>
       </c>
       <c r="D59" t="n">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>177</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>214</v>
+        <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B0BZQ1TNW8</t>
+          <t>B0BYBHW4SH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE AX</t>
+          <t>B650 GAMING X AX</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>239.2</v>
+        <v>503.1</v>
       </c>
       <c r="D60" t="n">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="E60" t="n">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="F60" t="n">
-        <v>455</v>
+        <v>553</v>
       </c>
       <c r="G60" t="n">
-        <v>569</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
+          <t>B0BZ54DR5L</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Q670M D3H</t>
+          <t>B760 GAMING X AX</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5.2</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E61" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F61" t="n">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="G61" t="n">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B0C4CKFV65</t>
+          <t>B0C4CKCRYW</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>A620M S2H</t>
+          <t>B760I AORUS PRO</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>114</v>
+        <v>57.2</v>
       </c>
       <c r="D62" t="n">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E62" t="n">
-        <v>123</v>
+        <v>56</v>
       </c>
       <c r="F62" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="G62" t="n">
-        <v>191</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B0BZ17BQ4Z</t>
+          <t>B0BZQ1PWGJ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B650M K</t>
+          <t>B760M C</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>18.36</v>
+        <v>189.8</v>
       </c>
       <c r="D63" t="n">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E63" t="n">
-        <v>47</v>
+        <v>177</v>
       </c>
       <c r="F63" t="n">
-        <v>74</v>
+        <v>214</v>
       </c>
       <c r="G63" t="n">
-        <v>125</v>
+        <v>270</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B0C4CB8G8D</t>
+          <t>B0BZQ1TNW8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>H610I</t>
+          <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>141</v>
+        <v>224.7</v>
       </c>
       <c r="D64" t="n">
-        <v>114</v>
+        <v>315</v>
       </c>
       <c r="E64" t="n">
-        <v>136</v>
+        <v>382</v>
       </c>
       <c r="F64" t="n">
-        <v>158</v>
+        <v>455</v>
       </c>
       <c r="G64" t="n">
-        <v>195</v>
+        <v>569</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
+          <t>B0C1M2BDNR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>H610M S2H</t>
+          <t>Q670M D3H</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>226.4</v>
+        <v>8</v>
       </c>
       <c r="D65" t="n">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
-        <v>197</v>
+        <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B0C4CKFV65</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>A620M S2H</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5.440000000000001</v>
+        <v>127.9</v>
       </c>
       <c r="D66" t="n">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="E66" t="n">
-        <v>12</v>
+        <v>123</v>
       </c>
       <c r="F66" t="n">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="G66" t="n">
-        <v>49</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B0CH92B3S2</t>
+          <t>B0BZ17BQ4Z</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B650M D3HP</t>
+          <t>B650M K</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>300</v>
+        <v>15.04</v>
       </c>
       <c r="D67" t="n">
-        <v>216</v>
+        <v>44</v>
       </c>
       <c r="E67" t="n">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="F67" t="n">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="G67" t="n">
-        <v>358</v>
+        <v>125</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B083RW9KDM</t>
+          <t>B0C4CB8G8D</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Z790 A ELITE X WIFI7</t>
+          <t>H610I</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>118</v>
+        <v>99.24000000000002</v>
       </c>
       <c r="D68" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E68" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F68" t="n">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G68" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B0BZQ416QM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>H610M S2H</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>206.4</v>
+        <v>167</v>
       </c>
       <c r="D69" t="n">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="E69" t="n">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F69" t="n">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="G69" t="n">
-        <v>216</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B0C1ZZ57ZW</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>A620M GAMING X</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>332</v>
+        <v>4.42</v>
       </c>
       <c r="D70" t="n">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="E70" t="n">
-        <v>302</v>
+        <v>12</v>
       </c>
       <c r="F70" t="n">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="G70" t="n">
-        <v>443</v>
+        <v>49</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B0CNR8Y29S</t>
+          <t>B0CH92B3S2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>X670 GAMING X AX V2</t>
+          <t>B650M D3HP</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>248</v>
+        <v>280.8</v>
       </c>
       <c r="D71" t="n">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="E71" t="n">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="F71" t="n">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G71" t="n">
-        <v>305</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B083RW9KDM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>16.48</v>
+        <v>144.3</v>
       </c>
       <c r="D72" t="n">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="E72" t="n">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="F72" t="n">
-        <v>277</v>
+        <v>156</v>
       </c>
       <c r="G72" t="n">
-        <v>396</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B0CKS6BMH7</t>
+          <t>B083RW9TJF</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Z790 A ELITE AX ICE</t>
+          <t>Z790 AORUS PRO X</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>135</v>
+        <v>167.7</v>
       </c>
       <c r="D73" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E73" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F73" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G73" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B083RVN2VG</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>A620I AX</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>106.4</v>
+        <v>215.4</v>
       </c>
       <c r="D74" t="n">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="E74" t="n">
-        <v>96</v>
+        <v>302</v>
       </c>
       <c r="F74" t="n">
-        <v>111</v>
+        <v>356</v>
       </c>
       <c r="G74" t="n">
-        <v>137</v>
+        <v>443</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
+          <t>B0CNR8Y29S</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>B650 A ELITE AX ICE</t>
+          <t>X670 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1334.4</v>
+        <v>183.32</v>
       </c>
       <c r="D75" t="n">
-        <v>834</v>
+        <v>182</v>
       </c>
       <c r="E75" t="n">
-        <v>972</v>
+        <v>218</v>
       </c>
       <c r="F75" t="n">
-        <v>1093</v>
+        <v>253</v>
       </c>
       <c r="G75" t="n">
-        <v>1278</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B0CCWLMK56</t>
+          <t>B0CN76TH9S</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650M C V2                    </t>
+          <t>X670E AORUS PRO X</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>46.46</v>
       </c>
       <c r="D76" t="n">
-        <v>12</v>
+        <v>171</v>
       </c>
       <c r="E76" t="n">
-        <v>16</v>
+        <v>206</v>
       </c>
       <c r="F76" t="n">
-        <v>20</v>
+        <v>277</v>
       </c>
       <c r="G76" t="n">
-        <v>28</v>
+        <v>396</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
+          <t>B0CKS6BMH7</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+          <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>474</v>
+        <v>116</v>
       </c>
       <c r="D77" t="n">
-        <v>357</v>
+        <v>121</v>
       </c>
       <c r="E77" t="n">
-        <v>421</v>
+        <v>147</v>
       </c>
       <c r="F77" t="n">
-        <v>480</v>
+        <v>176</v>
       </c>
       <c r="G77" t="n">
-        <v>570</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B0CNR6L1DH</t>
+          <t>B083RVX2FQ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t xml:space="preserve">B760M D3H                     </t>
+          <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>95.80000000000001</v>
+        <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E78" t="n">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="F78" t="n">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="G78" t="n">
-        <v>177</v>
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B0CMJSH15D</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>91.60000000000001</v>
+        <v>1084.2</v>
       </c>
       <c r="D79" t="n">
-        <v>58</v>
+        <v>834</v>
       </c>
       <c r="E79" t="n">
-        <v>73</v>
+        <v>972</v>
       </c>
       <c r="F79" t="n">
-        <v>86</v>
+        <v>1093</v>
       </c>
       <c r="G79" t="n">
-        <v>107</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B09SVZRM13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>B550 AORUS ELITE AX V3</t>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="G80" t="n">
-        <v>306</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
+          <t>B0CCWLMK56</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B650 EAGLE AX</t>
+          <t xml:space="preserve">B650M C V2                    </t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2526</v>
+        <v>7.120000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>3129</v>
+        <v>12</v>
       </c>
       <c r="E81" t="n">
-        <v>3656</v>
+        <v>16</v>
       </c>
       <c r="F81" t="n">
-        <v>4132</v>
+        <v>20</v>
       </c>
       <c r="G81" t="n">
-        <v>4858</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B0CTTY491F</t>
+          <t>B0CMK1W2YX</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX V2</t>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>54.2</v>
+        <v>464.1</v>
       </c>
       <c r="D82" t="n">
-        <v>69</v>
+        <v>357</v>
       </c>
       <c r="E82" t="n">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="F82" t="n">
-        <v>114</v>
+        <v>480</v>
       </c>
       <c r="G82" t="n">
-        <v>176</v>
+        <v>570</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B0CTNYTX8Y</t>
+          <t>B0CNR6L1DH</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B650 UD AC</t>
+          <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>12.6</v>
+        <v>86.66</v>
       </c>
       <c r="D83" t="n">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="E83" t="n">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="F83" t="n">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="G83" t="n">
-        <v>37</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B0CTNXBRJV</t>
+          <t>B0D2V2FPS7</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B650E AORUS Elite X AX ICE</t>
+          <t>A620M GAMING X AX</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>201</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>162</v>
+        <v>58</v>
       </c>
       <c r="E84" t="n">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="F84" t="n">
-        <v>224</v>
+        <v>86</v>
       </c>
       <c r="G84" t="n">
-        <v>271</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B083SJLWL9</t>
+          <t>B0D8WH9NG3</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX ICE</t>
+          <t>B550 AORUS ELITE AX V3</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>258</v>
+        <v>172.1</v>
       </c>
       <c r="D85" t="n">
-        <v>320</v>
+        <v>179</v>
       </c>
       <c r="E85" t="n">
-        <v>368</v>
+        <v>214</v>
       </c>
       <c r="F85" t="n">
-        <v>413</v>
+        <v>250</v>
       </c>
       <c r="G85" t="n">
-        <v>478</v>
+        <v>306</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B0D8WKK29M</t>
+          <t>B083TZ68H1</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B650M C V3</t>
+          <t>B650 EAGLE AX</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3646.5</v>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>3129</v>
       </c>
       <c r="E86" t="n">
-        <v>4</v>
+        <v>3656</v>
       </c>
       <c r="F86" t="n">
-        <v>8</v>
+        <v>4132</v>
       </c>
       <c r="G86" t="n">
-        <v>12</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B0CTTXH95Q</t>
+          <t>B0CTTY491F</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B650M D3HP AX</t>
+          <t>B650 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>50.56</v>
+        <v>54.54000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="E87" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="F87" t="n">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="G87" t="n">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
+          <t>B0CTNYTX8Y</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B650M GAMING PLUS WIFI</t>
+          <t>B650 UD AC</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>405.4</v>
+        <v>14.28</v>
       </c>
       <c r="D88" t="n">
-        <v>613</v>
+        <v>18</v>
       </c>
       <c r="E88" t="n">
-        <v>722</v>
+        <v>24</v>
       </c>
       <c r="F88" t="n">
-        <v>827</v>
+        <v>28</v>
       </c>
       <c r="G88" t="n">
-        <v>985</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B0CTTW2MVG</t>
+          <t>B0DFHPZBGM</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B760 DS3H AC</t>
+          <t>B650 UD AX</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>10.2</v>
+        <v>15.6</v>
       </c>
       <c r="D89" t="n">
         <v>12</v>
       </c>
       <c r="E89" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F89" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G89" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B0CTTWZCVK</t>
+          <t>B0CTNXBRJV</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B760 DS3H AX</t>
+          <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>10.24</v>
+        <v>163.8</v>
       </c>
       <c r="D90" t="n">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="E90" t="n">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>224</v>
       </c>
       <c r="G90" t="n">
-        <v>27</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B0D54QJ9CJ</t>
+          <t>B083SJLWL9</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B760M GAMING PLUS WIFI DDR4</t>
+          <t>B650M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>624.0000000000001</v>
+        <v>318.2</v>
       </c>
       <c r="D91" t="n">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="E91" t="n">
-        <v>453</v>
+        <v>368</v>
       </c>
       <c r="F91" t="n">
-        <v>507</v>
+        <v>413</v>
       </c>
       <c r="G91" t="n">
-        <v>592</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0D33M6CB7</t>
+          <t>B0D8WKK29M</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GC-WIFI7</t>
+          <t>B650M C V3</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>206</v>
+        <v>3.44</v>
       </c>
       <c r="D92" t="n">
-        <v>164</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>194</v>
+        <v>4</v>
       </c>
       <c r="F92" t="n">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="G92" t="n">
-        <v>265</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0CPW1F841</t>
+          <t>B0CTTXH95Q</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>TRX50 AERO D</t>
+          <t>B650M D3HP AX</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>53</v>
+        <v>42.68000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E93" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="F93" t="n">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="G93" t="n">
-        <v>137</v>
+        <v>168</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B0CTTVFWHM</t>
+          <t>B0D2V4VH2C</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X WIFI7</t>
+          <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>170.8</v>
+        <v>369.66</v>
       </c>
       <c r="D94" t="n">
-        <v>111</v>
+        <v>613</v>
       </c>
       <c r="E94" t="n">
-        <v>133</v>
+        <v>722</v>
       </c>
       <c r="F94" t="n">
-        <v>155</v>
+        <v>827</v>
       </c>
       <c r="G94" t="n">
-        <v>189</v>
+        <v>985</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B0CTTWH6TD</t>
+          <t>B0CTTW2MVG</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Z790 D AC</t>
+          <t>B760 DS3H AC</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>15</v>
+        <v>7.46</v>
       </c>
       <c r="D95" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E95" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F95" t="n">
+        <v>21</v>
+      </c>
+      <c r="G95" t="n">
         <v>29</v>
-      </c>
-      <c r="G95" t="n">
-        <v>37</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B0CTNPZLNH</t>
+          <t>B0CTTWZCVK</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Z790 Eagle AX</t>
+          <t>B760 DS3H AX</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>310.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>236</v>
+        <v>16</v>
       </c>
       <c r="F96" t="n">
-        <v>279</v>
+        <v>20</v>
       </c>
       <c r="G96" t="n">
-        <v>349</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B0D8WH39QJ</t>
+          <t>B0D54QJ9CJ</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Z790 GAMING PLUS AX</t>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>47.2</v>
+        <v>330.6</v>
       </c>
       <c r="D97" t="n">
-        <v>49</v>
+        <v>390</v>
       </c>
       <c r="E97" t="n">
-        <v>50</v>
+        <v>453</v>
       </c>
       <c r="F97" t="n">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="G97" t="n">
-        <v>140</v>
+        <v>592</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
+          <t>B0D33M6CB7</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Z790 S WIFI DDR4</t>
+          <t>GC-WIFI7</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>442</v>
+        <v>213.2</v>
       </c>
       <c r="D98" t="n">
-        <v>467</v>
+        <v>164</v>
       </c>
       <c r="E98" t="n">
-        <v>552</v>
+        <v>194</v>
       </c>
       <c r="F98" t="n">
-        <v>636</v>
+        <v>222</v>
       </c>
       <c r="G98" t="n">
-        <v>767</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>53.84</v>
+      </c>
+      <c r="D99" t="n">
+        <v>84</v>
+      </c>
+      <c r="E99" t="n">
+        <v>100</v>
+      </c>
+      <c r="F99" t="n">
+        <v>114</v>
+      </c>
+      <c r="G99" t="n">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1694</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2004</v>
+      </c>
+      <c r="F100" t="n">
+        <v>2304</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2769</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>908</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1220</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1409</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1572</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>980.8000000000001</v>
+      </c>
+      <c r="D102" t="n">
+        <v>952</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1124</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1289</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>444.6</v>
+      </c>
+      <c r="D103" t="n">
+        <v>342</v>
+      </c>
+      <c r="E103" t="n">
+        <v>404</v>
+      </c>
+      <c r="F103" t="n">
+        <v>463</v>
+      </c>
+      <c r="G103" t="n">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>466.6</v>
+      </c>
+      <c r="D104" t="n">
+        <v>499</v>
+      </c>
+      <c r="E104" t="n">
+        <v>589</v>
+      </c>
+      <c r="F104" t="n">
+        <v>674</v>
+      </c>
+      <c r="G104" t="n">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>626.8000000000001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>900</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1047</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1179</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>276.9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>213</v>
+      </c>
+      <c r="E106" t="n">
+        <v>253</v>
+      </c>
+      <c r="F106" t="n">
+        <v>290</v>
+      </c>
+      <c r="G106" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="D107" t="n">
+        <v>246</v>
+      </c>
+      <c r="E107" t="n">
+        <v>288</v>
+      </c>
+      <c r="F107" t="n">
+        <v>324</v>
+      </c>
+      <c r="G107" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>939.9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>723</v>
+      </c>
+      <c r="E108" t="n">
+        <v>823</v>
+      </c>
+      <c r="F108" t="n">
+        <v>903</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>111</v>
+      </c>
+      <c r="E109" t="n">
+        <v>133</v>
+      </c>
+      <c r="F109" t="n">
+        <v>155</v>
+      </c>
+      <c r="G109" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>15.02</v>
+      </c>
+      <c r="D110" t="n">
+        <v>17</v>
+      </c>
+      <c r="E110" t="n">
+        <v>22</v>
+      </c>
+      <c r="F110" t="n">
+        <v>29</v>
+      </c>
+      <c r="G110" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>240.6</v>
+      </c>
+      <c r="D111" t="n">
+        <v>194</v>
+      </c>
+      <c r="E111" t="n">
+        <v>236</v>
+      </c>
+      <c r="F111" t="n">
+        <v>279</v>
+      </c>
+      <c r="G111" t="n">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>58.9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>49</v>
+      </c>
+      <c r="E112" t="n">
+        <v>50</v>
+      </c>
+      <c r="F112" t="n">
+        <v>81</v>
+      </c>
+      <c r="G112" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>464.5</v>
+      </c>
+      <c r="D113" t="n">
+        <v>467</v>
+      </c>
+      <c r="E113" t="n">
+        <v>552</v>
+      </c>
+      <c r="F113" t="n">
+        <v>636</v>
+      </c>
+      <c r="G113" t="n">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
           <t>B0D2PK3CC1</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Z790M AORUS ELITE AX ICE</t>
         </is>
       </c>
-      <c r="C99" t="n">
-        <v>201</v>
-      </c>
-      <c r="D99" t="n">
+      <c r="C114" t="n">
+        <v>179.4</v>
+      </c>
+      <c r="D114" t="n">
         <v>180</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E114" t="n">
         <v>212</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F114" t="n">
         <v>242</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G114" t="n">
         <v>289</v>
       </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>28.708</v>
+      </c>
+      <c r="D115" t="n">
+        <v>37</v>
+      </c>
+      <c r="E115" t="n">
+        <v>45</v>
+      </c>
+      <c r="F115" t="n">
+        <v>56</v>
+      </c>
+      <c r="G115" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>120.38</v>
+      </c>
+      <c r="D116" t="n">
+        <v>142</v>
+      </c>
+      <c r="E116" t="n">
+        <v>170</v>
+      </c>
+      <c r="F116" t="n">
+        <v>197</v>
+      </c>
+      <c r="G116" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>74.10000000000001</v>
+      </c>
+      <c r="D117" t="n">
+        <v>57</v>
+      </c>
+      <c r="E117" t="n">
+        <v>70</v>
+      </c>
+      <c r="F117" t="n">
+        <v>85</v>
+      </c>
+      <c r="G117" t="n">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="D118" t="n">
+        <v>20</v>
+      </c>
+      <c r="E118" t="n">
+        <v>26</v>
+      </c>
+      <c r="F118" t="n">
+        <v>33</v>
+      </c>
+      <c r="G118" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>21.42</v>
+      </c>
+      <c r="D119" t="n">
+        <v>36</v>
+      </c>
+      <c r="E119" t="n">
+        <v>44</v>
+      </c>
+      <c r="F119" t="n">
+        <v>54</v>
+      </c>
+      <c r="G119" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>35.12</v>
+      </c>
+      <c r="D120" t="n">
+        <v>72</v>
+      </c>
+      <c r="E120" t="n">
+        <v>89</v>
+      </c>
+      <c r="F120" t="n">
+        <v>109</v>
+      </c>
+      <c r="G120" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>39.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>56</v>
+      </c>
+      <c r="E121" t="n">
+        <v>69</v>
+      </c>
+      <c r="F121" t="n">
+        <v>84</v>
+      </c>
+      <c r="G121" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="D122" t="n">
+        <v>16</v>
+      </c>
+      <c r="E122" t="n">
+        <v>20</v>
+      </c>
+      <c r="F122" t="n">
+        <v>26</v>
+      </c>
+      <c r="G122" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>61.60000000000001</v>
+      </c>
+      <c r="D123" t="n">
+        <v>89</v>
+      </c>
+      <c r="E123" t="n">
+        <v>107</v>
+      </c>
+      <c r="F123" t="n">
+        <v>129</v>
+      </c>
+      <c r="G123" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>32.96</v>
+      </c>
+      <c r="D124" t="n">
+        <v>36</v>
+      </c>
+      <c r="E124" t="n">
+        <v>45</v>
+      </c>
+      <c r="F124" t="n">
+        <v>54</v>
+      </c>
+      <c r="G124" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>52.78</v>
+      </c>
+      <c r="D125" t="n">
+        <v>69</v>
+      </c>
+      <c r="E125" t="n">
+        <v>84</v>
+      </c>
+      <c r="F125" t="n">
+        <v>102</v>
+      </c>
+      <c r="G125" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>47.858</v>
+      </c>
+      <c r="D126" t="n">
+        <v>71</v>
+      </c>
+      <c r="E126" t="n">
+        <v>88</v>
+      </c>
+      <c r="F126" t="n">
+        <v>109</v>
+      </c>
+      <c r="G126" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4</v>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>17</v>
+      </c>
+      <c r="D128" t="n">
+        <v>13</v>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>284</v>
+      </c>
+      <c r="D129" t="n">
+        <v>115</v>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>331</v>
+      </c>
+      <c r="D130" t="n">
+        <v>195</v>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>232</v>
+      </c>
+      <c r="D131" t="n">
+        <v>133</v>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>44</v>
+      </c>
+      <c r="D132" t="n">
+        <v>16</v>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>74</v>
+      </c>
+      <c r="D133" t="n">
+        <v>14</v>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>165</v>
+      </c>
+      <c r="D134" t="n">
+        <v>112</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>435</v>
+      </c>
+      <c r="D135" t="n">
+        <v>310</v>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>90</v>
+      </c>
+      <c r="D136" t="n">
+        <v>43</v>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>226</v>
+      </c>
+      <c r="D137" t="n">
+        <v>119</v>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9</v>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>712.5</v>
+        <v>718.5</v>
       </c>
       <c r="D3" t="n">
         <v>575</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D8" t="n">
         <v>310</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>769.8000000000001</v>
+        <v>770.8000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>651</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.6</v>
+        <v>9.920000000000002</v>
       </c>
       <c r="D14" t="n">
         <v>12</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2385</v>
+        <v>2395</v>
       </c>
       <c r="D15" t="n">
         <v>2394</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D16" t="n">
         <v>143</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D20" t="n">
         <v>191</v>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="D22" t="n">
         <v>407</v>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>396.4</v>
+        <v>441.6000000000001</v>
       </c>
       <c r="D24" t="n">
         <v>626</v>
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>209.3</v>
+        <v>52.26000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>163</v>
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="D38" t="n">
         <v>16</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>49.2</v>
+        <v>48.2</v>
       </c>
       <c r="D39" t="n">
         <v>54</v>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>57.76000000000001</v>
+        <v>58.16000000000001</v>
       </c>
       <c r="D50" t="n">
         <v>186</v>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" t="n">
         <v>206</v>
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D55" t="n">
         <v>189</v>
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>11.34</v>
+        <v>13.34</v>
       </c>
       <c r="D58" t="n">
         <v>19</v>
@@ -2144,7 +2144,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>224.7</v>
+        <v>256.3</v>
       </c>
       <c r="D64" t="n">
         <v>315</v>
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="D65" t="n">
         <v>8</v>
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>99.24000000000002</v>
+        <v>148.2</v>
       </c>
       <c r="D68" t="n">
         <v>114</v>
@@ -2279,7 +2279,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D69" t="n">
         <v>147</v>
@@ -2414,7 +2414,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>215.4</v>
+        <v>325</v>
       </c>
       <c r="D74" t="n">
         <v>250</v>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>183.32</v>
+        <v>236.6</v>
       </c>
       <c r="D75" t="n">
         <v>182</v>
@@ -2468,7 +2468,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>46.46</v>
+        <v>46.86</v>
       </c>
       <c r="D76" t="n">
         <v>171</v>
@@ -2603,7 +2603,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.120000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="D81" t="n">
         <v>12</v>
@@ -2657,7 +2657,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>86.66</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="D83" t="n">
         <v>101</v>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>54.54000000000001</v>
+        <v>39</v>
       </c>
       <c r="D87" t="n">
         <v>69</v>
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14.28</v>
+        <v>14.68</v>
       </c>
       <c r="D88" t="n">
         <v>18</v>
@@ -2927,7 +2927,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>42.68000000000001</v>
+        <v>43.08</v>
       </c>
       <c r="D93" t="n">
         <v>58</v>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>369.66</v>
+        <v>514.3</v>
       </c>
       <c r="D94" t="n">
         <v>613</v>
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1210</v>
+        <v>1184</v>
       </c>
       <c r="D100" t="n">
         <v>1694</v>
@@ -3143,7 +3143,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>908</v>
+        <v>758.2</v>
       </c>
       <c r="D101" t="n">
         <v>1220</v>
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>626.8000000000001</v>
+        <v>626.4000000000001</v>
       </c>
       <c r="D105" t="n">
         <v>900</v>
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15.02</v>
+        <v>15.42</v>
       </c>
       <c r="D110" t="n">
         <v>17</v>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>28.708</v>
+        <v>22.87</v>
       </c>
       <c r="D115" t="n">
         <v>37</v>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>120.38</v>
+        <v>124.78</v>
       </c>
       <c r="D116" t="n">
         <v>142</v>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>9.48</v>
+        <v>11.48</v>
       </c>
       <c r="D118" t="n">
         <v>20</v>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>21.42</v>
+        <v>22.22</v>
       </c>
       <c r="D119" t="n">
         <v>36</v>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>35.12</v>
+        <v>38.32000000000001</v>
       </c>
       <c r="D120" t="n">
         <v>72</v>
@@ -3683,7 +3683,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>39.1</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="D121" t="n">
         <v>56</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>13.76</v>
+        <v>14.56</v>
       </c>
       <c r="D122" t="n">
         <v>16</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>61.60000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="D123" t="n">
         <v>89</v>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>32.96</v>
+        <v>27.36</v>
       </c>
       <c r="D124" t="n">
         <v>36</v>
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>52.78</v>
+        <v>45.58</v>
       </c>
       <c r="D125" t="n">
         <v>69</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>47.858</v>
+        <v>43.26000000000001</v>
       </c>
       <c r="D126" t="n">
         <v>71</v>
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D128" t="n">
         <v>13</v>
@@ -3887,7 +3887,7 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="D129" t="n">
         <v>115</v>
@@ -3908,7 +3908,7 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>331</v>
+        <v>176</v>
       </c>
       <c r="D130" t="n">
         <v>195</v>
@@ -3929,7 +3929,7 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>232</v>
+        <v>120</v>
       </c>
       <c r="D131" t="n">
         <v>133</v>
@@ -3950,7 +3950,7 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D132" t="n">
         <v>16</v>
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D133" t="n">
         <v>14</v>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="D134" t="n">
         <v>112</v>
@@ -4013,7 +4013,7 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>435</v>
+        <v>279</v>
       </c>
       <c r="D135" t="n">
         <v>310</v>
@@ -4034,7 +4034,7 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>90</v>
+        <v>39</v>
       </c>
       <c r="D136" t="n">
         <v>43</v>
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="D137" t="n">
         <v>119</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.56</v>
+        <v>4.460000000000001</v>
       </c>
       <c r="D2" t="n">
         <v>16</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>718.5</v>
+        <v>711.5</v>
       </c>
       <c r="D3" t="n">
         <v>575</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.8</v>
+        <v>3.73</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>486.2</v>
+        <v>449</v>
       </c>
       <c r="D9" t="n">
         <v>374</v>
@@ -716,694 +716,700 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B08KWMXGQW</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B450M DS3H V2</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>771.8000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>935</v>
       </c>
       <c r="G11" t="n">
-        <v>4</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B08LGKGBKT</t>
+          <t>B089FY7QT1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B550 GAMING X V2</t>
+          <t>B550M DS3H</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>770.8000000000001</v>
+        <v>4.32</v>
       </c>
       <c r="D12" t="n">
-        <v>651</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>785</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>935</v>
+        <v>18</v>
       </c>
       <c r="G12" t="n">
-        <v>1171</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B089FY7QT1</t>
+          <t>B07GBM3M88</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B550M DS3H</t>
+          <t>GC-WB1733D-I</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.32</v>
+        <v>9.920000000000002</v>
       </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>18</v>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GC-WB1733D-I</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.920000000000002</v>
+        <v>2423</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>2394</v>
       </c>
       <c r="E14" t="n">
-        <v>13</v>
+        <v>2609</v>
       </c>
       <c r="F14" t="n">
-        <v>18</v>
+        <v>2763</v>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B07VNBC5PS</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>GC-WBAX200</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2395</v>
+        <v>159</v>
       </c>
       <c r="D15" t="n">
-        <v>2394</v>
+        <v>143</v>
       </c>
       <c r="E15" t="n">
-        <v>2609</v>
+        <v>174</v>
       </c>
       <c r="F15" t="n">
-        <v>2763</v>
+        <v>201</v>
       </c>
       <c r="G15" t="n">
-        <v>2987</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B07VNBC5PS</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GC-WBAX200</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>111</v>
+        <v>4.42</v>
       </c>
       <c r="D16" t="n">
-        <v>143</v>
+        <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="F16" t="n">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
-        <v>246</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.82</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E17" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F17" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B083NN4MLZ</t>
+          <t>B0BH9BBLHB</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Z690 AERO G</t>
+          <t>Z790 AERO G</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.5599999999999999</v>
+        <v>17.74</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E18" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B0BH9BBLHB</t>
+          <t>B0BHTMXMRQ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Z790 AERO G</t>
+          <t>Z790 UD AC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17.74</v>
+        <v>176</v>
       </c>
       <c r="D19" t="n">
-        <v>19</v>
+        <v>191</v>
       </c>
       <c r="E19" t="n">
-        <v>24</v>
+        <v>229</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>265</v>
       </c>
       <c r="G19" t="n">
-        <v>41</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B0BHTMXMRQ</t>
+          <t>B07FWVJSHC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Z790 UD AC</t>
+          <t>B450M DS3H</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>227</v>
+        <v>2.32</v>
       </c>
       <c r="D20" t="n">
-        <v>191</v>
+        <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>229</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>265</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>324</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B08F7BHDLY</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>B450M DS3H</t>
+          <t>A520I AC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.32</v>
+        <v>464</v>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>407</v>
       </c>
       <c r="E21" t="n">
-        <v>8</v>
+        <v>470</v>
       </c>
       <c r="F21" t="n">
-        <v>12</v>
+        <v>524</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B07FW85VFT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>B450 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>468</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>407</v>
+        <v>28</v>
       </c>
       <c r="E22" t="n">
-        <v>470</v>
+        <v>31</v>
       </c>
       <c r="F22" t="n">
-        <v>524</v>
+        <v>47</v>
       </c>
       <c r="G22" t="n">
-        <v>606</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B07FW85VFT</t>
+          <t>B08B7ZX8Q2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B450 AORUS PRO WIFI</t>
+          <t>B450M DS3H WIFI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>6.800000000000001</v>
+        <v>441.6000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>626</v>
       </c>
       <c r="E23" t="n">
-        <v>31</v>
+        <v>756</v>
       </c>
       <c r="F23" t="n">
-        <v>47</v>
+        <v>901</v>
       </c>
       <c r="G23" t="n">
-        <v>79</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
+          <t>B08WPV5HS7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B450M DS3H WIFI</t>
+          <t>Z590 AORUS ELITE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>441.6000000000001</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>756</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>901</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B08WPV5HS7</t>
+          <t>B09J5TC4F8</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Z590 AORUS ELITE</t>
+          <t>Z690 GAMING X DDR4</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B09J5TC4F8</t>
+          <t>B0BH9DXY38</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Z690 GAMING X DDR4</t>
+          <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5599999999999999</v>
+        <v>1073.9</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>934</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>1094</v>
       </c>
       <c r="F26" t="n">
-        <v>8</v>
+        <v>1241</v>
       </c>
       <c r="G26" t="n">
-        <v>17</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>GA-A320M-S2H</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1214.2</v>
+        <v>1.12</v>
       </c>
       <c r="D27" t="n">
-        <v>934</v>
+        <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>1094</v>
+        <v>8</v>
       </c>
       <c r="F27" t="n">
-        <v>1241</v>
+        <v>12</v>
       </c>
       <c r="G27" t="n">
-        <v>1466</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B079NYQQJJ</t>
+          <t>B08F7HPJ4F</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GA-A320M-S2H</t>
+          <t>A520M S2H</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.12</v>
+        <v>677.3000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>521</v>
       </c>
       <c r="E28" t="n">
-        <v>8</v>
+        <v>629</v>
       </c>
       <c r="F28" t="n">
-        <v>12</v>
+        <v>742</v>
       </c>
       <c r="G28" t="n">
-        <v>24</v>
+        <v>919</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
+          <t>B089FWWN62</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A520M S2H</t>
+          <t>B550I AORUS PRO AX</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>677.3000000000001</v>
+        <v>52.66</v>
       </c>
       <c r="D29" t="n">
-        <v>521</v>
+        <v>163</v>
       </c>
       <c r="E29" t="n">
-        <v>629</v>
+        <v>197</v>
       </c>
       <c r="F29" t="n">
-        <v>742</v>
+        <v>235</v>
       </c>
       <c r="G29" t="n">
-        <v>919</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B089FWWN62</t>
+          <t>B0BH9F7DKS</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
+          <t>Z790 AORUS MASTER</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>52.26000000000001</v>
+        <v>91.00000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F30" t="n">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="G30" t="n">
-        <v>295</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B0BH9F7DKS</t>
+          <t>B07WL5MFXL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER</t>
+          <t>X570 AORUS ELITE WIFI</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>91.00000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="D31" t="n">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="E31" t="n">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="F31" t="n">
-        <v>112</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>153</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B07WL5MFXL</t>
+          <t>B0BSB6MB15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>X570 AORUS ELITE WIFI</t>
+          <t>B760M DS3H DDR4</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4.4</v>
+        <v>755.3</v>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>581</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>678</v>
       </c>
       <c r="F32" t="n">
-        <v>16</v>
+        <v>766</v>
       </c>
       <c r="G32" t="n">
-        <v>28</v>
+        <v>899</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B0BSB6MB15</t>
+          <t>B0BF7FT26Z</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B760M DS3H DDR4</t>
+          <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>755.3</v>
+        <v>616.2</v>
       </c>
       <c r="D33" t="n">
-        <v>581</v>
+        <v>474</v>
       </c>
       <c r="E33" t="n">
-        <v>678</v>
+        <v>559</v>
       </c>
       <c r="F33" t="n">
-        <v>766</v>
+        <v>639</v>
       </c>
       <c r="G33" t="n">
-        <v>899</v>
+        <v>761</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
+          <t>B0BF7CL99N</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>X670 AORUS ELITE AX</t>
+          <t>X670E AORUS MASTER</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>616.2</v>
+        <v>12.88</v>
       </c>
       <c r="D34" t="n">
-        <v>474</v>
+        <v>48</v>
       </c>
       <c r="E34" t="n">
-        <v>559</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
-        <v>639</v>
+        <v>79</v>
       </c>
       <c r="G34" t="n">
-        <v>761</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B07HS59X7P</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>Z390 UD</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12.88</v>
+        <v>0.14</v>
       </c>
       <c r="D35" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>79</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
-        <v>109</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
+          <t>B083GT6ZBX</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Z390 UD</t>
+          <t>Z590 AORUS TACHYON</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -1412,313 +1418,313 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B083GT6ZBX</t>
+          <t>B08BR1XDX5</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Z590 AORUS TACHYON</t>
+          <t>B550M AORUS ELITE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F37" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="G37" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B08BR1XDX5</t>
+          <t>B0BH79FMW3</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE</t>
+          <t>B650 AERO G</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.8</v>
+        <v>49.2</v>
       </c>
       <c r="D38" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="G38" t="n">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B0BH79FMW3</t>
+          <t>B0BH7GTY9C</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B650 AERO G</t>
+          <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>48.2</v>
+        <v>2554.5</v>
       </c>
       <c r="D39" t="n">
-        <v>54</v>
+        <v>1965</v>
       </c>
       <c r="E39" t="n">
-        <v>66</v>
+        <v>2293</v>
       </c>
       <c r="F39" t="n">
-        <v>79</v>
+        <v>2587</v>
       </c>
       <c r="G39" t="n">
-        <v>99</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
+          <t>B0BJ5SDGXK</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B650 AORUS ELITE AX</t>
+          <t>B660M A ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2554.5</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>1965</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>2293</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
-        <v>2587</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
-        <v>3031</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B0BJ5SDGXK</t>
+          <t>B0BSB4TYHV</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B660M A ELITE AX DDR4</t>
+          <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5599999999999999</v>
+        <v>3.34</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F41" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B0BSB4TYHV</t>
+          <t>B087GH5SK2</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>B760M AORUS ELITE AX</t>
+          <t>Z490 AORUS MASTER</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="G42" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
+          <t>B0BSVYXM5C</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Z490 AORUS MASTER</t>
+          <t>Z790 GAMING X AX</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>41.3</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F43" t="n">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
+          <t>B0BSNYN4XQ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Z790 GAMING X AX</t>
+          <t>B760 DS3H AC DDR4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>41.3</v>
+        <v>66.3</v>
       </c>
       <c r="D44" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E44" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F44" t="n">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="G44" t="n">
-        <v>124</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B0BSNYN4XQ</t>
+          <t>B0BVWQ3BMJ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B760 DS3H AC DDR4</t>
+          <t>B760I AORUS PRO DDR4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>66.3</v>
+        <v>12.72</v>
       </c>
       <c r="D45" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E45" t="n">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F45" t="n">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B0BVWQ3BMJ</t>
+          <t>B0BSP61QZC</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO DDR4</t>
+          <t>B760M DS3H AX</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>12.72</v>
+        <v>443.3</v>
       </c>
       <c r="D46" t="n">
-        <v>32</v>
+        <v>341</v>
       </c>
       <c r="E46" t="n">
-        <v>37</v>
+        <v>398</v>
       </c>
       <c r="F46" t="n">
-        <v>56</v>
+        <v>449</v>
       </c>
       <c r="G46" t="n">
-        <v>89</v>
+        <v>526</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B0BSP61QZC</t>
+          <t>B083R7SWF5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B760M DS3H AX</t>
+          <t>B760M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>443.3</v>
+        <v>1.48</v>
       </c>
       <c r="D47" t="n">
-        <v>341</v>
+        <v>8</v>
       </c>
       <c r="E47" t="n">
-        <v>398</v>
+        <v>8</v>
       </c>
       <c r="F47" t="n">
-        <v>449</v>
+        <v>12</v>
       </c>
       <c r="G47" t="n">
-        <v>526</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B083R7SWF5</t>
+          <t>B09J6BWK2Z</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>B760M DS3H AX DDR4</t>
+          <t>Z690 AORUS ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.48</v>
+        <v>3.44</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -1727,2426 +1733,2468 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G48" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B0BTQ3SVFR</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Z690 AORUS ELITE AX DDR4</t>
+          <t>B550 UD AC</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3.44</v>
+        <v>57.36</v>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="F49" t="n">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="G49" t="n">
-        <v>29</v>
+        <v>391</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B0BTQ3SVFR</t>
+          <t>B0BTTZFQTP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B550 UD AC</t>
+          <t>B550M K</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>58.16000000000001</v>
+        <v>873.6</v>
       </c>
       <c r="D50" t="n">
-        <v>186</v>
+        <v>672</v>
       </c>
       <c r="E50" t="n">
-        <v>228</v>
+        <v>796</v>
       </c>
       <c r="F50" t="n">
-        <v>289</v>
+        <v>916</v>
       </c>
       <c r="G50" t="n">
-        <v>391</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B0BTTZFQTP</t>
+          <t>B07STNZF9L</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B550M K</t>
+          <t>X570 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>873.6</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B07STNZF9L</t>
+          <t>B0BVBXT6P1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>X570 AORUS PRO WIFI</t>
+          <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
+        <v>206</v>
+      </c>
+      <c r="E52" t="n">
+        <v>244</v>
+      </c>
+      <c r="F52" t="n">
+        <v>284</v>
+      </c>
+      <c r="G52" t="n">
+        <v>344</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B0BVBXT6P1</t>
+          <t>B083R7PHMX</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>H610M S2H V2 DDR4</t>
+          <t>Z790 D DDR4</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>209</v>
+        <v>2.08</v>
       </c>
       <c r="D53" t="n">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="F53" t="n">
-        <v>284</v>
+        <v>12</v>
       </c>
       <c r="G53" t="n">
-        <v>344</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B083R826VW</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>B650I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2.08</v>
+        <v>196.6</v>
       </c>
       <c r="D54" t="n">
-        <v>8</v>
+        <v>189</v>
       </c>
       <c r="E54" t="n">
-        <v>5</v>
+        <v>225</v>
       </c>
       <c r="F54" t="n">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="G54" t="n">
-        <v>21</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B083R826VW</t>
+          <t>B0BSB6MZ2L</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B650I AORUS ULTRA</t>
+          <t>B760 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>179</v>
+        <v>136.5</v>
       </c>
       <c r="D55" t="n">
-        <v>189</v>
+        <v>105</v>
       </c>
       <c r="E55" t="n">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="F55" t="n">
-        <v>261</v>
+        <v>154</v>
       </c>
       <c r="G55" t="n">
-        <v>317</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B0BSB6MZ2L</t>
+          <t>B083R7T5P4</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>B760 AORUS ELITE AX</t>
+          <t>Z790 UD AX</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>136.5</v>
+        <v>1.64</v>
       </c>
       <c r="D56" t="n">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="E56" t="n">
-        <v>128</v>
+        <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>154</v>
+        <v>12</v>
       </c>
       <c r="G56" t="n">
-        <v>197</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B083R7T5P4</t>
+          <t>B0BZQ43XXL</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Z790 UD AX</t>
+          <t>Z790I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1.64</v>
+        <v>13.34</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E57" t="n">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="F57" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G57" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B0BZQ43XXL</t>
+          <t>B09J64TBJG</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Z790I AORUS ULTRA</t>
+          <t>Z690 AORUS MASTER</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>13.34</v>
+        <v>1.12</v>
       </c>
       <c r="D58" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E58" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F58" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G58" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B09J64TBJG</t>
+          <t>B0BYBHW4SH</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Z690 AORUS MASTER</t>
+          <t>B650 GAMING X AX</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.12</v>
+        <v>503.1</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>387</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>468</v>
       </c>
       <c r="F59" t="n">
-        <v>12</v>
+        <v>553</v>
       </c>
       <c r="G59" t="n">
-        <v>20</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B0BYBHW4SH</t>
+          <t>B0BZ54DR5L</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX</t>
+          <t>B760 GAMING X AX</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>503.1</v>
+        <v>69.8</v>
       </c>
       <c r="D60" t="n">
-        <v>387</v>
+        <v>66</v>
       </c>
       <c r="E60" t="n">
-        <v>468</v>
+        <v>80</v>
       </c>
       <c r="F60" t="n">
-        <v>553</v>
+        <v>102</v>
       </c>
       <c r="G60" t="n">
-        <v>688</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B0BZ54DR5L</t>
+          <t>B0C4CKCRYW</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B760 GAMING X AX</t>
+          <t>B760I AORUS PRO</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>67.59999999999999</v>
+        <v>57.2</v>
       </c>
       <c r="D61" t="n">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="E61" t="n">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F61" t="n">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="G61" t="n">
-        <v>132</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B0C4CKCRYW</t>
+          <t>B0BZQ1PWGJ</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO</t>
+          <t>B760M C</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>57.2</v>
+        <v>189.8</v>
       </c>
       <c r="D62" t="n">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="E62" t="n">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="F62" t="n">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="G62" t="n">
-        <v>93</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B0BZQ1PWGJ</t>
+          <t>B0BZQ1TNW8</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B760M C</t>
+          <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>189.8</v>
+        <v>256.3</v>
       </c>
       <c r="D63" t="n">
-        <v>146</v>
+        <v>315</v>
       </c>
       <c r="E63" t="n">
-        <v>177</v>
+        <v>382</v>
       </c>
       <c r="F63" t="n">
-        <v>214</v>
+        <v>455</v>
       </c>
       <c r="G63" t="n">
-        <v>270</v>
+        <v>569</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B0BZQ1TNW8</t>
+          <t>B0C1M2BDNR</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE AX</t>
+          <t>Q670M D3H</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>256.3</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>315</v>
+        <v>8</v>
       </c>
       <c r="E64" t="n">
-        <v>382</v>
+        <v>8</v>
       </c>
       <c r="F64" t="n">
-        <v>455</v>
+        <v>12</v>
       </c>
       <c r="G64" t="n">
-        <v>569</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
+          <t>B0C4CKFV65</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Q670M D3H</t>
+          <t>A620M S2H</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4.800000000000001</v>
+        <v>127.9</v>
       </c>
       <c r="D65" t="n">
-        <v>8</v>
+        <v>103</v>
       </c>
       <c r="E65" t="n">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="F65" t="n">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="G65" t="n">
-        <v>16</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B0C4CKFV65</t>
+          <t>B0BZ17BQ4Z</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>A620M S2H</t>
+          <t>B650M K</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>127.9</v>
+        <v>15.04</v>
       </c>
       <c r="D66" t="n">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="E66" t="n">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="F66" t="n">
-        <v>150</v>
+        <v>74</v>
       </c>
       <c r="G66" t="n">
-        <v>191</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B0BZ17BQ4Z</t>
+          <t>B0C4CB8G8D</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>B650M K</t>
+          <t>H610I</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15.04</v>
+        <v>148.2</v>
       </c>
       <c r="D67" t="n">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="E67" t="n">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="F67" t="n">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="G67" t="n">
-        <v>125</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B0C4CB8G8D</t>
+          <t>B0BZQ416QM</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H610I</t>
+          <t>H610M S2H</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>148.2</v>
+        <v>191.1</v>
       </c>
       <c r="D68" t="n">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="E68" t="n">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="F68" t="n">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="G68" t="n">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
+          <t>B0C1ZZ57ZW</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H610M S2H</t>
+          <t>A620M GAMING X</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>166</v>
+        <v>4.42</v>
       </c>
       <c r="D69" t="n">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="E69" t="n">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="G69" t="n">
-        <v>235</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B0CH92B3S2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>B650M D3HP</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4.42</v>
+        <v>280.8</v>
       </c>
       <c r="D70" t="n">
-        <v>17</v>
+        <v>216</v>
       </c>
       <c r="E70" t="n">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="F70" t="n">
-        <v>24</v>
+        <v>296</v>
       </c>
       <c r="G70" t="n">
-        <v>49</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B0CH92B3S2</t>
+          <t>B083RW9KDM</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>B650M D3HP</t>
+          <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>280.8</v>
+        <v>144.3</v>
       </c>
       <c r="D71" t="n">
-        <v>216</v>
+        <v>111</v>
       </c>
       <c r="E71" t="n">
-        <v>256</v>
+        <v>133</v>
       </c>
       <c r="F71" t="n">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="G71" t="n">
-        <v>358</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B083RW9KDM</t>
+          <t>B083RW9TJF</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Z790 A ELITE X WIFI7</t>
+          <t>Z790 AORUS PRO X</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>144.3</v>
+        <v>167.7</v>
       </c>
       <c r="D72" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="E72" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F72" t="n">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="G72" t="n">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B083RVN2VG</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>A620I AX</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>167.7</v>
+        <v>325</v>
       </c>
       <c r="D73" t="n">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="E73" t="n">
-        <v>153</v>
+        <v>302</v>
       </c>
       <c r="F73" t="n">
-        <v>178</v>
+        <v>356</v>
       </c>
       <c r="G73" t="n">
-        <v>216</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B0CNR8Y29S</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>X670 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>325</v>
+        <v>236.6</v>
       </c>
       <c r="D74" t="n">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E74" t="n">
-        <v>302</v>
+        <v>218</v>
       </c>
       <c r="F74" t="n">
-        <v>356</v>
+        <v>253</v>
       </c>
       <c r="G74" t="n">
-        <v>443</v>
+        <v>305</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B0CNR8Y29S</t>
+          <t>B0CN76TH9S</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>X670 GAMING X AX V2</t>
+          <t>X670E AORUS PRO X</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>236.6</v>
+        <v>46.86</v>
       </c>
       <c r="D75" t="n">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="E75" t="n">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F75" t="n">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="G75" t="n">
-        <v>305</v>
+        <v>396</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B0CKS6BMH7</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>46.86</v>
+        <v>116</v>
       </c>
       <c r="D76" t="n">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="E76" t="n">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="F76" t="n">
-        <v>277</v>
+        <v>176</v>
       </c>
       <c r="G76" t="n">
-        <v>396</v>
+        <v>222</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B0CKS6BMH7</t>
+          <t>B083RVX2FQ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Z790 A ELITE AX ICE</t>
+          <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="D77" t="n">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="E77" t="n">
-        <v>147</v>
+        <v>96</v>
       </c>
       <c r="F77" t="n">
-        <v>176</v>
+        <v>111</v>
       </c>
       <c r="G77" t="n">
-        <v>222</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B0CMJSH15D</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>104</v>
+        <v>1084.2</v>
       </c>
       <c r="D78" t="n">
-        <v>80</v>
+        <v>834</v>
       </c>
       <c r="E78" t="n">
-        <v>96</v>
+        <v>972</v>
       </c>
       <c r="F78" t="n">
-        <v>111</v>
+        <v>1093</v>
       </c>
       <c r="G78" t="n">
-        <v>137</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
+          <t>B0CCWLMK56</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B650 A ELITE AX ICE</t>
+          <t xml:space="preserve">B650M C V2                    </t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1084.2</v>
+        <v>8.32</v>
       </c>
       <c r="D79" t="n">
-        <v>834</v>
+        <v>12</v>
       </c>
       <c r="E79" t="n">
-        <v>972</v>
+        <v>16</v>
       </c>
       <c r="F79" t="n">
-        <v>1093</v>
+        <v>20</v>
       </c>
       <c r="G79" t="n">
-        <v>1278</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B09SVZRM13</t>
+          <t>B0CMK1W2YX</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>464.1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="F80" t="n">
-        <v>2</v>
+        <v>480</v>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B0CCWLMK56</t>
+          <t>B0CNR6L1DH</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650M C V2                    </t>
+          <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8.32</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="F81" t="n">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="G81" t="n">
-        <v>28</v>
+        <v>177</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
+          <t>B0D2V2FPS7</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+          <t>A620M GAMING X AX</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>464.1</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>357</v>
+        <v>58</v>
       </c>
       <c r="E82" t="n">
-        <v>421</v>
+        <v>73</v>
       </c>
       <c r="F82" t="n">
-        <v>480</v>
+        <v>86</v>
       </c>
       <c r="G82" t="n">
-        <v>570</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B0CNR6L1DH</t>
+          <t>B0D8WH9NG3</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t xml:space="preserve">B760M D3H                     </t>
+          <t>B550 AORUS ELITE AX V3</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>86.26000000000001</v>
+        <v>172.1</v>
       </c>
       <c r="D83" t="n">
-        <v>101</v>
+        <v>179</v>
       </c>
       <c r="E83" t="n">
-        <v>123</v>
+        <v>214</v>
       </c>
       <c r="F83" t="n">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="G83" t="n">
-        <v>177</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B083TZ68H1</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t>B650 EAGLE AX</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>75.40000000000001</v>
+        <v>3646.5</v>
       </c>
       <c r="D84" t="n">
-        <v>58</v>
+        <v>3129</v>
       </c>
       <c r="E84" t="n">
-        <v>73</v>
+        <v>3656</v>
       </c>
       <c r="F84" t="n">
-        <v>86</v>
+        <v>4132</v>
       </c>
       <c r="G84" t="n">
-        <v>107</v>
+        <v>4858</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B0CTTY491F</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B550 AORUS ELITE AX V3</t>
+          <t>B650 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>172.1</v>
+        <v>39</v>
       </c>
       <c r="D85" t="n">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="E85" t="n">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="F85" t="n">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="G85" t="n">
-        <v>306</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
+          <t>B0CTNYTX8Y</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B650 EAGLE AX</t>
+          <t>B650 UD AC</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3646.5</v>
+        <v>14.68</v>
       </c>
       <c r="D86" t="n">
-        <v>3129</v>
+        <v>18</v>
       </c>
       <c r="E86" t="n">
-        <v>3656</v>
+        <v>24</v>
       </c>
       <c r="F86" t="n">
-        <v>4132</v>
+        <v>28</v>
       </c>
       <c r="G86" t="n">
-        <v>4858</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B0CTTY491F</t>
+          <t>B0DFHPZBGM</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX V2</t>
+          <t>B650 UD AX</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>39</v>
+        <v>15.6</v>
       </c>
       <c r="D87" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="E87" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="F87" t="n">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="G87" t="n">
-        <v>176</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B0CTNYTX8Y</t>
+          <t>B0CTNXBRJV</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B650 UD AC</t>
+          <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>14.68</v>
+        <v>163.8</v>
       </c>
       <c r="D88" t="n">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="E88" t="n">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="F88" t="n">
-        <v>28</v>
+        <v>224</v>
       </c>
       <c r="G88" t="n">
-        <v>37</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
+          <t>B083SJLWL9</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B650 UD AX</t>
+          <t>B650M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>15.6</v>
+        <v>318.2</v>
       </c>
       <c r="D89" t="n">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="E89" t="n">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="F89" t="n">
-        <v>19</v>
+        <v>413</v>
       </c>
       <c r="G89" t="n">
-        <v>26</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B0CTNXBRJV</t>
+          <t>B0D8WKK29M</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B650E AORUS Elite X AX ICE</t>
+          <t>B650M C V3</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>163.8</v>
+        <v>3.44</v>
       </c>
       <c r="D90" t="n">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="E90" t="n">
-        <v>193</v>
+        <v>4</v>
       </c>
       <c r="F90" t="n">
-        <v>224</v>
+        <v>8</v>
       </c>
       <c r="G90" t="n">
-        <v>271</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B083SJLWL9</t>
+          <t>B0CTTXH95Q</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX ICE</t>
+          <t>B650M D3HP AX</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>318.2</v>
+        <v>43.08</v>
       </c>
       <c r="D91" t="n">
-        <v>320</v>
+        <v>58</v>
       </c>
       <c r="E91" t="n">
-        <v>368</v>
+        <v>61</v>
       </c>
       <c r="F91" t="n">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="G91" t="n">
-        <v>478</v>
+        <v>168</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0D8WKK29M</t>
+          <t>B0D2V4VH2C</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B650M C V3</t>
+          <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3.44</v>
+        <v>514.3</v>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>613</v>
       </c>
       <c r="E92" t="n">
-        <v>4</v>
+        <v>722</v>
       </c>
       <c r="F92" t="n">
-        <v>8</v>
+        <v>827</v>
       </c>
       <c r="G92" t="n">
-        <v>12</v>
+        <v>985</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0CTTXH95Q</t>
+          <t>B0CTTW2MVG</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B650M D3HP AX</t>
+          <t>B760 DS3H AC</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>43.08</v>
+        <v>7.46</v>
       </c>
       <c r="D93" t="n">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="E93" t="n">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F93" t="n">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G93" t="n">
-        <v>168</v>
+        <v>29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
+          <t>B0CTTWZCVK</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B650M GAMING PLUS WIFI</t>
+          <t>B760 DS3H AX</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>514.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>613</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>722</v>
+        <v>16</v>
       </c>
       <c r="F94" t="n">
-        <v>827</v>
+        <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>985</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B0CTTW2MVG</t>
+          <t>B0D54QJ9CJ</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B760 DS3H AC</t>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.46</v>
+        <v>330.6</v>
       </c>
       <c r="D95" t="n">
-        <v>12</v>
+        <v>390</v>
       </c>
       <c r="E95" t="n">
-        <v>16</v>
+        <v>453</v>
       </c>
       <c r="F95" t="n">
-        <v>21</v>
+        <v>507</v>
       </c>
       <c r="G95" t="n">
-        <v>29</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B0CTTWZCVK</t>
+          <t>B0D33M6CB7</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>B760 DS3H AX</t>
+          <t>GC-WIFI7</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8.800000000000001</v>
+        <v>189.8</v>
       </c>
       <c r="D96" t="n">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="E96" t="n">
-        <v>16</v>
+        <v>194</v>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>222</v>
       </c>
       <c r="G96" t="n">
-        <v>27</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B0D54QJ9CJ</t>
+          <t>B0CPW1F841</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>B760M GAMING PLUS WIFI DDR4</t>
+          <t>TRX50 AERO D</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>330.6</v>
+        <v>53.84</v>
       </c>
       <c r="D97" t="n">
-        <v>390</v>
+        <v>84</v>
       </c>
       <c r="E97" t="n">
-        <v>453</v>
+        <v>100</v>
       </c>
       <c r="F97" t="n">
-        <v>507</v>
+        <v>114</v>
       </c>
       <c r="G97" t="n">
-        <v>592</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B0D33M6CB7</t>
+          <t>B0DGVC3DDW</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>GC-WIFI7</t>
+          <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>213.2</v>
+        <v>1141.126</v>
       </c>
       <c r="D98" t="n">
-        <v>164</v>
+        <v>1694</v>
       </c>
       <c r="E98" t="n">
-        <v>194</v>
+        <v>2004</v>
       </c>
       <c r="F98" t="n">
-        <v>222</v>
+        <v>2304</v>
       </c>
       <c r="G98" t="n">
-        <v>265</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B0CPW1F841</t>
+          <t>B0DGVGRVLQ</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>TRX50 AERO D</t>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>53.84</v>
+        <v>857.182</v>
       </c>
       <c r="D99" t="n">
-        <v>84</v>
+        <v>1220</v>
       </c>
       <c r="E99" t="n">
-        <v>100</v>
+        <v>1409</v>
       </c>
       <c r="F99" t="n">
-        <v>114</v>
+        <v>1572</v>
       </c>
       <c r="G99" t="n">
-        <v>137</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
+          <t>B0DGVMYTW6</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7</t>
+          <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1184</v>
+        <v>1237.6</v>
       </c>
       <c r="D100" t="n">
-        <v>1694</v>
+        <v>952</v>
       </c>
       <c r="E100" t="n">
-        <v>2004</v>
+        <v>1124</v>
       </c>
       <c r="F100" t="n">
-        <v>2304</v>
+        <v>1289</v>
       </c>
       <c r="G100" t="n">
-        <v>2769</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
+          <t>B0DHWLN5XT</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
+          <t>X870 GAMING WIFI6</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>758.2</v>
+        <v>424.87</v>
       </c>
       <c r="D101" t="n">
-        <v>1220</v>
+        <v>342</v>
       </c>
       <c r="E101" t="n">
-        <v>1409</v>
+        <v>404</v>
       </c>
       <c r="F101" t="n">
-        <v>1572</v>
+        <v>463</v>
       </c>
       <c r="G101" t="n">
-        <v>1818</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
+          <t>B0DGVGT3PJ</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>X870 EAGLE WIFI7</t>
+          <t>X870 GAMING X WIFI7</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>980.8000000000001</v>
+        <v>381.4760000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>952</v>
+        <v>499</v>
       </c>
       <c r="E102" t="n">
-        <v>1124</v>
+        <v>589</v>
       </c>
       <c r="F102" t="n">
-        <v>1289</v>
+        <v>674</v>
       </c>
       <c r="G102" t="n">
-        <v>1543</v>
+        <v>805</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>B0DHWLN5XT</t>
+          <t>B0DGVBM73J</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>X870 GAMING WIFI6</t>
+          <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>444.6</v>
+        <v>651.558</v>
       </c>
       <c r="D103" t="n">
-        <v>342</v>
+        <v>900</v>
       </c>
       <c r="E103" t="n">
-        <v>404</v>
+        <v>1047</v>
       </c>
       <c r="F103" t="n">
-        <v>463</v>
+        <v>1179</v>
       </c>
       <c r="G103" t="n">
-        <v>553</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>B0DGVGT3PJ</t>
+          <t>B0DGVSW4FD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>X870 GAMING X WIFI7</t>
+          <t>X870E AORUS MASTER</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>466.6</v>
+        <v>271.91</v>
       </c>
       <c r="D104" t="n">
-        <v>499</v>
+        <v>213</v>
       </c>
       <c r="E104" t="n">
-        <v>589</v>
+        <v>253</v>
       </c>
       <c r="F104" t="n">
-        <v>674</v>
+        <v>290</v>
       </c>
       <c r="G104" t="n">
-        <v>805</v>
+        <v>348</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
+          <t>B0DGVGV7YN</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>X870E AORUS ELITE WIFI7</t>
+          <t>X870E AORUS PRO</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>626.4000000000001</v>
+        <v>228.46</v>
       </c>
       <c r="D105" t="n">
-        <v>900</v>
+        <v>246</v>
       </c>
       <c r="E105" t="n">
-        <v>1047</v>
+        <v>288</v>
       </c>
       <c r="F105" t="n">
-        <v>1179</v>
+        <v>324</v>
       </c>
       <c r="G105" t="n">
-        <v>1382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>B0DGVSW4FD</t>
+          <t>B0DGVBSLLP</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>X870E AORUS MASTER</t>
+          <t>X870E AORUS PRO ICE</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>276.9</v>
+        <v>627.3</v>
       </c>
       <c r="D106" t="n">
-        <v>213</v>
+        <v>723</v>
       </c>
       <c r="E106" t="n">
-        <v>253</v>
+        <v>823</v>
       </c>
       <c r="F106" t="n">
-        <v>290</v>
+        <v>903</v>
       </c>
       <c r="G106" t="n">
-        <v>348</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>B0DGVGV7YN</t>
+          <t>B0CTTVFWHM</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>X870E AORUS PRO</t>
+          <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>319.8</v>
+        <v>115.6</v>
       </c>
       <c r="D107" t="n">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="E107" t="n">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="F107" t="n">
-        <v>324</v>
+        <v>155</v>
       </c>
       <c r="G107" t="n">
-        <v>380</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>B0DGVBSLLP</t>
+          <t>B0CTTWH6TD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>X870E AORUS PRO ICE</t>
+          <t>Z790 D AC</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>939.9</v>
+        <v>15.42</v>
       </c>
       <c r="D108" t="n">
-        <v>723</v>
+        <v>17</v>
       </c>
       <c r="E108" t="n">
-        <v>823</v>
+        <v>22</v>
       </c>
       <c r="F108" t="n">
-        <v>903</v>
+        <v>29</v>
       </c>
       <c r="G108" t="n">
-        <v>1024</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>B0CTTVFWHM</t>
+          <t>B0CTNPZLNH</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X WIFI7</t>
+          <t>Z790 Eagle AX</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>115.6</v>
+        <v>232.6</v>
       </c>
       <c r="D109" t="n">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="E109" t="n">
-        <v>133</v>
+        <v>236</v>
       </c>
       <c r="F109" t="n">
-        <v>155</v>
+        <v>279</v>
       </c>
       <c r="G109" t="n">
-        <v>189</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>B0CTTWH6TD</t>
+          <t>B0D8WH39QJ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Z790 D AC</t>
+          <t>Z790 GAMING PLUS AX</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>15.42</v>
+        <v>58.9</v>
       </c>
       <c r="D110" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E110" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F110" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="G110" t="n">
-        <v>37</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>B0CTNPZLNH</t>
+          <t>B0D2RL4PT6</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Z790 Eagle AX</t>
+          <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>240.6</v>
+        <v>557</v>
       </c>
       <c r="D111" t="n">
-        <v>194</v>
+        <v>467</v>
       </c>
       <c r="E111" t="n">
-        <v>236</v>
+        <v>552</v>
       </c>
       <c r="F111" t="n">
-        <v>279</v>
+        <v>636</v>
       </c>
       <c r="G111" t="n">
-        <v>349</v>
+        <v>767</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>B0D8WH39QJ</t>
+          <t>B0D2PK3CC1</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Z790 GAMING PLUS AX</t>
+          <t>Z790M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>58.9</v>
+        <v>179.4</v>
       </c>
       <c r="D112" t="n">
-        <v>49</v>
+        <v>180</v>
       </c>
       <c r="E112" t="n">
-        <v>50</v>
+        <v>212</v>
       </c>
       <c r="F112" t="n">
-        <v>81</v>
+        <v>242</v>
       </c>
       <c r="G112" t="n">
-        <v>140</v>
+        <v>289</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
+          <t>B0DJP9KLLD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Z790 S WIFI DDR4</t>
+          <t>Z890 AERO G</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>464.5</v>
+        <v>29.65</v>
       </c>
       <c r="D113" t="n">
-        <v>467</v>
+        <v>37</v>
       </c>
       <c r="E113" t="n">
-        <v>552</v>
+        <v>45</v>
       </c>
       <c r="F113" t="n">
-        <v>636</v>
+        <v>56</v>
       </c>
       <c r="G113" t="n">
-        <v>767</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>B0D2PK3CC1</t>
+          <t>B0DJP95MGB</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Z790M AORUS ELITE AX ICE</t>
+          <t>Z890 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>179.4</v>
+        <v>164.03</v>
       </c>
       <c r="D114" t="n">
-        <v>180</v>
+        <v>142</v>
       </c>
       <c r="E114" t="n">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="F114" t="n">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="G114" t="n">
-        <v>289</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
+          <t>B0DJP7NRXX</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Z890 AERO G</t>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>22.87</v>
+        <v>74.10000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E115" t="n">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F115" t="n">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G115" t="n">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>B0DJP95MGB</t>
+          <t>B0DJP76L1F</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE WIFI7</t>
+          <t>Z890 AORUS ELITE X ICE</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>124.78</v>
+        <v>11.712</v>
       </c>
       <c r="D116" t="n">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="E116" t="n">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="F116" t="n">
-        <v>197</v>
+        <v>33</v>
       </c>
       <c r="G116" t="n">
-        <v>241</v>
+        <v>45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>B0DJP7NRXX</t>
+          <t>B0DJP9LCYC</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+          <t>Z890 AORUS MASTER</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>74.10000000000001</v>
+        <v>23.368</v>
       </c>
       <c r="D117" t="n">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E117" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F117" t="n">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="G117" t="n">
-        <v>107</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>B0DJP76L1F</t>
+          <t>B0DJP8NFWP</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE X ICE</t>
+          <t>Z890 AORUS PRO ICE</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11.48</v>
+        <v>37.398</v>
       </c>
       <c r="D118" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E118" t="n">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="F118" t="n">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="G118" t="n">
-        <v>45</v>
+        <v>144</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>B0DJP9LCYC</t>
+          <t>B0DJP8MMMJ</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Z890 AORUS MASTER</t>
+          <t>Z890 EAGLE WIFI7</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>22.22</v>
+        <v>38.188</v>
       </c>
       <c r="D119" t="n">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E119" t="n">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="F119" t="n">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="G119" t="n">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>B0DJP8NFWP</t>
+          <t>B0DJP9DBVS</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Z890 AORUS PRO ICE</t>
+          <t>Z890 GAMING X WIFI7</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>38.32000000000001</v>
+        <v>14.79</v>
       </c>
       <c r="D120" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E120" t="n">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="F120" t="n">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="G120" t="n">
-        <v>144</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>B0DJP8MMMJ</t>
+          <t>B0DJP8W3BY</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Z890 EAGLE WIFI7</t>
+          <t>Z890 UD WIFI6E</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>37.90000000000001</v>
+        <v>50.688</v>
       </c>
       <c r="D121" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E121" t="n">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="F121" t="n">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="G121" t="n">
-        <v>108</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>B0DJP9DBVS</t>
+          <t>B0DJP82ML2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Z890 GAMING X WIFI7</t>
+          <t>Z890I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>14.56</v>
+        <v>27.36</v>
       </c>
       <c r="D122" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="E122" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F122" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G122" t="n">
-        <v>35</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>B0DJP8W3BY</t>
+          <t>B0DJP8Q6JK</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Z890 UD WIFI6E</t>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>49.6</v>
+        <v>47.03</v>
       </c>
       <c r="D123" t="n">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E123" t="n">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="F123" t="n">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="G123" t="n">
-        <v>162</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>B0DJP82ML2</t>
+          <t>B0DJP9FZYK</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Z890I AORUS ULTRA</t>
+          <t>Z890M GAMING X</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>27.36</v>
+        <v>34.73999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E124" t="n">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="F124" t="n">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="G124" t="n">
-        <v>71</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
+          <t>B081JDLX48</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+          <t>TRX40 AORUS MASTER</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>45.58</v>
+        <v>4</v>
       </c>
       <c r="D125" t="n">
-        <v>69</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="G125" t="n">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>B0DJP9FZYK</t>
+          <t>B0DQLJVH25</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Z890M GAMING X</t>
+          <t>B850 AI TOP</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>43.26000000000001</v>
+        <v>13</v>
       </c>
       <c r="D126" t="n">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E126" t="n">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="G126" t="n">
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>B081JDLX48</t>
+          <t>B0DQLHVQSF</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>TRX40 AORUS MASTER</t>
+          <t>B850 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D127" t="n">
-        <v>4</v>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
+        <v>115</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>B0DQLJVH25</t>
+          <t>B0DQLKRXKW</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B850 AI TOP</t>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="D128" t="n">
-        <v>13</v>
-      </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
+        <v>195</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>B0DQLHVQSF</t>
+          <t>B0DQLJWRDX</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7</t>
+          <t>B850 EAGLE WIFI6E</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D129" t="n">
-        <v>115</v>
-      </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
+        <v>133</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>B0DQLKRXKW</t>
+          <t>B0DQLKZSKF</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7 ICE</t>
+          <t>B850 GAMING WIFI6</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>176</v>
+        <v>15</v>
       </c>
       <c r="D130" t="n">
-        <v>195</v>
-      </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>B0DQLJWRDX</t>
+          <t>B0DQLH22F6</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B850 EAGLE WIFI6E</t>
+          <t>B850 GAMING X WIFI6E</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D131" t="n">
-        <v>133</v>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>B0DQLKZSKF</t>
+          <t>B0DQLKPSMG</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>B850 GAMING WIFI6</t>
+          <t>B850I AORUS PRO</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="D132" t="n">
-        <v>16</v>
-      </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
+        <v>112</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>B0DQLH22F6</t>
+          <t>B0DQLJGTRM</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B850 GAMING X WIFI6E</t>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>13</v>
+        <v>279</v>
       </c>
       <c r="D133" t="n">
-        <v>14</v>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
+        <v>310</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>B0DQLKPSMG</t>
+          <t>B0DQLJHJ8B</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>B850I AORUS PRO</t>
+          <t>B850M DS3H</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="D134" t="n">
-        <v>112</v>
-      </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>B0DQLJGTRM</t>
+          <t>B0DQLHLVLK</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B850M AORUS ELITE WIFI6E ICE</t>
+          <t>B850M GAMING X WIFI6E</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>279</v>
+        <v>107</v>
       </c>
       <c r="D135" t="n">
-        <v>310</v>
-      </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
+        <v>119</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>B0DQLJHJ8B</t>
+          <t>B0DQLH4ZTR</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B850M DS3H</t>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>43</v>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>B0DQLHLVLK</t>
+          <t>B0DQLJRY8C</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B850M GAMING X WIFI6E</t>
+          <t>B860 EAGLE WIFI6E</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D137" t="n">
-        <v>119</v>
-      </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>B0DQLH4ZTR</t>
+          <t>B0DQLLLHYY</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>B860 AORUS ELITE WIFI7 ICE</t>
+          <t>B860 GAMING X WIFI6E</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="n">
-        <v>9</v>
-      </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>B0DQLJRY8C</t>
+          <t>B0DQLGMGVP</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>B860 EAGLE WIFI6E</t>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>10</v>
-      </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>B0DQLLLHYY</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>B860 GAMING X WIFI6E</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>10</v>
-      </c>
-      <c r="D140" t="n">
-        <v>11</v>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>B0DQLGMGVP</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>B860M AORUS ELITE WIFI6E ICE</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
         <v>9</v>
       </c>
-      <c r="D141" t="n">
-        <v>9</v>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D9" t="n">
         <v>374</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>771.8000000000001</v>
+        <v>780.8000000000001</v>
       </c>
       <c r="D11" t="n">
         <v>651</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2423</v>
+        <v>2408</v>
       </c>
       <c r="D14" t="n">
         <v>2394</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>159</v>
+        <v>166.5</v>
       </c>
       <c r="D15" t="n">
         <v>143</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="D21" t="n">
         <v>407</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1073.9</v>
+        <v>1065.9</v>
       </c>
       <c r="D26" t="n">
         <v>934</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>91.00000000000001</v>
+        <v>57.00000000000001</v>
       </c>
       <c r="D30" t="n">
         <v>70</v>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12.88</v>
+        <v>12.78</v>
       </c>
       <c r="D34" t="n">
         <v>48</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>49.2</v>
+        <v>40</v>
       </c>
       <c r="D38" t="n">
         <v>54</v>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>57.36</v>
+        <v>58.16000000000001</v>
       </c>
       <c r="D49" t="n">
         <v>186</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D52" t="n">
         <v>206</v>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D76" t="n">
         <v>121</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.460000000000001</v>
+        <v>4.300000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>711.5</v>
+        <v>391.3</v>
       </c>
       <c r="D3" t="n">
-        <v>575</v>
+        <v>301</v>
       </c>
       <c r="E3" t="n">
-        <v>693</v>
+        <v>368</v>
       </c>
       <c r="F3" t="n">
-        <v>822</v>
+        <v>467</v>
       </c>
       <c r="G3" t="n">
-        <v>1023</v>
+        <v>628</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>12</v>
@@ -563,19 +563,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.000000000000002</v>
+        <v>5.120000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -590,16 +590,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>20</v>
@@ -644,19 +644,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>263</v>
+        <v>270.72</v>
       </c>
       <c r="D8" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E8" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F8" t="n">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="G8" t="n">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9">
@@ -671,19 +671,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>456</v>
+        <v>447.7</v>
       </c>
       <c r="D9" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E9" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F9" t="n">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="G9" t="n">
-        <v>614</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10">
@@ -698,718 +698,718 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>27.3</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B08LGKGBKT</t>
+          <t>B087GFYBCW</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B550 GAMING X V2</t>
+          <t>Z490 AORUS ELITE AC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>780.8000000000001</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>785</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>935</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B089FY7QT1</t>
+          <t>B08KWMXGQW</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B550M DS3H</t>
+          <t>B450M DS3H V2</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.32</v>
+        <v>3.1</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
         <v>8</v>
-      </c>
-      <c r="F12" t="n">
-        <v>18</v>
-      </c>
-      <c r="G12" t="n">
-        <v>35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B07GBM3M88</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GC-WB1733D-I</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9.920000000000002</v>
+        <v>411.2</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="F13" t="n">
-        <v>18</v>
+        <v>524</v>
       </c>
       <c r="G13" t="n">
-        <v>24</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B091HTG6DQ</t>
+          <t>B07GBM3M88</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GC-WBAX210</t>
+          <t>GC-WB1733D-I</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2408</v>
+        <v>8.32</v>
       </c>
       <c r="D14" t="n">
-        <v>2394</v>
+        <v>12</v>
       </c>
       <c r="E14" t="n">
-        <v>2609</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>2763</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>2987</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B07VNBC5PS</t>
+          <t>B091HTG6DQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GC-WBAX200</t>
+          <t>GC-WBAX210</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>166.5</v>
+        <v>2581</v>
       </c>
       <c r="D15" t="n">
-        <v>143</v>
+        <v>2126</v>
       </c>
       <c r="E15" t="n">
-        <v>174</v>
+        <v>2324</v>
       </c>
       <c r="F15" t="n">
-        <v>201</v>
+        <v>2470</v>
       </c>
       <c r="G15" t="n">
-        <v>246</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B0BF73P6HY</t>
+          <t>B07VNBC5PS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>X670E AORUS XTREME</t>
+          <t>GC-WBAX200</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.42</v>
+        <v>149.9</v>
       </c>
       <c r="D16" t="n">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="G16" t="n">
-        <v>45</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>B083NN4MLZ</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Z690 AERO G</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.5599999999999999</v>
+        <v>3.18</v>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>B0BH9BBLHB</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Z790 AERO G</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>17.74</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E18" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B0BHTMXMRQ</t>
+          <t>B0BH9BBLHB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Z790 UD AC</t>
+          <t>Z790 AERO G</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>176</v>
+        <v>12.96</v>
       </c>
       <c r="D19" t="n">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="F19" t="n">
-        <v>265</v>
+        <v>25</v>
       </c>
       <c r="G19" t="n">
-        <v>324</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B07FWVJSHC</t>
+          <t>B0BHTMXMRQ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>B450M DS3H</t>
+          <t>Z790 UD AC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.32</v>
+        <v>157</v>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="E20" t="n">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="F20" t="n">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="G20" t="n">
-        <v>24</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B07FWVJSHC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>B450M DS3H</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>467</v>
+        <v>2.32</v>
       </c>
       <c r="D21" t="n">
-        <v>407</v>
+        <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>470</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>524</v>
+        <v>12</v>
       </c>
       <c r="G21" t="n">
-        <v>606</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>B07FW85VFT</t>
+          <t>B08F7BHDLY</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B450 AORUS PRO WIFI</t>
+          <t>A520I AC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.800000000000001</v>
+        <v>407.3</v>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="E22" t="n">
-        <v>31</v>
+        <v>388</v>
       </c>
       <c r="F22" t="n">
-        <v>47</v>
+        <v>431</v>
       </c>
       <c r="G22" t="n">
-        <v>79</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>B08B7ZX8Q2</t>
+          <t>B07FW85VFT</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>B450M DS3H WIFI</t>
+          <t>B450 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>441.6000000000001</v>
+        <v>4.460000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>626</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>756</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>901</v>
+        <v>26</v>
       </c>
       <c r="G23" t="n">
-        <v>1128</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B08WPV5HS7</t>
+          <t>B08B7ZX8Q2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Z590 AORUS ELITE</t>
+          <t>B450M DS3H WIFI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>313.16</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>B09J5TC4F8</t>
+          <t>B08WPV5HS7</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Z690 GAMING X DDR4</t>
+          <t>Z590 AORUS ELITE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5599999999999999</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>B0BH9DXY38</t>
+          <t>B09J5TC4F8</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Z790 AORUS ELITE AX</t>
+          <t>Z690 GAMING X DDR4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1065.9</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>934</v>
+        <v>4</v>
       </c>
       <c r="E26" t="n">
-        <v>1094</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
-        <v>1241</v>
+        <v>8</v>
       </c>
       <c r="G26" t="n">
-        <v>1466</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>B079NYQQJJ</t>
+          <t>B0BH9DXY38</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GA-A320M-S2H</t>
+          <t>Z790 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.12</v>
+        <v>809.8</v>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>720</v>
       </c>
       <c r="E27" t="n">
-        <v>8</v>
+        <v>848</v>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>966</v>
       </c>
       <c r="G27" t="n">
-        <v>24</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>B08F7HPJ4F</t>
+          <t>B079NYQQJJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A520M S2H</t>
+          <t>GA-A320M-S2H</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>677.3000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="D28" t="n">
-        <v>521</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>629</v>
+        <v>8</v>
       </c>
       <c r="F28" t="n">
-        <v>742</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>919</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>B089FWWN62</t>
+          <t>B08F7HPJ4F</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B550I AORUS PRO AX</t>
+          <t>A520M S2H</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>52.66</v>
+        <v>588</v>
       </c>
       <c r="D29" t="n">
-        <v>163</v>
+        <v>548</v>
       </c>
       <c r="E29" t="n">
-        <v>197</v>
+        <v>652</v>
       </c>
       <c r="F29" t="n">
-        <v>235</v>
+        <v>756</v>
       </c>
       <c r="G29" t="n">
-        <v>295</v>
+        <v>917</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>B0BH9F7DKS</t>
+          <t>B089FWWN62</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER</t>
+          <t>B550I AORUS PRO AX</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>57.00000000000001</v>
+        <v>66.88</v>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="E30" t="n">
-        <v>86</v>
+        <v>204</v>
       </c>
       <c r="F30" t="n">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="G30" t="n">
-        <v>153</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>B07WL5MFXL</t>
+          <t>B0BH9F7DKS</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>X570 AORUS ELITE WIFI</t>
+          <t>Z790 AORUS MASTER</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.4</v>
+        <v>39.3</v>
       </c>
       <c r="D31" t="n">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="E31" t="n">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="F31" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="G31" t="n">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>B0BSB6MB15</t>
+          <t>B07WL5MFXL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>B760M DS3H DDR4</t>
+          <t>X570 AORUS ELITE WIFI</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>755.3</v>
+        <v>4.4</v>
       </c>
       <c r="D32" t="n">
-        <v>581</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
-        <v>678</v>
+        <v>8</v>
       </c>
       <c r="F32" t="n">
-        <v>766</v>
+        <v>16</v>
       </c>
       <c r="G32" t="n">
-        <v>899</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>B0BF7FT26Z</t>
+          <t>B0BSB6MB15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>X670 AORUS ELITE AX</t>
+          <t>B760M DS3H DDR4</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>616.2</v>
+        <v>730.6</v>
       </c>
       <c r="D33" t="n">
-        <v>474</v>
+        <v>562</v>
       </c>
       <c r="E33" t="n">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="F33" t="n">
-        <v>639</v>
+        <v>739</v>
       </c>
       <c r="G33" t="n">
-        <v>761</v>
+        <v>865</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>B0BF7CL99N</t>
+          <t>B0BF7FT26Z</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>X670E AORUS MASTER</t>
+          <t>X670 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>12.78</v>
+        <v>450.6</v>
       </c>
       <c r="D34" t="n">
-        <v>48</v>
+        <v>351</v>
       </c>
       <c r="E34" t="n">
-        <v>60</v>
+        <v>412</v>
       </c>
       <c r="F34" t="n">
-        <v>79</v>
+        <v>466</v>
       </c>
       <c r="G34" t="n">
-        <v>109</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B07HS59X7P</t>
+          <t>B0BF7CL99N</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Z390 UD</t>
+          <t>X670E AORUS MASTER</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.14</v>
+        <v>12.38</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>B083GT6ZBX</t>
+          <t>B07HS59X7P</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Z590 AORUS TACHYON</t>
+          <t>Z390 UD</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -1418,313 +1418,313 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B08BR1XDX5</t>
+          <t>B083GT6ZBX</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE</t>
+          <t>Z590 AORUS TACHYON</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G37" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>B0BH79FMW3</t>
+          <t>B08BR1XDX5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>B650 AERO G</t>
+          <t>B550M AORUS ELITE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>40</v>
+        <v>2.6</v>
       </c>
       <c r="D38" t="n">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="E38" t="n">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="G38" t="n">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>B0BH7GTY9C</t>
+          <t>B0BH79FMW3</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>B650 AORUS ELITE AX</t>
+          <t>B650 AERO G</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2554.5</v>
+        <v>58.50000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>1965</v>
+        <v>45</v>
       </c>
       <c r="E39" t="n">
-        <v>2293</v>
+        <v>54</v>
       </c>
       <c r="F39" t="n">
-        <v>2587</v>
+        <v>67</v>
       </c>
       <c r="G39" t="n">
-        <v>3031</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>B0BJ5SDGXK</t>
+          <t>B0BH7GTY9C</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>B660M A ELITE AX DDR4</t>
+          <t>B650 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5599999999999999</v>
+        <v>1899.3</v>
       </c>
       <c r="D40" t="n">
-        <v>4</v>
+        <v>1461</v>
       </c>
       <c r="E40" t="n">
-        <v>4</v>
+        <v>1700</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>1910</v>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>B0BSB4TYHV</t>
+          <t>B0BJ5SDGXK</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>B760M AORUS ELITE AX</t>
+          <t>B660M A ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.34</v>
+        <v>0.8</v>
       </c>
       <c r="D41" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E41" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
+          <t>B0BSB4TYHV</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Z490 AORUS MASTER</t>
+          <t>B760M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F42" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B0BSVYXM5C</t>
+          <t>B087GH5SK2</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Z790 GAMING X AX</t>
+          <t>Z490 AORUS MASTER</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>41.3</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="G43" t="n">
-        <v>124</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>B0BSNYN4XQ</t>
+          <t>B0BSVYXM5C</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>B760 DS3H AC DDR4</t>
+          <t>Z790 GAMING X AX</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>66.3</v>
+        <v>66.30000000000001</v>
       </c>
       <c r="D44" t="n">
         <v>51</v>
       </c>
       <c r="E44" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F44" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G44" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>B0BVWQ3BMJ</t>
+          <t>B0BSNYN4XQ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO DDR4</t>
+          <t>B760 DS3H AC DDR4</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12.72</v>
+        <v>63.7</v>
       </c>
       <c r="D45" t="n">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E45" t="n">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="F45" t="n">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G45" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>B0BSP61QZC</t>
+          <t>B0BVWQ3BMJ</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>B760M DS3H AX</t>
+          <t>B760I AORUS PRO DDR4</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>443.3</v>
+        <v>10.38</v>
       </c>
       <c r="D46" t="n">
-        <v>341</v>
+        <v>23</v>
       </c>
       <c r="E46" t="n">
-        <v>398</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>449</v>
+        <v>40</v>
       </c>
       <c r="G46" t="n">
-        <v>526</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>B083R7SWF5</t>
+          <t>B0BSP61QZC</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>B760M DS3H AX DDR4</t>
+          <t>B760M DS3H AX</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.48</v>
+        <v>314.6</v>
       </c>
       <c r="D47" t="n">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>284</v>
       </c>
       <c r="F47" t="n">
-        <v>12</v>
+        <v>324</v>
       </c>
       <c r="G47" t="n">
-        <v>25</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>B09J6BWK2Z</t>
+          <t>B083R7SWF5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Z690 AORUS ELITE AX DDR4</t>
+          <t>B760M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.44</v>
+        <v>1.6</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -1733,1240 +1733,1240 @@
         <v>8</v>
       </c>
       <c r="F48" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G48" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>B0BTQ3SVFR</t>
+          <t>B09J6BWK2Z</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>B550 UD AC</t>
+          <t>Z690 AORUS ELITE AX DDR4</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>58.16000000000001</v>
+        <v>3.44</v>
       </c>
       <c r="D49" t="n">
-        <v>186</v>
+        <v>8</v>
       </c>
       <c r="E49" t="n">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="F49" t="n">
-        <v>289</v>
+        <v>13</v>
       </c>
       <c r="G49" t="n">
-        <v>391</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>B0BTTZFQTP</t>
+          <t>B0BTQ3SVFR</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>B550M K</t>
+          <t>B550 UD AC</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>873.6</v>
+        <v>36.26000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>672</v>
+        <v>101</v>
       </c>
       <c r="E50" t="n">
-        <v>796</v>
+        <v>114</v>
       </c>
       <c r="F50" t="n">
-        <v>916</v>
+        <v>165</v>
       </c>
       <c r="G50" t="n">
-        <v>1103</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B07STNZF9L</t>
+          <t>B0BTTZFQTP</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>X570 AORUS PRO WIFI</t>
+          <t>B550M K</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>633.1</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>487</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>B0BVBXT6P1</t>
+          <t>B07STNZF9L</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H610M S2H V2 DDR4</t>
+          <t>X570 AORUS PRO WIFI</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>284</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B0BVBXT6P1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>H610M S2H V2 DDR4</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.08</v>
+        <v>258.7</v>
       </c>
       <c r="D53" t="n">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="E53" t="n">
-        <v>5</v>
+        <v>237</v>
       </c>
       <c r="F53" t="n">
-        <v>12</v>
+        <v>273</v>
       </c>
       <c r="G53" t="n">
-        <v>21</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B083R826VW</t>
+          <t>B083R7PHMX</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>B650I AORUS ULTRA</t>
+          <t>Z790 D DDR4</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>196.6</v>
+        <v>2.08</v>
       </c>
       <c r="D54" t="n">
-        <v>189</v>
+        <v>8</v>
       </c>
       <c r="E54" t="n">
-        <v>225</v>
+        <v>8</v>
       </c>
       <c r="F54" t="n">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="G54" t="n">
-        <v>317</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B0BSB6MZ2L</t>
+          <t>B083R826VW</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>B760 AORUS ELITE AX</t>
+          <t>B650I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>136.5</v>
+        <v>203.1</v>
       </c>
       <c r="D55" t="n">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="E55" t="n">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="F55" t="n">
-        <v>154</v>
+        <v>220</v>
       </c>
       <c r="G55" t="n">
-        <v>197</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>B083R7T5P4</t>
+          <t>B0BSB6MZ2L</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Z790 UD AX</t>
+          <t>B760 AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1.64</v>
+        <v>141.7</v>
       </c>
       <c r="D56" t="n">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="E56" t="n">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="F56" t="n">
-        <v>12</v>
+        <v>161</v>
       </c>
       <c r="G56" t="n">
-        <v>24</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>B0BZQ43XXL</t>
+          <t>B083R7T5P4</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Z790I AORUS ULTRA</t>
+          <t>Z790 UD AX</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>13.34</v>
+        <v>2.48</v>
       </c>
       <c r="D57" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12</v>
+      </c>
+      <c r="G57" t="n">
         <v>24</v>
-      </c>
-      <c r="F57" t="n">
-        <v>32</v>
-      </c>
-      <c r="G57" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>B09J64TBJG</t>
+          <t>B0BZQ43XXL</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Z690 AORUS MASTER</t>
+          <t>Z790I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.12</v>
+        <v>14.26</v>
       </c>
       <c r="D58" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E58" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="F58" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>B0BYBHW4SH</t>
+          <t>B09J64TBJG</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX</t>
+          <t>Z690 AORUS MASTER</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>503.1</v>
+        <v>1.12</v>
       </c>
       <c r="D59" t="n">
-        <v>387</v>
+        <v>8</v>
       </c>
       <c r="E59" t="n">
-        <v>468</v>
+        <v>4</v>
       </c>
       <c r="F59" t="n">
-        <v>553</v>
+        <v>12</v>
       </c>
       <c r="G59" t="n">
-        <v>688</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>B0BZ54DR5L</t>
+          <t>B0BYBHW4SH</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B760 GAMING X AX</t>
+          <t>B650 GAMING X AX</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>69.8</v>
+        <v>432.9</v>
       </c>
       <c r="D60" t="n">
-        <v>66</v>
+        <v>333</v>
       </c>
       <c r="E60" t="n">
-        <v>80</v>
+        <v>404</v>
       </c>
       <c r="F60" t="n">
-        <v>102</v>
+        <v>486</v>
       </c>
       <c r="G60" t="n">
-        <v>132</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>B0C4CKCRYW</t>
+          <t>B0BZ54DR5L</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>B760I AORUS PRO</t>
+          <t>B760 GAMING X AX</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>57.2</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E61" t="n">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="F61" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="G61" t="n">
-        <v>93</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>B0BZQ1PWGJ</t>
+          <t>B0C4CKCRYW</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>B760M C</t>
+          <t>B760I AORUS PRO</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>189.8</v>
+        <v>71.5</v>
       </c>
       <c r="D62" t="n">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="E62" t="n">
-        <v>177</v>
+        <v>68</v>
       </c>
       <c r="F62" t="n">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="G62" t="n">
-        <v>270</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>B0BZQ1TNW8</t>
+          <t>B0BZQ1PWGJ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>B550M AORUS ELITE AX</t>
+          <t>B760M C</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>256.3</v>
+        <v>153.4</v>
       </c>
       <c r="D63" t="n">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="E63" t="n">
-        <v>382</v>
+        <v>146</v>
       </c>
       <c r="F63" t="n">
-        <v>455</v>
+        <v>182</v>
       </c>
       <c r="G63" t="n">
-        <v>569</v>
+        <v>242</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B0C1M2BDNR</t>
+          <t>B0BZQ1TNW8</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Q670M D3H</t>
+          <t>B550M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4.800000000000001</v>
+        <v>279.9400000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>8</v>
+        <v>349</v>
       </c>
       <c r="E64" t="n">
-        <v>8</v>
+        <v>421</v>
       </c>
       <c r="F64" t="n">
-        <v>12</v>
+        <v>498</v>
       </c>
       <c r="G64" t="n">
-        <v>16</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>B0C4CKFV65</t>
+          <t>B0C1M2BDNR</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>A620M S2H</t>
+          <t>Q670M D3H</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>127.9</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="E65" t="n">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="F65" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G65" t="n">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>B0BZ17BQ4Z</t>
+          <t>B0C4CKFV65</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>B650M K</t>
+          <t>A620M S2H</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>15.04</v>
+        <v>124.8</v>
       </c>
       <c r="D66" t="n">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="E66" t="n">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="F66" t="n">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="G66" t="n">
-        <v>125</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B0C4CB8G8D</t>
+          <t>B0BZ17BQ4Z</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>H610I</t>
+          <t>B650M K</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>148.2</v>
+        <v>12.14</v>
       </c>
       <c r="D67" t="n">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="E67" t="n">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="F67" t="n">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="G67" t="n">
-        <v>195</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>B0BZQ416QM</t>
+          <t>B0C4CB8G8D</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>H610M S2H</t>
+          <t>H610I</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>191.1</v>
+        <v>144</v>
       </c>
       <c r="D68" t="n">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="E68" t="n">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="F68" t="n">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="G68" t="n">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B0BZQ416QM</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>H610M S2H</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4.42</v>
+        <v>232.7</v>
       </c>
       <c r="D69" t="n">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="E69" t="n">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="F69" t="n">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="G69" t="n">
-        <v>49</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>B0CH92B3S2</t>
+          <t>B0C1ZZ57ZW</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>B650M D3HP</t>
+          <t>A620M GAMING X</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>280.8</v>
+        <v>3.140000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="E70" t="n">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="F70" t="n">
-        <v>296</v>
+        <v>20</v>
       </c>
       <c r="G70" t="n">
-        <v>358</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B083RW9KDM</t>
+          <t>B0CH92B3S2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Z790 A ELITE X WIFI7</t>
+          <t>B650M D3HP</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>144.3</v>
+        <v>313.3</v>
       </c>
       <c r="D71" t="n">
-        <v>111</v>
+        <v>241</v>
       </c>
       <c r="E71" t="n">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="F71" t="n">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="G71" t="n">
-        <v>194</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B083RW9KDM</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>Z790 A ELITE X WIFI7</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>167.7</v>
+        <v>105.3</v>
       </c>
       <c r="D72" t="n">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="E72" t="n">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="F72" t="n">
-        <v>178</v>
+        <v>115</v>
       </c>
       <c r="G72" t="n">
-        <v>216</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B083RW9TJF</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>Z790 AORUS PRO X</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>325</v>
+        <v>148.2</v>
       </c>
       <c r="D73" t="n">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="E73" t="n">
-        <v>302</v>
+        <v>135</v>
       </c>
       <c r="F73" t="n">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="G73" t="n">
-        <v>443</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B0CNR8Y29S</t>
+          <t>B083RVN2VG</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>X670 GAMING X AX V2</t>
+          <t>A620I AX</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>236.6</v>
+        <v>467.5</v>
       </c>
       <c r="D74" t="n">
-        <v>182</v>
+        <v>367</v>
       </c>
       <c r="E74" t="n">
-        <v>218</v>
+        <v>434</v>
       </c>
       <c r="F74" t="n">
-        <v>253</v>
+        <v>501</v>
       </c>
       <c r="G74" t="n">
-        <v>305</v>
+        <v>604</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>B0CN76TH9S</t>
+          <t>B0CNR8Y29S</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>X670E AORUS PRO X</t>
+          <t>X670 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>46.86</v>
+        <v>187.2</v>
       </c>
       <c r="D75" t="n">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="E75" t="n">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="F75" t="n">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c r="G75" t="n">
-        <v>396</v>
+        <v>249</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>B0CKS6BMH7</t>
+          <t>B0CN76TH9S</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Z790 A ELITE AX ICE</t>
+          <t>X670E AORUS PRO X</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>115</v>
+        <v>27.6</v>
       </c>
       <c r="D76" t="n">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E76" t="n">
-        <v>147</v>
+        <v>219</v>
       </c>
       <c r="F76" t="n">
-        <v>176</v>
+        <v>291</v>
       </c>
       <c r="G76" t="n">
-        <v>222</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B0CKS6BMH7</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>Z790 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>104</v>
+        <v>137.7</v>
       </c>
       <c r="D77" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="E77" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="F77" t="n">
-        <v>111</v>
+        <v>156</v>
       </c>
       <c r="G77" t="n">
-        <v>137</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>B0CMJSH15D</t>
+          <t>B083RVX2FQ</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>B650 A ELITE AX ICE</t>
+          <t>Z790 AORUS MASTER X</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1084.2</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>834</v>
+        <v>67</v>
       </c>
       <c r="E78" t="n">
-        <v>972</v>
+        <v>80</v>
       </c>
       <c r="F78" t="n">
-        <v>1093</v>
+        <v>92</v>
       </c>
       <c r="G78" t="n">
-        <v>1278</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>B0CCWLMK56</t>
+          <t>B0CMJSH15D</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650M C V2                    </t>
+          <t>B650 A ELITE AX ICE</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>8.32</v>
+        <v>915.2</v>
       </c>
       <c r="D79" t="n">
-        <v>12</v>
+        <v>704</v>
       </c>
       <c r="E79" t="n">
-        <v>16</v>
+        <v>827</v>
       </c>
       <c r="F79" t="n">
-        <v>20</v>
+        <v>941</v>
       </c>
       <c r="G79" t="n">
-        <v>28</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>B0CMK1W2YX</t>
+          <t>B0CCWLMK56</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+          <t xml:space="preserve">B650M C V2                    </t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>464.1</v>
+        <v>6.880000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>357</v>
+        <v>8</v>
       </c>
       <c r="E80" t="n">
-        <v>421</v>
+        <v>12</v>
       </c>
       <c r="F80" t="n">
-        <v>480</v>
+        <v>16</v>
       </c>
       <c r="G80" t="n">
-        <v>570</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>B0CNR6L1DH</t>
+          <t>B0CMK1W2YX</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t xml:space="preserve">B760M D3H                     </t>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>86.26000000000001</v>
+        <v>413.4</v>
       </c>
       <c r="D81" t="n">
-        <v>101</v>
+        <v>318</v>
       </c>
       <c r="E81" t="n">
-        <v>123</v>
+        <v>376</v>
       </c>
       <c r="F81" t="n">
-        <v>144</v>
+        <v>430</v>
       </c>
       <c r="G81" t="n">
-        <v>177</v>
+        <v>511</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B0CNR6L1DH</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t xml:space="preserve">B760M D3H                     </t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>75.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="D82" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E82" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="F82" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G82" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B0D8WH9NG3</t>
+          <t>B0D2V2FPS7</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>B550 AORUS ELITE AX V3</t>
+          <t>A620M GAMING X AX</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>172.1</v>
+        <v>49.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>179</v>
+        <v>38</v>
       </c>
       <c r="E83" t="n">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="F83" t="n">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c r="G83" t="n">
-        <v>306</v>
+        <v>77</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>B083TZ68H1</t>
+          <t>B0D8WH9NG3</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>B650 EAGLE AX</t>
+          <t>B550 AORUS ELITE AX V3</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3646.5</v>
+        <v>176.8</v>
       </c>
       <c r="D84" t="n">
-        <v>3129</v>
+        <v>136</v>
       </c>
       <c r="E84" t="n">
-        <v>3656</v>
+        <v>163</v>
       </c>
       <c r="F84" t="n">
-        <v>4132</v>
+        <v>188</v>
       </c>
       <c r="G84" t="n">
-        <v>4858</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>B0CTTY491F</t>
+          <t>B083TZ68H1</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>B650 GAMING X AX V2</t>
+          <t>B650 EAGLE AX</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>39</v>
+        <v>2503</v>
       </c>
       <c r="D85" t="n">
-        <v>69</v>
+        <v>2352</v>
       </c>
       <c r="E85" t="n">
-        <v>80</v>
+        <v>2747</v>
       </c>
       <c r="F85" t="n">
-        <v>114</v>
+        <v>3104</v>
       </c>
       <c r="G85" t="n">
-        <v>176</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>B0CTNYTX8Y</t>
+          <t>B0CTTY491F</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>B650 UD AC</t>
+          <t>B650 GAMING X AX V2</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>14.68</v>
+        <v>44.68000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="E86" t="n">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="F86" t="n">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="G86" t="n">
-        <v>37</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>B0DFHPZBGM</t>
+          <t>B0CTNYTX8Y</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>B650 UD AX</t>
+          <t>B650 UD AC</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>15.6</v>
+        <v>17.4</v>
       </c>
       <c r="D87" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E87" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F87" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G87" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B0CTNXBRJV</t>
+          <t>B0DFHPZBGM</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>B650E AORUS Elite X AX ICE</t>
+          <t>B650 UD AX</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>163.8</v>
+        <v>13.78</v>
       </c>
       <c r="D88" t="n">
-        <v>162</v>
+        <v>13</v>
       </c>
       <c r="E88" t="n">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>224</v>
+        <v>24</v>
       </c>
       <c r="G88" t="n">
-        <v>271</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>B083SJLWL9</t>
+          <t>B0CTNXBRJV</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>B650M AORUS ELITE AX ICE</t>
+          <t>B650E AORUS Elite X AX ICE</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>318.2</v>
+        <v>174</v>
       </c>
       <c r="D89" t="n">
-        <v>320</v>
+        <v>150</v>
       </c>
       <c r="E89" t="n">
-        <v>368</v>
+        <v>178</v>
       </c>
       <c r="F89" t="n">
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="G89" t="n">
-        <v>478</v>
+        <v>249</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>B0D8WKK29M</t>
+          <t>B083SJLWL9</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>B650M C V3</t>
+          <t>B650M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.44</v>
+        <v>282</v>
       </c>
       <c r="D90" t="n">
-        <v>4</v>
+        <v>272</v>
       </c>
       <c r="E90" t="n">
-        <v>4</v>
+        <v>313</v>
       </c>
       <c r="F90" t="n">
-        <v>8</v>
+        <v>351</v>
       </c>
       <c r="G90" t="n">
-        <v>12</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>B0CTTXH95Q</t>
+          <t>B0D8WKK29M</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B650M D3HP AX</t>
+          <t>B650M C V3</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>43.08</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>97</v>
+        <v>7</v>
       </c>
       <c r="G91" t="n">
-        <v>168</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0D2V4VH2C</t>
+          <t>B0CTTXH95Q</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>B650M GAMING PLUS WIFI</t>
+          <t>B650M D3HP AX</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>514.3</v>
+        <v>42.78</v>
       </c>
       <c r="D92" t="n">
-        <v>613</v>
+        <v>63</v>
       </c>
       <c r="E92" t="n">
-        <v>722</v>
+        <v>73</v>
       </c>
       <c r="F92" t="n">
-        <v>827</v>
+        <v>106</v>
       </c>
       <c r="G92" t="n">
-        <v>985</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0CTTW2MVG</t>
+          <t>B0D2V4VH2C</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B760 DS3H AC</t>
+          <t>B650M GAMING PLUS WIFI</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.46</v>
+        <v>434.24</v>
       </c>
       <c r="D93" t="n">
-        <v>12</v>
+        <v>702</v>
       </c>
       <c r="E93" t="n">
-        <v>16</v>
+        <v>824</v>
       </c>
       <c r="F93" t="n">
-        <v>21</v>
+        <v>936</v>
       </c>
       <c r="G93" t="n">
-        <v>29</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B0CTTWZCVK</t>
+          <t>B0CTTW2MVG</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>B760 DS3H AX</t>
+          <t>B760 DS3H AC</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>8.800000000000001</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="D94" t="n">
         <v>12</v>
@@ -2984,856 +2984,856 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B0D54QJ9CJ</t>
+          <t>B0CTTWZCVK</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>B760M GAMING PLUS WIFI DDR4</t>
+          <t>B760 DS3H AX</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>330.6</v>
+        <v>13</v>
       </c>
       <c r="D95" t="n">
-        <v>390</v>
+        <v>10</v>
       </c>
       <c r="E95" t="n">
-        <v>453</v>
+        <v>13</v>
       </c>
       <c r="F95" t="n">
-        <v>507</v>
+        <v>17</v>
       </c>
       <c r="G95" t="n">
-        <v>592</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B0D33M6CB7</t>
+          <t>B0D54QJ9CJ</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GC-WIFI7</t>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>189.8</v>
+        <v>453.7</v>
       </c>
       <c r="D96" t="n">
-        <v>164</v>
+        <v>349</v>
       </c>
       <c r="E96" t="n">
-        <v>194</v>
+        <v>402</v>
       </c>
       <c r="F96" t="n">
-        <v>222</v>
+        <v>450</v>
       </c>
       <c r="G96" t="n">
-        <v>265</v>
+        <v>521</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B0CPW1F841</t>
+          <t>B0D33M6CB7</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>TRX50 AERO D</t>
+          <t>GC-WIFI7</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>53.84</v>
+        <v>226</v>
       </c>
       <c r="D97" t="n">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="E97" t="n">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="F97" t="n">
-        <v>114</v>
+        <v>259</v>
       </c>
       <c r="G97" t="n">
-        <v>137</v>
+        <v>303</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B0DGVC3DDW</t>
+          <t>B0CPW1F841</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7</t>
+          <t>TRX50 AERO D</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1141.126</v>
+        <v>45.4</v>
       </c>
       <c r="D98" t="n">
-        <v>1694</v>
+        <v>65</v>
       </c>
       <c r="E98" t="n">
-        <v>2004</v>
+        <v>77</v>
       </c>
       <c r="F98" t="n">
-        <v>2304</v>
+        <v>89</v>
       </c>
       <c r="G98" t="n">
-        <v>2769</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B0DGVGRVLQ</t>
+          <t>B0DGVC3DDW</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>X870 AORUS ELITE WIFI7 ICE</t>
+          <t>X870 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>857.182</v>
+        <v>1140.1</v>
       </c>
       <c r="D99" t="n">
-        <v>1220</v>
+        <v>1060</v>
       </c>
       <c r="E99" t="n">
-        <v>1409</v>
+        <v>1263</v>
       </c>
       <c r="F99" t="n">
-        <v>1572</v>
+        <v>1463</v>
       </c>
       <c r="G99" t="n">
-        <v>1818</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>B0DGVMYTW6</t>
+          <t>B0DGVGRVLQ</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>X870 EAGLE WIFI7</t>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1237.6</v>
+        <v>939</v>
       </c>
       <c r="D100" t="n">
-        <v>952</v>
+        <v>1105</v>
       </c>
       <c r="E100" t="n">
-        <v>1124</v>
+        <v>1269</v>
       </c>
       <c r="F100" t="n">
-        <v>1289</v>
+        <v>1406</v>
       </c>
       <c r="G100" t="n">
-        <v>1543</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>B0DHWLN5XT</t>
+          <t>B0DGVMYTW6</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>X870 GAMING WIFI6</t>
+          <t>X870 EAGLE WIFI7</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>424.87</v>
+        <v>1012.7</v>
       </c>
       <c r="D101" t="n">
-        <v>342</v>
+        <v>779</v>
       </c>
       <c r="E101" t="n">
-        <v>404</v>
+        <v>906</v>
       </c>
       <c r="F101" t="n">
-        <v>463</v>
+        <v>1017</v>
       </c>
       <c r="G101" t="n">
-        <v>553</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>B0DGVGT3PJ</t>
+          <t>B0DHWLN5XT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>X870 GAMING X WIFI7</t>
+          <t>X870 GAMING WIFI6</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>381.4760000000001</v>
+        <v>396.36</v>
       </c>
       <c r="D102" t="n">
-        <v>499</v>
+        <v>305</v>
       </c>
       <c r="E102" t="n">
-        <v>589</v>
+        <v>357</v>
       </c>
       <c r="F102" t="n">
-        <v>674</v>
+        <v>404</v>
       </c>
       <c r="G102" t="n">
-        <v>805</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>B0DGVBM73J</t>
+          <t>B0DGVGT3PJ</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>X870E AORUS ELITE WIFI7</t>
+          <t>X870 GAMING X WIFI7</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>651.558</v>
+        <v>400.4</v>
       </c>
       <c r="D103" t="n">
-        <v>900</v>
+        <v>308</v>
       </c>
       <c r="E103" t="n">
-        <v>1047</v>
+        <v>362</v>
       </c>
       <c r="F103" t="n">
-        <v>1179</v>
+        <v>413</v>
       </c>
       <c r="G103" t="n">
-        <v>1382</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>B0DGVSW4FD</t>
+          <t>B0DGVBM73J</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>X870E AORUS MASTER</t>
+          <t>X870E AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>271.91</v>
+        <v>678.2</v>
       </c>
       <c r="D104" t="n">
-        <v>213</v>
+        <v>1009</v>
       </c>
       <c r="E104" t="n">
-        <v>253</v>
+        <v>1162</v>
       </c>
       <c r="F104" t="n">
-        <v>290</v>
+        <v>1294</v>
       </c>
       <c r="G104" t="n">
-        <v>348</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>B0DGVGV7YN</t>
+          <t>B0DGVSW4FD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>X870E AORUS PRO</t>
+          <t>X870E AORUS MASTER</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>228.46</v>
+        <v>227.5</v>
       </c>
       <c r="D105" t="n">
-        <v>246</v>
+        <v>175</v>
       </c>
       <c r="E105" t="n">
-        <v>288</v>
+        <v>207</v>
       </c>
       <c r="F105" t="n">
-        <v>324</v>
+        <v>235</v>
       </c>
       <c r="G105" t="n">
-        <v>380</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>B0DGVBSLLP</t>
+          <t>B0DGVGV7YN</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>X870E AORUS PRO ICE</t>
+          <t>X870E AORUS PRO</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>627.3</v>
+        <v>234.25</v>
       </c>
       <c r="D106" t="n">
-        <v>723</v>
+        <v>203</v>
       </c>
       <c r="E106" t="n">
-        <v>823</v>
+        <v>241</v>
       </c>
       <c r="F106" t="n">
-        <v>903</v>
+        <v>274</v>
       </c>
       <c r="G106" t="n">
-        <v>1024</v>
+        <v>326</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>B0CTTVFWHM</t>
+          <t>B0DGVBSLLP</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X WIFI7</t>
+          <t>X870E AORUS PRO ICE</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>115.6</v>
+        <v>815.1</v>
       </c>
       <c r="D107" t="n">
-        <v>111</v>
+        <v>627</v>
       </c>
       <c r="E107" t="n">
-        <v>133</v>
+        <v>711</v>
       </c>
       <c r="F107" t="n">
-        <v>155</v>
+        <v>781</v>
       </c>
       <c r="G107" t="n">
-        <v>189</v>
+        <v>884</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>B0CTTWH6TD</t>
+          <t>B0CTTVFWHM</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Z790 D AC</t>
+          <t>Z790 AORUS PRO X WIFI7</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>15.42</v>
+        <v>117</v>
       </c>
       <c r="D108" t="n">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="E108" t="n">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="F108" t="n">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="G108" t="n">
-        <v>37</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>B0CTNPZLNH</t>
+          <t>B0CTTWH6TD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Z790 Eagle AX</t>
+          <t>Z790 D AC</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>232.6</v>
+        <v>13.2</v>
       </c>
       <c r="D109" t="n">
-        <v>194</v>
+        <v>16</v>
       </c>
       <c r="E109" t="n">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="F109" t="n">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="G109" t="n">
-        <v>349</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>B0D8WH39QJ</t>
+          <t>B0CTNPZLNH</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Z790 GAMING PLUS AX</t>
+          <t>Z790 Eagle AX</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>58.9</v>
+        <v>250.9</v>
       </c>
       <c r="D110" t="n">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="E110" t="n">
-        <v>50</v>
+        <v>233</v>
       </c>
       <c r="F110" t="n">
-        <v>81</v>
+        <v>273</v>
       </c>
       <c r="G110" t="n">
-        <v>140</v>
+        <v>338</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>B0D2RL4PT6</t>
+          <t>B0D8WH39QJ</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Z790 S WIFI DDR4</t>
+          <t>Z790 GAMING PLUS AX</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>557</v>
+        <v>62.40000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>467</v>
+        <v>48</v>
       </c>
       <c r="E111" t="n">
-        <v>552</v>
+        <v>58</v>
       </c>
       <c r="F111" t="n">
-        <v>636</v>
+        <v>81</v>
       </c>
       <c r="G111" t="n">
-        <v>767</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>B0D2PK3CC1</t>
+          <t>B0D2RL4PT6</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Z790M AORUS ELITE AX ICE</t>
+          <t>Z790 S WIFI DDR4</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>179.4</v>
+        <v>353</v>
       </c>
       <c r="D112" t="n">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="E112" t="n">
-        <v>212</v>
+        <v>363</v>
       </c>
       <c r="F112" t="n">
-        <v>242</v>
+        <v>424</v>
       </c>
       <c r="G112" t="n">
-        <v>289</v>
+        <v>521</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>B0DJP9KLLD</t>
+          <t>B0D2PK3CC1</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Z890 AERO G</t>
+          <t>Z790M AORUS ELITE AX ICE</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>29.65</v>
+        <v>207</v>
       </c>
       <c r="D113" t="n">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="E113" t="n">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="F113" t="n">
-        <v>56</v>
+        <v>228</v>
       </c>
       <c r="G113" t="n">
-        <v>73</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>B0DJP95MGB</t>
+          <t>B0DJP9KLLD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE WIFI7</t>
+          <t>Z890 AERO G</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>164.03</v>
+        <v>23.042</v>
       </c>
       <c r="D114" t="n">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="E114" t="n">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="F114" t="n">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="G114" t="n">
-        <v>241</v>
+        <v>63</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>B0DJP7NRXX</t>
+          <t>B0DJP95MGB</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+          <t>Z890 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>74.10000000000001</v>
+        <v>106.79</v>
       </c>
       <c r="D115" t="n">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="E115" t="n">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="F115" t="n">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="G115" t="n">
-        <v>107</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>B0DJP76L1F</t>
+          <t>B0DJP7NRXX</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Z890 AORUS ELITE X ICE</t>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>11.712</v>
+        <v>46.16</v>
       </c>
       <c r="D116" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E116" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="F116" t="n">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G116" t="n">
-        <v>45</v>
+        <v>94</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>B0DJP9LCYC</t>
+          <t>B0DJP76L1F</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Z890 AORUS MASTER</t>
+          <t>Z890 AORUS ELITE X ICE</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>23.368</v>
+        <v>13.254</v>
       </c>
       <c r="D117" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E117" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="F117" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="G117" t="n">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>B0DJP8NFWP</t>
+          <t>B0DJP9LCYC</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Z890 AORUS PRO ICE</t>
+          <t>Z890 AORUS MASTER</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>37.398</v>
+        <v>18.514</v>
       </c>
       <c r="D118" t="n">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="E118" t="n">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="F118" t="n">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="G118" t="n">
-        <v>144</v>
+        <v>53</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>B0DJP8MMMJ</t>
+          <t>B0DJP8NFWP</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Z890 EAGLE WIFI7</t>
+          <t>Z890 AORUS PRO ICE</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>38.188</v>
+        <v>25.44</v>
       </c>
       <c r="D119" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E119" t="n">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F119" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G119" t="n">
-        <v>108</v>
+        <v>94</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>B0DJP9DBVS</t>
+          <t>B0DJP8MMMJ</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Z890 GAMING X WIFI7</t>
+          <t>Z890 EAGLE WIFI7</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>14.79</v>
+        <v>44.72000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E120" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F120" t="n">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="G120" t="n">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>B0DJP8W3BY</t>
+          <t>B0DJP9DBVS</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Z890 UD WIFI6E</t>
+          <t>Z890 GAMING X WIFI7</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>50.688</v>
+        <v>13.02</v>
       </c>
       <c r="D121" t="n">
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="E121" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="G121" t="n">
-        <v>162</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>B0DJP82ML2</t>
+          <t>B0DJP8W3BY</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Z890I AORUS ULTRA</t>
+          <t>Z890 UD WIFI6E</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>27.36</v>
+        <v>48.07</v>
       </c>
       <c r="D122" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E122" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F122" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G122" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>B0DJP8Q6JK</t>
+          <t>B0DJP82ML2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+          <t>Z890I AORUS ULTRA</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>47.03</v>
+        <v>21.72</v>
       </c>
       <c r="D123" t="n">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E123" t="n">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="F123" t="n">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="G123" t="n">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>B0DJP9FZYK</t>
+          <t>B0DJP8Q6JK</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Z890M GAMING X</t>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>34.73999999999999</v>
+        <v>42.114</v>
       </c>
       <c r="D124" t="n">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E124" t="n">
+        <v>59</v>
+      </c>
+      <c r="F124" t="n">
+        <v>70</v>
+      </c>
+      <c r="G124" t="n">
         <v>88</v>
-      </c>
-      <c r="F124" t="n">
-        <v>109</v>
-      </c>
-      <c r="G124" t="n">
-        <v>142</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>B081JDLX48</t>
+          <t>B0DJP9FZYK</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>TRX40 AORUS MASTER</t>
+          <t>Z890M GAMING X</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4</v>
+        <v>49.48999999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>B0DQLJVH25</t>
+          <t>B081JDLX48</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>B850 AI TOP</t>
+          <t>TRX40 AORUS MASTER</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="E126" t="n">
         <v>0</v>
@@ -3848,19 +3848,19 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>B0DQLHVQSF</t>
+          <t>B0DQLJVH25</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7</t>
+          <t>B850 AI TOP</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D127" t="n">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>B0DQLKRXKW</t>
+          <t>B0DQLHVQSF</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7 ICE</t>
+          <t>B850 AORUS ELITE WIFI7</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>176</v>
+        <v>74</v>
       </c>
       <c r="D128" t="n">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -3902,19 +3902,19 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>B0DQLJWRDX</t>
+          <t>B0DQLKRXKW</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>B850 EAGLE WIFI6E</t>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="D129" t="n">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
@@ -3929,19 +3929,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>B0DQLKZSKF</t>
+          <t>B0DQLJWRDX</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B850 GAMING WIFI6</t>
+          <t>B850 EAGLE WIFI6E</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D130" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
@@ -3956,19 +3956,19 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>B0DQLH22F6</t>
+          <t>B0DQLKZSKF</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>B850 GAMING X WIFI6E</t>
+          <t>B850 GAMING WIFI6</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D131" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E131" t="n">
         <v>0</v>
@@ -3983,19 +3983,19 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>B0DQLKPSMG</t>
+          <t>B0DQLH22F6</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>B850I AORUS PRO</t>
+          <t>B850 GAMING X WIFI6E</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E132" t="n">
         <v>0</v>
@@ -4010,19 +4010,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>B0DQLJGTRM</t>
+          <t>B0DQLKPSMG</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>B850M AORUS ELITE WIFI6E ICE</t>
+          <t>B850I AORUS PRO</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>279</v>
+        <v>86</v>
       </c>
       <c r="D133" t="n">
-        <v>310</v>
+        <v>87</v>
       </c>
       <c r="E133" t="n">
         <v>0</v>
@@ -4037,19 +4037,19 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>B0DQLJHJ8B</t>
+          <t>B0DQLJGTRM</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>B850M DS3H</t>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="D134" t="n">
-        <v>43</v>
+        <v>166</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
@@ -4064,19 +4064,19 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>B0DQLHLVLK</t>
+          <t>B0DQLJHJ8B</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>B850M GAMING X WIFI6E</t>
+          <t>B850M DS3H</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="D135" t="n">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
@@ -4091,19 +4091,19 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>B0DQLH4ZTR</t>
+          <t>B0DQLHLVLK</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>B860 AORUS ELITE WIFI7 ICE</t>
+          <t>B850M GAMING X WIFI6E</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="D136" t="n">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
@@ -4118,19 +4118,19 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>B0DQLJRY8C</t>
+          <t>B0DQLH4ZTR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>B860 EAGLE WIFI6E</t>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
@@ -4145,19 +4145,19 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>B0DQLLLHYY</t>
+          <t>B0DQLJRY8C</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>B860 GAMING X WIFI6E</t>
+          <t>B860 EAGLE WIFI6E</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D138" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -4172,27 +4172,135 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>B0DQLGMGVP</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>B860M AORUS ELITE WIFI6E ICE</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C142" t="n">
         <v>9</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D142" t="n">
         <v>9</v>
       </c>
-      <c r="E139" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" t="n">
-        <v>0</v>
-      </c>
-      <c r="G139" t="n">
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
         <v>0</v>
       </c>
     </row>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>149.9</v>
+        <v>158.8</v>
       </c>
       <c r="D16" t="n">
         <v>129</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.18</v>
+        <v>3.48</v>
       </c>
       <c r="D17" t="n">
         <v>15</v>
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>313.16</v>
+        <v>314.56</v>
       </c>
       <c r="D24" t="n">
         <v>450</v>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>809.8</v>
+        <v>811.8</v>
       </c>
       <c r="D27" t="n">
         <v>720</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="D29" t="n">
         <v>548</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>66.88</v>
+        <v>66.67999999999999</v>
       </c>
       <c r="D30" t="n">
         <v>171</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>39.3</v>
+        <v>38.98</v>
       </c>
       <c r="D31" t="n">
         <v>62</v>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>203.1</v>
+        <v>204.1</v>
       </c>
       <c r="D55" t="n">
         <v>162</v>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D68" t="n">
         <v>121</v>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>44.68000000000001</v>
+        <v>44.28000000000001</v>
       </c>
       <c r="D86" t="n">
         <v>82</v>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D89" t="n">
         <v>150</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D90" t="n">
         <v>272</v>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>434.24</v>
+        <v>433.44</v>
       </c>
       <c r="D93" t="n">
         <v>702</v>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="D100" t="n">
         <v>1105</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>678.2</v>
+        <v>678.0000000000001</v>
       </c>
       <c r="D104" t="n">
         <v>1009</v>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D112" t="n">
         <v>303</v>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D113" t="n">
         <v>170</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>407.3</v>
+        <v>415.3</v>
       </c>
       <c r="D2" t="n">
         <v>336</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>415.3</v>
+        <v>407.3</v>
       </c>
       <c r="D2" t="n">
         <v>336</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,28 +473,3835 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>B09L9DY4L1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Z690 AERO G DDR4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4.300000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" t="n">
+        <v>25</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>391.3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>301</v>
+      </c>
+      <c r="E3" t="n">
+        <v>368</v>
+      </c>
+      <c r="F3" t="n">
+        <v>467</v>
+      </c>
+      <c r="G3" t="n">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3.865</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5.120000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>16</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>270.72</v>
+      </c>
+      <c r="D8" t="n">
+        <v>312</v>
+      </c>
+      <c r="E8" t="n">
+        <v>376</v>
+      </c>
+      <c r="F8" t="n">
+        <v>443</v>
+      </c>
+      <c r="G8" t="n">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>447.7</v>
+      </c>
+      <c r="D9" t="n">
+        <v>375</v>
+      </c>
+      <c r="E9" t="n">
+        <v>441</v>
+      </c>
+      <c r="F9" t="n">
+        <v>502</v>
+      </c>
+      <c r="G9" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" t="n">
+        <v>28</v>
+      </c>
+      <c r="F10" t="n">
+        <v>36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B087GFYBCW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Z490 AORUS ELITE AC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>411.2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>377</v>
+      </c>
+      <c r="E13" t="n">
+        <v>450</v>
+      </c>
+      <c r="F13" t="n">
+        <v>524</v>
+      </c>
+      <c r="G13" t="n">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2581</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2126</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2324</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2470</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>149.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>129</v>
+      </c>
+      <c r="E16" t="n">
+        <v>155</v>
+      </c>
+      <c r="F16" t="n">
+        <v>179</v>
+      </c>
+      <c r="G16" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19</v>
+      </c>
+      <c r="F17" t="n">
+        <v>27</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="D19" t="n">
+        <v>16</v>
+      </c>
+      <c r="E19" t="n">
+        <v>21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>25</v>
+      </c>
+      <c r="G19" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>157</v>
+      </c>
+      <c r="D20" t="n">
+        <v>152</v>
+      </c>
+      <c r="E20" t="n">
+        <v>182</v>
+      </c>
+      <c r="F20" t="n">
+        <v>211</v>
+      </c>
+      <c r="G20" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="D21" t="n">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>12</v>
+      </c>
+      <c r="G21" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>B08F7BHDLY</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>A520I AC</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C22" t="n">
         <v>407.3</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D22" t="n">
         <v>336</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E22" t="n">
         <v>388</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F22" t="n">
         <v>431</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G22" t="n">
         <v>497</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4.460000000000001</v>
+      </c>
+      <c r="D23" t="n">
+        <v>16</v>
+      </c>
+      <c r="E23" t="n">
+        <v>12</v>
+      </c>
+      <c r="F23" t="n">
+        <v>26</v>
+      </c>
+      <c r="G23" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>314.56</v>
+      </c>
+      <c r="D24" t="n">
+        <v>450</v>
+      </c>
+      <c r="E24" t="n">
+        <v>545</v>
+      </c>
+      <c r="F24" t="n">
+        <v>651</v>
+      </c>
+      <c r="G24" t="n">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>4</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>810.8</v>
+      </c>
+      <c r="D27" t="n">
+        <v>720</v>
+      </c>
+      <c r="E27" t="n">
+        <v>848</v>
+      </c>
+      <c r="F27" t="n">
+        <v>966</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D28" t="n">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>8</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12</v>
+      </c>
+      <c r="G28" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>573</v>
+      </c>
+      <c r="D29" t="n">
+        <v>548</v>
+      </c>
+      <c r="E29" t="n">
+        <v>652</v>
+      </c>
+      <c r="F29" t="n">
+        <v>756</v>
+      </c>
+      <c r="G29" t="n">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>66.67999999999999</v>
+      </c>
+      <c r="D30" t="n">
+        <v>171</v>
+      </c>
+      <c r="E30" t="n">
+        <v>204</v>
+      </c>
+      <c r="F30" t="n">
+        <v>236</v>
+      </c>
+      <c r="G30" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>62</v>
+      </c>
+      <c r="E31" t="n">
+        <v>76</v>
+      </c>
+      <c r="F31" t="n">
+        <v>99</v>
+      </c>
+      <c r="G31" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16</v>
+      </c>
+      <c r="G32" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>730.6</v>
+      </c>
+      <c r="D33" t="n">
+        <v>562</v>
+      </c>
+      <c r="E33" t="n">
+        <v>656</v>
+      </c>
+      <c r="F33" t="n">
+        <v>739</v>
+      </c>
+      <c r="G33" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>450.6</v>
+      </c>
+      <c r="D34" t="n">
+        <v>351</v>
+      </c>
+      <c r="E34" t="n">
+        <v>412</v>
+      </c>
+      <c r="F34" t="n">
+        <v>466</v>
+      </c>
+      <c r="G34" t="n">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="D35" t="n">
+        <v>48</v>
+      </c>
+      <c r="E35" t="n">
+        <v>59</v>
+      </c>
+      <c r="F35" t="n">
+        <v>78</v>
+      </c>
+      <c r="G35" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="D38" t="n">
+        <v>16</v>
+      </c>
+      <c r="E38" t="n">
+        <v>11</v>
+      </c>
+      <c r="F38" t="n">
+        <v>24</v>
+      </c>
+      <c r="G38" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>58.50000000000001</v>
+      </c>
+      <c r="D39" t="n">
+        <v>45</v>
+      </c>
+      <c r="E39" t="n">
+        <v>54</v>
+      </c>
+      <c r="F39" t="n">
+        <v>67</v>
+      </c>
+      <c r="G39" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1899.3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1461</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1700</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1910</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D41" t="n">
+        <v>4</v>
+      </c>
+      <c r="E41" t="n">
+        <v>4</v>
+      </c>
+      <c r="F41" t="n">
+        <v>7</v>
+      </c>
+      <c r="G41" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19</v>
+      </c>
+      <c r="E42" t="n">
+        <v>12</v>
+      </c>
+      <c r="F42" t="n">
+        <v>27</v>
+      </c>
+      <c r="G42" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>66.30000000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>51</v>
+      </c>
+      <c r="E44" t="n">
+        <v>63</v>
+      </c>
+      <c r="F44" t="n">
+        <v>79</v>
+      </c>
+      <c r="G44" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D45" t="n">
+        <v>49</v>
+      </c>
+      <c r="E45" t="n">
+        <v>61</v>
+      </c>
+      <c r="F45" t="n">
+        <v>76</v>
+      </c>
+      <c r="G45" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10.38</v>
+      </c>
+      <c r="D46" t="n">
+        <v>23</v>
+      </c>
+      <c r="E46" t="n">
+        <v>24</v>
+      </c>
+      <c r="F46" t="n">
+        <v>40</v>
+      </c>
+      <c r="G46" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>314.6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>242</v>
+      </c>
+      <c r="E47" t="n">
+        <v>284</v>
+      </c>
+      <c r="F47" t="n">
+        <v>324</v>
+      </c>
+      <c r="G47" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12</v>
+      </c>
+      <c r="G48" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>13</v>
+      </c>
+      <c r="G49" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>36.26000000000001</v>
+      </c>
+      <c r="D50" t="n">
+        <v>101</v>
+      </c>
+      <c r="E50" t="n">
+        <v>114</v>
+      </c>
+      <c r="F50" t="n">
+        <v>165</v>
+      </c>
+      <c r="G50" t="n">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>633.1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>487</v>
+      </c>
+      <c r="E51" t="n">
+        <v>580</v>
+      </c>
+      <c r="F51" t="n">
+        <v>673</v>
+      </c>
+      <c r="G51" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B07STNZF9L</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>X570 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>258.7</v>
+      </c>
+      <c r="D53" t="n">
+        <v>199</v>
+      </c>
+      <c r="E53" t="n">
+        <v>237</v>
+      </c>
+      <c r="F53" t="n">
+        <v>273</v>
+      </c>
+      <c r="G53" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D54" t="n">
+        <v>8</v>
+      </c>
+      <c r="E54" t="n">
+        <v>8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>13</v>
+      </c>
+      <c r="G54" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>204.1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>162</v>
+      </c>
+      <c r="E55" t="n">
+        <v>192</v>
+      </c>
+      <c r="F55" t="n">
+        <v>220</v>
+      </c>
+      <c r="G55" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>139.7</v>
+      </c>
+      <c r="D56" t="n">
+        <v>112</v>
+      </c>
+      <c r="E56" t="n">
+        <v>136</v>
+      </c>
+      <c r="F56" t="n">
+        <v>161</v>
+      </c>
+      <c r="G56" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>7</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12</v>
+      </c>
+      <c r="G57" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>14.26</v>
+      </c>
+      <c r="D58" t="n">
+        <v>21</v>
+      </c>
+      <c r="E58" t="n">
+        <v>26</v>
+      </c>
+      <c r="F58" t="n">
+        <v>32</v>
+      </c>
+      <c r="G58" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D59" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12</v>
+      </c>
+      <c r="G59" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>432.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>333</v>
+      </c>
+      <c r="E60" t="n">
+        <v>404</v>
+      </c>
+      <c r="F60" t="n">
+        <v>486</v>
+      </c>
+      <c r="G60" t="n">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>71</v>
+      </c>
+      <c r="E61" t="n">
+        <v>86</v>
+      </c>
+      <c r="F61" t="n">
+        <v>104</v>
+      </c>
+      <c r="G61" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>55</v>
+      </c>
+      <c r="E62" t="n">
+        <v>68</v>
+      </c>
+      <c r="F62" t="n">
+        <v>83</v>
+      </c>
+      <c r="G62" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>153.4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>118</v>
+      </c>
+      <c r="E63" t="n">
+        <v>146</v>
+      </c>
+      <c r="F63" t="n">
+        <v>182</v>
+      </c>
+      <c r="G63" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>279.9400000000001</v>
+      </c>
+      <c r="D64" t="n">
+        <v>349</v>
+      </c>
+      <c r="E64" t="n">
+        <v>421</v>
+      </c>
+      <c r="F64" t="n">
+        <v>498</v>
+      </c>
+      <c r="G64" t="n">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12</v>
+      </c>
+      <c r="G65" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>124.8</v>
+      </c>
+      <c r="D66" t="n">
+        <v>96</v>
+      </c>
+      <c r="E66" t="n">
+        <v>118</v>
+      </c>
+      <c r="F66" t="n">
+        <v>141</v>
+      </c>
+      <c r="G66" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="D67" t="n">
+        <v>39</v>
+      </c>
+      <c r="E67" t="n">
+        <v>42</v>
+      </c>
+      <c r="F67" t="n">
+        <v>66</v>
+      </c>
+      <c r="G67" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>149</v>
+      </c>
+      <c r="D68" t="n">
+        <v>121</v>
+      </c>
+      <c r="E68" t="n">
+        <v>145</v>
+      </c>
+      <c r="F68" t="n">
+        <v>168</v>
+      </c>
+      <c r="G68" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>232.7</v>
+      </c>
+      <c r="D69" t="n">
+        <v>179</v>
+      </c>
+      <c r="E69" t="n">
+        <v>208</v>
+      </c>
+      <c r="F69" t="n">
+        <v>234</v>
+      </c>
+      <c r="G69" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>3.140000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>13</v>
+      </c>
+      <c r="E70" t="n">
+        <v>9</v>
+      </c>
+      <c r="F70" t="n">
+        <v>20</v>
+      </c>
+      <c r="G70" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>313.3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>241</v>
+      </c>
+      <c r="E71" t="n">
+        <v>285</v>
+      </c>
+      <c r="F71" t="n">
+        <v>326</v>
+      </c>
+      <c r="G71" t="n">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="D72" t="n">
+        <v>81</v>
+      </c>
+      <c r="E72" t="n">
+        <v>98</v>
+      </c>
+      <c r="F72" t="n">
+        <v>115</v>
+      </c>
+      <c r="G72" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>148.2</v>
+      </c>
+      <c r="D73" t="n">
+        <v>114</v>
+      </c>
+      <c r="E73" t="n">
+        <v>135</v>
+      </c>
+      <c r="F73" t="n">
+        <v>154</v>
+      </c>
+      <c r="G73" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>468.5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>367</v>
+      </c>
+      <c r="E74" t="n">
+        <v>434</v>
+      </c>
+      <c r="F74" t="n">
+        <v>501</v>
+      </c>
+      <c r="G74" t="n">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="D75" t="n">
+        <v>144</v>
+      </c>
+      <c r="E75" t="n">
+        <v>173</v>
+      </c>
+      <c r="F75" t="n">
+        <v>202</v>
+      </c>
+      <c r="G75" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="D76" t="n">
+        <v>180</v>
+      </c>
+      <c r="E76" t="n">
+        <v>219</v>
+      </c>
+      <c r="F76" t="n">
+        <v>291</v>
+      </c>
+      <c r="G76" t="n">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>137.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>107</v>
+      </c>
+      <c r="E77" t="n">
+        <v>130</v>
+      </c>
+      <c r="F77" t="n">
+        <v>156</v>
+      </c>
+      <c r="G77" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="D78" t="n">
+        <v>67</v>
+      </c>
+      <c r="E78" t="n">
+        <v>80</v>
+      </c>
+      <c r="F78" t="n">
+        <v>92</v>
+      </c>
+      <c r="G78" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>915.2</v>
+      </c>
+      <c r="D79" t="n">
+        <v>704</v>
+      </c>
+      <c r="E79" t="n">
+        <v>827</v>
+      </c>
+      <c r="F79" t="n">
+        <v>941</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>6.880000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" t="n">
+        <v>12</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16</v>
+      </c>
+      <c r="G80" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>413.4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>318</v>
+      </c>
+      <c r="E81" t="n">
+        <v>376</v>
+      </c>
+      <c r="F81" t="n">
+        <v>430</v>
+      </c>
+      <c r="G81" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>84.40000000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>65</v>
+      </c>
+      <c r="E82" t="n">
+        <v>79</v>
+      </c>
+      <c r="F82" t="n">
+        <v>94</v>
+      </c>
+      <c r="G82" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>49.40000000000001</v>
+      </c>
+      <c r="D83" t="n">
+        <v>38</v>
+      </c>
+      <c r="E83" t="n">
+        <v>47</v>
+      </c>
+      <c r="F83" t="n">
+        <v>58</v>
+      </c>
+      <c r="G83" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="D84" t="n">
+        <v>136</v>
+      </c>
+      <c r="E84" t="n">
+        <v>163</v>
+      </c>
+      <c r="F84" t="n">
+        <v>188</v>
+      </c>
+      <c r="G84" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>2503</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2352</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2747</v>
+      </c>
+      <c r="F85" t="n">
+        <v>3104</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>43.68000000000001</v>
+      </c>
+      <c r="D86" t="n">
+        <v>82</v>
+      </c>
+      <c r="E86" t="n">
+        <v>99</v>
+      </c>
+      <c r="F86" t="n">
+        <v>134</v>
+      </c>
+      <c r="G86" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>16</v>
+      </c>
+      <c r="E87" t="n">
+        <v>19</v>
+      </c>
+      <c r="F87" t="n">
+        <v>24</v>
+      </c>
+      <c r="G87" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="D88" t="n">
+        <v>13</v>
+      </c>
+      <c r="E88" t="n">
+        <v>17</v>
+      </c>
+      <c r="F88" t="n">
+        <v>24</v>
+      </c>
+      <c r="G88" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>175</v>
+      </c>
+      <c r="D89" t="n">
+        <v>150</v>
+      </c>
+      <c r="E89" t="n">
+        <v>178</v>
+      </c>
+      <c r="F89" t="n">
+        <v>206</v>
+      </c>
+      <c r="G89" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>282</v>
+      </c>
+      <c r="D90" t="n">
+        <v>272</v>
+      </c>
+      <c r="E90" t="n">
+        <v>313</v>
+      </c>
+      <c r="F90" t="n">
+        <v>351</v>
+      </c>
+      <c r="G90" t="n">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>4</v>
+      </c>
+      <c r="E91" t="n">
+        <v>4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7</v>
+      </c>
+      <c r="G91" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>42.78</v>
+      </c>
+      <c r="D92" t="n">
+        <v>63</v>
+      </c>
+      <c r="E92" t="n">
+        <v>73</v>
+      </c>
+      <c r="F92" t="n">
+        <v>106</v>
+      </c>
+      <c r="G92" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>434.04</v>
+      </c>
+      <c r="D93" t="n">
+        <v>702</v>
+      </c>
+      <c r="E93" t="n">
+        <v>824</v>
+      </c>
+      <c r="F93" t="n">
+        <v>936</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="D94" t="n">
+        <v>12</v>
+      </c>
+      <c r="E94" t="n">
+        <v>16</v>
+      </c>
+      <c r="F94" t="n">
+        <v>20</v>
+      </c>
+      <c r="G94" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>13</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10</v>
+      </c>
+      <c r="E95" t="n">
+        <v>13</v>
+      </c>
+      <c r="F95" t="n">
+        <v>17</v>
+      </c>
+      <c r="G95" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>453.7</v>
+      </c>
+      <c r="D96" t="n">
+        <v>349</v>
+      </c>
+      <c r="E96" t="n">
+        <v>402</v>
+      </c>
+      <c r="F96" t="n">
+        <v>450</v>
+      </c>
+      <c r="G96" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>226</v>
+      </c>
+      <c r="D97" t="n">
+        <v>198</v>
+      </c>
+      <c r="E97" t="n">
+        <v>231</v>
+      </c>
+      <c r="F97" t="n">
+        <v>259</v>
+      </c>
+      <c r="G97" t="n">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D98" t="n">
+        <v>65</v>
+      </c>
+      <c r="E98" t="n">
+        <v>77</v>
+      </c>
+      <c r="F98" t="n">
+        <v>89</v>
+      </c>
+      <c r="G98" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1140.1</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1060</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1263</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1463</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>942</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1105</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1269</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1406</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1012.7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>779</v>
+      </c>
+      <c r="E101" t="n">
+        <v>906</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1017</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>350.68</v>
+      </c>
+      <c r="D102" t="n">
+        <v>305</v>
+      </c>
+      <c r="E102" t="n">
+        <v>357</v>
+      </c>
+      <c r="F102" t="n">
+        <v>404</v>
+      </c>
+      <c r="G102" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>400.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>308</v>
+      </c>
+      <c r="E103" t="n">
+        <v>362</v>
+      </c>
+      <c r="F103" t="n">
+        <v>413</v>
+      </c>
+      <c r="G103" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>678.4000000000001</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1009</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1162</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1294</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>227.5</v>
+      </c>
+      <c r="D105" t="n">
+        <v>175</v>
+      </c>
+      <c r="E105" t="n">
+        <v>207</v>
+      </c>
+      <c r="F105" t="n">
+        <v>235</v>
+      </c>
+      <c r="G105" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>231.9667929292929</v>
+      </c>
+      <c r="D106" t="n">
+        <v>203</v>
+      </c>
+      <c r="E106" t="n">
+        <v>241</v>
+      </c>
+      <c r="F106" t="n">
+        <v>274</v>
+      </c>
+      <c r="G106" t="n">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>648.0029438612506</v>
+      </c>
+      <c r="D107" t="n">
+        <v>627</v>
+      </c>
+      <c r="E107" t="n">
+        <v>711</v>
+      </c>
+      <c r="F107" t="n">
+        <v>781</v>
+      </c>
+      <c r="G107" t="n">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>117</v>
+      </c>
+      <c r="D108" t="n">
+        <v>90</v>
+      </c>
+      <c r="E108" t="n">
+        <v>107</v>
+      </c>
+      <c r="F108" t="n">
+        <v>123</v>
+      </c>
+      <c r="G108" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="D109" t="n">
+        <v>16</v>
+      </c>
+      <c r="E109" t="n">
+        <v>20</v>
+      </c>
+      <c r="F109" t="n">
+        <v>25</v>
+      </c>
+      <c r="G109" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>193</v>
+      </c>
+      <c r="E110" t="n">
+        <v>233</v>
+      </c>
+      <c r="F110" t="n">
+        <v>273</v>
+      </c>
+      <c r="G110" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>62.40000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>48</v>
+      </c>
+      <c r="E111" t="n">
+        <v>58</v>
+      </c>
+      <c r="F111" t="n">
+        <v>81</v>
+      </c>
+      <c r="G111" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>348</v>
+      </c>
+      <c r="D112" t="n">
+        <v>303</v>
+      </c>
+      <c r="E112" t="n">
+        <v>363</v>
+      </c>
+      <c r="F112" t="n">
+        <v>424</v>
+      </c>
+      <c r="G112" t="n">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>203</v>
+      </c>
+      <c r="D113" t="n">
+        <v>170</v>
+      </c>
+      <c r="E113" t="n">
+        <v>199</v>
+      </c>
+      <c r="F113" t="n">
+        <v>228</v>
+      </c>
+      <c r="G113" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>23.042</v>
+      </c>
+      <c r="D114" t="n">
+        <v>33</v>
+      </c>
+      <c r="E114" t="n">
+        <v>41</v>
+      </c>
+      <c r="F114" t="n">
+        <v>50</v>
+      </c>
+      <c r="G114" t="n">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>105.895</v>
+      </c>
+      <c r="D115" t="n">
+        <v>105</v>
+      </c>
+      <c r="E115" t="n">
+        <v>126</v>
+      </c>
+      <c r="F115" t="n">
+        <v>146</v>
+      </c>
+      <c r="G115" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="D116" t="n">
+        <v>54</v>
+      </c>
+      <c r="E116" t="n">
+        <v>64</v>
+      </c>
+      <c r="F116" t="n">
+        <v>76</v>
+      </c>
+      <c r="G116" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>13.254</v>
+      </c>
+      <c r="D117" t="n">
+        <v>20</v>
+      </c>
+      <c r="E117" t="n">
+        <v>27</v>
+      </c>
+      <c r="F117" t="n">
+        <v>33</v>
+      </c>
+      <c r="G117" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>18.514</v>
+      </c>
+      <c r="D118" t="n">
+        <v>26</v>
+      </c>
+      <c r="E118" t="n">
+        <v>33</v>
+      </c>
+      <c r="F118" t="n">
+        <v>41</v>
+      </c>
+      <c r="G118" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>43.04909090909091</v>
+      </c>
+      <c r="D119" t="n">
+        <v>46</v>
+      </c>
+      <c r="E119" t="n">
+        <v>57</v>
+      </c>
+      <c r="F119" t="n">
+        <v>71</v>
+      </c>
+      <c r="G119" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>48.36</v>
+      </c>
+      <c r="D120" t="n">
+        <v>52</v>
+      </c>
+      <c r="E120" t="n">
+        <v>65</v>
+      </c>
+      <c r="F120" t="n">
+        <v>78</v>
+      </c>
+      <c r="G120" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="D121" t="n">
+        <v>14</v>
+      </c>
+      <c r="E121" t="n">
+        <v>17</v>
+      </c>
+      <c r="F121" t="n">
+        <v>22</v>
+      </c>
+      <c r="G121" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>50.185</v>
+      </c>
+      <c r="D122" t="n">
+        <v>43</v>
+      </c>
+      <c r="E122" t="n">
+        <v>51</v>
+      </c>
+      <c r="F122" t="n">
+        <v>64</v>
+      </c>
+      <c r="G122" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>21.86</v>
+      </c>
+      <c r="D123" t="n">
+        <v>22</v>
+      </c>
+      <c r="E123" t="n">
+        <v>30</v>
+      </c>
+      <c r="F123" t="n">
+        <v>36</v>
+      </c>
+      <c r="G123" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>45.057</v>
+      </c>
+      <c r="D124" t="n">
+        <v>48</v>
+      </c>
+      <c r="E124" t="n">
+        <v>59</v>
+      </c>
+      <c r="F124" t="n">
+        <v>70</v>
+      </c>
+      <c r="G124" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>44.745</v>
+      </c>
+      <c r="D125" t="n">
+        <v>40</v>
+      </c>
+      <c r="E125" t="n">
+        <v>51</v>
+      </c>
+      <c r="F125" t="n">
+        <v>61</v>
+      </c>
+      <c r="G125" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>4</v>
+      </c>
+      <c r="D126" t="n">
+        <v>4</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>10</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>74</v>
+      </c>
+      <c r="D128" t="n">
+        <v>73</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>141</v>
+      </c>
+      <c r="D129" t="n">
+        <v>152</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>65</v>
+      </c>
+      <c r="D130" t="n">
+        <v>72</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>16</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>10</v>
+      </c>
+      <c r="D132" t="n">
+        <v>10</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>86</v>
+      </c>
+      <c r="D133" t="n">
+        <v>87</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>149</v>
+      </c>
+      <c r="D134" t="n">
+        <v>166</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>33</v>
+      </c>
+      <c r="D135" t="n">
+        <v>37</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>97</v>
+      </c>
+      <c r="D136" t="n">
+        <v>108</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>149.9</v>
+        <v>150.9</v>
       </c>
       <c r="D16" t="n">
         <v>129</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="D29" t="n">
         <v>548</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>66.67999999999999</v>
+        <v>66.08</v>
       </c>
       <c r="D30" t="n">
         <v>171</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>39.3</v>
+        <v>38.98</v>
       </c>
       <c r="D31" t="n">
         <v>62</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2.84</v>
+        <v>2.42</v>
       </c>
       <c r="D38" t="n">
         <v>16</v>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>139.7</v>
+        <v>141.7</v>
       </c>
       <c r="D56" t="n">
         <v>112</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>84.40000000000001</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="D61" t="n">
         <v>71</v>
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>149</v>
+        <v>149.7</v>
       </c>
       <c r="D68" t="n">
         <v>121</v>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="D82" t="n">
         <v>65</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17.4</v>
+        <v>15.2</v>
       </c>
       <c r="D87" t="n">
         <v>16</v>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>434.04</v>
+        <v>433.84</v>
       </c>
       <c r="D93" t="n">
         <v>702</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D97" t="n">
         <v>198</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>678.4000000000001</v>
+        <v>678</v>
       </c>
       <c r="D104" t="n">
         <v>1009</v>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D112" t="n">
         <v>303</v>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D113" t="n">
         <v>170</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,25 +473,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B0C1ZZ57ZW</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A620M GAMING X</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.140000000000001</v>
+        <v>3.52</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>41</v>
@@ -500,82 +500,3862 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B083RVN2VG</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A620I AX</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>468.5</v>
+        <v>541.9</v>
       </c>
       <c r="D3" t="n">
-        <v>367</v>
+        <v>514</v>
       </c>
       <c r="E3" t="n">
-        <v>434</v>
+        <v>622</v>
       </c>
       <c r="F3" t="n">
-        <v>501</v>
+        <v>823</v>
       </c>
       <c r="G3" t="n">
-        <v>604</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B0D2V2FPS7</t>
+          <t>B083NMK4BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A620M GAMING X AX</t>
+          <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49.40000000000001</v>
+        <v>3.865</v>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5.120000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15</v>
+      </c>
+      <c r="F5" t="n">
+        <v>21</v>
+      </c>
+      <c r="G5" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>11</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>286.2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>454</v>
+      </c>
+      <c r="E8" t="n">
+        <v>554</v>
+      </c>
+      <c r="F8" t="n">
+        <v>683</v>
+      </c>
+      <c r="G8" t="n">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>516</v>
+      </c>
+      <c r="D9" t="n">
+        <v>528</v>
+      </c>
+      <c r="E9" t="n">
+        <v>630</v>
+      </c>
+      <c r="F9" t="n">
+        <v>733</v>
+      </c>
+      <c r="G9" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28</v>
+      </c>
+      <c r="E10" t="n">
+        <v>36</v>
+      </c>
+      <c r="F10" t="n">
+        <v>45</v>
+      </c>
+      <c r="G10" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B087GFYBCW</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Z490 AORUS ELITE AC</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B08KWMXGQW</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B450M DS3H V2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>435.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>403</v>
+      </c>
+      <c r="E13" t="n">
+        <v>484</v>
+      </c>
+      <c r="F13" t="n">
+        <v>571</v>
+      </c>
+      <c r="G13" t="n">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D15" t="n">
+        <v>12</v>
+      </c>
+      <c r="E15" t="n">
+        <v>13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>17</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2581</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2360</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2642</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2860</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3181</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>148.6</v>
+      </c>
+      <c r="D17" t="n">
+        <v>125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>150</v>
+      </c>
+      <c r="F17" t="n">
+        <v>174</v>
+      </c>
+      <c r="G17" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G18" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D20" t="n">
+        <v>18</v>
+      </c>
+      <c r="E20" t="n">
+        <v>24</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>165</v>
+      </c>
+      <c r="D21" t="n">
+        <v>192</v>
+      </c>
+      <c r="E21" t="n">
+        <v>232</v>
+      </c>
+      <c r="F21" t="n">
+        <v>276</v>
+      </c>
+      <c r="G21" t="n">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="D22" t="n">
+        <v>10</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8</v>
+      </c>
+      <c r="F22" t="n">
+        <v>18</v>
+      </c>
+      <c r="G22" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>473</v>
+      </c>
+      <c r="D23" t="n">
+        <v>391</v>
+      </c>
+      <c r="E23" t="n">
+        <v>449</v>
+      </c>
+      <c r="F23" t="n">
+        <v>496</v>
+      </c>
+      <c r="G23" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>10.16</v>
+      </c>
+      <c r="D24" t="n">
+        <v>36</v>
+      </c>
+      <c r="E24" t="n">
+        <v>42</v>
+      </c>
+      <c r="F24" t="n">
+        <v>60</v>
+      </c>
+      <c r="G24" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>279.9</v>
+      </c>
+      <c r="D25" t="n">
+        <v>315</v>
+      </c>
+      <c r="E25" t="n">
+        <v>386</v>
+      </c>
+      <c r="F25" t="n">
+        <v>489</v>
+      </c>
+      <c r="G25" t="n">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>727</v>
+      </c>
+      <c r="D28" t="n">
+        <v>937</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1107</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1269</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D29" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>8</v>
+      </c>
+      <c r="F29" t="n">
+        <v>12</v>
+      </c>
+      <c r="G29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>458.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>422</v>
+      </c>
+      <c r="E30" t="n">
+        <v>507</v>
+      </c>
+      <c r="F30" t="n">
+        <v>593</v>
+      </c>
+      <c r="G30" t="n">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>59.04000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>142</v>
+      </c>
+      <c r="E31" t="n">
+        <v>171</v>
+      </c>
+      <c r="F31" t="n">
+        <v>198</v>
+      </c>
+      <c r="G31" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>64</v>
+      </c>
+      <c r="E32" t="n">
+        <v>77</v>
+      </c>
+      <c r="F32" t="n">
+        <v>104</v>
+      </c>
+      <c r="G32" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="D33" t="n">
+        <v>10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>8</v>
+      </c>
+      <c r="F33" t="n">
+        <v>16</v>
+      </c>
+      <c r="G33" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1036.1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>797</v>
+      </c>
+      <c r="E34" t="n">
+        <v>927</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1042</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>490</v>
+      </c>
+      <c r="D35" t="n">
+        <v>461</v>
+      </c>
+      <c r="E35" t="n">
+        <v>551</v>
+      </c>
+      <c r="F35" t="n">
+        <v>642</v>
+      </c>
+      <c r="G35" t="n">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>55</v>
+      </c>
+      <c r="E36" t="n">
+        <v>67</v>
+      </c>
+      <c r="F36" t="n">
+        <v>90</v>
+      </c>
+      <c r="G36" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>3</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>19</v>
+      </c>
+      <c r="G39" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>77</v>
+      </c>
+      <c r="D40" t="n">
+        <v>67</v>
+      </c>
+      <c r="E40" t="n">
+        <v>82</v>
+      </c>
+      <c r="F40" t="n">
+        <v>101</v>
+      </c>
+      <c r="G40" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>2009.6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1577</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1873</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2164</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6</v>
+      </c>
+      <c r="G42" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>7.300000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>25</v>
+      </c>
+      <c r="E43" t="n">
+        <v>23</v>
+      </c>
+      <c r="F43" t="n">
+        <v>41</v>
+      </c>
+      <c r="G43" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>57.30000000000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>65</v>
+      </c>
+      <c r="E45" t="n">
+        <v>78</v>
+      </c>
+      <c r="F45" t="n">
+        <v>96</v>
+      </c>
+      <c r="G45" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>68.80000000000001</v>
+      </c>
+      <c r="D46" t="n">
+        <v>53</v>
+      </c>
+      <c r="E46" t="n">
+        <v>66</v>
+      </c>
+      <c r="F46" t="n">
+        <v>83</v>
+      </c>
+      <c r="G46" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="D47" t="n">
+        <v>24</v>
+      </c>
+      <c r="E47" t="n">
+        <v>25</v>
+      </c>
+      <c r="F47" t="n">
+        <v>42</v>
+      </c>
+      <c r="G47" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>369.3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>300</v>
+      </c>
+      <c r="E48" t="n">
+        <v>359</v>
+      </c>
+      <c r="F48" t="n">
+        <v>418</v>
+      </c>
+      <c r="G48" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12</v>
+      </c>
+      <c r="G49" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D50" t="n">
+        <v>13</v>
+      </c>
+      <c r="E50" t="n">
+        <v>10</v>
+      </c>
+      <c r="F50" t="n">
+        <v>21</v>
+      </c>
+      <c r="G50" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>59.76</v>
+      </c>
+      <c r="D51" t="n">
+        <v>195</v>
+      </c>
+      <c r="E51" t="n">
+        <v>238</v>
+      </c>
+      <c r="F51" t="n">
+        <v>307</v>
+      </c>
+      <c r="G51" t="n">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>818</v>
+      </c>
+      <c r="D52" t="n">
+        <v>704</v>
+      </c>
+      <c r="E52" t="n">
+        <v>843</v>
+      </c>
+      <c r="F52" t="n">
+        <v>985</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B07STNZF9L</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>X570 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>248.3</v>
+      </c>
+      <c r="D54" t="n">
+        <v>191</v>
+      </c>
+      <c r="E54" t="n">
+        <v>227</v>
+      </c>
+      <c r="F54" t="n">
+        <v>260</v>
+      </c>
+      <c r="G54" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12</v>
+      </c>
+      <c r="G55" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>222</v>
+      </c>
+      <c r="D56" t="n">
+        <v>196</v>
+      </c>
+      <c r="E56" t="n">
+        <v>235</v>
+      </c>
+      <c r="F56" t="n">
+        <v>276</v>
+      </c>
+      <c r="G56" t="n">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>161</v>
+      </c>
+      <c r="D57" t="n">
+        <v>132</v>
+      </c>
+      <c r="E57" t="n">
+        <v>159</v>
+      </c>
+      <c r="F57" t="n">
+        <v>191</v>
+      </c>
+      <c r="G57" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D58" t="n">
+        <v>12</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>18</v>
+      </c>
+      <c r="G58" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="D59" t="n">
+        <v>18</v>
+      </c>
+      <c r="E59" t="n">
+        <v>23</v>
+      </c>
+      <c r="F59" t="n">
+        <v>30</v>
+      </c>
+      <c r="G59" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0.8399999999999999</v>
+      </c>
+      <c r="D60" t="n">
+        <v>6</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="n">
+        <v>11</v>
+      </c>
+      <c r="G60" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>482.3000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>371</v>
+      </c>
+      <c r="E61" t="n">
+        <v>449</v>
+      </c>
+      <c r="F61" t="n">
+        <v>538</v>
+      </c>
+      <c r="G61" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>101</v>
+      </c>
+      <c r="D62" t="n">
+        <v>92</v>
+      </c>
+      <c r="E62" t="n">
+        <v>114</v>
+      </c>
+      <c r="F62" t="n">
+        <v>140</v>
+      </c>
+      <c r="G62" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>80</v>
+      </c>
+      <c r="D63" t="n">
+        <v>77</v>
+      </c>
+      <c r="E63" t="n">
+        <v>94</v>
+      </c>
+      <c r="F63" t="n">
+        <v>118</v>
+      </c>
+      <c r="G63" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D64" t="n">
+        <v>99</v>
+      </c>
+      <c r="E64" t="n">
+        <v>123</v>
+      </c>
+      <c r="F64" t="n">
+        <v>155</v>
+      </c>
+      <c r="G64" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>282.4</v>
+      </c>
+      <c r="D65" t="n">
+        <v>469</v>
+      </c>
+      <c r="E65" t="n">
+        <v>570</v>
+      </c>
+      <c r="F65" t="n">
+        <v>691</v>
+      </c>
+      <c r="G65" t="n">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4.800000000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12</v>
+      </c>
+      <c r="F66" t="n">
+        <v>13</v>
+      </c>
+      <c r="G66" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>55</v>
+      </c>
+      <c r="D67" t="n">
+        <v>59</v>
+      </c>
+      <c r="E67" t="n">
+        <v>72</v>
+      </c>
+      <c r="F67" t="n">
+        <v>91</v>
+      </c>
+      <c r="G67" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="D68" t="n">
+        <v>47</v>
+      </c>
+      <c r="E68" t="n">
+        <v>51</v>
+      </c>
+      <c r="F68" t="n">
+        <v>78</v>
+      </c>
+      <c r="G68" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>143</v>
+      </c>
+      <c r="D69" t="n">
+        <v>117</v>
+      </c>
+      <c r="E69" t="n">
+        <v>139</v>
+      </c>
+      <c r="F69" t="n">
+        <v>162</v>
+      </c>
+      <c r="G69" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>174</v>
+      </c>
+      <c r="E70" t="n">
+        <v>204</v>
+      </c>
+      <c r="F70" t="n">
+        <v>232</v>
+      </c>
+      <c r="G70" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="D71" t="n">
+        <v>14</v>
+      </c>
+      <c r="E71" t="n">
+        <v>10</v>
+      </c>
+      <c r="F71" t="n">
+        <v>21</v>
+      </c>
+      <c r="G71" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>330</v>
+      </c>
+      <c r="D72" t="n">
+        <v>312</v>
+      </c>
+      <c r="E72" t="n">
+        <v>375</v>
+      </c>
+      <c r="F72" t="n">
+        <v>441</v>
+      </c>
+      <c r="G72" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>130</v>
+      </c>
+      <c r="D73" t="n">
+        <v>100</v>
+      </c>
+      <c r="E73" t="n">
+        <v>123</v>
+      </c>
+      <c r="F73" t="n">
+        <v>147</v>
+      </c>
+      <c r="G73" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="D74" t="n">
+        <v>151</v>
+      </c>
+      <c r="E74" t="n">
+        <v>181</v>
+      </c>
+      <c r="F74" t="n">
+        <v>212</v>
+      </c>
+      <c r="G74" t="n">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>370</v>
+      </c>
+      <c r="D75" t="n">
+        <v>337</v>
+      </c>
+      <c r="E75" t="n">
+        <v>397</v>
+      </c>
+      <c r="F75" t="n">
+        <v>450</v>
+      </c>
+      <c r="G75" t="n">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>206.8</v>
+      </c>
+      <c r="D76" t="n">
+        <v>161</v>
+      </c>
+      <c r="E76" t="n">
+        <v>193</v>
+      </c>
+      <c r="F76" t="n">
+        <v>224</v>
+      </c>
+      <c r="G76" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="D77" t="n">
+        <v>163</v>
+      </c>
+      <c r="E77" t="n">
+        <v>197</v>
+      </c>
+      <c r="F77" t="n">
+        <v>266</v>
+      </c>
+      <c r="G77" t="n">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>154.4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>120</v>
+      </c>
+      <c r="E78" t="n">
+        <v>148</v>
+      </c>
+      <c r="F78" t="n">
+        <v>186</v>
+      </c>
+      <c r="G78" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>140.4</v>
+      </c>
+      <c r="D79" t="n">
+        <v>108</v>
+      </c>
+      <c r="E79" t="n">
+        <v>130</v>
+      </c>
+      <c r="F79" t="n">
+        <v>151</v>
+      </c>
+      <c r="G79" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1081.6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>832</v>
+      </c>
+      <c r="E80" t="n">
+        <v>982</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1125</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B09SVZRM13</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B660 GAMING X AX DDR4         </t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>6.880000000000001</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>12</v>
+      </c>
+      <c r="F82" t="n">
+        <v>16</v>
+      </c>
+      <c r="G82" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>505.9</v>
+      </c>
+      <c r="D83" t="n">
+        <v>414</v>
+      </c>
+      <c r="E83" t="n">
+        <v>499</v>
+      </c>
+      <c r="F83" t="n">
+        <v>587</v>
+      </c>
+      <c r="G83" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>62.40000000000001</v>
+      </c>
+      <c r="D84" t="n">
+        <v>48</v>
+      </c>
+      <c r="E84" t="n">
+        <v>60</v>
+      </c>
+      <c r="F84" t="n">
+        <v>73</v>
+      </c>
+      <c r="G84" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="D85" t="n">
+        <v>41</v>
+      </c>
+      <c r="E85" t="n">
+        <v>50</v>
+      </c>
+      <c r="F85" t="n">
+        <v>63</v>
+      </c>
+      <c r="G85" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>261</v>
+      </c>
+      <c r="D86" t="n">
+        <v>225</v>
+      </c>
+      <c r="E86" t="n">
+        <v>270</v>
+      </c>
+      <c r="F86" t="n">
+        <v>320</v>
+      </c>
+      <c r="G86" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2503</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2615</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3119</v>
+      </c>
+      <c r="F87" t="n">
+        <v>3632</v>
+      </c>
+      <c r="G87" t="n">
+        <v>4428</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>89</v>
+      </c>
+      <c r="E88" t="n">
+        <v>109</v>
+      </c>
+      <c r="F88" t="n">
+        <v>146</v>
+      </c>
+      <c r="G88" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="D89" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" t="n">
+        <v>17</v>
+      </c>
+      <c r="F89" t="n">
+        <v>23</v>
+      </c>
+      <c r="G89" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="D90" t="n">
+        <v>20</v>
+      </c>
+      <c r="E90" t="n">
+        <v>25</v>
+      </c>
+      <c r="F90" t="n">
+        <v>31</v>
+      </c>
+      <c r="G90" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="D91" t="n">
+        <v>147</v>
+      </c>
+      <c r="E91" t="n">
+        <v>174</v>
+      </c>
+      <c r="F91" t="n">
+        <v>200</v>
+      </c>
+      <c r="G91" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>300</v>
+      </c>
+      <c r="D92" t="n">
+        <v>321</v>
+      </c>
+      <c r="E92" t="n">
+        <v>377</v>
+      </c>
+      <c r="F92" t="n">
+        <v>428</v>
+      </c>
+      <c r="G92" t="n">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
+      <c r="F93" t="n">
+        <v>8</v>
+      </c>
+      <c r="G93" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="D94" t="n">
+        <v>90</v>
+      </c>
+      <c r="E94" t="n">
+        <v>97</v>
+      </c>
+      <c r="F94" t="n">
+        <v>150</v>
+      </c>
+      <c r="G94" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>523.26</v>
+      </c>
+      <c r="D95" t="n">
+        <v>871</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1039</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1215</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="D96" t="n">
+        <v>12</v>
+      </c>
+      <c r="E96" t="n">
+        <v>16</v>
+      </c>
+      <c r="F96" t="n">
+        <v>21</v>
+      </c>
+      <c r="G96" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="D97" t="n">
+        <v>13</v>
+      </c>
+      <c r="E97" t="n">
+        <v>17</v>
+      </c>
+      <c r="F97" t="n">
+        <v>22</v>
+      </c>
+      <c r="G97" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>698.0999999999999</v>
+      </c>
+      <c r="D98" t="n">
+        <v>537</v>
+      </c>
+      <c r="E98" t="n">
+        <v>629</v>
+      </c>
+      <c r="F98" t="n">
+        <v>715</v>
+      </c>
+      <c r="G98" t="n">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>233</v>
+      </c>
+      <c r="D99" t="n">
+        <v>240</v>
+      </c>
+      <c r="E99" t="n">
+        <v>287</v>
+      </c>
+      <c r="F99" t="n">
+        <v>332</v>
+      </c>
+      <c r="G99" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="D100" t="n">
+        <v>94</v>
+      </c>
+      <c r="E100" t="n">
+        <v>111</v>
+      </c>
+      <c r="F100" t="n">
+        <v>127</v>
+      </c>
+      <c r="G100" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1422.8</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1473</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1737</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1990</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1132</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1279</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1481</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1656</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>940.9850000000001</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1072</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1242</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1391</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>453.9299999999999</v>
+      </c>
+      <c r="D104" t="n">
+        <v>425</v>
+      </c>
+      <c r="E104" t="n">
+        <v>495</v>
+      </c>
+      <c r="F104" t="n">
+        <v>557</v>
+      </c>
+      <c r="G104" t="n">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>671.8500000000001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>535</v>
+      </c>
+      <c r="E105" t="n">
+        <v>628</v>
+      </c>
+      <c r="F105" t="n">
+        <v>714</v>
+      </c>
+      <c r="G105" t="n">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>678.2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>959</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1099</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1218</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>295.1</v>
+      </c>
+      <c r="D107" t="n">
+        <v>227</v>
+      </c>
+      <c r="E107" t="n">
+        <v>263</v>
+      </c>
+      <c r="F107" t="n">
+        <v>294</v>
+      </c>
+      <c r="G107" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>129.3468181818182</v>
+      </c>
+      <c r="D108" t="n">
+        <v>171</v>
+      </c>
+      <c r="E108" t="n">
+        <v>204</v>
+      </c>
+      <c r="F108" t="n">
+        <v>239</v>
+      </c>
+      <c r="G108" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>625.6</v>
+      </c>
+      <c r="D109" t="n">
+        <v>544</v>
+      </c>
+      <c r="E109" t="n">
+        <v>618</v>
+      </c>
+      <c r="F109" t="n">
+        <v>676</v>
+      </c>
+      <c r="G109" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>169.4</v>
+      </c>
+      <c r="D110" t="n">
+        <v>131</v>
+      </c>
+      <c r="E110" t="n">
+        <v>158</v>
+      </c>
+      <c r="F110" t="n">
+        <v>186</v>
+      </c>
+      <c r="G110" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="D111" t="n">
+        <v>15</v>
+      </c>
+      <c r="E111" t="n">
+        <v>19</v>
+      </c>
+      <c r="F111" t="n">
+        <v>25</v>
+      </c>
+      <c r="G111" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>331.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>255</v>
+      </c>
+      <c r="E112" t="n">
+        <v>309</v>
+      </c>
+      <c r="F112" t="n">
+        <v>368</v>
+      </c>
+      <c r="G112" t="n">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D113" t="n">
+        <v>76</v>
+      </c>
+      <c r="E113" t="n">
+        <v>87</v>
+      </c>
+      <c r="F113" t="n">
+        <v>128</v>
+      </c>
+      <c r="G113" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>344</v>
+      </c>
+      <c r="D114" t="n">
+        <v>290</v>
+      </c>
+      <c r="E114" t="n">
+        <v>345</v>
+      </c>
+      <c r="F114" t="n">
+        <v>401</v>
+      </c>
+      <c r="G114" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>214</v>
+      </c>
+      <c r="D115" t="n">
+        <v>221</v>
+      </c>
+      <c r="E115" t="n">
+        <v>262</v>
+      </c>
+      <c r="F115" t="n">
+        <v>303</v>
+      </c>
+      <c r="G115" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>23.822</v>
+      </c>
+      <c r="D116" t="n">
+        <v>36</v>
+      </c>
+      <c r="E116" t="n">
+        <v>44</v>
+      </c>
+      <c r="F116" t="n">
+        <v>56</v>
+      </c>
+      <c r="G116" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>119.81</v>
+      </c>
+      <c r="D117" t="n">
+        <v>144</v>
+      </c>
+      <c r="E117" t="n">
+        <v>175</v>
+      </c>
+      <c r="F117" t="n">
+        <v>209</v>
+      </c>
+      <c r="G117" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>63.23</v>
+      </c>
+      <c r="D118" t="n">
+        <v>71</v>
+      </c>
+      <c r="E118" t="n">
+        <v>87</v>
+      </c>
+      <c r="F118" t="n">
+        <v>108</v>
+      </c>
+      <c r="G118" t="n">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="D119" t="n">
+        <v>31</v>
+      </c>
+      <c r="E119" t="n">
+        <v>39</v>
+      </c>
+      <c r="F119" t="n">
+        <v>50</v>
+      </c>
+      <c r="G119" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="D120" t="n">
+        <v>38</v>
+      </c>
+      <c r="E120" t="n">
+        <v>47</v>
+      </c>
+      <c r="F120" t="n">
+        <v>57</v>
+      </c>
+      <c r="G120" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>33.17575757575757</v>
+      </c>
+      <c r="D121" t="n">
+        <v>30</v>
+      </c>
+      <c r="E121" t="n">
+        <v>35</v>
+      </c>
+      <c r="F121" t="n">
+        <v>49</v>
+      </c>
+      <c r="G121" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>49.464</v>
+      </c>
+      <c r="D122" t="n">
+        <v>83</v>
+      </c>
+      <c r="E122" t="n">
+        <v>102</v>
+      </c>
+      <c r="F122" t="n">
+        <v>128</v>
+      </c>
+      <c r="G122" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>21.945</v>
+      </c>
+      <c r="D123" t="n">
+        <v>21</v>
+      </c>
+      <c r="E123" t="n">
+        <v>26</v>
+      </c>
+      <c r="F123" t="n">
+        <v>35</v>
+      </c>
+      <c r="G123" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
           <t>B0DJP8W3BY</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B124" t="inlineStr">
         <is>
           <t>Z890 UD WIFI6E</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>50.185</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="C124" t="n">
+        <v>73.22499999999999</v>
+      </c>
+      <c r="D124" t="n">
         <v>51</v>
       </c>
-      <c r="F5" t="n">
-        <v>64</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="E124" t="n">
+        <v>63</v>
+      </c>
+      <c r="F124" t="n">
         <v>83</v>
+      </c>
+      <c r="G124" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="D125" t="n">
+        <v>30</v>
+      </c>
+      <c r="E125" t="n">
+        <v>36</v>
+      </c>
+      <c r="F125" t="n">
+        <v>47</v>
+      </c>
+      <c r="G125" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="D126" t="n">
+        <v>42</v>
+      </c>
+      <c r="E126" t="n">
+        <v>53</v>
+      </c>
+      <c r="F126" t="n">
+        <v>62</v>
+      </c>
+      <c r="G126" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>63.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>63</v>
+      </c>
+      <c r="E127" t="n">
+        <v>77</v>
+      </c>
+      <c r="F127" t="n">
+        <v>101</v>
+      </c>
+      <c r="G127" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4</v>
+      </c>
+      <c r="D128" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>14</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>154</v>
+      </c>
+      <c r="D130" t="n">
+        <v>162</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>155</v>
+      </c>
+      <c r="D131" t="n">
+        <v>169</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>79</v>
+      </c>
+      <c r="D132" t="n">
+        <v>87</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>63</v>
+      </c>
+      <c r="D133" t="n">
+        <v>68</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>52</v>
+      </c>
+      <c r="D134" t="n">
+        <v>56</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>164</v>
+      </c>
+      <c r="D135" t="n">
+        <v>173</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>186</v>
+      </c>
+      <c r="D136" t="n">
+        <v>206</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>34</v>
+      </c>
+      <c r="D137" t="n">
+        <v>38</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>155</v>
+      </c>
+      <c r="D138" t="n">
+        <v>171</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>11</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>14</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>476.7</v>
+        <v>500.5</v>
       </c>
       <c r="D2" t="n">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="E2" t="n">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="F2" t="n">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="G2" t="n">
-        <v>568</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3">
@@ -509,19 +509,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>425.7</v>
+        <v>332.6</v>
       </c>
       <c r="D3" t="n">
-        <v>422</v>
+        <v>270</v>
       </c>
       <c r="E3" t="n">
-        <v>507</v>
+        <v>323</v>
       </c>
       <c r="F3" t="n">
-        <v>593</v>
+        <v>381</v>
       </c>
       <c r="G3" t="n">
-        <v>726</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>500.5</v>
+        <v>522.6</v>
       </c>
       <c r="D2" t="n">
         <v>402</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>332.6</v>
+        <v>338.6</v>
       </c>
       <c r="D3" t="n">
         <v>270</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,55 +473,3484 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>522.6</v>
+        <v>2.2</v>
       </c>
       <c r="D2" t="n">
-        <v>402</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>515</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>593</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>488.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>427</v>
+      </c>
+      <c r="E3" t="n">
+        <v>523</v>
+      </c>
+      <c r="F3" t="n">
+        <v>653</v>
+      </c>
+      <c r="G3" t="n">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>219.78</v>
+      </c>
+      <c r="D8" t="n">
+        <v>299</v>
+      </c>
+      <c r="E8" t="n">
+        <v>367</v>
+      </c>
+      <c r="F8" t="n">
+        <v>450</v>
+      </c>
+      <c r="G8" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>404.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>327</v>
+      </c>
+      <c r="E9" t="n">
+        <v>400</v>
+      </c>
+      <c r="F9" t="n">
+        <v>505</v>
+      </c>
+      <c r="G9" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="D10" t="n">
+        <v>31</v>
+      </c>
+      <c r="E10" t="n">
+        <v>37</v>
+      </c>
+      <c r="F10" t="n">
+        <v>48</v>
+      </c>
+      <c r="G10" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>440.7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>339</v>
+      </c>
+      <c r="E11" t="n">
+        <v>404</v>
+      </c>
+      <c r="F11" t="n">
+        <v>466</v>
+      </c>
+      <c r="G11" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>11</v>
+      </c>
+      <c r="F13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2519</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2571</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2840</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3042</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>144.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>111</v>
+      </c>
+      <c r="E15" t="n">
+        <v>133</v>
+      </c>
+      <c r="F15" t="n">
+        <v>155</v>
+      </c>
+      <c r="G15" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28</v>
+      </c>
+      <c r="G16" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22</v>
+      </c>
+      <c r="F18" t="n">
+        <v>28</v>
+      </c>
+      <c r="G18" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>151</v>
+      </c>
+      <c r="E19" t="n">
+        <v>182</v>
+      </c>
+      <c r="F19" t="n">
+        <v>213</v>
+      </c>
+      <c r="G19" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>522.2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>402</v>
+      </c>
+      <c r="E21" t="n">
+        <v>463</v>
+      </c>
+      <c r="F21" t="n">
+        <v>515</v>
+      </c>
+      <c r="G21" t="n">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>31</v>
+      </c>
+      <c r="E22" t="n">
+        <v>34</v>
+      </c>
+      <c r="F22" t="n">
+        <v>53</v>
+      </c>
+      <c r="G22" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>296.4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>228</v>
+      </c>
+      <c r="E23" t="n">
+        <v>271</v>
+      </c>
+      <c r="F23" t="n">
+        <v>376</v>
+      </c>
+      <c r="G23" t="n">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>863.8</v>
+      </c>
+      <c r="D26" t="n">
+        <v>781</v>
+      </c>
+      <c r="E26" t="n">
+        <v>920</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1049</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>B08F7HPJ4F</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>338.6</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C28" t="n">
+        <v>347</v>
+      </c>
+      <c r="D28" t="n">
         <v>270</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E28" t="n">
         <v>323</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F28" t="n">
         <v>381</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G28" t="n">
         <v>468</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>110</v>
+      </c>
+      <c r="D29" t="n">
+        <v>181</v>
+      </c>
+      <c r="E29" t="n">
+        <v>216</v>
+      </c>
+      <c r="F29" t="n">
+        <v>251</v>
+      </c>
+      <c r="G29" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>37.10000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>69</v>
+      </c>
+      <c r="E30" t="n">
+        <v>84</v>
+      </c>
+      <c r="F30" t="n">
+        <v>108</v>
+      </c>
+      <c r="G30" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4</v>
+      </c>
+      <c r="D31" t="n">
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>607.2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>512</v>
+      </c>
+      <c r="E32" t="n">
+        <v>605</v>
+      </c>
+      <c r="F32" t="n">
+        <v>693</v>
+      </c>
+      <c r="G32" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>439.5</v>
+      </c>
+      <c r="D33" t="n">
+        <v>383</v>
+      </c>
+      <c r="E33" t="n">
+        <v>455</v>
+      </c>
+      <c r="F33" t="n">
+        <v>527</v>
+      </c>
+      <c r="G33" t="n">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D34" t="n">
+        <v>44</v>
+      </c>
+      <c r="E34" t="n">
+        <v>55</v>
+      </c>
+      <c r="F34" t="n">
+        <v>74</v>
+      </c>
+      <c r="G34" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>2.760000000000001</v>
+      </c>
+      <c r="D37" t="n">
+        <v>12</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>19</v>
+      </c>
+      <c r="G37" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>42</v>
+      </c>
+      <c r="E38" t="n">
+        <v>51</v>
+      </c>
+      <c r="F38" t="n">
+        <v>66</v>
+      </c>
+      <c r="G38" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1562.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1222</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1445</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1658</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D41" t="n">
+        <v>45</v>
+      </c>
+      <c r="E41" t="n">
+        <v>57</v>
+      </c>
+      <c r="F41" t="n">
+        <v>76</v>
+      </c>
+      <c r="G41" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>49</v>
+      </c>
+      <c r="E43" t="n">
+        <v>61</v>
+      </c>
+      <c r="F43" t="n">
+        <v>74</v>
+      </c>
+      <c r="G43" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>35.58</v>
+      </c>
+      <c r="D44" t="n">
+        <v>47</v>
+      </c>
+      <c r="E44" t="n">
+        <v>58</v>
+      </c>
+      <c r="F44" t="n">
+        <v>73</v>
+      </c>
+      <c r="G44" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>11</v>
+      </c>
+      <c r="D45" t="n">
+        <v>30</v>
+      </c>
+      <c r="E45" t="n">
+        <v>32</v>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>419.9</v>
+      </c>
+      <c r="D46" t="n">
+        <v>323</v>
+      </c>
+      <c r="E46" t="n">
+        <v>378</v>
+      </c>
+      <c r="F46" t="n">
+        <v>427</v>
+      </c>
+      <c r="G46" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12</v>
+      </c>
+      <c r="G47" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>16</v>
+      </c>
+      <c r="G48" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="D49" t="n">
+        <v>132</v>
+      </c>
+      <c r="E49" t="n">
+        <v>156</v>
+      </c>
+      <c r="F49" t="n">
+        <v>216</v>
+      </c>
+      <c r="G49" t="n">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>695.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>543</v>
+      </c>
+      <c r="E50" t="n">
+        <v>649</v>
+      </c>
+      <c r="F50" t="n">
+        <v>761</v>
+      </c>
+      <c r="G50" t="n">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>196.3</v>
+      </c>
+      <c r="D51" t="n">
+        <v>151</v>
+      </c>
+      <c r="E51" t="n">
+        <v>181</v>
+      </c>
+      <c r="F51" t="n">
+        <v>211</v>
+      </c>
+      <c r="G51" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>173.2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>134</v>
+      </c>
+      <c r="E53" t="n">
+        <v>164</v>
+      </c>
+      <c r="F53" t="n">
+        <v>204</v>
+      </c>
+      <c r="G53" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>105</v>
+      </c>
+      <c r="D54" t="n">
+        <v>98</v>
+      </c>
+      <c r="E54" t="n">
+        <v>119</v>
+      </c>
+      <c r="F54" t="n">
+        <v>146</v>
+      </c>
+      <c r="G54" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7</v>
+      </c>
+      <c r="E55" t="n">
+        <v>7</v>
+      </c>
+      <c r="F55" t="n">
+        <v>11</v>
+      </c>
+      <c r="G55" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="D56" t="n">
+        <v>22</v>
+      </c>
+      <c r="E56" t="n">
+        <v>28</v>
+      </c>
+      <c r="F56" t="n">
+        <v>35</v>
+      </c>
+      <c r="G56" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>10</v>
+      </c>
+      <c r="G57" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>288.52</v>
+      </c>
+      <c r="D58" t="n">
+        <v>342</v>
+      </c>
+      <c r="E58" t="n">
+        <v>410</v>
+      </c>
+      <c r="F58" t="n">
+        <v>480</v>
+      </c>
+      <c r="G58" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>62.6</v>
+      </c>
+      <c r="D59" t="n">
+        <v>52</v>
+      </c>
+      <c r="E59" t="n">
+        <v>66</v>
+      </c>
+      <c r="F59" t="n">
+        <v>85</v>
+      </c>
+      <c r="G59" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D60" t="n">
+        <v>47</v>
+      </c>
+      <c r="E60" t="n">
+        <v>55</v>
+      </c>
+      <c r="F60" t="n">
+        <v>77</v>
+      </c>
+      <c r="G60" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>96.2</v>
+      </c>
+      <c r="D61" t="n">
+        <v>74</v>
+      </c>
+      <c r="E61" t="n">
+        <v>90</v>
+      </c>
+      <c r="F61" t="n">
+        <v>115</v>
+      </c>
+      <c r="G61" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>381</v>
+      </c>
+      <c r="D62" t="n">
+        <v>347</v>
+      </c>
+      <c r="E62" t="n">
+        <v>418</v>
+      </c>
+      <c r="F62" t="n">
+        <v>492</v>
+      </c>
+      <c r="G62" t="n">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12</v>
+      </c>
+      <c r="G63" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>41</v>
+      </c>
+      <c r="E64" t="n">
+        <v>49</v>
+      </c>
+      <c r="F64" t="n">
+        <v>67</v>
+      </c>
+      <c r="G64" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>8.280000000000001</v>
+      </c>
+      <c r="D65" t="n">
+        <v>45</v>
+      </c>
+      <c r="E65" t="n">
+        <v>45</v>
+      </c>
+      <c r="F65" t="n">
+        <v>74</v>
+      </c>
+      <c r="G65" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>55</v>
+      </c>
+      <c r="E66" t="n">
+        <v>68</v>
+      </c>
+      <c r="F66" t="n">
+        <v>82</v>
+      </c>
+      <c r="G66" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="D67" t="n">
+        <v>76</v>
+      </c>
+      <c r="E67" t="n">
+        <v>92</v>
+      </c>
+      <c r="F67" t="n">
+        <v>119</v>
+      </c>
+      <c r="G67" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>14</v>
+      </c>
+      <c r="E68" t="n">
+        <v>10</v>
+      </c>
+      <c r="F68" t="n">
+        <v>20</v>
+      </c>
+      <c r="G68" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>203.5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>161</v>
+      </c>
+      <c r="E69" t="n">
+        <v>196</v>
+      </c>
+      <c r="F69" t="n">
+        <v>254</v>
+      </c>
+      <c r="G69" t="n">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>89</v>
+      </c>
+      <c r="D70" t="n">
+        <v>106</v>
+      </c>
+      <c r="E70" t="n">
+        <v>127</v>
+      </c>
+      <c r="F70" t="n">
+        <v>151</v>
+      </c>
+      <c r="G70" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>158.7</v>
+      </c>
+      <c r="D71" t="n">
+        <v>124</v>
+      </c>
+      <c r="E71" t="n">
+        <v>149</v>
+      </c>
+      <c r="F71" t="n">
+        <v>174</v>
+      </c>
+      <c r="G71" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>331</v>
+      </c>
+      <c r="D72" t="n">
+        <v>323</v>
+      </c>
+      <c r="E72" t="n">
+        <v>378</v>
+      </c>
+      <c r="F72" t="n">
+        <v>429</v>
+      </c>
+      <c r="G72" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>143.84</v>
+      </c>
+      <c r="D73" t="n">
+        <v>144</v>
+      </c>
+      <c r="E73" t="n">
+        <v>173</v>
+      </c>
+      <c r="F73" t="n">
+        <v>203</v>
+      </c>
+      <c r="G73" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>21.04</v>
+      </c>
+      <c r="D74" t="n">
+        <v>136</v>
+      </c>
+      <c r="E74" t="n">
+        <v>160</v>
+      </c>
+      <c r="F74" t="n">
+        <v>227</v>
+      </c>
+      <c r="G74" t="n">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>75</v>
+      </c>
+      <c r="E75" t="n">
+        <v>92</v>
+      </c>
+      <c r="F75" t="n">
+        <v>122</v>
+      </c>
+      <c r="G75" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>114</v>
+      </c>
+      <c r="D76" t="n">
+        <v>106</v>
+      </c>
+      <c r="E76" t="n">
+        <v>127</v>
+      </c>
+      <c r="F76" t="n">
+        <v>146</v>
+      </c>
+      <c r="G76" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>773.5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>595</v>
+      </c>
+      <c r="E77" t="n">
+        <v>713</v>
+      </c>
+      <c r="F77" t="n">
+        <v>830</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>12</v>
+      </c>
+      <c r="G78" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>427.7</v>
+      </c>
+      <c r="D79" t="n">
+        <v>329</v>
+      </c>
+      <c r="E79" t="n">
+        <v>397</v>
+      </c>
+      <c r="F79" t="n">
+        <v>467</v>
+      </c>
+      <c r="G79" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="D80" t="n">
+        <v>34</v>
+      </c>
+      <c r="E80" t="n">
+        <v>41</v>
+      </c>
+      <c r="F80" t="n">
+        <v>57</v>
+      </c>
+      <c r="G80" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="D81" t="n">
+        <v>29</v>
+      </c>
+      <c r="E81" t="n">
+        <v>35</v>
+      </c>
+      <c r="F81" t="n">
+        <v>47</v>
+      </c>
+      <c r="G81" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>269</v>
+      </c>
+      <c r="D82" t="n">
+        <v>275</v>
+      </c>
+      <c r="E82" t="n">
+        <v>325</v>
+      </c>
+      <c r="F82" t="n">
+        <v>371</v>
+      </c>
+      <c r="G82" t="n">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>2522</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1940</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2279</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2593</v>
+      </c>
+      <c r="G83" t="n">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>26</v>
+      </c>
+      <c r="D84" t="n">
+        <v>77</v>
+      </c>
+      <c r="E84" t="n">
+        <v>93</v>
+      </c>
+      <c r="F84" t="n">
+        <v>130</v>
+      </c>
+      <c r="G84" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>10.04</v>
+      </c>
+      <c r="D85" t="n">
+        <v>14</v>
+      </c>
+      <c r="E85" t="n">
+        <v>17</v>
+      </c>
+      <c r="F85" t="n">
+        <v>23</v>
+      </c>
+      <c r="G85" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D86" t="n">
+        <v>17</v>
+      </c>
+      <c r="E86" t="n">
+        <v>21</v>
+      </c>
+      <c r="F86" t="n">
+        <v>27</v>
+      </c>
+      <c r="G86" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>205.4</v>
+      </c>
+      <c r="D87" t="n">
+        <v>158</v>
+      </c>
+      <c r="E87" t="n">
+        <v>186</v>
+      </c>
+      <c r="F87" t="n">
+        <v>213</v>
+      </c>
+      <c r="G87" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="D88" t="n">
+        <v>296</v>
+      </c>
+      <c r="E88" t="n">
+        <v>348</v>
+      </c>
+      <c r="F88" t="n">
+        <v>394</v>
+      </c>
+      <c r="G88" t="n">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8</v>
+      </c>
+      <c r="G89" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>30.62</v>
+      </c>
+      <c r="D90" t="n">
+        <v>97</v>
+      </c>
+      <c r="E90" t="n">
+        <v>112</v>
+      </c>
+      <c r="F90" t="n">
+        <v>162</v>
+      </c>
+      <c r="G90" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>666.9000000000001</v>
+      </c>
+      <c r="D91" t="n">
+        <v>513</v>
+      </c>
+      <c r="E91" t="n">
+        <v>617</v>
+      </c>
+      <c r="F91" t="n">
+        <v>725</v>
+      </c>
+      <c r="G91" t="n">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10</v>
+      </c>
+      <c r="E92" t="n">
+        <v>13</v>
+      </c>
+      <c r="F92" t="n">
+        <v>17</v>
+      </c>
+      <c r="G92" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="D93" t="n">
+        <v>12</v>
+      </c>
+      <c r="E93" t="n">
+        <v>16</v>
+      </c>
+      <c r="F93" t="n">
+        <v>20</v>
+      </c>
+      <c r="G93" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>586.5</v>
+      </c>
+      <c r="D94" t="n">
+        <v>498</v>
+      </c>
+      <c r="E94" t="n">
+        <v>584</v>
+      </c>
+      <c r="F94" t="n">
+        <v>665</v>
+      </c>
+      <c r="G94" t="n">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>250.9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>193</v>
+      </c>
+      <c r="E95" t="n">
+        <v>229</v>
+      </c>
+      <c r="F95" t="n">
+        <v>263</v>
+      </c>
+      <c r="G95" t="n">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>53.12</v>
+      </c>
+      <c r="D96" t="n">
+        <v>81</v>
+      </c>
+      <c r="E96" t="n">
+        <v>96</v>
+      </c>
+      <c r="F96" t="n">
+        <v>108</v>
+      </c>
+      <c r="G96" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1488.2</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1206</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1412</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1599</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1284</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1133</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1300</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1442</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>980.8</v>
+      </c>
+      <c r="D99" t="n">
+        <v>916</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1078</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1229</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>385.3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>407</v>
+      </c>
+      <c r="E100" t="n">
+        <v>473</v>
+      </c>
+      <c r="F100" t="n">
+        <v>532</v>
+      </c>
+      <c r="G100" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>203.7</v>
+      </c>
+      <c r="D101" t="n">
+        <v>291</v>
+      </c>
+      <c r="E101" t="n">
+        <v>347</v>
+      </c>
+      <c r="F101" t="n">
+        <v>402</v>
+      </c>
+      <c r="G101" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>702.24</v>
+      </c>
+      <c r="D102" t="n">
+        <v>904</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1036</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1148</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>244.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>188</v>
+      </c>
+      <c r="E103" t="n">
+        <v>220</v>
+      </c>
+      <c r="F103" t="n">
+        <v>249</v>
+      </c>
+      <c r="G103" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>168</v>
+      </c>
+      <c r="E104" t="n">
+        <v>201</v>
+      </c>
+      <c r="F104" t="n">
+        <v>235</v>
+      </c>
+      <c r="G104" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>664.3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>511</v>
+      </c>
+      <c r="E105" t="n">
+        <v>582</v>
+      </c>
+      <c r="F105" t="n">
+        <v>638</v>
+      </c>
+      <c r="G105" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>101</v>
+      </c>
+      <c r="E106" t="n">
+        <v>123</v>
+      </c>
+      <c r="F106" t="n">
+        <v>146</v>
+      </c>
+      <c r="G106" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>8.940000000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12</v>
+      </c>
+      <c r="E107" t="n">
+        <v>16</v>
+      </c>
+      <c r="F107" t="n">
+        <v>21</v>
+      </c>
+      <c r="G107" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>203.1</v>
+      </c>
+      <c r="D108" t="n">
+        <v>185</v>
+      </c>
+      <c r="E108" t="n">
+        <v>226</v>
+      </c>
+      <c r="F108" t="n">
+        <v>279</v>
+      </c>
+      <c r="G108" t="n">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>34.09999999999999</v>
+      </c>
+      <c r="D109" t="n">
+        <v>61</v>
+      </c>
+      <c r="E109" t="n">
+        <v>72</v>
+      </c>
+      <c r="F109" t="n">
+        <v>103</v>
+      </c>
+      <c r="G109" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>461.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>355</v>
+      </c>
+      <c r="E110" t="n">
+        <v>423</v>
+      </c>
+      <c r="F110" t="n">
+        <v>490</v>
+      </c>
+      <c r="G110" t="n">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>247</v>
+      </c>
+      <c r="D111" t="n">
+        <v>190</v>
+      </c>
+      <c r="E111" t="n">
+        <v>226</v>
+      </c>
+      <c r="F111" t="n">
+        <v>258</v>
+      </c>
+      <c r="G111" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>51</v>
+      </c>
+      <c r="D113" t="n">
+        <v>56</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>196</v>
+      </c>
+      <c r="D114" t="n">
+        <v>194</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>343</v>
+      </c>
+      <c r="D115" t="n">
+        <v>332</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>155</v>
+      </c>
+      <c r="D116" t="n">
+        <v>155</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>69</v>
+      </c>
+      <c r="D117" t="n">
+        <v>71</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>32</v>
+      </c>
+      <c r="D118" t="n">
+        <v>33</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>157</v>
+      </c>
+      <c r="D119" t="n">
+        <v>174</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>247</v>
+      </c>
+      <c r="D120" t="n">
+        <v>258</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>32</v>
+      </c>
+      <c r="D121" t="n">
+        <v>34</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>115</v>
+      </c>
+      <c r="D122" t="n">
+        <v>115</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>8</v>
+      </c>
+      <c r="D123" t="n">
+        <v>8</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>8</v>
+      </c>
+      <c r="D124" t="n">
+        <v>8</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>4</v>
+      </c>
+      <c r="D125" t="n">
+        <v>4</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>17</v>
+      </c>
+      <c r="D126" t="n">
+        <v>19</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>13</v>
+      </c>
+      <c r="D127" t="n">
+        <v>14</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>8</v>
+      </c>
+      <c r="D128" t="n">
+        <v>8</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>8</v>
+      </c>
+      <c r="D129" t="n">
+        <v>8</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLK2RF3</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B860I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>488.1</v>
+        <v>471.1</v>
       </c>
       <c r="D3" t="n">
         <v>427</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.88</v>
+        <v>3.52</v>
       </c>
       <c r="D5" t="n">
         <v>11</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>219.78</v>
+        <v>225.34</v>
       </c>
       <c r="D8" t="n">
         <v>299</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>404.5</v>
+        <v>408.5</v>
       </c>
       <c r="D9" t="n">
         <v>327</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>440.7</v>
+        <v>438.4</v>
       </c>
       <c r="D11" t="n">
         <v>339</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.28</v>
+        <v>2.32</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2519</v>
+        <v>2632</v>
       </c>
       <c r="D14" t="n">
         <v>2571</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>144.3</v>
+        <v>144.2</v>
       </c>
       <c r="D15" t="n">
         <v>111</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>522.2</v>
+        <v>512.5</v>
       </c>
       <c r="D21" t="n">
         <v>402</v>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>296.4</v>
+        <v>234.08</v>
       </c>
       <c r="D23" t="n">
         <v>228</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>863.8</v>
+        <v>812</v>
       </c>
       <c r="D26" t="n">
         <v>781</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>347</v>
+        <v>333.6</v>
       </c>
       <c r="D28" t="n">
         <v>270</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>110</v>
+        <v>112.8</v>
       </c>
       <c r="D29" t="n">
         <v>181</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>37.10000000000001</v>
+        <v>36.5</v>
       </c>
       <c r="D30" t="n">
         <v>69</v>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>607.2</v>
+        <v>618.2</v>
       </c>
       <c r="D32" t="n">
         <v>512</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>439.5</v>
+        <v>409.4</v>
       </c>
       <c r="D33" t="n">
         <v>383</v>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.32</v>
+        <v>7.66</v>
       </c>
       <c r="D34" t="n">
         <v>44</v>
@@ -1427,7 +1427,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.760000000000001</v>
+        <v>2.76</v>
       </c>
       <c r="D37" t="n">
         <v>12</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>53.3</v>
+        <v>52.7</v>
       </c>
       <c r="D38" t="n">
         <v>42</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1562.4</v>
+        <v>1553.4</v>
       </c>
       <c r="D39" t="n">
         <v>1222</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5599999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="D40" t="n">
         <v>4</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>35.58</v>
+        <v>35.78</v>
       </c>
       <c r="D44" t="n">
         <v>47</v>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="D45" t="n">
         <v>30</v>
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="D47" t="n">
         <v>8</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.52</v>
+        <v>3.94</v>
       </c>
       <c r="D48" t="n">
         <v>9</v>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>31.32</v>
+        <v>36.5</v>
       </c>
       <c r="D49" t="n">
         <v>132</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>695.2</v>
+        <v>699.2</v>
       </c>
       <c r="D50" t="n">
         <v>543</v>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D54" t="n">
         <v>98</v>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="D55" t="n">
         <v>7</v>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>14.72</v>
+        <v>15.22</v>
       </c>
       <c r="D56" t="n">
         <v>22</v>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>288.52</v>
+        <v>287.4400000000001</v>
       </c>
       <c r="D58" t="n">
         <v>342</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>96.2</v>
+        <v>58.84</v>
       </c>
       <c r="D61" t="n">
         <v>74</v>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>381</v>
+        <v>393.8</v>
       </c>
       <c r="D62" t="n">
         <v>347</v>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.280000000000001</v>
+        <v>12.24</v>
       </c>
       <c r="D65" t="n">
         <v>45</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>203.5</v>
+        <v>209.3</v>
       </c>
       <c r="D69" t="n">
         <v>161</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="D70" t="n">
         <v>106</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>158.7</v>
+        <v>156.1</v>
       </c>
       <c r="D71" t="n">
         <v>124</v>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="D72" t="n">
         <v>323</v>
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21.04</v>
+        <v>24.04</v>
       </c>
       <c r="D74" t="n">
         <v>136</v>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>114</v>
+        <v>112.6</v>
       </c>
       <c r="D76" t="n">
         <v>106</v>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5.2</v>
+        <v>5.68</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>36.8</v>
+        <v>43.2</v>
       </c>
       <c r="D80" t="n">
         <v>34</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>37.7</v>
+        <v>23.2</v>
       </c>
       <c r="D81" t="n">
         <v>29</v>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="D82" t="n">
         <v>275</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2522</v>
+        <v>2193</v>
       </c>
       <c r="D83" t="n">
         <v>1940</v>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="D84" t="n">
         <v>77</v>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>11.8</v>
+        <v>11.6</v>
       </c>
       <c r="D86" t="n">
         <v>17</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>352.5</v>
+        <v>255.8</v>
       </c>
       <c r="D88" t="n">
         <v>296</v>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3.44</v>
       </c>
       <c r="D89" t="n">
         <v>4</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>30.62</v>
+        <v>26.78</v>
       </c>
       <c r="D90" t="n">
         <v>97</v>
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>666.9000000000001</v>
+        <v>559</v>
       </c>
       <c r="D91" t="n">
         <v>513</v>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8.32</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="D93" t="n">
         <v>12</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>586.5</v>
+        <v>524.4</v>
       </c>
       <c r="D94" t="n">
         <v>498</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>250.9</v>
+        <v>209</v>
       </c>
       <c r="D95" t="n">
         <v>193</v>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>53.12</v>
+        <v>47.6</v>
       </c>
       <c r="D96" t="n">
         <v>81</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1488.2</v>
+        <v>844.1999999999999</v>
       </c>
       <c r="D97" t="n">
         <v>1206</v>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1284</v>
+        <v>793.0999999999999</v>
       </c>
       <c r="D98" t="n">
         <v>1133</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>980.8</v>
+        <v>947.8</v>
       </c>
       <c r="D99" t="n">
         <v>916</v>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>385.3</v>
+        <v>406.7</v>
       </c>
       <c r="D100" t="n">
         <v>407</v>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>203.7</v>
+        <v>371.8</v>
       </c>
       <c r="D101" t="n">
         <v>291</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>702.24</v>
+        <v>694.1600000000001</v>
       </c>
       <c r="D102" t="n">
         <v>904</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>128.7</v>
+        <v>164.92</v>
       </c>
       <c r="D104" t="n">
         <v>168</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>106.5</v>
+        <v>117.3</v>
       </c>
       <c r="D106" t="n">
         <v>101</v>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>8.940000000000001</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="D107" t="n">
         <v>12</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>203.1</v>
+        <v>240.2</v>
       </c>
       <c r="D108" t="n">
         <v>185</v>
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>34.09999999999999</v>
+        <v>37.84</v>
       </c>
       <c r="D109" t="n">
         <v>61</v>
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>461.5</v>
+        <v>436</v>
       </c>
       <c r="D110" t="n">
         <v>355</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>247</v>
+        <v>231.8</v>
       </c>
       <c r="D111" t="n">
         <v>190</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,55 +473,3754 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B08F7BHDLY</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A520I AC</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>505.5</v>
+        <v>2.58</v>
       </c>
       <c r="D2" t="n">
-        <v>402</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>463</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>515</v>
+        <v>18</v>
       </c>
       <c r="G2" t="n">
-        <v>593</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>B08KGVH7YC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>203.62</v>
+      </c>
+      <c r="D3" t="n">
+        <v>313</v>
+      </c>
+      <c r="E3" t="n">
+        <v>383</v>
+      </c>
+      <c r="F3" t="n">
+        <v>482</v>
+      </c>
+      <c r="G3" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>B083NMK4BB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>B660M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4.600000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>B09JZFT4SN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3.160000000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>18</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B09JZGTYXJ</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Z690 UD AX DDR4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B07T6N8N56</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>B365M DS3H</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>B08R5736B3</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>B550M DS3H AC</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>326.3000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>251</v>
+      </c>
+      <c r="E8" t="n">
+        <v>304</v>
+      </c>
+      <c r="F8" t="n">
+        <v>362</v>
+      </c>
+      <c r="G8" t="n">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B0BH6XND27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>501.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>386</v>
+      </c>
+      <c r="E9" t="n">
+        <v>463</v>
+      </c>
+      <c r="F9" t="n">
+        <v>545</v>
+      </c>
+      <c r="G9" t="n">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>B083NK82QJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>H610I DDR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
+      <c r="E10" t="n">
+        <v>27</v>
+      </c>
+      <c r="F10" t="n">
+        <v>34</v>
+      </c>
+      <c r="G10" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>B08LGKGBKT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>B550 GAMING X V2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>361.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>278</v>
+      </c>
+      <c r="E11" t="n">
+        <v>329</v>
+      </c>
+      <c r="F11" t="n">
+        <v>378</v>
+      </c>
+      <c r="G11" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>B089FY7QT1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>B550M DS3H</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>8</v>
+      </c>
+      <c r="F12" t="n">
+        <v>12</v>
+      </c>
+      <c r="G12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>B07GBM3M88</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GC-WB1733D-I</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>12</v>
+      </c>
+      <c r="F13" t="n">
+        <v>16</v>
+      </c>
+      <c r="G13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>B091HTG6DQ</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>GC-WBAX210</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2498</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2456</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2687</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2856</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3102</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>B07VNBC5PS</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GC-WBAX200</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>101</v>
+      </c>
+      <c r="E15" t="n">
+        <v>121</v>
+      </c>
+      <c r="F15" t="n">
+        <v>141</v>
+      </c>
+      <c r="G15" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>B0BF73P6HY</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>X670E AORUS XTREME</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>20</v>
+      </c>
+      <c r="F16" t="n">
+        <v>28</v>
+      </c>
+      <c r="G16" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B083NN4MLZ</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z690 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>8.040000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" t="n">
+        <v>18</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24</v>
+      </c>
+      <c r="G18" t="n">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>174.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>134</v>
+      </c>
+      <c r="E19" t="n">
+        <v>159</v>
+      </c>
+      <c r="F19" t="n">
+        <v>184</v>
+      </c>
+      <c r="G19" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="n">
+        <v>12</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>504</v>
+      </c>
+      <c r="D21" t="n">
+        <v>419</v>
+      </c>
+      <c r="E21" t="n">
+        <v>478</v>
+      </c>
+      <c r="F21" t="n">
+        <v>527</v>
+      </c>
+      <c r="G21" t="n">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6.000000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40</v>
+      </c>
+      <c r="G22" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>225.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>225</v>
+      </c>
+      <c r="E23" t="n">
+        <v>272</v>
+      </c>
+      <c r="F23" t="n">
+        <v>365</v>
+      </c>
+      <c r="G23" t="n">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B08WPV5HS7</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z590 AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>756.7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>615</v>
+      </c>
+      <c r="E26" t="n">
+        <v>729</v>
+      </c>
+      <c r="F26" t="n">
+        <v>841</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>7</v>
+      </c>
+      <c r="F27" t="n">
+        <v>12</v>
+      </c>
+      <c r="G27" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>B08F7HPJ4F</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>A520M S2H</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>340.7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>270</v>
-      </c>
-      <c r="E3" t="n">
-        <v>323</v>
-      </c>
-      <c r="F3" t="n">
-        <v>381</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="C28" t="n">
+        <v>365</v>
+      </c>
+      <c r="D28" t="n">
+        <v>289</v>
+      </c>
+      <c r="E28" t="n">
+        <v>344</v>
+      </c>
+      <c r="F28" t="n">
+        <v>399</v>
+      </c>
+      <c r="G28" t="n">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>165.26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>191</v>
+      </c>
+      <c r="E29" t="n">
+        <v>226</v>
+      </c>
+      <c r="F29" t="n">
+        <v>259</v>
+      </c>
+      <c r="G29" t="n">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>70</v>
+      </c>
+      <c r="E30" t="n">
+        <v>86</v>
+      </c>
+      <c r="F30" t="n">
+        <v>112</v>
+      </c>
+      <c r="G30" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>15</v>
+      </c>
+      <c r="G31" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>628</v>
+      </c>
+      <c r="D32" t="n">
+        <v>521</v>
+      </c>
+      <c r="E32" t="n">
+        <v>613</v>
+      </c>
+      <c r="F32" t="n">
+        <v>701</v>
+      </c>
+      <c r="G32" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>372.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>287</v>
+      </c>
+      <c r="E33" t="n">
+        <v>339</v>
+      </c>
+      <c r="F33" t="n">
+        <v>391</v>
+      </c>
+      <c r="G33" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="D34" t="n">
+        <v>46</v>
+      </c>
+      <c r="E34" t="n">
+        <v>56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>77</v>
+      </c>
+      <c r="G34" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>13</v>
+      </c>
+      <c r="G37" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>50.40000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>39</v>
+      </c>
+      <c r="E38" t="n">
+        <v>49</v>
+      </c>
+      <c r="F38" t="n">
+        <v>60</v>
+      </c>
+      <c r="G38" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1144</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1044</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1238</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1421</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BJ5SDGXK</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B660M A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+      <c r="F40" t="n">
+        <v>8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52</v>
+      </c>
+      <c r="E41" t="n">
+        <v>65</v>
+      </c>
+      <c r="F41" t="n">
+        <v>83</v>
+      </c>
+      <c r="G41" t="n">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>54.3</v>
+      </c>
+      <c r="D43" t="n">
+        <v>44</v>
+      </c>
+      <c r="E43" t="n">
+        <v>53</v>
+      </c>
+      <c r="F43" t="n">
+        <v>65</v>
+      </c>
+      <c r="G43" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>21.26000000000001</v>
+      </c>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="n">
+        <v>52</v>
+      </c>
+      <c r="F44" t="n">
+        <v>69</v>
+      </c>
+      <c r="G44" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="D45" t="n">
+        <v>33</v>
+      </c>
+      <c r="E45" t="n">
+        <v>40</v>
+      </c>
+      <c r="F45" t="n">
+        <v>54</v>
+      </c>
+      <c r="G45" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>357.7</v>
+      </c>
+      <c r="D46" t="n">
+        <v>301</v>
+      </c>
+      <c r="E46" t="n">
+        <v>350</v>
+      </c>
+      <c r="F46" t="n">
+        <v>394</v>
+      </c>
+      <c r="G46" t="n">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="n">
+        <v>15</v>
+      </c>
+      <c r="G48" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="D49" t="n">
+        <v>102</v>
+      </c>
+      <c r="E49" t="n">
+        <v>116</v>
+      </c>
+      <c r="F49" t="n">
+        <v>169</v>
+      </c>
+      <c r="G49" t="n">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>616.2</v>
+      </c>
+      <c r="D50" t="n">
+        <v>474</v>
+      </c>
+      <c r="E50" t="n">
+        <v>564</v>
+      </c>
+      <c r="F50" t="n">
+        <v>656</v>
+      </c>
+      <c r="G50" t="n">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>128.7</v>
+      </c>
+      <c r="D51" t="n">
+        <v>99</v>
+      </c>
+      <c r="E51" t="n">
+        <v>119</v>
+      </c>
+      <c r="F51" t="n">
+        <v>145</v>
+      </c>
+      <c r="G51" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>10</v>
+      </c>
+      <c r="G52" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>139</v>
+      </c>
+      <c r="D53" t="n">
+        <v>110</v>
+      </c>
+      <c r="E53" t="n">
+        <v>134</v>
+      </c>
+      <c r="F53" t="n">
+        <v>166</v>
+      </c>
+      <c r="G53" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="D54" t="n">
+        <v>71</v>
+      </c>
+      <c r="E54" t="n">
+        <v>87</v>
+      </c>
+      <c r="F54" t="n">
+        <v>107</v>
+      </c>
+      <c r="G54" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>13</v>
+      </c>
+      <c r="G55" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>17.84</v>
+      </c>
+      <c r="D56" t="n">
+        <v>24</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30</v>
+      </c>
+      <c r="F56" t="n">
+        <v>38</v>
+      </c>
+      <c r="G56" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>208.5</v>
+      </c>
+      <c r="D58" t="n">
+        <v>277</v>
+      </c>
+      <c r="E58" t="n">
+        <v>334</v>
+      </c>
+      <c r="F58" t="n">
+        <v>401</v>
+      </c>
+      <c r="G58" t="n">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>67.10000000000001</v>
+      </c>
+      <c r="D59" t="n">
+        <v>53</v>
+      </c>
+      <c r="E59" t="n">
+        <v>66</v>
+      </c>
+      <c r="F59" t="n">
+        <v>81</v>
+      </c>
+      <c r="G59" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="D60" t="n">
+        <v>36</v>
+      </c>
+      <c r="E60" t="n">
+        <v>43</v>
+      </c>
+      <c r="F60" t="n">
+        <v>57</v>
+      </c>
+      <c r="G60" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>34.60000000000001</v>
+      </c>
+      <c r="D61" t="n">
+        <v>57</v>
+      </c>
+      <c r="E61" t="n">
+        <v>68</v>
+      </c>
+      <c r="F61" t="n">
+        <v>92</v>
+      </c>
+      <c r="G61" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>342</v>
+      </c>
+      <c r="D62" t="n">
+        <v>294</v>
+      </c>
+      <c r="E62" t="n">
+        <v>350</v>
+      </c>
+      <c r="F62" t="n">
+        <v>405</v>
+      </c>
+      <c r="G62" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>11</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12</v>
+      </c>
+      <c r="G63" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>46.88</v>
+      </c>
+      <c r="D64" t="n">
+        <v>64</v>
+      </c>
+      <c r="E64" t="n">
+        <v>79</v>
+      </c>
+      <c r="F64" t="n">
+        <v>98</v>
+      </c>
+      <c r="G64" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>40</v>
+      </c>
+      <c r="E65" t="n">
+        <v>43</v>
+      </c>
+      <c r="F65" t="n">
+        <v>66</v>
+      </c>
+      <c r="G65" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>81.90000000000001</v>
+      </c>
+      <c r="D66" t="n">
+        <v>63</v>
+      </c>
+      <c r="E66" t="n">
+        <v>78</v>
+      </c>
+      <c r="F66" t="n">
+        <v>91</v>
+      </c>
+      <c r="G66" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>78</v>
+      </c>
+      <c r="E67" t="n">
+        <v>97</v>
+      </c>
+      <c r="F67" t="n">
+        <v>119</v>
+      </c>
+      <c r="G67" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13</v>
+      </c>
+      <c r="E68" t="n">
+        <v>9</v>
+      </c>
+      <c r="F68" t="n">
+        <v>19</v>
+      </c>
+      <c r="G68" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>291.7</v>
+      </c>
+      <c r="D69" t="n">
+        <v>226</v>
+      </c>
+      <c r="E69" t="n">
+        <v>272</v>
+      </c>
+      <c r="F69" t="n">
+        <v>321</v>
+      </c>
+      <c r="G69" t="n">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>99</v>
+      </c>
+      <c r="D70" t="n">
+        <v>95</v>
+      </c>
+      <c r="E70" t="n">
+        <v>113</v>
+      </c>
+      <c r="F70" t="n">
+        <v>130</v>
+      </c>
+      <c r="G70" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>126</v>
+      </c>
+      <c r="E71" t="n">
+        <v>149</v>
+      </c>
+      <c r="F71" t="n">
+        <v>169</v>
+      </c>
+      <c r="G71" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>331</v>
+      </c>
+      <c r="D72" t="n">
+        <v>288</v>
+      </c>
+      <c r="E72" t="n">
+        <v>338</v>
+      </c>
+      <c r="F72" t="n">
+        <v>384</v>
+      </c>
+      <c r="G72" t="n">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>110.26</v>
+      </c>
+      <c r="D73" t="n">
+        <v>141</v>
+      </c>
+      <c r="E73" t="n">
+        <v>169</v>
+      </c>
+      <c r="F73" t="n">
+        <v>198</v>
+      </c>
+      <c r="G73" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="D74" t="n">
+        <v>144</v>
+      </c>
+      <c r="E74" t="n">
+        <v>174</v>
+      </c>
+      <c r="F74" t="n">
+        <v>235</v>
+      </c>
+      <c r="G74" t="n">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>52</v>
+      </c>
+      <c r="D75" t="n">
+        <v>82</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>121</v>
+      </c>
+      <c r="G75" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>91.09999999999999</v>
+      </c>
+      <c r="D76" t="n">
+        <v>77</v>
+      </c>
+      <c r="E76" t="n">
+        <v>91</v>
+      </c>
+      <c r="F76" t="n">
+        <v>104</v>
+      </c>
+      <c r="G76" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>575.9000000000001</v>
+      </c>
+      <c r="D77" t="n">
+        <v>443</v>
+      </c>
+      <c r="E77" t="n">
+        <v>531</v>
+      </c>
+      <c r="F77" t="n">
+        <v>625</v>
+      </c>
+      <c r="G77" t="n">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>8</v>
+      </c>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="n">
+        <v>8</v>
+      </c>
+      <c r="F78" t="n">
+        <v>12</v>
+      </c>
+      <c r="G78" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>344</v>
+      </c>
+      <c r="D79" t="n">
+        <v>290</v>
+      </c>
+      <c r="E79" t="n">
+        <v>346</v>
+      </c>
+      <c r="F79" t="n">
+        <v>405</v>
+      </c>
+      <c r="G79" t="n">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>50.64000000000001</v>
+      </c>
+      <c r="D80" t="n">
+        <v>60</v>
+      </c>
+      <c r="E80" t="n">
+        <v>73</v>
+      </c>
+      <c r="F80" t="n">
+        <v>90</v>
+      </c>
+      <c r="G80" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="D81" t="n">
+        <v>37</v>
+      </c>
+      <c r="E81" t="n">
+        <v>46</v>
+      </c>
+      <c r="F81" t="n">
+        <v>58</v>
+      </c>
+      <c r="G81" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>209.9</v>
+      </c>
+      <c r="D82" t="n">
+        <v>263</v>
+      </c>
+      <c r="E82" t="n">
+        <v>307</v>
+      </c>
+      <c r="F82" t="n">
+        <v>347</v>
+      </c>
+      <c r="G82" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>1941.8</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1684</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1984</v>
+      </c>
+      <c r="F83" t="n">
+        <v>2262</v>
+      </c>
+      <c r="G83" t="n">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>75</v>
+      </c>
+      <c r="E84" t="n">
+        <v>91</v>
+      </c>
+      <c r="F84" t="n">
+        <v>125</v>
+      </c>
+      <c r="G84" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>7.600000000000001</v>
+      </c>
+      <c r="D85" t="n">
+        <v>12</v>
+      </c>
+      <c r="E85" t="n">
+        <v>15</v>
+      </c>
+      <c r="F85" t="n">
+        <v>19</v>
+      </c>
+      <c r="G85" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="D86" t="n">
+        <v>15</v>
+      </c>
+      <c r="E86" t="n">
+        <v>19</v>
+      </c>
+      <c r="F86" t="n">
+        <v>25</v>
+      </c>
+      <c r="G86" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>208</v>
+      </c>
+      <c r="D87" t="n">
+        <v>165</v>
+      </c>
+      <c r="E87" t="n">
+        <v>194</v>
+      </c>
+      <c r="F87" t="n">
+        <v>220</v>
+      </c>
+      <c r="G87" t="n">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>326.8</v>
+      </c>
+      <c r="D88" t="n">
+        <v>280</v>
+      </c>
+      <c r="E88" t="n">
+        <v>326</v>
+      </c>
+      <c r="F88" t="n">
+        <v>365</v>
+      </c>
+      <c r="G88" t="n">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>4</v>
+      </c>
+      <c r="D89" t="n">
+        <v>4</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7</v>
+      </c>
+      <c r="F89" t="n">
+        <v>8</v>
+      </c>
+      <c r="G89" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>21.74</v>
+      </c>
+      <c r="D90" t="n">
+        <v>97</v>
+      </c>
+      <c r="E90" t="n">
+        <v>118</v>
+      </c>
+      <c r="F90" t="n">
+        <v>156</v>
+      </c>
+      <c r="G90" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>429</v>
+      </c>
+      <c r="D91" t="n">
+        <v>330</v>
+      </c>
+      <c r="E91" t="n">
+        <v>397</v>
+      </c>
+      <c r="F91" t="n">
+        <v>467</v>
+      </c>
+      <c r="G91" t="n">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6.880000000000001</v>
+      </c>
+      <c r="D92" t="n">
+        <v>8</v>
+      </c>
+      <c r="E92" t="n">
+        <v>9</v>
+      </c>
+      <c r="F92" t="n">
+        <v>13</v>
+      </c>
+      <c r="G92" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="D93" t="n">
+        <v>8</v>
+      </c>
+      <c r="E93" t="n">
+        <v>12</v>
+      </c>
+      <c r="F93" t="n">
+        <v>16</v>
+      </c>
+      <c r="G93" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>512.6</v>
+      </c>
+      <c r="D94" t="n">
+        <v>399</v>
+      </c>
+      <c r="E94" t="n">
+        <v>462</v>
+      </c>
+      <c r="F94" t="n">
+        <v>518</v>
+      </c>
+      <c r="G94" t="n">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D33M6CB7</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>GC-WIFI7</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>185.8</v>
+      </c>
+      <c r="D95" t="n">
+        <v>146</v>
+      </c>
+      <c r="E95" t="n">
+        <v>173</v>
+      </c>
+      <c r="F95" t="n">
+        <v>199</v>
+      </c>
+      <c r="G95" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>68</v>
+      </c>
+      <c r="D96" t="n">
+        <v>85</v>
+      </c>
+      <c r="E96" t="n">
+        <v>101</v>
+      </c>
+      <c r="F96" t="n">
+        <v>115</v>
+      </c>
+      <c r="G96" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>1320.8</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1118</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1301</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1468</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>1358.1</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1106</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1261</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1392</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>1014.7</v>
+      </c>
+      <c r="D99" t="n">
+        <v>883</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1024</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1148</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>295.2</v>
+      </c>
+      <c r="D100" t="n">
+        <v>336</v>
+      </c>
+      <c r="E100" t="n">
+        <v>389</v>
+      </c>
+      <c r="F100" t="n">
+        <v>436</v>
+      </c>
+      <c r="G100" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>399.3000000000001</v>
+      </c>
+      <c r="D101" t="n">
+        <v>320</v>
+      </c>
+      <c r="E101" t="n">
+        <v>373</v>
+      </c>
+      <c r="F101" t="n">
+        <v>420</v>
+      </c>
+      <c r="G101" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1125.2</v>
+      </c>
+      <c r="D102" t="n">
+        <v>987</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1132</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1255</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="D103" t="n">
+        <v>200</v>
+      </c>
+      <c r="E103" t="n">
+        <v>230</v>
+      </c>
+      <c r="F103" t="n">
+        <v>258</v>
+      </c>
+      <c r="G103" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>193.7</v>
+      </c>
+      <c r="D104" t="n">
+        <v>149</v>
+      </c>
+      <c r="E104" t="n">
+        <v>177</v>
+      </c>
+      <c r="F104" t="n">
+        <v>205</v>
+      </c>
+      <c r="G104" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>534.3800000000001</v>
+      </c>
+      <c r="D105" t="n">
+        <v>595</v>
+      </c>
+      <c r="E105" t="n">
+        <v>673</v>
+      </c>
+      <c r="F105" t="n">
+        <v>735</v>
+      </c>
+      <c r="G105" t="n">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>124.7</v>
+      </c>
+      <c r="D106" t="n">
+        <v>97</v>
+      </c>
+      <c r="E106" t="n">
+        <v>114</v>
+      </c>
+      <c r="F106" t="n">
+        <v>131</v>
+      </c>
+      <c r="G106" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>6.880000000000001</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8</v>
+      </c>
+      <c r="E107" t="n">
+        <v>12</v>
+      </c>
+      <c r="F107" t="n">
+        <v>15</v>
+      </c>
+      <c r="G107" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>167.36</v>
+      </c>
+      <c r="D108" t="n">
+        <v>176</v>
+      </c>
+      <c r="E108" t="n">
+        <v>212</v>
+      </c>
+      <c r="F108" t="n">
+        <v>251</v>
+      </c>
+      <c r="G108" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>42.48</v>
+      </c>
+      <c r="D109" t="n">
+        <v>68</v>
+      </c>
+      <c r="E109" t="n">
+        <v>84</v>
+      </c>
+      <c r="F109" t="n">
+        <v>110</v>
+      </c>
+      <c r="G109" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>306.64</v>
+      </c>
+      <c r="D110" t="n">
+        <v>410</v>
+      </c>
+      <c r="E110" t="n">
+        <v>487</v>
+      </c>
+      <c r="F110" t="n">
+        <v>562</v>
+      </c>
+      <c r="G110" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>218.9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>179</v>
+      </c>
+      <c r="E111" t="n">
+        <v>211</v>
+      </c>
+      <c r="F111" t="n">
+        <v>237</v>
+      </c>
+      <c r="G111" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="D112" t="n">
+        <v>93</v>
+      </c>
+      <c r="E112" t="n">
+        <v>109</v>
+      </c>
+      <c r="F112" t="n">
+        <v>127</v>
+      </c>
+      <c r="G112" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>49</v>
+      </c>
+      <c r="D113" t="n">
+        <v>39</v>
+      </c>
+      <c r="E113" t="n">
+        <v>47</v>
+      </c>
+      <c r="F113" t="n">
+        <v>57</v>
+      </c>
+      <c r="G113" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>19</v>
+      </c>
+      <c r="D114" t="n">
+        <v>22</v>
+      </c>
+      <c r="E114" t="n">
+        <v>29</v>
+      </c>
+      <c r="F114" t="n">
+        <v>36</v>
+      </c>
+      <c r="G114" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="D115" t="n">
+        <v>17</v>
+      </c>
+      <c r="E115" t="n">
+        <v>22</v>
+      </c>
+      <c r="F115" t="n">
+        <v>29</v>
+      </c>
+      <c r="G115" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="D116" t="n">
+        <v>18</v>
+      </c>
+      <c r="E116" t="n">
+        <v>22</v>
+      </c>
+      <c r="F116" t="n">
+        <v>29</v>
+      </c>
+      <c r="G116" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>54.59999999999999</v>
+      </c>
+      <c r="D117" t="n">
+        <v>45</v>
+      </c>
+      <c r="E117" t="n">
+        <v>54</v>
+      </c>
+      <c r="F117" t="n">
+        <v>65</v>
+      </c>
+      <c r="G117" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="D118" t="n">
+        <v>8</v>
+      </c>
+      <c r="E118" t="n">
+        <v>10</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14</v>
+      </c>
+      <c r="G118" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="D119" t="n">
+        <v>38</v>
+      </c>
+      <c r="E119" t="n">
+        <v>47</v>
+      </c>
+      <c r="F119" t="n">
+        <v>58</v>
+      </c>
+      <c r="G119" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="D120" t="n">
+        <v>18</v>
+      </c>
+      <c r="E120" t="n">
+        <v>23</v>
+      </c>
+      <c r="F120" t="n">
+        <v>30</v>
+      </c>
+      <c r="G120" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>48.1</v>
+      </c>
+      <c r="D121" t="n">
+        <v>37</v>
+      </c>
+      <c r="E121" t="n">
+        <v>45</v>
+      </c>
+      <c r="F121" t="n">
+        <v>54</v>
+      </c>
+      <c r="G121" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4</v>
+      </c>
+      <c r="D122" t="n">
+        <v>4</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>38</v>
+      </c>
+      <c r="D123" t="n">
+        <v>42</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>275</v>
+      </c>
+      <c r="D124" t="n">
+        <v>266</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
         <v>468</v>
+      </c>
+      <c r="D125" t="n">
+        <v>460</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>150</v>
+      </c>
+      <c r="D126" t="n">
+        <v>149</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>95</v>
+      </c>
+      <c r="D127" t="n">
+        <v>95</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>30</v>
+      </c>
+      <c r="D128" t="n">
+        <v>31</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>188</v>
+      </c>
+      <c r="D129" t="n">
+        <v>189</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>365</v>
+      </c>
+      <c r="D130" t="n">
+        <v>355</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>52</v>
+      </c>
+      <c r="D131" t="n">
+        <v>56</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLHLVLK</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850M GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>152</v>
+      </c>
+      <c r="D132" t="n">
+        <v>145</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>8</v>
+      </c>
+      <c r="D133" t="n">
+        <v>8</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>8</v>
+      </c>
+      <c r="D134" t="n">
+        <v>8</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>16</v>
+      </c>
+      <c r="D136" t="n">
+        <v>16</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>24</v>
+      </c>
+      <c r="D137" t="n">
+        <v>26</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>12</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B0DQLK2RF3</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>B860I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>4</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>203.62</v>
+        <v>204</v>
       </c>
       <c r="D3" t="n">
         <v>313</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.160000000000001</v>
+        <v>3.28</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>326.3000000000001</v>
+        <v>322.3000000000001</v>
       </c>
       <c r="D8" t="n">
         <v>251</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2498</v>
+        <v>2587</v>
       </c>
       <c r="D14" t="n">
         <v>2456</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>131.3</v>
+        <v>129.5</v>
       </c>
       <c r="D15" t="n">
         <v>101</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.82</v>
+        <v>4.12</v>
       </c>
       <c r="D16" t="n">
         <v>17</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="D21" t="n">
         <v>419</v>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>225.3</v>
+        <v>292.5</v>
       </c>
       <c r="D23" t="n">
         <v>225</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>756.7</v>
+        <v>753.7</v>
       </c>
       <c r="D26" t="n">
         <v>615</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D28" t="n">
         <v>289</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>165.26</v>
+        <v>164.36</v>
       </c>
       <c r="D29" t="n">
         <v>191</v>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D32" t="n">
         <v>521</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>372.1</v>
+        <v>373.1</v>
       </c>
       <c r="D33" t="n">
         <v>287</v>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>11.12</v>
+        <v>10.4</v>
       </c>
       <c r="D34" t="n">
         <v>46</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>50.40000000000001</v>
+        <v>50.7</v>
       </c>
       <c r="D38" t="n">
         <v>39</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1144</v>
+        <v>1021</v>
       </c>
       <c r="D39" t="n">
         <v>1044</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.98</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D40" t="n">
         <v>4</v>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>54.3</v>
+        <v>38.64</v>
       </c>
       <c r="D43" t="n">
         <v>44</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21.26000000000001</v>
+        <v>21.46</v>
       </c>
       <c r="D44" t="n">
         <v>43</v>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>357.7</v>
+        <v>364.7</v>
       </c>
       <c r="D46" t="n">
         <v>301</v>
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>17.84</v>
+        <v>21.56</v>
       </c>
       <c r="D49" t="n">
         <v>102</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="D52" t="n">
         <v>5</v>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D53" t="n">
         <v>110</v>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>84.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="D54" t="n">
         <v>71</v>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17.84</v>
+        <v>17.28</v>
       </c>
       <c r="D56" t="n">
         <v>24</v>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>208.5</v>
+        <v>209.62</v>
       </c>
       <c r="D58" t="n">
         <v>277</v>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>42.8</v>
+        <v>44.8</v>
       </c>
       <c r="D60" t="n">
         <v>36</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>34.60000000000001</v>
+        <v>32.38000000000001</v>
       </c>
       <c r="D61" t="n">
         <v>57</v>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>342</v>
+        <v>367.7</v>
       </c>
       <c r="D62" t="n">
         <v>294</v>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>46.88</v>
+        <v>43.8</v>
       </c>
       <c r="D64" t="n">
         <v>64</v>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>81.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="D66" t="n">
         <v>63</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>291.7</v>
+        <v>279.7</v>
       </c>
       <c r="D69" t="n">
         <v>226</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D70" t="n">
         <v>95</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>160.3</v>
+        <v>159.3</v>
       </c>
       <c r="D71" t="n">
         <v>126</v>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="D72" t="n">
         <v>288</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>110.26</v>
+        <v>148.2</v>
       </c>
       <c r="D73" t="n">
         <v>141</v>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>52</v>
+        <v>52.12</v>
       </c>
       <c r="D75" t="n">
         <v>82</v>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>91.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="D76" t="n">
         <v>77</v>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="D79" t="n">
         <v>290</v>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>209.9</v>
+        <v>333.1</v>
       </c>
       <c r="D82" t="n">
         <v>263</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1941.8</v>
+        <v>1851</v>
       </c>
       <c r="D83" t="n">
         <v>1684</v>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>16.6</v>
+        <v>14.54</v>
       </c>
       <c r="D84" t="n">
         <v>75</v>
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.600000000000001</v>
+        <v>8.32</v>
       </c>
       <c r="D85" t="n">
         <v>12</v>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10.22</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D87" t="n">
         <v>165</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>326.8</v>
+        <v>327.5</v>
       </c>
       <c r="D88" t="n">
         <v>280</v>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D89" t="n">
         <v>4</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>21.74</v>
+        <v>27.46</v>
       </c>
       <c r="D90" t="n">
         <v>97</v>
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>429</v>
+        <v>422.2</v>
       </c>
       <c r="D91" t="n">
         <v>330</v>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6.880000000000001</v>
+        <v>8</v>
       </c>
       <c r="D92" t="n">
         <v>8</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>512.6</v>
+        <v>515.6</v>
       </c>
       <c r="D94" t="n">
         <v>399</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>185.8</v>
+        <v>189.8</v>
       </c>
       <c r="D95" t="n">
         <v>146</v>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>68</v>
+        <v>54.44</v>
       </c>
       <c r="D96" t="n">
         <v>85</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1320.8</v>
+        <v>1453.4</v>
       </c>
       <c r="D97" t="n">
         <v>1118</v>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1358.1</v>
+        <v>1334.7</v>
       </c>
       <c r="D98" t="n">
         <v>1106</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1014.7</v>
+        <v>1008.9</v>
       </c>
       <c r="D99" t="n">
         <v>883</v>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>295.2</v>
+        <v>297.9</v>
       </c>
       <c r="D100" t="n">
         <v>336</v>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>399.3000000000001</v>
+        <v>368.3000000000001</v>
       </c>
       <c r="D101" t="n">
         <v>320</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1125.2</v>
+        <v>1046.1</v>
       </c>
       <c r="D102" t="n">
         <v>987</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>231.2</v>
+        <v>260</v>
       </c>
       <c r="D103" t="n">
         <v>200</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>193.7</v>
+        <v>142.08</v>
       </c>
       <c r="D104" t="n">
         <v>149</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>534.3800000000001</v>
+        <v>534.6600000000001</v>
       </c>
       <c r="D105" t="n">
         <v>595</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>124.7</v>
+        <v>120.2</v>
       </c>
       <c r="D106" t="n">
         <v>97</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>167.36</v>
+        <v>200.9</v>
       </c>
       <c r="D108" t="n">
         <v>176</v>
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>306.64</v>
+        <v>331.0000000000001</v>
       </c>
       <c r="D110" t="n">
         <v>410</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>218.9</v>
+        <v>208.9</v>
       </c>
       <c r="D111" t="n">
         <v>179</v>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>117.4</v>
+        <v>109.6</v>
       </c>
       <c r="D112" t="n">
         <v>93</v>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>49</v>
+        <v>50.7</v>
       </c>
       <c r="D113" t="n">
         <v>39</v>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>19</v>
+        <v>20.92</v>
       </c>
       <c r="D114" t="n">
         <v>22</v>
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>21.6</v>
+        <v>11.9</v>
       </c>
       <c r="D115" t="n">
         <v>17</v>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23.4</v>
+        <v>22.4</v>
       </c>
       <c r="D116" t="n">
         <v>18</v>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>54.59999999999999</v>
+        <v>36</v>
       </c>
       <c r="D117" t="n">
         <v>45</v>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>7.28</v>
+        <v>5.6</v>
       </c>
       <c r="D118" t="n">
         <v>8</v>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>31.6</v>
+        <v>49.40000000000001</v>
       </c>
       <c r="D119" t="n">
         <v>38</v>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>14.68</v>
+        <v>13.3</v>
       </c>
       <c r="D120" t="n">
         <v>18</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>204</v>
+        <v>212.6</v>
       </c>
       <c r="D3" t="n">
         <v>313</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.600000000000001</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>4</v>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.28</v>
+        <v>2.6</v>
       </c>
       <c r="D5" t="n">
         <v>10</v>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.44</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>4</v>
@@ -644,7 +644,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>322.3000000000001</v>
+        <v>516</v>
       </c>
       <c r="D8" t="n">
         <v>251</v>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>501.8</v>
+        <v>569</v>
       </c>
       <c r="D9" t="n">
         <v>386</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27.3</v>
+        <v>36</v>
       </c>
       <c r="D10" t="n">
         <v>21</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>361.4</v>
+        <v>527</v>
       </c>
       <c r="D11" t="n">
         <v>278</v>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.92</v>
+        <v>3.800000000000001</v>
       </c>
       <c r="D12" t="n">
         <v>8</v>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.28</v>
+        <v>6.4</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -806,7 +806,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2587</v>
+        <v>2542</v>
       </c>
       <c r="D14" t="n">
         <v>2456</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>129.5</v>
+        <v>140</v>
       </c>
       <c r="D15" t="n">
         <v>101</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4.12</v>
+        <v>1.6</v>
       </c>
       <c r="D16" t="n">
         <v>17</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.040000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D18" t="n">
         <v>14</v>
@@ -941,7 +941,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>174.2</v>
+        <v>208</v>
       </c>
       <c r="D19" t="n">
         <v>134</v>
@@ -968,7 +968,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>8</v>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D21" t="n">
         <v>419</v>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6.000000000000001</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>24</v>
@@ -1049,7 +1049,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>292.5</v>
+        <v>250.6</v>
       </c>
       <c r="D23" t="n">
         <v>225</v>
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5599999999999999</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>4</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>753.7</v>
+        <v>800</v>
       </c>
       <c r="D26" t="n">
         <v>615</v>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>8</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D28" t="n">
         <v>289</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>164.36</v>
+        <v>93</v>
       </c>
       <c r="D29" t="n">
         <v>191</v>
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>27.8</v>
+        <v>34</v>
       </c>
       <c r="D30" t="n">
         <v>70</v>
@@ -1265,7 +1265,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>9</v>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>624</v>
+        <v>662</v>
       </c>
       <c r="D32" t="n">
         <v>521</v>
@@ -1319,7 +1319,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>373.1</v>
+        <v>545</v>
       </c>
       <c r="D33" t="n">
         <v>287</v>
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10.4</v>
+        <v>1.2</v>
       </c>
       <c r="D34" t="n">
         <v>46</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>50.7</v>
+        <v>53</v>
       </c>
       <c r="D38" t="n">
         <v>39</v>
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1021</v>
+        <v>1227</v>
       </c>
       <c r="D39" t="n">
         <v>1044</v>
@@ -1508,7 +1508,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5599999999999999</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>4</v>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15.92</v>
+        <v>3.4</v>
       </c>
       <c r="D41" t="n">
         <v>52</v>
@@ -1589,7 +1589,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>38.64</v>
+        <v>66</v>
       </c>
       <c r="D43" t="n">
         <v>44</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21.46</v>
+        <v>22.8</v>
       </c>
       <c r="D44" t="n">
         <v>43</v>
@@ -1643,7 +1643,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13.42</v>
+        <v>12.6</v>
       </c>
       <c r="D45" t="n">
         <v>33</v>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>364.7</v>
+        <v>359</v>
       </c>
       <c r="D46" t="n">
         <v>301</v>
@@ -1697,7 +1697,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>21.56</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>102</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>616.2</v>
+        <v>832</v>
       </c>
       <c r="D50" t="n">
         <v>474</v>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>128.7</v>
+        <v>182</v>
       </c>
       <c r="D51" t="n">
         <v>99</v>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>5</v>
@@ -1859,7 +1859,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="D53" t="n">
         <v>110</v>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>92.3</v>
+        <v>115</v>
       </c>
       <c r="D54" t="n">
         <v>71</v>
@@ -1913,7 +1913,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.08</v>
+        <v>0.8</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17.28</v>
+        <v>17.2</v>
       </c>
       <c r="D56" t="n">
         <v>24</v>
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.5599999999999999</v>
+        <v>0</v>
       </c>
       <c r="D57" t="n">
         <v>4</v>
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>209.62</v>
+        <v>237.4</v>
       </c>
       <c r="D58" t="n">
         <v>277</v>
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>67.10000000000001</v>
+        <v>76</v>
       </c>
       <c r="D59" t="n">
         <v>53</v>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>44.8</v>
+        <v>57</v>
       </c>
       <c r="D60" t="n">
         <v>36</v>
@@ -2075,7 +2075,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>32.38000000000001</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
         <v>57</v>
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>367.7</v>
+        <v>388</v>
       </c>
       <c r="D62" t="n">
         <v>294</v>
@@ -2129,7 +2129,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>43.8</v>
+        <v>57</v>
       </c>
       <c r="D64" t="n">
         <v>64</v>
@@ -2183,7 +2183,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>11.2</v>
+        <v>14.8</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -2210,7 +2210,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>81.5</v>
+        <v>96</v>
       </c>
       <c r="D66" t="n">
         <v>63</v>
@@ -2237,7 +2237,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>101.2</v>
+        <v>128</v>
       </c>
       <c r="D67" t="n">
         <v>78</v>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>279.7</v>
+        <v>218.8</v>
       </c>
       <c r="D69" t="n">
         <v>226</v>
@@ -2318,7 +2318,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D70" t="n">
         <v>95</v>
@@ -2345,7 +2345,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>159.3</v>
+        <v>167</v>
       </c>
       <c r="D71" t="n">
         <v>126</v>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D72" t="n">
         <v>288</v>
@@ -2399,7 +2399,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>148.2</v>
+        <v>136</v>
       </c>
       <c r="D73" t="n">
         <v>141</v>
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>21.76</v>
+        <v>5.200000000000001</v>
       </c>
       <c r="D74" t="n">
         <v>144</v>
@@ -2453,7 +2453,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>52.12</v>
+        <v>53.2</v>
       </c>
       <c r="D75" t="n">
         <v>82</v>
@@ -2480,7 +2480,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="D76" t="n">
         <v>77</v>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>575.9000000000001</v>
+        <v>622.5999999999999</v>
       </c>
       <c r="D77" t="n">
         <v>443</v>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="D79" t="n">
         <v>290</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>50.64000000000001</v>
+        <v>55.40000000000001</v>
       </c>
       <c r="D80" t="n">
         <v>60</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>28.42</v>
+        <v>30.8</v>
       </c>
       <c r="D81" t="n">
         <v>37</v>
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>333.1</v>
+        <v>340</v>
       </c>
       <c r="D82" t="n">
         <v>263</v>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1851</v>
+        <v>1627</v>
       </c>
       <c r="D83" t="n">
         <v>1684</v>
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>14.54</v>
+        <v>12.8</v>
       </c>
       <c r="D84" t="n">
         <v>75</v>
@@ -2723,7 +2723,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8.32</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D85" t="n">
         <v>12</v>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
@@ -2777,7 +2777,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>202</v>
+        <v>181.6</v>
       </c>
       <c r="D87" t="n">
         <v>165</v>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>327.5</v>
+        <v>1089.8</v>
       </c>
       <c r="D88" t="n">
         <v>280</v>
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>4</v>
@@ -2858,7 +2858,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>27.46</v>
+        <v>28</v>
       </c>
       <c r="D90" t="n">
         <v>97</v>
@@ -2885,7 +2885,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>422.2</v>
+        <v>448</v>
       </c>
       <c r="D91" t="n">
         <v>330</v>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="D92" t="n">
         <v>8</v>
@@ -2939,7 +2939,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5.28</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
         <v>8</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>515.6</v>
+        <v>675.4000000000001</v>
       </c>
       <c r="D94" t="n">
         <v>399</v>
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>189.8</v>
+        <v>186</v>
       </c>
       <c r="D95" t="n">
         <v>146</v>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>54.44</v>
+        <v>51</v>
       </c>
       <c r="D96" t="n">
         <v>85</v>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1453.4</v>
+        <v>1605.4</v>
       </c>
       <c r="D97" t="n">
         <v>1118</v>
@@ -3074,7 +3074,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1334.7</v>
+        <v>1199.2</v>
       </c>
       <c r="D98" t="n">
         <v>1106</v>
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1008.9</v>
+        <v>4512.200000000001</v>
       </c>
       <c r="D99" t="n">
         <v>883</v>
@@ -3128,7 +3128,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>297.9</v>
+        <v>342</v>
       </c>
       <c r="D100" t="n">
         <v>336</v>
@@ -3155,7 +3155,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>368.3000000000001</v>
+        <v>413.8</v>
       </c>
       <c r="D101" t="n">
         <v>320</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1046.1</v>
+        <v>799.8</v>
       </c>
       <c r="D102" t="n">
         <v>987</v>
@@ -3209,7 +3209,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="D103" t="n">
         <v>200</v>
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>142.08</v>
+        <v>146.4</v>
       </c>
       <c r="D104" t="n">
         <v>149</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>534.6600000000001</v>
+        <v>1863.2</v>
       </c>
       <c r="D105" t="n">
         <v>595</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>120.2</v>
+        <v>103</v>
       </c>
       <c r="D106" t="n">
         <v>97</v>
@@ -3317,7 +3317,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6.880000000000001</v>
+        <v>4</v>
       </c>
       <c r="D107" t="n">
         <v>8</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>200.9</v>
+        <v>171.2</v>
       </c>
       <c r="D108" t="n">
         <v>176</v>
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>42.48</v>
+        <v>7</v>
       </c>
       <c r="D109" t="n">
         <v>68</v>
@@ -3398,7 +3398,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>331.0000000000001</v>
+        <v>251</v>
       </c>
       <c r="D110" t="n">
         <v>410</v>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>208.9</v>
+        <v>245</v>
       </c>
       <c r="D111" t="n">
         <v>179</v>
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>109.6</v>
+        <v>100.2</v>
       </c>
       <c r="D112" t="n">
         <v>93</v>
@@ -3479,7 +3479,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>50.7</v>
+        <v>39.2</v>
       </c>
       <c r="D113" t="n">
         <v>39</v>
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>20.92</v>
+        <v>21.6</v>
       </c>
       <c r="D114" t="n">
         <v>22</v>
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11.9</v>
+        <v>24</v>
       </c>
       <c r="D115" t="n">
         <v>17</v>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>22.4</v>
+        <v>24</v>
       </c>
       <c r="D116" t="n">
         <v>18</v>
@@ -3587,7 +3587,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D117" t="n">
         <v>45</v>
@@ -3614,7 +3614,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>5.6</v>
+        <v>10.4</v>
       </c>
       <c r="D118" t="n">
         <v>8</v>
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>49.40000000000001</v>
+        <v>48</v>
       </c>
       <c r="D119" t="n">
         <v>38</v>
@@ -3668,7 +3668,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>13.3</v>
+        <v>17.6</v>
       </c>
       <c r="D120" t="n">
         <v>18</v>
@@ -3695,7 +3695,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>48.1</v>
+        <v>38.40000000000001</v>
       </c>
       <c r="D121" t="n">
         <v>37</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,11 +482,9 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10</v>
-      </c>
+        <v>2.600000000000001</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>9</v>
       </c>
@@ -509,11 +507,9 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>212.6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>313</v>
-      </c>
+        <v>210.8</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>383</v>
       </c>
@@ -536,11 +532,9 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>4</v>
       </c>
@@ -565,9 +559,7 @@
       <c r="C5" t="n">
         <v>2.6</v>
       </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="n">
         <v>13</v>
       </c>
@@ -590,11 +582,9 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="n">
         <v>4</v>
       </c>
@@ -619,9 +609,7 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="n">
         <v>0</v>
       </c>
@@ -644,11 +632,9 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>516</v>
-      </c>
-      <c r="D8" t="n">
-        <v>251</v>
-      </c>
+        <v>276.6</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
         <v>304</v>
       </c>
@@ -671,11 +657,9 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>569</v>
-      </c>
-      <c r="D9" t="n">
-        <v>386</v>
-      </c>
+        <v>574</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
         <v>463</v>
       </c>
@@ -700,9 +684,7 @@
       <c r="C10" t="n">
         <v>36</v>
       </c>
-      <c r="D10" t="n">
-        <v>21</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
         <v>27</v>
       </c>
@@ -725,11 +707,9 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>527</v>
-      </c>
-      <c r="D11" t="n">
-        <v>278</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
         <v>329</v>
       </c>
@@ -752,11 +732,9 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3.800000000000001</v>
-      </c>
-      <c r="D12" t="n">
-        <v>8</v>
-      </c>
+        <v>4.800000000000001</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
         <v>8</v>
       </c>
@@ -781,9 +759,7 @@
       <c r="C13" t="n">
         <v>6.4</v>
       </c>
-      <c r="D13" t="n">
-        <v>8</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
         <v>12</v>
       </c>
@@ -806,11 +782,9 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2542</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2456</v>
-      </c>
+        <v>2602</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
         <v>2687</v>
       </c>
@@ -833,11 +807,9 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
-      </c>
-      <c r="D15" t="n">
-        <v>101</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="n">
         <v>121</v>
       </c>
@@ -860,11 +832,9 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="D16" t="n">
-        <v>17</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="n">
         <v>20</v>
       </c>
@@ -889,9 +859,7 @@
       <c r="C17" t="n">
         <v>0.8</v>
       </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="n">
         <v>4</v>
       </c>
@@ -914,11 +882,9 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>14</v>
-      </c>
+        <v>10.8</v>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="n">
         <v>18</v>
       </c>
@@ -941,11 +907,9 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>208</v>
-      </c>
-      <c r="D19" t="n">
-        <v>134</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="n">
         <v>159</v>
       </c>
@@ -970,9 +934,7 @@
       <c r="C20" t="n">
         <v>2</v>
       </c>
-      <c r="D20" t="n">
-        <v>8</v>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="n">
         <v>8</v>
       </c>
@@ -995,11 +957,9 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>498</v>
-      </c>
-      <c r="D21" t="n">
-        <v>419</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="n">
         <v>478</v>
       </c>
@@ -1024,9 +984,7 @@
       <c r="C22" t="n">
         <v>2</v>
       </c>
-      <c r="D22" t="n">
-        <v>24</v>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="n">
         <v>24</v>
       </c>
@@ -1049,11 +1007,9 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>250.6</v>
-      </c>
-      <c r="D23" t="n">
-        <v>225</v>
-      </c>
+        <v>264.4</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="n">
         <v>272</v>
       </c>
@@ -1105,9 +1061,7 @@
       <c r="C25" t="n">
         <v>0</v>
       </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="n">
         <v>4</v>
       </c>
@@ -1130,11 +1084,9 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>800</v>
-      </c>
-      <c r="D26" t="n">
-        <v>615</v>
-      </c>
+        <v>593.2</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="n">
         <v>729</v>
       </c>
@@ -1159,9 +1111,7 @@
       <c r="C27" t="n">
         <v>0</v>
       </c>
-      <c r="D27" t="n">
-        <v>8</v>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="n">
         <v>7</v>
       </c>
@@ -1184,11 +1134,9 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>362</v>
-      </c>
-      <c r="D28" t="n">
-        <v>289</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="n">
         <v>344</v>
       </c>
@@ -1211,11 +1159,9 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>93</v>
-      </c>
-      <c r="D29" t="n">
-        <v>191</v>
-      </c>
+        <v>171.4</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="n">
         <v>226</v>
       </c>
@@ -1238,11 +1184,9 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34</v>
-      </c>
-      <c r="D30" t="n">
-        <v>70</v>
-      </c>
+        <v>34.8</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="n">
         <v>86</v>
       </c>
@@ -1267,9 +1211,7 @@
       <c r="C31" t="n">
         <v>4</v>
       </c>
-      <c r="D31" t="n">
-        <v>9</v>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="n">
         <v>8</v>
       </c>
@@ -1292,11 +1234,9 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>662</v>
-      </c>
-      <c r="D32" t="n">
-        <v>521</v>
-      </c>
+        <v>744</v>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="n">
         <v>613</v>
       </c>
@@ -1319,11 +1259,9 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>545</v>
-      </c>
-      <c r="D33" t="n">
-        <v>287</v>
-      </c>
+        <v>504</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="n">
         <v>339</v>
       </c>
@@ -1346,11 +1284,9 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="D34" t="n">
-        <v>46</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="n">
         <v>56</v>
       </c>
@@ -1375,9 +1311,7 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -1402,9 +1336,7 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="n">
         <v>0</v>
       </c>
@@ -1429,9 +1361,7 @@
       <c r="C37" t="n">
         <v>1.6</v>
       </c>
-      <c r="D37" t="n">
-        <v>8</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="n">
         <v>8</v>
       </c>
@@ -1454,11 +1384,9 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>53</v>
-      </c>
-      <c r="D38" t="n">
-        <v>39</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="n">
         <v>49</v>
       </c>
@@ -1481,11 +1409,9 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1227</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1044</v>
-      </c>
+        <v>1134</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="n">
         <v>1238</v>
       </c>
@@ -1508,11 +1434,9 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>4</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="n">
         <v>4</v>
       </c>
@@ -1535,11 +1459,9 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>52</v>
-      </c>
+        <v>6.000000000000001</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="n">
         <v>65</v>
       </c>
@@ -1564,9 +1486,7 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
         <v>0</v>
       </c>
@@ -1589,11 +1509,9 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>66</v>
-      </c>
-      <c r="D43" t="n">
-        <v>44</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="n">
         <v>53</v>
       </c>
@@ -1616,7 +1534,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>22.8</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>43</v>
@@ -1643,7 +1561,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12.6</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>33</v>
@@ -1670,7 +1588,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>359</v>
+        <v>30</v>
       </c>
       <c r="D46" t="n">
         <v>301</v>
@@ -1697,7 +1615,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1724,7 +1642,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -1751,7 +1669,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D49" t="n">
         <v>102</v>
@@ -1778,7 +1696,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>832</v>
+        <v>47</v>
       </c>
       <c r="D50" t="n">
         <v>474</v>
@@ -1805,7 +1723,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>182</v>
+        <v>10</v>
       </c>
       <c r="D51" t="n">
         <v>99</v>
@@ -1832,7 +1750,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>5</v>
@@ -1859,7 +1777,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
         <v>110</v>
@@ -1886,7 +1804,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>115</v>
+        <v>8</v>
       </c>
       <c r="D54" t="n">
         <v>71</v>
@@ -1913,7 +1831,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -1940,7 +1858,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>17.2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>24</v>
@@ -1994,7 +1912,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>237.4</v>
+        <v>28</v>
       </c>
       <c r="D58" t="n">
         <v>277</v>
@@ -2021,7 +1939,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>53</v>
@@ -2048,7 +1966,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>36</v>
@@ -2075,7 +1993,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>57</v>
@@ -2102,7 +2020,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>388</v>
+        <v>29</v>
       </c>
       <c r="D62" t="n">
         <v>294</v>
@@ -2129,7 +2047,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
@@ -2156,7 +2074,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
         <v>64</v>
@@ -2183,7 +2101,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>14.8</v>
+        <v>1.6</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -2210,7 +2128,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="D66" t="n">
         <v>63</v>
@@ -2237,7 +2155,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>128</v>
+        <v>8</v>
       </c>
       <c r="D67" t="n">
         <v>78</v>
@@ -2264,7 +2182,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
         <v>13</v>
@@ -2291,7 +2209,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>218.8</v>
+        <v>22</v>
       </c>
       <c r="D69" t="n">
         <v>226</v>
@@ -2318,7 +2236,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="D70" t="n">
         <v>95</v>
@@ -2345,7 +2263,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="D71" t="n">
         <v>126</v>
@@ -2372,7 +2290,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>353</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
         <v>288</v>
@@ -2399,7 +2317,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="D73" t="n">
         <v>141</v>
@@ -2426,7 +2344,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5.200000000000001</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="D74" t="n">
         <v>144</v>
@@ -2453,7 +2371,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>53.2</v>
+        <v>8</v>
       </c>
       <c r="D75" t="n">
         <v>82</v>
@@ -2480,7 +2398,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D76" t="n">
         <v>77</v>
@@ -2507,7 +2425,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>622.5999999999999</v>
+        <v>44</v>
       </c>
       <c r="D77" t="n">
         <v>443</v>
@@ -2534,7 +2452,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
@@ -2561,7 +2479,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="D79" t="n">
         <v>290</v>
@@ -2588,7 +2506,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>55.40000000000001</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
         <v>60</v>
@@ -2615,7 +2533,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>30.8</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>37</v>
@@ -2642,7 +2560,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>340</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
         <v>263</v>
@@ -2669,7 +2587,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1627</v>
+        <v>168</v>
       </c>
       <c r="D83" t="n">
         <v>1684</v>
@@ -2696,7 +2614,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>12.8</v>
+        <v>3.6</v>
       </c>
       <c r="D84" t="n">
         <v>75</v>
@@ -2723,7 +2641,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>12</v>
@@ -2750,7 +2668,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
@@ -2777,7 +2695,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>181.6</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
         <v>165</v>
@@ -2804,7 +2722,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1089.8</v>
+        <v>28</v>
       </c>
       <c r="D88" t="n">
         <v>280</v>
@@ -2831,7 +2749,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
         <v>4</v>
@@ -2858,7 +2776,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>28</v>
+        <v>4.2</v>
       </c>
       <c r="D90" t="n">
         <v>97</v>
@@ -2885,7 +2803,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>448</v>
+        <v>33</v>
       </c>
       <c r="D91" t="n">
         <v>330</v>
@@ -2912,7 +2830,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>8</v>
@@ -2939,7 +2857,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
         <v>8</v>
@@ -2966,7 +2884,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>675.4000000000001</v>
+        <v>40</v>
       </c>
       <c r="D94" t="n">
         <v>399</v>
@@ -2993,7 +2911,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="D95" t="n">
         <v>146</v>
@@ -3020,7 +2938,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="D96" t="n">
         <v>85</v>
@@ -3047,7 +2965,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1605.4</v>
+        <v>111</v>
       </c>
       <c r="D97" t="n">
         <v>1118</v>
@@ -3074,7 +2992,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1199.2</v>
+        <v>111</v>
       </c>
       <c r="D98" t="n">
         <v>1106</v>
@@ -3101,7 +3019,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4512.200000000001</v>
+        <v>88</v>
       </c>
       <c r="D99" t="n">
         <v>883</v>
@@ -3128,7 +3046,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>342</v>
+        <v>34</v>
       </c>
       <c r="D100" t="n">
         <v>336</v>
@@ -3155,7 +3073,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>413.8</v>
+        <v>32</v>
       </c>
       <c r="D101" t="n">
         <v>320</v>
@@ -3182,7 +3100,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>799.8</v>
+        <v>98</v>
       </c>
       <c r="D102" t="n">
         <v>987</v>
@@ -3209,7 +3127,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>313</v>
+        <v>20</v>
       </c>
       <c r="D103" t="n">
         <v>200</v>
@@ -3236,7 +3154,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>146.4</v>
+        <v>15</v>
       </c>
       <c r="D104" t="n">
         <v>149</v>
@@ -3263,7 +3181,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1863.2</v>
+        <v>60</v>
       </c>
       <c r="D105" t="n">
         <v>595</v>
@@ -3290,7 +3208,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
         <v>97</v>
@@ -3317,7 +3235,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D107" t="n">
         <v>8</v>
@@ -3344,7 +3262,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>171.2</v>
+        <v>17</v>
       </c>
       <c r="D108" t="n">
         <v>176</v>
@@ -3371,7 +3289,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109" t="n">
         <v>68</v>
@@ -3398,7 +3316,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="D110" t="n">
         <v>410</v>
@@ -3425,7 +3343,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>245</v>
+        <v>18</v>
       </c>
       <c r="D111" t="n">
         <v>179</v>
@@ -3452,7 +3370,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>100.2</v>
+        <v>8</v>
       </c>
       <c r="D112" t="n">
         <v>93</v>
@@ -3479,7 +3397,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>39.2</v>
+        <v>4</v>
       </c>
       <c r="D113" t="n">
         <v>39</v>
@@ -3506,7 +3424,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>21.6</v>
+        <v>2</v>
       </c>
       <c r="D114" t="n">
         <v>22</v>
@@ -3533,7 +3451,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>17</v>
@@ -3560,7 +3478,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
         <v>18</v>
@@ -3587,7 +3505,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="D117" t="n">
         <v>45</v>
@@ -3614,7 +3532,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10.4</v>
+        <v>0</v>
       </c>
       <c r="D118" t="n">
         <v>8</v>
@@ -3641,7 +3559,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="D119" t="n">
         <v>38</v>
@@ -3668,7 +3586,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>17.6</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>18</v>
@@ -3695,7 +3613,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>38.40000000000001</v>
+        <v>4</v>
       </c>
       <c r="D121" t="n">
         <v>37</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -482,9 +482,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>2.58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10</v>
+      </c>
       <c r="E2" t="n">
         <v>9</v>
       </c>
@@ -507,9 +509,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>210.8</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>203.82</v>
+      </c>
+      <c r="D3" t="n">
+        <v>313</v>
+      </c>
       <c r="E3" t="n">
         <v>383</v>
       </c>
@@ -532,9 +536,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>4.600000000000001</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
       <c r="E4" t="n">
         <v>4</v>
       </c>
@@ -557,9 +563,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>3.04</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
       <c r="E5" t="n">
         <v>13</v>
       </c>
@@ -582,9 +590,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>1.44</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
       <c r="E6" t="n">
         <v>4</v>
       </c>
@@ -609,7 +619,9 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
@@ -632,9 +644,11 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>276.6</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>326.3000000000001</v>
+      </c>
+      <c r="D8" t="n">
+        <v>251</v>
+      </c>
       <c r="E8" t="n">
         <v>304</v>
       </c>
@@ -657,9 +671,11 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>574</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>501.8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>386</v>
+      </c>
       <c r="E9" t="n">
         <v>463</v>
       </c>
@@ -682,9 +698,11 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>36</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>27.3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21</v>
+      </c>
       <c r="E10" t="n">
         <v>27</v>
       </c>
@@ -707,9 +725,11 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>529</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>361.4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>278</v>
+      </c>
       <c r="E11" t="n">
         <v>329</v>
       </c>
@@ -732,9 +752,11 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4.800000000000001</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>3.16</v>
+      </c>
+      <c r="D12" t="n">
+        <v>8</v>
+      </c>
       <c r="E12" t="n">
         <v>8</v>
       </c>
@@ -757,9 +779,11 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>5.28</v>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
       <c r="E13" t="n">
         <v>12</v>
       </c>
@@ -782,9 +806,11 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2602</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>2541</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2456</v>
+      </c>
       <c r="E14" t="n">
         <v>2687</v>
       </c>
@@ -807,9 +833,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>122</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>131.3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>101</v>
+      </c>
       <c r="E15" t="n">
         <v>121</v>
       </c>
@@ -832,9 +860,11 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>4.12</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
       <c r="E16" t="n">
         <v>20</v>
       </c>
@@ -859,7 +889,9 @@
       <c r="C17" t="n">
         <v>0.8</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
       <c r="E17" t="n">
         <v>4</v>
       </c>
@@ -882,9 +914,11 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>8.040000000000001</v>
+      </c>
+      <c r="D18" t="n">
+        <v>14</v>
+      </c>
       <c r="E18" t="n">
         <v>18</v>
       </c>
@@ -907,9 +941,11 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>234</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>174.2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>134</v>
+      </c>
       <c r="E19" t="n">
         <v>159</v>
       </c>
@@ -932,9 +968,11 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>2.8</v>
+      </c>
+      <c r="D20" t="n">
+        <v>8</v>
+      </c>
       <c r="E20" t="n">
         <v>8</v>
       </c>
@@ -957,9 +995,11 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>526</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>508</v>
+      </c>
+      <c r="D21" t="n">
+        <v>419</v>
+      </c>
       <c r="E21" t="n">
         <v>478</v>
       </c>
@@ -982,9 +1022,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>6.000000000000001</v>
+      </c>
+      <c r="D22" t="n">
+        <v>24</v>
+      </c>
       <c r="E22" t="n">
         <v>24</v>
       </c>
@@ -1007,9 +1049,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>264.4</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>225.3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>225</v>
+      </c>
       <c r="E23" t="n">
         <v>272</v>
       </c>
@@ -1059,9 +1103,11 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
@@ -1084,9 +1130,11 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>593.2</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>764.7</v>
+      </c>
+      <c r="D26" t="n">
+        <v>615</v>
+      </c>
       <c r="E26" t="n">
         <v>729</v>
       </c>
@@ -1109,9 +1157,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>1.12</v>
+      </c>
+      <c r="D27" t="n">
+        <v>8</v>
+      </c>
       <c r="E27" t="n">
         <v>7</v>
       </c>
@@ -1134,9 +1184,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>393</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>360</v>
+      </c>
+      <c r="D28" t="n">
+        <v>289</v>
+      </c>
       <c r="E28" t="n">
         <v>344</v>
       </c>
@@ -1159,9 +1211,11 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>171.4</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>165.26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>191</v>
+      </c>
       <c r="E29" t="n">
         <v>226</v>
       </c>
@@ -1184,9 +1238,11 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>27.8</v>
+      </c>
+      <c r="D30" t="n">
+        <v>70</v>
+      </c>
       <c r="E30" t="n">
         <v>86</v>
       </c>
@@ -1209,9 +1265,11 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>4.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>9</v>
+      </c>
       <c r="E31" t="n">
         <v>8</v>
       </c>
@@ -1234,9 +1292,11 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>744</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>634</v>
+      </c>
+      <c r="D32" t="n">
+        <v>521</v>
+      </c>
       <c r="E32" t="n">
         <v>613</v>
       </c>
@@ -1259,9 +1319,11 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>504</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>373.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>287</v>
+      </c>
       <c r="E33" t="n">
         <v>339</v>
       </c>
@@ -1284,9 +1346,11 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
+        <v>10.28</v>
+      </c>
+      <c r="D34" t="n">
+        <v>46</v>
+      </c>
       <c r="E34" t="n">
         <v>56</v>
       </c>
@@ -1311,7 +1375,9 @@
       <c r="C35" t="n">
         <v>0</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
@@ -1336,7 +1402,9 @@
       <c r="C36" t="n">
         <v>0</v>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
@@ -1361,7 +1429,9 @@
       <c r="C37" t="n">
         <v>1.6</v>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="n">
+        <v>8</v>
+      </c>
       <c r="E37" t="n">
         <v>8</v>
       </c>
@@ -1384,9 +1454,11 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>61</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>49.40000000000001</v>
+      </c>
+      <c r="D38" t="n">
+        <v>39</v>
+      </c>
       <c r="E38" t="n">
         <v>49</v>
       </c>
@@ -1409,9 +1481,11 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1134</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>1348.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1044</v>
+      </c>
       <c r="E39" t="n">
         <v>1238</v>
       </c>
@@ -1434,9 +1508,11 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>1.04</v>
+      </c>
+      <c r="D40" t="n">
+        <v>4</v>
+      </c>
       <c r="E40" t="n">
         <v>4</v>
       </c>
@@ -1459,9 +1535,11 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>6.000000000000001</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>15.92</v>
+      </c>
+      <c r="D41" t="n">
+        <v>52</v>
+      </c>
       <c r="E41" t="n">
         <v>65</v>
       </c>
@@ -1486,7 +1564,9 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
@@ -1509,9 +1589,11 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>41</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>37.86000000000001</v>
+      </c>
+      <c r="D43" t="n">
+        <v>44</v>
+      </c>
       <c r="E43" t="n">
         <v>53</v>
       </c>
@@ -1534,7 +1616,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>21.46</v>
       </c>
       <c r="D44" t="n">
         <v>43</v>
@@ -1561,7 +1643,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>12.6</v>
       </c>
       <c r="D45" t="n">
         <v>33</v>
@@ -1588,7 +1670,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>30</v>
+        <v>356</v>
       </c>
       <c r="D46" t="n">
         <v>301</v>
@@ -1615,7 +1697,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>5</v>
@@ -1642,7 +1724,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="D48" t="n">
         <v>8</v>
@@ -1669,7 +1751,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2.8</v>
+        <v>15.08</v>
       </c>
       <c r="D49" t="n">
         <v>102</v>
@@ -1696,7 +1778,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>47</v>
+        <v>616.2</v>
       </c>
       <c r="D50" t="n">
         <v>474</v>
@@ -1723,7 +1805,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>128.7</v>
       </c>
       <c r="D51" t="n">
         <v>99</v>
@@ -1750,7 +1832,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="D52" t="n">
         <v>5</v>
@@ -1777,7 +1859,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="D53" t="n">
         <v>110</v>
@@ -1804,7 +1886,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8</v>
+        <v>92.3</v>
       </c>
       <c r="D54" t="n">
         <v>71</v>
@@ -1831,7 +1913,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="D55" t="n">
         <v>8</v>
@@ -1858,7 +1940,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>17.2</v>
       </c>
       <c r="D56" t="n">
         <v>24</v>
@@ -1885,7 +1967,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="D57" t="n">
         <v>4</v>
@@ -1912,7 +1994,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>209.62</v>
       </c>
       <c r="D58" t="n">
         <v>277</v>
@@ -1939,7 +2021,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="D59" t="n">
         <v>53</v>
@@ -1966,7 +2048,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>44.8</v>
       </c>
       <c r="D60" t="n">
         <v>36</v>
@@ -1993,7 +2075,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>34.60000000000001</v>
       </c>
       <c r="D61" t="n">
         <v>57</v>
@@ -2020,7 +2102,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>29</v>
+        <v>366.7</v>
       </c>
       <c r="D62" t="n">
         <v>294</v>
@@ -2047,7 +2129,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D63" t="n">
         <v>8</v>
@@ -2074,7 +2156,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>44.40000000000001</v>
       </c>
       <c r="D64" t="n">
         <v>64</v>
@@ -2101,7 +2183,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.6</v>
+        <v>11.2</v>
       </c>
       <c r="D65" t="n">
         <v>40</v>
@@ -2128,7 +2210,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="D66" t="n">
         <v>63</v>
@@ -2155,7 +2237,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8</v>
+        <v>101.4</v>
       </c>
       <c r="D67" t="n">
         <v>78</v>
@@ -2182,7 +2264,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="D68" t="n">
         <v>13</v>
@@ -2209,7 +2291,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>22</v>
+        <v>279.7</v>
       </c>
       <c r="D69" t="n">
         <v>226</v>
@@ -2236,7 +2318,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D70" t="n">
         <v>95</v>
@@ -2263,7 +2345,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>13</v>
+        <v>160.3</v>
       </c>
       <c r="D71" t="n">
         <v>126</v>
@@ -2290,7 +2372,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>28</v>
+        <v>351</v>
       </c>
       <c r="D72" t="n">
         <v>288</v>
@@ -2317,7 +2399,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>15</v>
+        <v>110.26</v>
       </c>
       <c r="D73" t="n">
         <v>141</v>
@@ -2344,7 +2426,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4.600000000000001</v>
+        <v>21.76</v>
       </c>
       <c r="D74" t="n">
         <v>144</v>
@@ -2371,7 +2453,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8</v>
+        <v>52.12</v>
       </c>
       <c r="D75" t="n">
         <v>82</v>
@@ -2398,7 +2480,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D76" t="n">
         <v>77</v>
@@ -2425,7 +2507,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>44</v>
+        <v>575.9000000000001</v>
       </c>
       <c r="D77" t="n">
         <v>443</v>
@@ -2452,7 +2534,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D78" t="n">
         <v>8</v>
@@ -2479,7 +2561,7 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>29</v>
+        <v>341</v>
       </c>
       <c r="D79" t="n">
         <v>290</v>
@@ -2506,7 +2588,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>50.74000000000001</v>
       </c>
       <c r="D80" t="n">
         <v>60</v>
@@ -2533,7 +2615,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>39.1</v>
       </c>
       <c r="D81" t="n">
         <v>37</v>
@@ -2560,7 +2642,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>338.1</v>
       </c>
       <c r="D82" t="n">
         <v>263</v>
@@ -2587,7 +2669,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>168</v>
+        <v>1851</v>
       </c>
       <c r="D83" t="n">
         <v>1684</v>
@@ -2614,7 +2696,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3.6</v>
+        <v>16.4</v>
       </c>
       <c r="D84" t="n">
         <v>75</v>
@@ -2641,7 +2723,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>8.32</v>
       </c>
       <c r="D85" t="n">
         <v>12</v>
@@ -2668,7 +2750,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>9.299999999999999</v>
       </c>
       <c r="D86" t="n">
         <v>15</v>
@@ -2695,7 +2777,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="D87" t="n">
         <v>165</v>
@@ -2722,7 +2804,7 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>28</v>
+        <v>364.0000000000001</v>
       </c>
       <c r="D88" t="n">
         <v>280</v>
@@ -2749,7 +2831,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="D89" t="n">
         <v>4</v>
@@ -2776,7 +2858,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4.2</v>
+        <v>20.40000000000001</v>
       </c>
       <c r="D90" t="n">
         <v>97</v>
@@ -2803,7 +2885,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>33</v>
+        <v>429</v>
       </c>
       <c r="D91" t="n">
         <v>330</v>
@@ -2830,7 +2912,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>6.880000000000001</v>
       </c>
       <c r="D92" t="n">
         <v>8</v>
@@ -2857,7 +2939,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>5.28</v>
       </c>
       <c r="D93" t="n">
         <v>8</v>
@@ -2884,7 +2966,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>40</v>
+        <v>516.6</v>
       </c>
       <c r="D94" t="n">
         <v>399</v>
@@ -2911,7 +2993,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>16</v>
+        <v>189.8</v>
       </c>
       <c r="D95" t="n">
         <v>146</v>
@@ -2938,7 +3020,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>8</v>
+        <v>55.16</v>
       </c>
       <c r="D96" t="n">
         <v>85</v>
@@ -2965,7 +3047,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>111</v>
+        <v>1453.4</v>
       </c>
       <c r="D97" t="n">
         <v>1118</v>
@@ -2992,7 +3074,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>111</v>
+        <v>1373.1</v>
       </c>
       <c r="D98" t="n">
         <v>1106</v>
@@ -3019,7 +3101,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>88</v>
+        <v>934.9000000000001</v>
       </c>
       <c r="D99" t="n">
         <v>883</v>
@@ -3046,7 +3128,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>34</v>
+        <v>283.9</v>
       </c>
       <c r="D100" t="n">
         <v>336</v>
@@ -3073,7 +3155,7 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>32</v>
+        <v>388.3000000000001</v>
       </c>
       <c r="D101" t="n">
         <v>320</v>
@@ -3100,7 +3182,7 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>98</v>
+        <v>987.3</v>
       </c>
       <c r="D102" t="n">
         <v>987</v>
@@ -3127,7 +3209,7 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>20</v>
+        <v>258.2</v>
       </c>
       <c r="D103" t="n">
         <v>200</v>
@@ -3154,7 +3236,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>15</v>
+        <v>180.8</v>
       </c>
       <c r="D104" t="n">
         <v>149</v>
@@ -3181,7 +3263,7 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>60</v>
+        <v>534.46</v>
       </c>
       <c r="D105" t="n">
         <v>595</v>
@@ -3208,7 +3290,7 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>9</v>
+        <v>112.6</v>
       </c>
       <c r="D106" t="n">
         <v>97</v>
@@ -3235,7 +3317,7 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>6.880000000000001</v>
       </c>
       <c r="D107" t="n">
         <v>8</v>
@@ -3262,7 +3344,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>17</v>
+        <v>223.8</v>
       </c>
       <c r="D108" t="n">
         <v>176</v>
@@ -3289,7 +3371,7 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8</v>
+        <v>42.48</v>
       </c>
       <c r="D109" t="n">
         <v>68</v>
@@ -3316,7 +3398,7 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="D110" t="n">
         <v>410</v>
@@ -3343,7 +3425,7 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>18</v>
+        <v>209.9</v>
       </c>
       <c r="D111" t="n">
         <v>179</v>
@@ -3370,7 +3452,7 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="D112" t="n">
         <v>93</v>
@@ -3397,7 +3479,7 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D113" t="n">
         <v>39</v>
@@ -3424,7 +3506,7 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D114" t="n">
         <v>22</v>
@@ -3451,7 +3533,7 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>22.1</v>
       </c>
       <c r="D115" t="n">
         <v>17</v>
@@ -3478,7 +3560,7 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>23.2</v>
       </c>
       <c r="D116" t="n">
         <v>18</v>
@@ -3505,7 +3587,7 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>4</v>
+        <v>47.90000000000001</v>
       </c>
       <c r="D117" t="n">
         <v>45</v>
@@ -3532,7 +3614,7 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="D118" t="n">
         <v>8</v>
@@ -3559,7 +3641,7 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>26.6</v>
       </c>
       <c r="D119" t="n">
         <v>38</v>
@@ -3586,7 +3668,7 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>14.58</v>
       </c>
       <c r="D120" t="n">
         <v>18</v>
@@ -3613,7 +3695,7 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>4</v>
+        <v>31.3</v>
       </c>
       <c r="D121" t="n">
         <v>37</v>

--- a/4_week_report.xlsx
+++ b/4_week_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,433 +473,4186 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>B083R7PHMX</t>
+          <t>B09L9DY4L1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z790 D DDR4</t>
+          <t>Z690 AERO G DDR4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.3</v>
+        <v>1.56</v>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
         <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B083RW9TJF</t>
+          <t>B08KGVH7YC</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Z790 AORUS PRO X</t>
+          <t>B550 AORUS ELITE AX V2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>122.2</v>
+        <v>463.6</v>
       </c>
       <c r="D3" t="n">
-        <v>94</v>
+        <v>357</v>
       </c>
       <c r="E3" t="n">
-        <v>111</v>
+        <v>432</v>
       </c>
       <c r="F3" t="n">
-        <v>127</v>
+        <v>508</v>
       </c>
       <c r="G3" t="n">
-        <v>154</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>B083RVX2FQ</t>
+          <t>B083NMK4BB</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Z790 AORUS MASTER X</t>
+          <t>B660M DS3H AX DDR4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>83.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B0CTTWH6TD</t>
+          <t>B09QH5MFMN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Z790 D AC</t>
+          <t>B660M DS3H DDR4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.2</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>8</v>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>B0CTNPZLNH</t>
+          <t>B09JZFT4SN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Z790 Eagle AX</t>
+          <t>Z690 AORUS ULTRA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>180.64</v>
+        <v>5.28</v>
       </c>
       <c r="D6" t="n">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>308</v>
+        <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>384</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>B0D8WH39QJ</t>
+          <t>B09JZGTYXJ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Z790 GAMING PLUS AX</t>
+          <t>Z690 UD AX DDR4</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>132.8</v>
+        <v>1.2</v>
       </c>
       <c r="D7" t="n">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="E7" t="n">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="G7" t="n">
-        <v>202</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>B0DQLJVH25</t>
+          <t>B07T6N8N56</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B850 AI TOP</t>
+          <t>B365M DS3H</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>B0DQLHVQSF</t>
+          <t>B08R5736B3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7</t>
+          <t>B550M DS3H AC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>429</v>
+        <v>506</v>
       </c>
       <c r="D9" t="n">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="E9" t="n">
-        <v>645</v>
+        <v>571</v>
       </c>
       <c r="F9" t="n">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="G9" t="n">
-        <v>852</v>
+        <v>890</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>B0DQLKRXKW</t>
+          <t>B0BH6XND27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B850 AORUS ELITE WIFI7 ICE</t>
+          <t>B650M AORUS ELITE AX</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>68</v>
+        <v>155.88</v>
       </c>
       <c r="D10" t="n">
-        <v>502</v>
+        <v>215</v>
       </c>
       <c r="E10" t="n">
-        <v>603</v>
+        <v>253</v>
       </c>
       <c r="F10" t="n">
-        <v>706</v>
+        <v>292</v>
       </c>
       <c r="G10" t="n">
-        <v>869</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>B0DQLJWRDX</t>
+          <t>B083NK82QJ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B850 EAGLE WIFI6E</t>
+          <t>H610I DDR4</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>350</v>
+        <v>31.2</v>
       </c>
       <c r="D11" t="n">
-        <v>400</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
-        <v>476</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
-        <v>552</v>
+        <v>40</v>
       </c>
       <c r="G11" t="n">
-        <v>668</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>B0DQLKZSKF</t>
+          <t>B07FWY246F</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B850 GAMING WIFI6</t>
+          <t>B450 AORUS M</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>104</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>B0DQLH22F6</t>
+          <t>B08KWMXGQW</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B850 GAMING X WIFI6E</t>
+          <t>B450M DS3H V2</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35.7</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>B0DQLKPSMG</t>
+          <t>B08LGKGBKT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B850I AORUS PRO</t>
+          <t>B550 GAMING X V2</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>252</v>
+        <v>522.6</v>
       </c>
       <c r="D14" t="n">
-        <v>217</v>
+        <v>470</v>
       </c>
       <c r="E14" t="n">
-        <v>258</v>
+        <v>565</v>
       </c>
       <c r="F14" t="n">
-        <v>298</v>
+        <v>667</v>
       </c>
       <c r="G14" t="n">
-        <v>360</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>B0DQLJGTRM</t>
+          <t>B0BF73P6HY</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B850M AORUS ELITE WIFI6E ICE</t>
+          <t>X670E AORUS XTREME</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>556</v>
+        <v>2.06</v>
       </c>
       <c r="D15" t="n">
-        <v>696</v>
+        <v>10</v>
       </c>
       <c r="E15" t="n">
-        <v>815</v>
+        <v>11</v>
       </c>
       <c r="F15" t="n">
-        <v>927</v>
+        <v>18</v>
       </c>
       <c r="G15" t="n">
-        <v>1096</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>B0DQLJHJ8B</t>
+          <t>B083NN4MLZ</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B850M DS3H</t>
+          <t>Z690 AERO G</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>40</v>
+        <v>0.8</v>
       </c>
       <c r="D16" t="n">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="G16" t="n">
-        <v>114</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>B0BH9BBLHB</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Z790 AERO G</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>16</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>B0BHTMXMRQ</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z790 UD AC</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>78</v>
+      </c>
+      <c r="E18" t="n">
+        <v>94</v>
+      </c>
+      <c r="F18" t="n">
+        <v>110</v>
+      </c>
+      <c r="G18" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>B07FWVJSHC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B450M DS3H</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>B08F7BHDLY</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>A520I AC</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>547</v>
+      </c>
+      <c r="D20" t="n">
+        <v>522</v>
+      </c>
+      <c r="E20" t="n">
+        <v>591</v>
+      </c>
+      <c r="F20" t="n">
+        <v>646</v>
+      </c>
+      <c r="G20" t="n">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>B07FW85VFT</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>B450 AORUS PRO WIFI</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>8</v>
+      </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
+      <c r="G21" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>B08B7ZX8Q2</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="D22" t="n">
+        <v>184</v>
+      </c>
+      <c r="E22" t="n">
+        <v>218</v>
+      </c>
+      <c r="F22" t="n">
+        <v>303</v>
+      </c>
+      <c r="G22" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>B09J5TC4F8</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Z690 GAMING X DDR4</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4199999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+      <c r="F23" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>B0BH9DXY38</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Z790 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>921</v>
+      </c>
+      <c r="D24" t="n">
+        <v>902</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1070</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1234</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>B079NYQQJJ</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GA-A320M-S2H</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="n">
+        <v>4</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>B0BHTLF2X5</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="D26" t="n">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>B08F7HPJ4F</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>A520M S2H</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>674.4000000000001</v>
+      </c>
+      <c r="D27" t="n">
+        <v>666</v>
+      </c>
+      <c r="E27" t="n">
+        <v>808</v>
+      </c>
+      <c r="F27" t="n">
+        <v>980</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>B089FWWN62</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>B550I AORUS PRO AX</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>231.4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>178</v>
+      </c>
+      <c r="E28" t="n">
+        <v>210</v>
+      </c>
+      <c r="F28" t="n">
+        <v>241</v>
+      </c>
+      <c r="G28" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>B083NLX6G3</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>B660I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>B0BH9F7DKS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6.240000000000001</v>
+      </c>
+      <c r="D30" t="n">
+        <v>24</v>
+      </c>
+      <c r="E30" t="n">
+        <v>29</v>
+      </c>
+      <c r="F30" t="n">
+        <v>40</v>
+      </c>
+      <c r="G30" t="n">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>B07WL5MFXL</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>X570 AORUS ELITE WIFI</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>5.380000000000001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>12</v>
+      </c>
+      <c r="E31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F31" t="n">
+        <v>20</v>
+      </c>
+      <c r="G31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>B0BSB6MB15</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>B760M DS3H DDR4</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>854</v>
+      </c>
+      <c r="D32" t="n">
+        <v>795</v>
+      </c>
+      <c r="E32" t="n">
+        <v>897</v>
+      </c>
+      <c r="F32" t="n">
+        <v>981</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>B0BSB6J39Z</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>B760M G X AX DDR4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" t="n">
+        <v>7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>B0BF7FT26Z</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>X670 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>124.62</v>
+      </c>
+      <c r="D34" t="n">
+        <v>137</v>
+      </c>
+      <c r="E34" t="n">
+        <v>165</v>
+      </c>
+      <c r="F34" t="n">
+        <v>192</v>
+      </c>
+      <c r="G34" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>B0BF7CL99N</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>X670E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5.080000000000001</v>
+      </c>
+      <c r="D35" t="n">
+        <v>18</v>
+      </c>
+      <c r="E35" t="n">
+        <v>20</v>
+      </c>
+      <c r="F35" t="n">
+        <v>32</v>
+      </c>
+      <c r="G35" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>B07HS59X7P</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Z390 UD</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11</v>
+      </c>
+      <c r="E36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>16</v>
+      </c>
+      <c r="G36" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>B083GT6ZBX</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Z590 AORUS TACHYON</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>B08BR1XDX5</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>B0BH79FMW3</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>B650 AERO G</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="D39" t="n">
+        <v>17</v>
+      </c>
+      <c r="E39" t="n">
+        <v>22</v>
+      </c>
+      <c r="F39" t="n">
+        <v>28</v>
+      </c>
+      <c r="G39" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>B0BH7GTY9C</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>B650 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>702.7400000000002</v>
+      </c>
+      <c r="D40" t="n">
+        <v>929</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1118</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1322</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>B0BSB4TYHV</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B760M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>14</v>
+      </c>
+      <c r="E41" t="n">
+        <v>14</v>
+      </c>
+      <c r="F41" t="n">
+        <v>23</v>
+      </c>
+      <c r="G41" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>B0BSVYXM5C</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Z790 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>60</v>
+      </c>
+      <c r="D43" t="n">
+        <v>63</v>
+      </c>
+      <c r="E43" t="n">
+        <v>73</v>
+      </c>
+      <c r="F43" t="n">
+        <v>107</v>
+      </c>
+      <c r="G43" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>B0BSNYN4XQ</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC DDR4</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="D44" t="n">
+        <v>18</v>
+      </c>
+      <c r="E44" t="n">
+        <v>22</v>
+      </c>
+      <c r="F44" t="n">
+        <v>30</v>
+      </c>
+      <c r="G44" t="n">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>B0BVWQ3BMJ</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO DDR4</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>40</v>
+      </c>
+      <c r="E45" t="n">
+        <v>50</v>
+      </c>
+      <c r="F45" t="n">
+        <v>60</v>
+      </c>
+      <c r="G45" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>B0BSP61QZC</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>528</v>
+      </c>
+      <c r="D46" t="n">
+        <v>458</v>
+      </c>
+      <c r="E46" t="n">
+        <v>522</v>
+      </c>
+      <c r="F46" t="n">
+        <v>576</v>
+      </c>
+      <c r="G46" t="n">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>B083R7SWF5</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>B760M DS3H AX DDR4</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" t="n">
+        <v>4</v>
+      </c>
+      <c r="G47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>B09J6BWK2Z</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Z690 AORUS ELITE AX DDR4</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4</v>
+      </c>
+      <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>B0BTQ3SVFR</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>B550 UD AC</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>235</v>
+      </c>
+      <c r="E49" t="n">
+        <v>282</v>
+      </c>
+      <c r="F49" t="n">
+        <v>328</v>
+      </c>
+      <c r="G49" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>B0BTTZFQTP</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>B550M K</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>844</v>
+      </c>
+      <c r="D50" t="n">
+        <v>690</v>
+      </c>
+      <c r="E50" t="n">
+        <v>832</v>
+      </c>
+      <c r="F50" t="n">
+        <v>986</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>B0BVBXT6P1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>H610M S2H V2 DDR4</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>192.4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>148</v>
+      </c>
+      <c r="E51" t="n">
+        <v>178</v>
+      </c>
+      <c r="F51" t="n">
+        <v>211</v>
+      </c>
+      <c r="G51" t="n">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>B083R7PHMX</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Z790 D DDR4</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="D52" t="n">
+        <v>4</v>
+      </c>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
+      <c r="F52" t="n">
+        <v>8</v>
+      </c>
+      <c r="G52" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>B083R826VW</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>B650I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>62</v>
+      </c>
+      <c r="D53" t="n">
+        <v>67</v>
+      </c>
+      <c r="E53" t="n">
+        <v>81</v>
+      </c>
+      <c r="F53" t="n">
+        <v>94</v>
+      </c>
+      <c r="G53" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>B0BSB6MZ2L</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>B760 AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4.140000000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>13</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>20</v>
+      </c>
+      <c r="G54" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>B083R7T5P4</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Z790 UD AX</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" t="n">
+        <v>8</v>
+      </c>
+      <c r="G55" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>B0BZQ43XXL</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Z790I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="D56" t="n">
+        <v>16</v>
+      </c>
+      <c r="E56" t="n">
+        <v>20</v>
+      </c>
+      <c r="F56" t="n">
+        <v>26</v>
+      </c>
+      <c r="G56" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>B09J64TBJG</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Z690 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="D57" t="n">
+        <v>4</v>
+      </c>
+      <c r="E57" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" t="n">
+        <v>8</v>
+      </c>
+      <c r="G57" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>B0BYBHW4SH</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>177.98</v>
+      </c>
+      <c r="D58" t="n">
+        <v>181</v>
+      </c>
+      <c r="E58" t="n">
+        <v>221</v>
+      </c>
+      <c r="F58" t="n">
+        <v>272</v>
+      </c>
+      <c r="G58" t="n">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>B0BZ54DR5L</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>B760 GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>91</v>
+      </c>
+      <c r="D59" t="n">
+        <v>88</v>
+      </c>
+      <c r="E59" t="n">
+        <v>109</v>
+      </c>
+      <c r="F59" t="n">
+        <v>134</v>
+      </c>
+      <c r="G59" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>B0C4CKCRYW</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>B760I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="D60" t="n">
+        <v>39</v>
+      </c>
+      <c r="E60" t="n">
+        <v>49</v>
+      </c>
+      <c r="F60" t="n">
+        <v>62</v>
+      </c>
+      <c r="G60" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>B0BZQ1PWGJ</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>B760M C</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="D61" t="n">
+        <v>41</v>
+      </c>
+      <c r="E61" t="n">
+        <v>49</v>
+      </c>
+      <c r="F61" t="n">
+        <v>66</v>
+      </c>
+      <c r="G61" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>B0BZQ1TNW8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>B550M AORUS ELITE AX</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>455</v>
+      </c>
+      <c r="D62" t="n">
+        <v>422</v>
+      </c>
+      <c r="E62" t="n">
+        <v>492</v>
+      </c>
+      <c r="F62" t="n">
+        <v>556</v>
+      </c>
+      <c r="G62" t="n">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>B0C1M2BDNR</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Q670M D3H</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8</v>
+      </c>
+      <c r="D63" t="n">
+        <v>8</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12</v>
+      </c>
+      <c r="G63" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>B0C4CKFV65</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>A620M S2H</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>52</v>
+      </c>
+      <c r="D64" t="n">
+        <v>40</v>
+      </c>
+      <c r="E64" t="n">
+        <v>49</v>
+      </c>
+      <c r="F64" t="n">
+        <v>60</v>
+      </c>
+      <c r="G64" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>B0BZ17BQ4Z</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>B650M K</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="D65" t="n">
+        <v>10</v>
+      </c>
+      <c r="E65" t="n">
+        <v>8</v>
+      </c>
+      <c r="F65" t="n">
+        <v>16</v>
+      </c>
+      <c r="G65" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>B0C4CB8G8D</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>H610I</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>106.6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>82</v>
+      </c>
+      <c r="E66" t="n">
+        <v>98</v>
+      </c>
+      <c r="F66" t="n">
+        <v>115</v>
+      </c>
+      <c r="G66" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>B0BZQ416QM</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>H610M S2H</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>19.66</v>
+      </c>
+      <c r="D67" t="n">
+        <v>31</v>
+      </c>
+      <c r="E67" t="n">
+        <v>34</v>
+      </c>
+      <c r="F67" t="n">
+        <v>54</v>
+      </c>
+      <c r="G67" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>B0C1ZZ57ZW</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>A620M GAMING X</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="D68" t="n">
+        <v>8</v>
+      </c>
+      <c r="E68" t="n">
+        <v>5</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12</v>
+      </c>
+      <c r="G68" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>B0CH92B3S2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>B650M D3HP</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>50.26000000000001</v>
+      </c>
+      <c r="D69" t="n">
+        <v>141</v>
+      </c>
+      <c r="E69" t="n">
+        <v>173</v>
+      </c>
+      <c r="F69" t="n">
+        <v>218</v>
+      </c>
+      <c r="G69" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>B083RW9KDM</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE X WIFI7</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>68.60000000000001</v>
+      </c>
+      <c r="D70" t="n">
+        <v>116</v>
+      </c>
+      <c r="E70" t="n">
+        <v>134</v>
+      </c>
+      <c r="F70" t="n">
+        <v>150</v>
+      </c>
+      <c r="G70" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>B083RW9TJF</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>159</v>
+      </c>
+      <c r="D71" t="n">
+        <v>138</v>
+      </c>
+      <c r="E71" t="n">
+        <v>164</v>
+      </c>
+      <c r="F71" t="n">
+        <v>190</v>
+      </c>
+      <c r="G71" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>B083RVN2VG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A620I AX</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>319</v>
+      </c>
+      <c r="D72" t="n">
+        <v>262</v>
+      </c>
+      <c r="E72" t="n">
+        <v>300</v>
+      </c>
+      <c r="F72" t="n">
+        <v>332</v>
+      </c>
+      <c r="G72" t="n">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>B0CNR8Y29S</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>X670 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>56.10000000000001</v>
+      </c>
+      <c r="D73" t="n">
+        <v>48</v>
+      </c>
+      <c r="E73" t="n">
+        <v>58</v>
+      </c>
+      <c r="F73" t="n">
+        <v>70</v>
+      </c>
+      <c r="G73" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>B0CN76TH9S</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>X670E AORUS PRO X</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="D74" t="n">
+        <v>49</v>
+      </c>
+      <c r="E74" t="n">
+        <v>40</v>
+      </c>
+      <c r="F74" t="n">
+        <v>75</v>
+      </c>
+      <c r="G74" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>B0CKS6BMH7</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Z790 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>17.28</v>
+      </c>
+      <c r="D75" t="n">
+        <v>36</v>
+      </c>
+      <c r="E75" t="n">
+        <v>46</v>
+      </c>
+      <c r="F75" t="n">
+        <v>58</v>
+      </c>
+      <c r="G75" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>B083RVX2FQ</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Z790 AORUS MASTER X</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>92</v>
+      </c>
+      <c r="D76" t="n">
+        <v>83</v>
+      </c>
+      <c r="E76" t="n">
+        <v>102</v>
+      </c>
+      <c r="F76" t="n">
+        <v>126</v>
+      </c>
+      <c r="G76" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>B0CMJSH15D</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>B650 A ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>376.7</v>
+      </c>
+      <c r="D77" t="n">
+        <v>315</v>
+      </c>
+      <c r="E77" t="n">
+        <v>378</v>
+      </c>
+      <c r="F77" t="n">
+        <v>442</v>
+      </c>
+      <c r="G77" t="n">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>B0CCWLMK56</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650M C V2                    </t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D78" t="n">
+        <v>4</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4</v>
+      </c>
+      <c r="F78" t="n">
+        <v>8</v>
+      </c>
+      <c r="G78" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>B0CMK1W2YX</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B650 A ELITE AX V2            </t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>77.31999999999999</v>
+      </c>
+      <c r="D79" t="n">
+        <v>196</v>
+      </c>
+      <c r="E79" t="n">
+        <v>234</v>
+      </c>
+      <c r="F79" t="n">
+        <v>271</v>
+      </c>
+      <c r="G79" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>B0CNR6L1DH</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B760M D3H                     </t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="D80" t="n">
+        <v>10</v>
+      </c>
+      <c r="E80" t="n">
+        <v>8</v>
+      </c>
+      <c r="F80" t="n">
+        <v>16</v>
+      </c>
+      <c r="G80" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>B0D2V2FPS7</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A620M GAMING X AX</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="D81" t="n">
+        <v>25</v>
+      </c>
+      <c r="E81" t="n">
+        <v>30</v>
+      </c>
+      <c r="F81" t="n">
+        <v>38</v>
+      </c>
+      <c r="G81" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>B07VQJYR99</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>B450M DS3H WIFI-Y1</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>6.199999999999999</v>
+      </c>
+      <c r="D82" t="n">
+        <v>8</v>
+      </c>
+      <c r="E82" t="n">
+        <v>8</v>
+      </c>
+      <c r="F82" t="n">
+        <v>13</v>
+      </c>
+      <c r="G82" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>B0D8WH9NG3</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>B550 AORUS ELITE AX V3</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>90.45999999999999</v>
+      </c>
+      <c r="D83" t="n">
+        <v>94</v>
+      </c>
+      <c r="E83" t="n">
+        <v>113</v>
+      </c>
+      <c r="F83" t="n">
+        <v>133</v>
+      </c>
+      <c r="G83" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>B083TZ68H1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>B650 EAGLE AX</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1921.4</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1478</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1697</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1882</v>
+      </c>
+      <c r="G84" t="n">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>B0CTTY491F</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>B650 GAMING X AX V2</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="D85" t="n">
+        <v>56</v>
+      </c>
+      <c r="E85" t="n">
+        <v>70</v>
+      </c>
+      <c r="F85" t="n">
+        <v>90</v>
+      </c>
+      <c r="G85" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>B0CTNYTX8Y</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>B650 UD AC</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>2</v>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="n">
+        <v>4</v>
+      </c>
+      <c r="F86" t="n">
+        <v>4</v>
+      </c>
+      <c r="G86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>B0DFHPZBGM</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>B650 UD AX</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D87" t="n">
+        <v>4</v>
+      </c>
+      <c r="E87" t="n">
+        <v>4</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+      <c r="G87" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>B0CTNXBRJV</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>B650E AORUS Elite X AX ICE</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>132</v>
+      </c>
+      <c r="D88" t="n">
+        <v>130</v>
+      </c>
+      <c r="E88" t="n">
+        <v>155</v>
+      </c>
+      <c r="F88" t="n">
+        <v>179</v>
+      </c>
+      <c r="G88" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>B083SJLWL9</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>B650M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>77.80000000000001</v>
+      </c>
+      <c r="D89" t="n">
+        <v>161</v>
+      </c>
+      <c r="E89" t="n">
+        <v>198</v>
+      </c>
+      <c r="F89" t="n">
+        <v>240</v>
+      </c>
+      <c r="G89" t="n">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>B0D8WKK29M</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>B650M C V3</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D90" t="n">
+        <v>4</v>
+      </c>
+      <c r="E90" t="n">
+        <v>4</v>
+      </c>
+      <c r="F90" t="n">
+        <v>4</v>
+      </c>
+      <c r="G90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>B0CTTXH95Q</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>B650M D3HP AX</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>116.28</v>
+      </c>
+      <c r="D91" t="n">
+        <v>205</v>
+      </c>
+      <c r="E91" t="n">
+        <v>248</v>
+      </c>
+      <c r="F91" t="n">
+        <v>293</v>
+      </c>
+      <c r="G91" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>B0D2V4VH2C</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>B650M GAMING PLUS WIFI</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>431.6</v>
+      </c>
+      <c r="D92" t="n">
+        <v>332</v>
+      </c>
+      <c r="E92" t="n">
+        <v>405</v>
+      </c>
+      <c r="F92" t="n">
+        <v>491</v>
+      </c>
+      <c r="G92" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>B0CTTW2MVG</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>B760 DS3H AC</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4</v>
+      </c>
+      <c r="E93" t="n">
+        <v>4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>7</v>
+      </c>
+      <c r="G93" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>B0CTTWZCVK</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="D94" t="n">
+        <v>13</v>
+      </c>
+      <c r="E94" t="n">
+        <v>17</v>
+      </c>
+      <c r="F94" t="n">
+        <v>21</v>
+      </c>
+      <c r="G94" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>B0D8WH4J3H</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>B760 DS3H AX V2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>25</v>
+      </c>
+      <c r="D95" t="n">
+        <v>20</v>
+      </c>
+      <c r="E95" t="n">
+        <v>27</v>
+      </c>
+      <c r="F95" t="n">
+        <v>32</v>
+      </c>
+      <c r="G95" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>B0D8WJ3PYB</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>B760M C V2</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="D96" t="n">
+        <v>26</v>
+      </c>
+      <c r="E96" t="n">
+        <v>34</v>
+      </c>
+      <c r="F96" t="n">
+        <v>42</v>
+      </c>
+      <c r="G96" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>B0D54QJ9CJ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>B760M GAMING PLUS WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>626.6</v>
+      </c>
+      <c r="D97" t="n">
+        <v>506</v>
+      </c>
+      <c r="E97" t="n">
+        <v>579</v>
+      </c>
+      <c r="F97" t="n">
+        <v>642</v>
+      </c>
+      <c r="G97" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>B0CPW1F841</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TRX50 AERO D</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>61.90000000000001</v>
+      </c>
+      <c r="D98" t="n">
+        <v>49</v>
+      </c>
+      <c r="E98" t="n">
+        <v>59</v>
+      </c>
+      <c r="F98" t="n">
+        <v>72</v>
+      </c>
+      <c r="G98" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>B0DGVC3DDW</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>556.78</v>
+      </c>
+      <c r="D99" t="n">
+        <v>657</v>
+      </c>
+      <c r="E99" t="n">
+        <v>754</v>
+      </c>
+      <c r="F99" t="n">
+        <v>836</v>
+      </c>
+      <c r="G99" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>B0DGVGRVLQ</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>X870 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>214.9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>307</v>
+      </c>
+      <c r="E100" t="n">
+        <v>373</v>
+      </c>
+      <c r="F100" t="n">
+        <v>450</v>
+      </c>
+      <c r="G100" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>B0DGVMYTW6</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>X870 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>830.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>719</v>
+      </c>
+      <c r="E101" t="n">
+        <v>850</v>
+      </c>
+      <c r="F101" t="n">
+        <v>974</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>B0DHWLN5XT</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>X870 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>458</v>
+      </c>
+      <c r="D102" t="n">
+        <v>427</v>
+      </c>
+      <c r="E102" t="n">
+        <v>494</v>
+      </c>
+      <c r="F102" t="n">
+        <v>552</v>
+      </c>
+      <c r="G102" t="n">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>B0DGVGT3PJ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>X870 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>149.7</v>
+      </c>
+      <c r="D103" t="n">
+        <v>129</v>
+      </c>
+      <c r="E103" t="n">
+        <v>153</v>
+      </c>
+      <c r="F103" t="n">
+        <v>178</v>
+      </c>
+      <c r="G103" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>B0DGVBM73J</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>X870E AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>757.9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>583</v>
+      </c>
+      <c r="E104" t="n">
+        <v>665</v>
+      </c>
+      <c r="F104" t="n">
+        <v>734</v>
+      </c>
+      <c r="G104" t="n">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>B0DGVSW4FD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>X870E AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>224.4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>173</v>
+      </c>
+      <c r="E105" t="n">
+        <v>202</v>
+      </c>
+      <c r="F105" t="n">
+        <v>226</v>
+      </c>
+      <c r="G105" t="n">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>B0DGVGV7YN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>143.8</v>
+      </c>
+      <c r="D106" t="n">
+        <v>151</v>
+      </c>
+      <c r="E106" t="n">
+        <v>178</v>
+      </c>
+      <c r="F106" t="n">
+        <v>205</v>
+      </c>
+      <c r="G106" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>B0DGVBSLLP</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>X870E AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>464</v>
+      </c>
+      <c r="D107" t="n">
+        <v>501</v>
+      </c>
+      <c r="E107" t="n">
+        <v>565</v>
+      </c>
+      <c r="F107" t="n">
+        <v>615</v>
+      </c>
+      <c r="G107" t="n">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>B0CTTVFWHM</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Z790 AORUS PRO X WIFI7</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>134.7</v>
+      </c>
+      <c r="D108" t="n">
+        <v>124</v>
+      </c>
+      <c r="E108" t="n">
+        <v>149</v>
+      </c>
+      <c r="F108" t="n">
+        <v>175</v>
+      </c>
+      <c r="G108" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>B0CTTWH6TD</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Z790 D AC</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4</v>
+      </c>
+      <c r="G109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>B0CTNPZLNH</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Z790 Eagle AX</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>240</v>
+      </c>
+      <c r="D110" t="n">
+        <v>269</v>
+      </c>
+      <c r="E110" t="n">
+        <v>324</v>
+      </c>
+      <c r="F110" t="n">
+        <v>379</v>
+      </c>
+      <c r="G110" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>B0D8WH39QJ</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Z790 GAMING PLUS AX</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>88.40000000000001</v>
+      </c>
+      <c r="D111" t="n">
+        <v>68</v>
+      </c>
+      <c r="E111" t="n">
+        <v>85</v>
+      </c>
+      <c r="F111" t="n">
+        <v>108</v>
+      </c>
+      <c r="G111" t="n">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>B0D2RL4PT6</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Z790 S WIFI DDR4</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>108.58</v>
+      </c>
+      <c r="D112" t="n">
+        <v>153</v>
+      </c>
+      <c r="E112" t="n">
+        <v>186</v>
+      </c>
+      <c r="F112" t="n">
+        <v>246</v>
+      </c>
+      <c r="G112" t="n">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>B0D2PK3CC1</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Z790M AORUS ELITE AX ICE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>300.1</v>
+      </c>
+      <c r="D113" t="n">
+        <v>237</v>
+      </c>
+      <c r="E113" t="n">
+        <v>271</v>
+      </c>
+      <c r="F113" t="n">
+        <v>298</v>
+      </c>
+      <c r="G113" t="n">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>B0DJP9KLLD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Z890 AERO G</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="D114" t="n">
+        <v>16</v>
+      </c>
+      <c r="E114" t="n">
+        <v>20</v>
+      </c>
+      <c r="F114" t="n">
+        <v>25</v>
+      </c>
+      <c r="G114" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>B0DJP95MGB</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="D115" t="n">
+        <v>84</v>
+      </c>
+      <c r="E115" t="n">
+        <v>102</v>
+      </c>
+      <c r="F115" t="n">
+        <v>122</v>
+      </c>
+      <c r="G115" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>B0DJP7NRXX</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>26</v>
+      </c>
+      <c r="D116" t="n">
+        <v>20</v>
+      </c>
+      <c r="E116" t="n">
+        <v>26</v>
+      </c>
+      <c r="F116" t="n">
+        <v>32</v>
+      </c>
+      <c r="G116" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>B0DJP76L1F</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Z890 AORUS ELITE X ICE</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>25</v>
+      </c>
+      <c r="E117" t="n">
+        <v>30</v>
+      </c>
+      <c r="F117" t="n">
+        <v>38</v>
+      </c>
+      <c r="G117" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>B0DJP9LCYC</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Z890 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="D118" t="n">
+        <v>30</v>
+      </c>
+      <c r="E118" t="n">
+        <v>38</v>
+      </c>
+      <c r="F118" t="n">
+        <v>47</v>
+      </c>
+      <c r="G118" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>B0DJP8NFWP</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Z890 AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="D119" t="n">
+        <v>16</v>
+      </c>
+      <c r="E119" t="n">
+        <v>20</v>
+      </c>
+      <c r="F119" t="n">
+        <v>28</v>
+      </c>
+      <c r="G119" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>B0DJP8MMMJ</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Z890 EAGLE WIFI7</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>88.10000000000001</v>
+      </c>
+      <c r="D120" t="n">
+        <v>74</v>
+      </c>
+      <c r="E120" t="n">
+        <v>90</v>
+      </c>
+      <c r="F120" t="n">
+        <v>107</v>
+      </c>
+      <c r="G120" t="n">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>B0DJP9DBVS</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Z890 GAMING X WIFI7</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D121" t="n">
+        <v>16</v>
+      </c>
+      <c r="E121" t="n">
+        <v>22</v>
+      </c>
+      <c r="F121" t="n">
+        <v>28</v>
+      </c>
+      <c r="G121" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>B0DJP8W3BY</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Z890 UD WIFI6E</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>40.24</v>
+      </c>
+      <c r="D122" t="n">
+        <v>44</v>
+      </c>
+      <c r="E122" t="n">
+        <v>53</v>
+      </c>
+      <c r="F122" t="n">
+        <v>64</v>
+      </c>
+      <c r="G122" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>B0DJP82ML2</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Z890I AORUS ULTRA</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="D123" t="n">
+        <v>26</v>
+      </c>
+      <c r="E123" t="n">
+        <v>33</v>
+      </c>
+      <c r="F123" t="n">
+        <v>42</v>
+      </c>
+      <c r="G123" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>B0DJP8Q6JK</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Z890M AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="D124" t="n">
+        <v>66</v>
+      </c>
+      <c r="E124" t="n">
+        <v>81</v>
+      </c>
+      <c r="F124" t="n">
+        <v>103</v>
+      </c>
+      <c r="G124" t="n">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>B0DJP9FZYK</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Z890M GAMING X</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="D125" t="n">
+        <v>68</v>
+      </c>
+      <c r="E125" t="n">
+        <v>86</v>
+      </c>
+      <c r="F125" t="n">
+        <v>109</v>
+      </c>
+      <c r="G125" t="n">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>B0DFHQVCBV</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TRX50 AI TOP</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D126" t="n">
+        <v>8</v>
+      </c>
+      <c r="E126" t="n">
+        <v>8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12</v>
+      </c>
+      <c r="G126" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>B081JDLX48</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>TRX40 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>B083WFQC1C</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>X870E AORUS XTREME AI TOP</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="D128" t="n">
+        <v>48</v>
+      </c>
+      <c r="E128" t="n">
+        <v>57</v>
+      </c>
+      <c r="F128" t="n">
+        <v>67</v>
+      </c>
+      <c r="G128" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B0DQLJVH25</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B850 AI TOP</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>25.46</v>
+      </c>
+      <c r="D129" t="n">
+        <v>59</v>
+      </c>
+      <c r="E129" t="n">
+        <v>71</v>
+      </c>
+      <c r="F129" t="n">
+        <v>84</v>
+      </c>
+      <c r="G129" t="n">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>B0DQLHVQSF</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>281</v>
+      </c>
+      <c r="E130" t="n">
+        <v>343</v>
+      </c>
+      <c r="F130" t="n">
+        <v>420</v>
+      </c>
+      <c r="G130" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>B0DQLKRXKW</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>B850 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>400.4</v>
+      </c>
+      <c r="D131" t="n">
+        <v>308</v>
+      </c>
+      <c r="E131" t="n">
+        <v>374</v>
+      </c>
+      <c r="F131" t="n">
+        <v>449</v>
+      </c>
+      <c r="G131" t="n">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>B0DQLJWRDX</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>B850 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>161</v>
+      </c>
+      <c r="D132" t="n">
+        <v>230</v>
+      </c>
+      <c r="E132" t="n">
+        <v>280</v>
+      </c>
+      <c r="F132" t="n">
+        <v>336</v>
+      </c>
+      <c r="G132" t="n">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>B0DQLKZSKF</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>B850 GAMING WIFI6</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>121.6</v>
+      </c>
+      <c r="D133" t="n">
+        <v>164</v>
+      </c>
+      <c r="E133" t="n">
+        <v>198</v>
+      </c>
+      <c r="F133" t="n">
+        <v>232</v>
+      </c>
+      <c r="G133" t="n">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>B0DQLH22F6</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>B850 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>82.42000000000002</v>
+      </c>
+      <c r="D134" t="n">
+        <v>157</v>
+      </c>
+      <c r="E134" t="n">
+        <v>192</v>
+      </c>
+      <c r="F134" t="n">
+        <v>239</v>
+      </c>
+      <c r="G134" t="n">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>B0DQLKPSMG</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>B850I AORUS PRO</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>262.4</v>
+      </c>
+      <c r="D135" t="n">
+        <v>230</v>
+      </c>
+      <c r="E135" t="n">
+        <v>269</v>
+      </c>
+      <c r="F135" t="n">
+        <v>306</v>
+      </c>
+      <c r="G135" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>B0DQLJGTRM</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>B850M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>250.6</v>
+      </c>
+      <c r="D136" t="n">
+        <v>358</v>
+      </c>
+      <c r="E136" t="n">
+        <v>428</v>
+      </c>
+      <c r="F136" t="n">
+        <v>501</v>
+      </c>
+      <c r="G136" t="n">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>B0DQLJHJ8B</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>B850M DS3H</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>96.14000000000001</v>
+      </c>
+      <c r="D137" t="n">
+        <v>136</v>
+      </c>
+      <c r="E137" t="n">
+        <v>164</v>
+      </c>
+      <c r="F137" t="n">
+        <v>192</v>
+      </c>
+      <c r="G137" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
           <t>B0DQLHLVLK</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>B850M GAMING X WIFI6E</t>
         </is>
       </c>
-      <c r="C17" t="n">
-        <v>109</v>
-      </c>
-      <c r="D17" t="n">
-        <v>135</v>
-      </c>
-      <c r="E17" t="n">
-        <v>160</v>
-      </c>
-      <c r="F17" t="n">
-        <v>186</v>
-      </c>
-      <c r="G17" t="n">
-        <v>225</v>
+      <c r="C138" t="n">
+        <v>164.24</v>
+      </c>
+      <c r="D138" t="n">
+        <v>290</v>
+      </c>
+      <c r="E138" t="n">
+        <v>343</v>
+      </c>
+      <c r="F138" t="n">
+        <v>396</v>
+      </c>
+      <c r="G138" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>B0956LDTCJ</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>MZ31-AR0-R</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>B083WG2VDF</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>X870I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>245.02</v>
+      </c>
+      <c r="D140" t="n">
+        <v>300</v>
+      </c>
+      <c r="E140" t="n">
+        <v>348</v>
+      </c>
+      <c r="F140" t="n">
+        <v>388</v>
+      </c>
+      <c r="G140" t="n">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>B083WFWPJQ</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Z890 AORUS XTREME AI TOP</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12</v>
+      </c>
+      <c r="F141" t="n">
+        <v>16</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>B0DQLH4ZTR</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>B860 AORUS ELITE WIFI7 ICE</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>28</v>
+      </c>
+      <c r="D142" t="n">
+        <v>57</v>
+      </c>
+      <c r="E142" t="n">
+        <v>71</v>
+      </c>
+      <c r="F142" t="n">
+        <v>92</v>
+      </c>
+      <c r="G142" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>B0DQLJRY8C</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>B860 EAGLE WIFI6E</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>30</v>
+      </c>
+      <c r="D143" t="n">
+        <v>43</v>
+      </c>
+      <c r="E143" t="n">
+        <v>54</v>
+      </c>
+      <c r="F143" t="n">
+        <v>65</v>
+      </c>
+      <c r="G143" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>B0DQLLLHYY</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>B860 GAMING X WIFI6E</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12</v>
+      </c>
+      <c r="E144" t="n">
+        <v>15</v>
+      </c>
+      <c r="F144" t="n">
+        <v>19</v>
+      </c>
+      <c r="G144" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>B0DQLGMGVP</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>B860M AORUS ELITE WIFI6E ICE</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>48.14</v>
+      </c>
+      <c r="D145" t="n">
+        <v>52</v>
+      </c>
+      <c r="E145" t="n">
+        <v>64</v>
+      </c>
+      <c r="F145" t="n">
+        <v>82</v>
+      </c>
+      <c r="G145" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>B0DQLGCVN3</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M AORUS ELITE WIFI6E </t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>21</v>
+      </c>
+      <c r="D146" t="n">
+        <v>37</v>
+      </c>
+      <c r="E146" t="n">
+        <v>45</v>
+      </c>
+      <c r="F146" t="n">
+        <v>54</v>
+      </c>
+      <c r="G146" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>B0DQLK9S2V</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M EAGLE PLUS WIFI6E </t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>29</v>
+      </c>
+      <c r="D147" t="n">
+        <v>35</v>
+      </c>
+      <c r="E147" t="n">
+        <v>43</v>
+      </c>
+      <c r="F147" t="n">
+        <v>52</v>
+      </c>
+      <c r="G147" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>B0DQLJRPTX</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860M GAMING X WIFI6E </t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>12</v>
+      </c>
+      <c r="D148" t="n">
+        <v>25</v>
+      </c>
+      <c r="E148" t="n">
+        <v>32</v>
+      </c>
+      <c r="F148" t="n">
+        <v>38</v>
+      </c>
+      <c r="G148" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>B0DQLK2RF3</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>B860I AORUS PRO ICE</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>25</v>
+      </c>
+      <c r="D149" t="n">
+        <v>49</v>
+      </c>
+      <c r="E149" t="n">
+        <v>61</v>
+      </c>
+      <c r="F149" t="n">
+        <v>76</v>
+      </c>
+      <c r="G149" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>B083WG45VJ</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Z890 AI TOP</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12</v>
+      </c>
+      <c r="E150" t="n">
+        <v>16</v>
+      </c>
+      <c r="F150" t="n">
+        <v>17</v>
+      </c>
+      <c r="G150" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>B0DQLL6Z51</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">B860 DS3H WIFI6E </t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>21</v>
+      </c>
+      <c r="D151" t="n">
+        <v>48</v>
+      </c>
+      <c r="E151" t="n">
+        <v>60</v>
+      </c>
+      <c r="F151" t="n">
+        <v>71</v>
+      </c>
+      <c r="G151" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>B0DQLKD2KK</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Z890 AORUS MASTER AI TOP </t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="D152" t="n">
+        <v>8</v>
+      </c>
+      <c r="E152" t="n">
+        <v>8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12</v>
+      </c>
+      <c r="G152" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>B0DXWWWTH8</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>B550 EAGLE WIFI6</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>455</v>
+      </c>
+      <c r="D153" t="n">
+        <v>627</v>
+      </c>
+      <c r="E153" t="n">
+        <v>747</v>
+      </c>
+      <c r="F153" t="n">
+        <v>868</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>B0F3QD6QQL</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>H610M S2H V2</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>252</v>
+      </c>
+      <c r="D154" t="n">
+        <v>255</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>B0F3PT2QVZ</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>H810M S2H</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>12</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>B0F3PQWDP8</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>W790 AI TOP</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>4</v>
+      </c>
+      <c r="D156" t="n">
+        <v>4</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
